--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -10421,13 +10421,13 @@
         <v>634</v>
       </c>
       <c r="F316" s="2">
-        <v>4162.000</v>
+        <v>4161.000</v>
       </c>
       <c r="G316" t="s">
         <v>5</v>
       </c>
       <c r="H316" s="3">
-        <v>10448.03</v>
+        <v>10445.52</v>
       </c>
     </row>
     <row r="317" spans="1:8">

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="685">
   <si>
     <t>4600042975</t>
   </si>
@@ -445,12 +445,6 @@
     <t>CAP FF DUCTIL BOLSA JE2GS DN150</t>
   </si>
   <si>
-    <t>30002356</t>
-  </si>
-  <si>
-    <t>CAP FF PARA PVC - EN 12842 DN 50</t>
-  </si>
-  <si>
     <t>30002393</t>
   </si>
   <si>
@@ -1195,12 +1189,6 @@
     <t>LUVA AJUSTAVEL DE 57 A 70MM TRAVA AXIAL</t>
   </si>
   <si>
-    <t>30005887</t>
-  </si>
-  <si>
-    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN100</t>
-  </si>
-  <si>
     <t>30005888</t>
   </si>
   <si>
@@ -1279,12 +1267,6 @@
     <t>LUVA CORRER FF DUCTIL BOLSAS JE2GS DN 50</t>
   </si>
   <si>
-    <t>30005931</t>
-  </si>
-  <si>
-    <t>LUVA CORRER PVC BB JE DN 50</t>
-  </si>
-  <si>
     <t>30006747</t>
   </si>
   <si>
@@ -1337,12 +1319,6 @@
   </si>
   <si>
     <t>TE DE SELA ELETROF DE 110 X 63TIPO PONTA</t>
-  </si>
-  <si>
-    <t>30007034</t>
-  </si>
-  <si>
-    <t>TE DE SERV INTEGR ART DN 50 P/ DE 20</t>
   </si>
   <si>
     <t>30007132</t>
@@ -2196,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2216,28 +2192,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2283,13 +2259,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>515428.890</v>
+        <v>477180.890</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="3">
-        <v>767987.19</v>
+        <v>710997.70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2439,13 +2415,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>626.000</v>
+        <v>719.500</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3">
-        <v>135984.64</v>
+        <v>156295.44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2465,13 +2441,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>9.000</v>
+        <v>5.000</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>511.02</v>
+        <v>283.90</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2517,13 +2493,13 @@
         <v>27</v>
       </c>
       <c r="F12" s="2">
-        <v>243.000</v>
+        <v>195.000</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>8118.39</v>
+        <v>6514.75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2543,13 +2519,13 @@
         <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>25.000</v>
+        <v>24.000</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>3443.69</v>
+        <v>3305.94</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2621,13 +2597,13 @@
         <v>35</v>
       </c>
       <c r="F16" s="2">
-        <v>175.000</v>
+        <v>171.000</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>5242.04</v>
+        <v>5122.28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2731,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>1081.90</v>
+        <v>1081.91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2829,13 +2805,13 @@
         <v>51</v>
       </c>
       <c r="F24" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>103.20</v>
+        <v>77.40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3297,13 +3273,13 @@
         <v>87</v>
       </c>
       <c r="F42" s="2">
-        <v>467.000</v>
+        <v>446.000</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>9838.26</v>
+        <v>9395.79</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3349,13 +3325,13 @@
         <v>91</v>
       </c>
       <c r="F44" s="2">
-        <v>4406.000</v>
+        <v>4322.000</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>40364.10</v>
+        <v>39594.73</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3375,13 +3351,13 @@
         <v>93</v>
       </c>
       <c r="F45" s="2">
-        <v>24.000</v>
+        <v>15.000</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>1488.95</v>
+        <v>930.59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3479,13 +3455,13 @@
         <v>101</v>
       </c>
       <c r="F49" s="2">
-        <v>49.000</v>
+        <v>28.000</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>803.13</v>
+        <v>458.93</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3583,13 +3559,13 @@
         <v>109</v>
       </c>
       <c r="F53" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="3">
-        <v>97.07</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3687,13 +3663,13 @@
         <v>117</v>
       </c>
       <c r="F57" s="2">
-        <v>30482.430</v>
+        <v>27900.340</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="3">
-        <v>69186.21</v>
+        <v>63325.50</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4051,13 +4027,13 @@
         <v>145</v>
       </c>
       <c r="F71" s="2">
-        <v>4.000</v>
+        <v>9.000</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="3">
-        <v>130.16</v>
+        <v>243.40</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4077,13 +4053,13 @@
         <v>147</v>
       </c>
       <c r="F72" s="2">
-        <v>11.000</v>
+        <v>4252.000</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>297.49</v>
+        <v>43806.83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4103,13 +4079,13 @@
         <v>149</v>
       </c>
       <c r="F73" s="2">
-        <v>4264.000</v>
+        <v>14.000</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="3">
-        <v>43930.24</v>
+        <v>623.35</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4129,13 +4105,13 @@
         <v>151</v>
       </c>
       <c r="F74" s="2">
-        <v>14.000</v>
+        <v>1.000</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
       <c r="H74" s="3">
-        <v>623.35</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4155,13 +4131,13 @@
         <v>153</v>
       </c>
       <c r="F75" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="3">
-        <v>39.63</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4181,13 +4157,13 @@
         <v>155</v>
       </c>
       <c r="F76" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>25.31</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4207,13 +4183,13 @@
         <v>157</v>
       </c>
       <c r="F77" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
       </c>
       <c r="H77" s="3">
-        <v>25.81</v>
+        <v>25707.02</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4233,13 +4209,13 @@
         <v>159</v>
       </c>
       <c r="F78" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>25707.02</v>
+        <v>275.00</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4259,13 +4235,13 @@
         <v>161</v>
       </c>
       <c r="F79" s="2">
-        <v>1.000</v>
+        <v>838.000</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="3">
-        <v>275.00</v>
+        <v>5429.28</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4285,13 +4261,13 @@
         <v>163</v>
       </c>
       <c r="F80" s="2">
-        <v>863.000</v>
+        <v>1.000</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="3">
-        <v>5591.29</v>
+        <v>387.41</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4311,13 +4287,13 @@
         <v>165</v>
       </c>
       <c r="F81" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>387.41</v>
+        <v>9170.01</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4337,13 +4313,13 @@
         <v>167</v>
       </c>
       <c r="F82" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="3">
-        <v>9170.01</v>
+        <v>1237.70</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4363,13 +4339,13 @@
         <v>169</v>
       </c>
       <c r="F83" s="2">
-        <v>3.000</v>
+        <v>554.000</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>1237.70</v>
+        <v>4000.56</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4389,13 +4365,13 @@
         <v>171</v>
       </c>
       <c r="F84" s="2">
-        <v>563.000</v>
+        <v>32.000</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
       <c r="H84" s="3">
-        <v>4062.04</v>
+        <v>6613.64</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4415,13 +4391,13 @@
         <v>173</v>
       </c>
       <c r="F85" s="2">
-        <v>34.000</v>
+        <v>4.000</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="3">
-        <v>7027.00</v>
+        <v>1566.88</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4447,7 +4423,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="3">
-        <v>1566.88</v>
+        <v>3894.16</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4467,13 +4443,13 @@
         <v>177</v>
       </c>
       <c r="F87" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="3">
-        <v>3894.16</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4493,13 +4469,13 @@
         <v>179</v>
       </c>
       <c r="F88" s="2">
-        <v>2.000</v>
+        <v>15.000</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="3">
-        <v>558.66</v>
+        <v>1541.22</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4519,13 +4495,13 @@
         <v>181</v>
       </c>
       <c r="F89" s="2">
-        <v>15.000</v>
+        <v>13.000</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>1541.22</v>
+        <v>486.40</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4545,13 +4521,13 @@
         <v>183</v>
       </c>
       <c r="F90" s="2">
-        <v>13.000</v>
+        <v>3.000</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
       </c>
       <c r="H90" s="3">
-        <v>486.40</v>
+        <v>5439.92</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4571,13 +4547,13 @@
         <v>185</v>
       </c>
       <c r="F91" s="2">
-        <v>3.000</v>
+        <v>381.000</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>5439.92</v>
+        <v>66529.14</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4597,13 +4573,13 @@
         <v>187</v>
       </c>
       <c r="F92" s="2">
-        <v>418.000</v>
+        <v>6.000</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="3">
-        <v>72989.99</v>
+        <v>226.17</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4623,13 +4599,13 @@
         <v>189</v>
       </c>
       <c r="F93" s="2">
-        <v>12.000</v>
+        <v>21.000</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="3">
-        <v>452.34</v>
+        <v>357.02</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4649,13 +4625,13 @@
         <v>191</v>
       </c>
       <c r="F94" s="2">
-        <v>23.000</v>
+        <v>15.000</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>391.02</v>
+        <v>1190.74</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4675,13 +4651,13 @@
         <v>193</v>
       </c>
       <c r="F95" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="3">
-        <v>1190.74</v>
+        <v>289.49</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4701,13 +4677,13 @@
         <v>195</v>
       </c>
       <c r="F96" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="3">
-        <v>289.49</v>
+        <v>119.58</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4727,13 +4703,13 @@
         <v>197</v>
       </c>
       <c r="F97" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <v>119.58</v>
+        <v>676.65</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4759,7 +4735,7 @@
         <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>676.65</v>
+        <v>152.05</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4779,13 +4755,13 @@
         <v>201</v>
       </c>
       <c r="F99" s="2">
-        <v>2.000</v>
+        <v>12.000</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>152.05</v>
+        <v>1342.27</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4805,13 +4781,13 @@
         <v>203</v>
       </c>
       <c r="F100" s="2">
-        <v>12.000</v>
+        <v>239.000</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>1342.27</v>
+        <v>10260.85</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4831,13 +4807,13 @@
         <v>205</v>
       </c>
       <c r="F101" s="2">
-        <v>239.000</v>
+        <v>558.000</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>10260.85</v>
+        <v>38638.70</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4857,13 +4833,13 @@
         <v>207</v>
       </c>
       <c r="F102" s="2">
-        <v>571.000</v>
+        <v>1.000</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>39538.80</v>
+        <v>472.35</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4883,13 +4859,13 @@
         <v>209</v>
       </c>
       <c r="F103" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="3">
-        <v>472.35</v>
+        <v>238.65</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4909,13 +4885,13 @@
         <v>211</v>
       </c>
       <c r="F104" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
       </c>
       <c r="H104" s="3">
-        <v>238.65</v>
+        <v>366.72</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4941,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="3">
-        <v>366.72</v>
+        <v>480.82</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4967,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="3">
-        <v>480.82</v>
+        <v>917.47</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4993,7 +4969,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="3">
-        <v>917.47</v>
+        <v>562.37</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5019,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <v>562.37</v>
+        <v>884.45</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5039,13 +5015,13 @@
         <v>221</v>
       </c>
       <c r="F109" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
       </c>
       <c r="H109" s="3">
-        <v>884.45</v>
+        <v>2049.23</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5065,13 +5041,13 @@
         <v>223</v>
       </c>
       <c r="F110" s="2">
-        <v>10.000</v>
+        <v>4.000</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="H110" s="3">
-        <v>2049.23</v>
+        <v>574.64</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5091,13 +5067,13 @@
         <v>225</v>
       </c>
       <c r="F111" s="2">
-        <v>4.000</v>
+        <v>9.000</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
       </c>
       <c r="H111" s="3">
-        <v>574.64</v>
+        <v>780.61</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5117,13 +5093,13 @@
         <v>227</v>
       </c>
       <c r="F112" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
       </c>
       <c r="H112" s="3">
-        <v>780.61</v>
+        <v>2982.22</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5143,13 +5119,13 @@
         <v>229</v>
       </c>
       <c r="F113" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="3">
-        <v>2982.22</v>
+        <v>8727.40</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5175,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>8727.40</v>
+        <v>2885.82</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5195,13 +5171,13 @@
         <v>233</v>
       </c>
       <c r="F115" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>2885.82</v>
+        <v>490.00</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5221,13 +5197,13 @@
         <v>235</v>
       </c>
       <c r="F116" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>490.00</v>
+        <v>733.37</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5247,13 +5223,13 @@
         <v>237</v>
       </c>
       <c r="F117" s="2">
-        <v>1.000</v>
+        <v>1578.050</v>
       </c>
       <c r="G117" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H117" s="3">
-        <v>733.37</v>
+        <v>171951.85</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5273,13 +5249,13 @@
         <v>239</v>
       </c>
       <c r="F118" s="2">
-        <v>1578.050</v>
+        <v>1.810</v>
       </c>
       <c r="G118" t="s">
         <v>21</v>
       </c>
       <c r="H118" s="3">
-        <v>171951.85</v>
+        <v>362.00</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5299,13 +5275,13 @@
         <v>241</v>
       </c>
       <c r="F119" s="2">
-        <v>1.810</v>
+        <v>438.000</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
       </c>
       <c r="H119" s="3">
-        <v>362.00</v>
+        <v>95952.60</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5325,13 +5301,13 @@
         <v>243</v>
       </c>
       <c r="F120" s="2">
-        <v>438.000</v>
+        <v>829.000</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
       </c>
       <c r="H120" s="3">
-        <v>95952.60</v>
+        <v>641065.70</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5351,13 +5327,13 @@
         <v>245</v>
       </c>
       <c r="F121" s="2">
-        <v>829.000</v>
+        <v>32.000</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H121" s="3">
-        <v>641065.70</v>
+        <v>187.36</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5377,13 +5353,13 @@
         <v>247</v>
       </c>
       <c r="F122" s="2">
-        <v>40.000</v>
+        <v>1.000</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="3">
-        <v>234.20</v>
+        <v>431.01</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5409,7 +5385,7 @@
         <v>5</v>
       </c>
       <c r="H123" s="3">
-        <v>431.01</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5429,13 +5405,13 @@
         <v>251</v>
       </c>
       <c r="F124" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="3">
-        <v>6585.02</v>
+        <v>14094.09</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5455,13 +5431,13 @@
         <v>253</v>
       </c>
       <c r="F125" s="2">
-        <v>15.000</v>
+        <v>11.000</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="3">
-        <v>14094.09</v>
+        <v>6196.52</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5481,13 +5457,13 @@
         <v>255</v>
       </c>
       <c r="F126" s="2">
-        <v>11.000</v>
+        <v>7.000</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="3">
-        <v>6196.52</v>
+        <v>3816.25</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5510,10 +5486,10 @@
         <v>7.000</v>
       </c>
       <c r="G127" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H127" s="3">
-        <v>3816.25</v>
+        <v>2657.58</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5533,13 +5509,13 @@
         <v>259</v>
       </c>
       <c r="F128" s="2">
-        <v>7.000</v>
+        <v>3.000</v>
       </c>
       <c r="G128" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H128" s="3">
-        <v>2657.58</v>
+        <v>3855.50</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5559,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="F129" s="2">
-        <v>3.000</v>
+        <v>9.000</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <v>3855.50</v>
+        <v>2303.27</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5585,13 +5561,13 @@
         <v>263</v>
       </c>
       <c r="F130" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130" s="3">
-        <v>2303.27</v>
+        <v>501.52</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5611,13 +5587,13 @@
         <v>265</v>
       </c>
       <c r="F131" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="3">
-        <v>501.52</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5643,7 +5619,7 @@
         <v>5</v>
       </c>
       <c r="H132" s="3">
-        <v>6.38</v>
+        <v>487.90</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5663,13 +5639,13 @@
         <v>269</v>
       </c>
       <c r="F133" s="2">
-        <v>6.000</v>
+        <v>3.000</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>585.49</v>
+        <v>116.87</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5689,13 +5665,13 @@
         <v>271</v>
       </c>
       <c r="F134" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>116.87</v>
+        <v>1131.44</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5715,13 +5691,13 @@
         <v>273</v>
       </c>
       <c r="F135" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>1131.44</v>
+        <v>295.66</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5741,13 +5717,13 @@
         <v>275</v>
       </c>
       <c r="F136" s="2">
-        <v>7.000</v>
+        <v>32.000</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
       </c>
       <c r="H136" s="3">
-        <v>295.66</v>
+        <v>1624.90</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5767,13 +5743,13 @@
         <v>277</v>
       </c>
       <c r="F137" s="2">
-        <v>32.000</v>
+        <v>2.000</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>1624.90</v>
+        <v>309.33</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5799,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="3">
-        <v>309.33</v>
+        <v>98.23</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5819,13 +5795,13 @@
         <v>281</v>
       </c>
       <c r="F139" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="3">
-        <v>98.23</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5845,13 +5821,13 @@
         <v>283</v>
       </c>
       <c r="F140" s="2">
-        <v>4.000</v>
+        <v>10.000</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
       </c>
       <c r="H140" s="3">
-        <v>41.84</v>
+        <v>2941.20</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5871,13 +5847,13 @@
         <v>285</v>
       </c>
       <c r="F141" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
       <c r="H141" s="3">
-        <v>2941.20</v>
+        <v>798.38</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5897,13 +5873,13 @@
         <v>287</v>
       </c>
       <c r="F142" s="2">
-        <v>2.000</v>
+        <v>75.000</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
       </c>
       <c r="H142" s="3">
-        <v>798.38</v>
+        <v>3523.05</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5923,13 +5899,13 @@
         <v>289</v>
       </c>
       <c r="F143" s="2">
-        <v>75.000</v>
+        <v>29.000</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="3">
-        <v>3523.05</v>
+        <v>920.29</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5949,13 +5925,13 @@
         <v>291</v>
       </c>
       <c r="F144" s="2">
-        <v>29.000</v>
+        <v>35.000</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
       </c>
       <c r="H144" s="3">
-        <v>920.29</v>
+        <v>5549.02</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5975,13 +5951,13 @@
         <v>293</v>
       </c>
       <c r="F145" s="2">
-        <v>47.000</v>
+        <v>100.000</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="3">
-        <v>7451.53</v>
+        <v>55877.69</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6001,13 +5977,13 @@
         <v>295</v>
       </c>
       <c r="F146" s="2">
-        <v>118.000</v>
+        <v>39.000</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <v>65935.70</v>
+        <v>4902.49</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6027,13 +6003,13 @@
         <v>297</v>
       </c>
       <c r="F147" s="2">
-        <v>39.000</v>
+        <v>28.000</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="3">
-        <v>4902.49</v>
+        <v>748.33</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6053,13 +6029,13 @@
         <v>299</v>
       </c>
       <c r="F148" s="2">
-        <v>28.000</v>
+        <v>66.000</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
       </c>
       <c r="H148" s="3">
-        <v>748.33</v>
+        <v>1240.14</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6079,13 +6055,13 @@
         <v>301</v>
       </c>
       <c r="F149" s="2">
-        <v>67.000</v>
+        <v>31.000</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="3">
-        <v>1258.93</v>
+        <v>6006.41</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6105,13 +6081,13 @@
         <v>303</v>
       </c>
       <c r="F150" s="2">
-        <v>31.000</v>
+        <v>2.000</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="3">
-        <v>6006.41</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6131,13 +6107,13 @@
         <v>305</v>
       </c>
       <c r="F151" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>58.34</v>
+        <v>1228.86</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6157,13 +6133,13 @@
         <v>307</v>
       </c>
       <c r="F152" s="2">
-        <v>7.000</v>
+        <v>6.000</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="3">
-        <v>1228.86</v>
+        <v>223.04</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6183,13 +6159,13 @@
         <v>309</v>
       </c>
       <c r="F153" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="3">
-        <v>223.04</v>
+        <v>556.00</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6209,13 +6185,13 @@
         <v>311</v>
       </c>
       <c r="F154" s="2">
-        <v>2.000</v>
+        <v>15.000</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="3">
-        <v>556.00</v>
+        <v>427.57</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6235,13 +6211,13 @@
         <v>313</v>
       </c>
       <c r="F155" s="2">
-        <v>15.000</v>
+        <v>14.000</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="3">
-        <v>427.57</v>
+        <v>383.94</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6261,13 +6237,13 @@
         <v>315</v>
       </c>
       <c r="F156" s="2">
-        <v>14.000</v>
+        <v>2.000</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
       </c>
       <c r="H156" s="3">
-        <v>383.94</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6287,13 +6263,13 @@
         <v>317</v>
       </c>
       <c r="F157" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
       </c>
       <c r="H157" s="3">
-        <v>10.06</v>
+        <v>473.49</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6319,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="H158" s="3">
-        <v>473.49</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6345,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="3">
-        <v>41.46</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6365,13 +6341,13 @@
         <v>323</v>
       </c>
       <c r="F160" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="3">
-        <v>36.12</v>
+        <v>144.27</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6391,13 +6367,13 @@
         <v>325</v>
       </c>
       <c r="F161" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="3">
-        <v>160.29</v>
+        <v>3572.22</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6417,13 +6393,13 @@
         <v>327</v>
       </c>
       <c r="F162" s="2">
-        <v>1.000</v>
+        <v>209.000</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="3">
-        <v>3572.22</v>
+        <v>1872.47</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6443,13 +6419,13 @@
         <v>329</v>
       </c>
       <c r="F163" s="2">
-        <v>238.000</v>
+        <v>13.000</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
       </c>
       <c r="H163" s="3">
-        <v>2132.29</v>
+        <v>2178.42</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6469,13 +6445,13 @@
         <v>331</v>
       </c>
       <c r="F164" s="2">
-        <v>13.000</v>
+        <v>17.000</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="3">
-        <v>2178.42</v>
+        <v>1751.12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6495,13 +6471,13 @@
         <v>333</v>
       </c>
       <c r="F165" s="2">
-        <v>17.000</v>
+        <v>2.000</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
       </c>
       <c r="H165" s="3">
-        <v>1751.12</v>
+        <v>495.95</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6521,13 +6497,13 @@
         <v>335</v>
       </c>
       <c r="F166" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="H166" s="3">
-        <v>495.95</v>
+        <v>1334.60</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6547,13 +6523,13 @@
         <v>337</v>
       </c>
       <c r="F167" s="2">
-        <v>4.000</v>
+        <v>18.000</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="3">
-        <v>1334.60</v>
+        <v>2221.41</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6573,13 +6549,13 @@
         <v>339</v>
       </c>
       <c r="F168" s="2">
-        <v>18.000</v>
+        <v>23.000</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="3">
-        <v>2221.41</v>
+        <v>1296.85</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6599,13 +6575,13 @@
         <v>341</v>
       </c>
       <c r="F169" s="2">
-        <v>23.000</v>
+        <v>1.000</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="3">
-        <v>1296.85</v>
+        <v>69.60</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6625,13 +6601,13 @@
         <v>343</v>
       </c>
       <c r="F170" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>69.60</v>
+        <v>261.25</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6651,13 +6627,13 @@
         <v>345</v>
       </c>
       <c r="F171" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>261.25</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6677,13 +6653,13 @@
         <v>347</v>
       </c>
       <c r="F172" s="2">
-        <v>1.000</v>
+        <v>1000.000</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>11.47</v>
+        <v>5366.60</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6703,13 +6679,13 @@
         <v>349</v>
       </c>
       <c r="F173" s="2">
-        <v>1059.000</v>
+        <v>21.000</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>5683.07</v>
+        <v>624.64</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6729,13 +6705,13 @@
         <v>351</v>
       </c>
       <c r="F174" s="2">
-        <v>21.000</v>
+        <v>54.000</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
       </c>
       <c r="H174" s="3">
-        <v>624.64</v>
+        <v>3077.03</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6755,13 +6731,13 @@
         <v>353</v>
       </c>
       <c r="F175" s="2">
-        <v>45.000</v>
+        <v>3.000</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
       </c>
       <c r="H175" s="3">
-        <v>2564.19</v>
+        <v>1170.45</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6781,13 +6757,13 @@
         <v>355</v>
       </c>
       <c r="F176" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
       </c>
       <c r="H176" s="3">
-        <v>1170.45</v>
+        <v>209.59</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6807,13 +6783,13 @@
         <v>357</v>
       </c>
       <c r="F177" s="2">
-        <v>5.000</v>
+        <v>45.000</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
       </c>
       <c r="H177" s="3">
-        <v>523.97</v>
+        <v>5646.08</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6833,13 +6809,13 @@
         <v>359</v>
       </c>
       <c r="F178" s="2">
-        <v>45.000</v>
+        <v>3.000</v>
       </c>
       <c r="G178" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H178" s="3">
-        <v>5646.08</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6859,13 +6835,13 @@
         <v>361</v>
       </c>
       <c r="F179" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G179" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H179" s="3">
-        <v>344.89</v>
+        <v>217.24</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6885,13 +6861,13 @@
         <v>363</v>
       </c>
       <c r="F180" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
       </c>
       <c r="H180" s="3">
-        <v>217.24</v>
+        <v>6798.56</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6911,13 +6887,13 @@
         <v>365</v>
       </c>
       <c r="F181" s="2">
-        <v>43.000</v>
+        <v>16.000</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
       </c>
       <c r="H181" s="3">
-        <v>6798.56</v>
+        <v>2968.59</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6937,13 +6913,13 @@
         <v>367</v>
       </c>
       <c r="F182" s="2">
-        <v>16.000</v>
+        <v>3.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>2968.59</v>
+        <v>5507.99</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6963,13 +6939,13 @@
         <v>369</v>
       </c>
       <c r="F183" s="2">
-        <v>3.000</v>
+        <v>17.000</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
       </c>
       <c r="H183" s="3">
-        <v>5507.99</v>
+        <v>6003.24</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6989,13 +6965,13 @@
         <v>371</v>
       </c>
       <c r="F184" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
       <c r="H184" s="3">
-        <v>5964.34</v>
+        <v>262.35</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7015,13 +6991,13 @@
         <v>373</v>
       </c>
       <c r="F185" s="2">
-        <v>1.000</v>
+        <v>911.000</v>
       </c>
       <c r="G185" t="s">
         <v>5</v>
       </c>
       <c r="H185" s="3">
-        <v>262.35</v>
+        <v>34267.26</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7041,13 +7017,13 @@
         <v>375</v>
       </c>
       <c r="F186" s="2">
-        <v>922.000</v>
+        <v>21.000</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
       <c r="H186" s="3">
-        <v>34681.09</v>
+        <v>1043.62</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7067,13 +7043,13 @@
         <v>377</v>
       </c>
       <c r="F187" s="2">
-        <v>21.000</v>
+        <v>66.000</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="3">
-        <v>1043.62</v>
+        <v>2228.45</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7093,13 +7069,13 @@
         <v>379</v>
       </c>
       <c r="F188" s="2">
-        <v>66.000</v>
+        <v>14.000</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
       </c>
       <c r="H188" s="3">
-        <v>2228.45</v>
+        <v>559.92</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7119,13 +7095,13 @@
         <v>381</v>
       </c>
       <c r="F189" s="2">
-        <v>14.000</v>
+        <v>869.000</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
       </c>
       <c r="H189" s="3">
-        <v>559.92</v>
+        <v>3668.20</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7145,13 +7121,13 @@
         <v>383</v>
       </c>
       <c r="F190" s="2">
-        <v>882.000</v>
+        <v>4.000</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
       <c r="H190" s="3">
-        <v>3723.07</v>
+        <v>541.41</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7171,13 +7147,13 @@
         <v>385</v>
       </c>
       <c r="F191" s="2">
-        <v>4.000</v>
+        <v>238.000</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
       </c>
       <c r="H191" s="3">
-        <v>541.41</v>
+        <v>1106.70</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7197,13 +7173,13 @@
         <v>387</v>
       </c>
       <c r="F192" s="2">
-        <v>238.000</v>
+        <v>1.000</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
       <c r="H192" s="3">
-        <v>1106.70</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7223,13 +7199,13 @@
         <v>389</v>
       </c>
       <c r="F193" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
       </c>
       <c r="H193" s="3">
-        <v>15.31</v>
+        <v>2111.01</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7249,13 +7225,13 @@
         <v>391</v>
       </c>
       <c r="F194" s="2">
-        <v>3.000</v>
+        <v>10.000</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
       <c r="H194" s="3">
-        <v>2111.01</v>
+        <v>15963.35</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7275,13 +7251,13 @@
         <v>393</v>
       </c>
       <c r="F195" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
       </c>
       <c r="H195" s="3">
-        <v>15963.35</v>
+        <v>2098.09</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7301,13 +7277,13 @@
         <v>395</v>
       </c>
       <c r="F196" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
       </c>
       <c r="H196" s="3">
-        <v>2173.68</v>
+        <v>7112.72</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7327,13 +7303,13 @@
         <v>397</v>
       </c>
       <c r="F197" s="2">
-        <v>3.000</v>
+        <v>7.000</v>
       </c>
       <c r="G197" t="s">
         <v>5</v>
       </c>
       <c r="H197" s="3">
-        <v>6294.26</v>
+        <v>10096.56</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7353,13 +7329,13 @@
         <v>399</v>
       </c>
       <c r="F198" s="2">
-        <v>1.000</v>
+        <v>1097.000</v>
       </c>
       <c r="G198" t="s">
         <v>5</v>
       </c>
       <c r="H198" s="3">
-        <v>7112.72</v>
+        <v>6214.47</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7379,13 +7355,13 @@
         <v>401</v>
       </c>
       <c r="F199" s="2">
-        <v>7.000</v>
+        <v>40.000</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
       </c>
       <c r="H199" s="3">
-        <v>10096.55</v>
+        <v>545.34</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7405,13 +7381,13 @@
         <v>403</v>
       </c>
       <c r="F200" s="2">
-        <v>1129.000</v>
+        <v>9.000</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
       <c r="H200" s="3">
-        <v>6395.65</v>
+        <v>1747.14</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7431,13 +7407,13 @@
         <v>405</v>
       </c>
       <c r="F201" s="2">
-        <v>44.000</v>
+        <v>7.000</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="3">
-        <v>599.88</v>
+        <v>557.03</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7463,7 +7439,7 @@
         <v>5</v>
       </c>
       <c r="H202" s="3">
-        <v>1747.14</v>
+        <v>2248.82</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7483,13 +7459,13 @@
         <v>409</v>
       </c>
       <c r="F203" s="2">
-        <v>9.000</v>
+        <v>18.000</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
       </c>
       <c r="H203" s="3">
-        <v>716.18</v>
+        <v>11235.38</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7509,13 +7485,13 @@
         <v>411</v>
       </c>
       <c r="F204" s="2">
-        <v>9.000</v>
+        <v>6.000</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
       </c>
       <c r="H204" s="3">
-        <v>2248.82</v>
+        <v>6315.19</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7535,13 +7511,13 @@
         <v>413</v>
       </c>
       <c r="F205" s="2">
-        <v>18.000</v>
+        <v>4.000</v>
       </c>
       <c r="G205" t="s">
         <v>5</v>
       </c>
       <c r="H205" s="3">
-        <v>11235.38</v>
+        <v>3704.06</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7561,13 +7537,13 @@
         <v>415</v>
       </c>
       <c r="F206" s="2">
-        <v>6.000</v>
+        <v>9.000</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
       </c>
       <c r="H206" s="3">
-        <v>6315.19</v>
+        <v>2512.57</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7587,13 +7563,13 @@
         <v>417</v>
       </c>
       <c r="F207" s="2">
-        <v>4.000</v>
+        <v>46.000</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
       </c>
       <c r="H207" s="3">
-        <v>3704.06</v>
+        <v>1776.48</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7613,13 +7589,13 @@
         <v>419</v>
       </c>
       <c r="F208" s="2">
-        <v>9.000</v>
+        <v>1704.000</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
       </c>
       <c r="H208" s="3">
-        <v>2512.57</v>
+        <v>31907.73</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7639,13 +7615,13 @@
         <v>421</v>
       </c>
       <c r="F209" s="2">
-        <v>46.000</v>
+        <v>1.000</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
       </c>
       <c r="H209" s="3">
-        <v>1776.48</v>
+        <v>92.01</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7665,13 +7641,13 @@
         <v>423</v>
       </c>
       <c r="F210" s="2">
-        <v>1.000</v>
+        <v>44.000</v>
       </c>
       <c r="G210" t="s">
         <v>5</v>
       </c>
       <c r="H210" s="3">
-        <v>5.99</v>
+        <v>3481.78</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7691,13 +7667,13 @@
         <v>425</v>
       </c>
       <c r="F211" s="2">
-        <v>1736.000</v>
+        <v>12.000</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
       </c>
       <c r="H211" s="3">
-        <v>32507.02</v>
+        <v>3197.00</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7717,13 +7693,13 @@
         <v>427</v>
       </c>
       <c r="F212" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
       </c>
       <c r="H212" s="3">
-        <v>92.01</v>
+        <v>1490.54</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7743,13 +7719,13 @@
         <v>429</v>
       </c>
       <c r="F213" s="2">
-        <v>44.000</v>
+        <v>5.000</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
       </c>
       <c r="H213" s="3">
-        <v>3481.78</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7769,13 +7745,13 @@
         <v>431</v>
       </c>
       <c r="F214" s="2">
-        <v>12.000</v>
+        <v>54.000</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
       </c>
       <c r="H214" s="3">
-        <v>3197.01</v>
+        <v>1285.96</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7795,13 +7771,13 @@
         <v>433</v>
       </c>
       <c r="F215" s="2">
-        <v>8.000</v>
+        <v>21.000</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
       </c>
       <c r="H215" s="3">
-        <v>1490.54</v>
+        <v>1524.13</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7827,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="H216" s="3">
-        <v>77.87</v>
+        <v>528.88</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7847,13 +7823,13 @@
         <v>437</v>
       </c>
       <c r="F217" s="2">
-        <v>55.000</v>
+        <v>1044.000</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
       </c>
       <c r="H217" s="3">
-        <v>1309.78</v>
+        <v>199757.83</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7873,13 +7849,13 @@
         <v>439</v>
       </c>
       <c r="F218" s="2">
-        <v>21.000</v>
+        <v>1.000</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
       </c>
       <c r="H218" s="3">
-        <v>1524.13</v>
+        <v>545.88</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7899,13 +7875,13 @@
         <v>441</v>
       </c>
       <c r="F219" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G219" t="s">
         <v>5</v>
       </c>
       <c r="H219" s="3">
-        <v>528.88</v>
+        <v>2622.09</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7925,13 +7901,13 @@
         <v>443</v>
       </c>
       <c r="F220" s="2">
-        <v>142.000</v>
+        <v>1.000</v>
       </c>
       <c r="G220" t="s">
         <v>5</v>
       </c>
       <c r="H220" s="3">
-        <v>2219.75</v>
+        <v>5747.70</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7951,13 +7927,13 @@
         <v>445</v>
       </c>
       <c r="F221" s="2">
-        <v>1095.000</v>
+        <v>2.000</v>
       </c>
       <c r="G221" t="s">
         <v>5</v>
       </c>
       <c r="H221" s="3">
-        <v>209516.14</v>
+        <v>25157.14</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7983,7 +7959,7 @@
         <v>5</v>
       </c>
       <c r="H222" s="3">
-        <v>545.88</v>
+        <v>4995.36</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8003,13 +7979,13 @@
         <v>449</v>
       </c>
       <c r="F223" s="2">
-        <v>1.000</v>
+        <v>14.000</v>
       </c>
       <c r="G223" t="s">
         <v>5</v>
       </c>
       <c r="H223" s="3">
-        <v>2622.09</v>
+        <v>177.30</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8029,13 +8005,13 @@
         <v>451</v>
       </c>
       <c r="F224" s="2">
-        <v>1.000</v>
+        <v>18.000</v>
       </c>
       <c r="G224" t="s">
         <v>5</v>
       </c>
       <c r="H224" s="3">
-        <v>5747.70</v>
+        <v>1188.56</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8055,13 +8031,13 @@
         <v>453</v>
       </c>
       <c r="F225" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="G225" t="s">
         <v>5</v>
       </c>
       <c r="H225" s="3">
-        <v>25157.14</v>
+        <v>658.82</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8081,13 +8057,13 @@
         <v>455</v>
       </c>
       <c r="F226" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G226" t="s">
         <v>5</v>
       </c>
       <c r="H226" s="3">
-        <v>4995.36</v>
+        <v>725.39</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8107,13 +8083,13 @@
         <v>457</v>
       </c>
       <c r="F227" s="2">
-        <v>14.000</v>
+        <v>6.000</v>
       </c>
       <c r="G227" t="s">
         <v>5</v>
       </c>
       <c r="H227" s="3">
-        <v>177.30</v>
+        <v>2089.82</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8133,13 +8109,13 @@
         <v>459</v>
       </c>
       <c r="F228" s="2">
-        <v>18.000</v>
+        <v>256.000</v>
       </c>
       <c r="G228" t="s">
         <v>5</v>
       </c>
       <c r="H228" s="3">
-        <v>1188.56</v>
+        <v>5186.56</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8159,13 +8135,13 @@
         <v>461</v>
       </c>
       <c r="F229" s="2">
-        <v>9.000</v>
+        <v>176.000</v>
       </c>
       <c r="G229" t="s">
         <v>5</v>
       </c>
       <c r="H229" s="3">
-        <v>658.82</v>
+        <v>8935.86</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8185,13 +8161,13 @@
         <v>463</v>
       </c>
       <c r="F230" s="2">
-        <v>2.000</v>
+        <v>8.000</v>
       </c>
       <c r="G230" t="s">
         <v>5</v>
       </c>
       <c r="H230" s="3">
-        <v>725.39</v>
+        <v>2130.04</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8211,13 +8187,13 @@
         <v>465</v>
       </c>
       <c r="F231" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="G231" t="s">
         <v>5</v>
       </c>
       <c r="H231" s="3">
-        <v>2089.82</v>
+        <v>2000.83</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8237,13 +8213,13 @@
         <v>467</v>
       </c>
       <c r="F232" s="2">
-        <v>315.000</v>
+        <v>1.000</v>
       </c>
       <c r="G232" t="s">
         <v>5</v>
       </c>
       <c r="H232" s="3">
-        <v>6381.90</v>
+        <v>352.04</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8263,13 +8239,13 @@
         <v>469</v>
       </c>
       <c r="F233" s="2">
-        <v>176.000</v>
+        <v>1.000</v>
       </c>
       <c r="G233" t="s">
         <v>5</v>
       </c>
       <c r="H233" s="3">
-        <v>8935.86</v>
+        <v>257.36</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8289,13 +8265,13 @@
         <v>471</v>
       </c>
       <c r="F234" s="2">
-        <v>8.000</v>
+        <v>2.000</v>
       </c>
       <c r="G234" t="s">
         <v>5</v>
       </c>
       <c r="H234" s="3">
-        <v>2130.04</v>
+        <v>625.12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8315,13 +8291,13 @@
         <v>473</v>
       </c>
       <c r="F235" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="G235" t="s">
         <v>5</v>
       </c>
       <c r="H235" s="3">
-        <v>2000.83</v>
+        <v>2262.24</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8341,13 +8317,13 @@
         <v>475</v>
       </c>
       <c r="F236" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G236" t="s">
         <v>5</v>
       </c>
       <c r="H236" s="3">
-        <v>352.04</v>
+        <v>1558.08</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8373,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="H237" s="3">
-        <v>257.36</v>
+        <v>4193.32</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8399,7 +8375,7 @@
         <v>5</v>
       </c>
       <c r="H238" s="3">
-        <v>625.12</v>
+        <v>193.42</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8419,13 +8395,13 @@
         <v>481</v>
       </c>
       <c r="F239" s="2">
-        <v>4.000</v>
+        <v>24.000</v>
       </c>
       <c r="G239" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H239" s="3">
-        <v>2262.24</v>
+        <v>5809.78</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8445,13 +8421,13 @@
         <v>483</v>
       </c>
       <c r="F240" s="2">
-        <v>2.000</v>
+        <v>12.000</v>
       </c>
       <c r="G240" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H240" s="3">
-        <v>1558.08</v>
+        <v>3876.07</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8471,13 +8447,13 @@
         <v>485</v>
       </c>
       <c r="F241" s="2">
-        <v>1.000</v>
+        <v>106.000</v>
       </c>
       <c r="G241" t="s">
         <v>5</v>
       </c>
       <c r="H241" s="3">
-        <v>4193.32</v>
+        <v>215.71</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8497,13 +8473,13 @@
         <v>487</v>
       </c>
       <c r="F242" s="2">
-        <v>2.000</v>
+        <v>15.000</v>
       </c>
       <c r="G242" t="s">
         <v>5</v>
       </c>
       <c r="H242" s="3">
-        <v>193.42</v>
+        <v>8351.11</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8523,13 +8499,13 @@
         <v>489</v>
       </c>
       <c r="F243" s="2">
-        <v>24.000</v>
+        <v>22.000</v>
       </c>
       <c r="G243" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H243" s="3">
-        <v>5809.78</v>
+        <v>8696.59</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8549,13 +8525,13 @@
         <v>491</v>
       </c>
       <c r="F244" s="2">
-        <v>12.000</v>
+        <v>43.000</v>
       </c>
       <c r="G244" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H244" s="3">
-        <v>3876.07</v>
+        <v>12142.41</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8575,13 +8551,13 @@
         <v>493</v>
       </c>
       <c r="F245" s="2">
-        <v>106.000</v>
+        <v>2.000</v>
       </c>
       <c r="G245" t="s">
         <v>5</v>
       </c>
       <c r="H245" s="3">
-        <v>215.71</v>
+        <v>1132.30</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8601,13 +8577,13 @@
         <v>495</v>
       </c>
       <c r="F246" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="G246" t="s">
         <v>5</v>
       </c>
       <c r="H246" s="3">
-        <v>8351.11</v>
+        <v>1721.73</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8627,13 +8603,13 @@
         <v>497</v>
       </c>
       <c r="F247" s="2">
-        <v>22.000</v>
+        <v>2.000</v>
       </c>
       <c r="G247" t="s">
         <v>5</v>
       </c>
       <c r="H247" s="3">
-        <v>8696.59</v>
+        <v>7220.40</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8653,13 +8629,13 @@
         <v>499</v>
       </c>
       <c r="F248" s="2">
-        <v>47.000</v>
+        <v>3.000</v>
       </c>
       <c r="G248" t="s">
         <v>5</v>
       </c>
       <c r="H248" s="3">
-        <v>13271.94</v>
+        <v>27085.68</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8679,13 +8655,13 @@
         <v>501</v>
       </c>
       <c r="F249" s="2">
-        <v>2.000</v>
+        <v>38.000</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
       </c>
       <c r="H249" s="3">
-        <v>1132.30</v>
+        <v>17487.79</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8711,7 +8687,7 @@
         <v>5</v>
       </c>
       <c r="H250" s="3">
-        <v>1721.73</v>
+        <v>2002.48</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8731,13 +8707,13 @@
         <v>505</v>
       </c>
       <c r="F251" s="2">
-        <v>2.000</v>
+        <v>21.730</v>
       </c>
       <c r="G251" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H251" s="3">
-        <v>7220.40</v>
+        <v>2244.35</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8757,13 +8733,13 @@
         <v>507</v>
       </c>
       <c r="F252" s="2">
-        <v>3.000</v>
+        <v>473.190</v>
       </c>
       <c r="G252" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H252" s="3">
-        <v>27085.68</v>
+        <v>8613.26</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8783,13 +8759,13 @@
         <v>509</v>
       </c>
       <c r="F253" s="2">
-        <v>38.000</v>
+        <v>1288.540</v>
       </c>
       <c r="G253" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H253" s="3">
-        <v>17487.79</v>
+        <v>5500.87</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8809,13 +8785,13 @@
         <v>511</v>
       </c>
       <c r="F254" s="2">
-        <v>1.000</v>
+        <v>222.000</v>
       </c>
       <c r="G254" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H254" s="3">
-        <v>2002.48</v>
+        <v>39238.07</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8835,13 +8811,13 @@
         <v>513</v>
       </c>
       <c r="F255" s="2">
-        <v>21.730</v>
+        <v>1140.050</v>
       </c>
       <c r="G255" t="s">
         <v>21</v>
       </c>
       <c r="H255" s="3">
-        <v>2244.35</v>
+        <v>42864.76</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8861,13 +8837,13 @@
         <v>515</v>
       </c>
       <c r="F256" s="2">
-        <v>473.190</v>
+        <v>1.000</v>
       </c>
       <c r="G256" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H256" s="3">
-        <v>8613.26</v>
+        <v>377.72</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8887,13 +8863,13 @@
         <v>517</v>
       </c>
       <c r="F257" s="2">
-        <v>1299.540</v>
+        <v>14.000</v>
       </c>
       <c r="G257" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H257" s="3">
-        <v>5547.83</v>
+        <v>3864.06</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8913,13 +8889,13 @@
         <v>519</v>
       </c>
       <c r="F258" s="2">
-        <v>222.000</v>
+        <v>16.000</v>
       </c>
       <c r="G258" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H258" s="3">
-        <v>39238.07</v>
+        <v>348.11</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8939,13 +8915,13 @@
         <v>521</v>
       </c>
       <c r="F259" s="2">
-        <v>1140.050</v>
+        <v>2.000</v>
       </c>
       <c r="G259" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H259" s="3">
-        <v>42864.76</v>
+        <v>1671.40</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8962,16 +8938,16 @@
         <v>522</v>
       </c>
       <c r="E260" t="s">
-        <v>523</v>
+        <v>341</v>
       </c>
       <c r="F260" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
       </c>
       <c r="H260" s="3">
-        <v>377.72</v>
+        <v>3392.81</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8985,19 +8961,19 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
+        <v>523</v>
+      </c>
+      <c r="E261" t="s">
         <v>524</v>
       </c>
-      <c r="E261" t="s">
-        <v>525</v>
-      </c>
       <c r="F261" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G261" t="s">
         <v>5</v>
       </c>
       <c r="H261" s="3">
-        <v>4140.06</v>
+        <v>239.09</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9011,19 +8987,19 @@
         <v>2</v>
       </c>
       <c r="D262" t="s">
+        <v>525</v>
+      </c>
+      <c r="E262" t="s">
         <v>526</v>
       </c>
-      <c r="E262" t="s">
-        <v>527</v>
-      </c>
       <c r="F262" s="2">
-        <v>16.000</v>
+        <v>26.000</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
       </c>
       <c r="H262" s="3">
-        <v>348.11</v>
+        <v>1490.69</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9037,19 +9013,19 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
+        <v>527</v>
+      </c>
+      <c r="E263" t="s">
         <v>528</v>
       </c>
-      <c r="E263" t="s">
-        <v>529</v>
-      </c>
       <c r="F263" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
       </c>
       <c r="H263" s="3">
-        <v>1671.40</v>
+        <v>2672.99</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9063,19 +9039,19 @@
         <v>2</v>
       </c>
       <c r="D264" t="s">
+        <v>529</v>
+      </c>
+      <c r="E264" t="s">
         <v>530</v>
       </c>
-      <c r="E264" t="s">
-        <v>343</v>
-      </c>
       <c r="F264" s="2">
-        <v>43.000</v>
+        <v>5.000</v>
       </c>
       <c r="G264" t="s">
         <v>5</v>
       </c>
       <c r="H264" s="3">
-        <v>3392.81</v>
+        <v>748.67</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9095,13 +9071,13 @@
         <v>532</v>
       </c>
       <c r="F265" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="G265" t="s">
         <v>5</v>
       </c>
       <c r="H265" s="3">
-        <v>239.09</v>
+        <v>2872.72</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9121,13 +9097,13 @@
         <v>534</v>
       </c>
       <c r="F266" s="2">
-        <v>26.000</v>
+        <v>3.000</v>
       </c>
       <c r="G266" t="s">
         <v>5</v>
       </c>
       <c r="H266" s="3">
-        <v>1490.69</v>
+        <v>192.16</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9147,13 +9123,13 @@
         <v>536</v>
       </c>
       <c r="F267" s="2">
-        <v>5.000</v>
+        <v>26.000</v>
       </c>
       <c r="G267" t="s">
         <v>5</v>
       </c>
       <c r="H267" s="3">
-        <v>2672.99</v>
+        <v>2872.65</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9173,13 +9149,13 @@
         <v>538</v>
       </c>
       <c r="F268" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G268" t="s">
         <v>5</v>
       </c>
       <c r="H268" s="3">
-        <v>748.67</v>
+        <v>338.11</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9199,13 +9175,13 @@
         <v>540</v>
       </c>
       <c r="F269" s="2">
-        <v>5.000</v>
+        <v>35.000</v>
       </c>
       <c r="G269" t="s">
         <v>5</v>
       </c>
       <c r="H269" s="3">
-        <v>2872.72</v>
+        <v>702.53</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9225,13 +9201,13 @@
         <v>542</v>
       </c>
       <c r="F270" s="2">
-        <v>3.000</v>
+        <v>21.000</v>
       </c>
       <c r="G270" t="s">
         <v>5</v>
       </c>
       <c r="H270" s="3">
-        <v>192.16</v>
+        <v>1122.74</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9251,13 +9227,13 @@
         <v>544</v>
       </c>
       <c r="F271" s="2">
-        <v>27.000</v>
+        <v>15.000</v>
       </c>
       <c r="G271" t="s">
         <v>5</v>
       </c>
       <c r="H271" s="3">
-        <v>2983.14</v>
+        <v>1463.71</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9277,13 +9253,13 @@
         <v>546</v>
       </c>
       <c r="F272" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G272" t="s">
         <v>5</v>
       </c>
       <c r="H272" s="3">
-        <v>338.11</v>
+        <v>159.90</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9303,13 +9279,13 @@
         <v>548</v>
       </c>
       <c r="F273" s="2">
-        <v>43.000</v>
+        <v>4.000</v>
       </c>
       <c r="G273" t="s">
         <v>5</v>
       </c>
       <c r="H273" s="3">
-        <v>863.10</v>
+        <v>1048.02</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9329,13 +9305,13 @@
         <v>550</v>
       </c>
       <c r="F274" s="2">
-        <v>21.000</v>
+        <v>3.000</v>
       </c>
       <c r="G274" t="s">
         <v>5</v>
       </c>
       <c r="H274" s="3">
-        <v>1122.74</v>
+        <v>261.34</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9355,13 +9331,13 @@
         <v>552</v>
       </c>
       <c r="F275" s="2">
-        <v>15.000</v>
+        <v>3.000</v>
       </c>
       <c r="G275" t="s">
         <v>5</v>
       </c>
       <c r="H275" s="3">
-        <v>1463.71</v>
+        <v>12317.52</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9381,13 +9357,13 @@
         <v>554</v>
       </c>
       <c r="F276" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="G276" t="s">
         <v>5</v>
       </c>
       <c r="H276" s="3">
-        <v>159.90</v>
+        <v>892.37</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9407,13 +9383,13 @@
         <v>556</v>
       </c>
       <c r="F277" s="2">
-        <v>4.000</v>
+        <v>1294.390</v>
       </c>
       <c r="G277" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H277" s="3">
-        <v>1048.02</v>
+        <v>67543.16</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9433,13 +9409,13 @@
         <v>558</v>
       </c>
       <c r="F278" s="2">
-        <v>3.000</v>
+        <v>192.560</v>
       </c>
       <c r="G278" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H278" s="3">
-        <v>261.34</v>
+        <v>99701.27</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9459,13 +9435,13 @@
         <v>560</v>
       </c>
       <c r="F279" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G279" t="s">
         <v>5</v>
       </c>
       <c r="H279" s="3">
-        <v>12317.52</v>
+        <v>1161.99</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9485,13 +9461,13 @@
         <v>562</v>
       </c>
       <c r="F280" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G280" t="s">
         <v>5</v>
       </c>
       <c r="H280" s="3">
-        <v>892.37</v>
+        <v>1705.35</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9511,13 +9487,13 @@
         <v>564</v>
       </c>
       <c r="F281" s="2">
-        <v>1294.390</v>
+        <v>1.000</v>
       </c>
       <c r="G281" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H281" s="3">
-        <v>67543.16</v>
+        <v>295.04</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9537,13 +9513,13 @@
         <v>566</v>
       </c>
       <c r="F282" s="2">
-        <v>192.560</v>
+        <v>2.000</v>
       </c>
       <c r="G282" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H282" s="3">
-        <v>99701.27</v>
+        <v>685.80</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9563,13 +9539,13 @@
         <v>568</v>
       </c>
       <c r="F283" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G283" t="s">
         <v>5</v>
       </c>
       <c r="H283" s="3">
-        <v>1161.99</v>
+        <v>17833.95</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9589,13 +9565,13 @@
         <v>570</v>
       </c>
       <c r="F284" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G284" t="s">
         <v>5</v>
       </c>
       <c r="H284" s="3">
-        <v>1705.35</v>
+        <v>829.77</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9615,13 +9591,13 @@
         <v>572</v>
       </c>
       <c r="F285" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G285" t="s">
         <v>5</v>
       </c>
       <c r="H285" s="3">
-        <v>295.04</v>
+        <v>5140.98</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9641,13 +9617,13 @@
         <v>574</v>
       </c>
       <c r="F286" s="2">
-        <v>2.000</v>
+        <v>26.000</v>
       </c>
       <c r="G286" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H286" s="3">
-        <v>685.80</v>
+        <v>7144.80</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9667,13 +9643,13 @@
         <v>576</v>
       </c>
       <c r="F287" s="2">
-        <v>6.000</v>
+        <v>150.000</v>
       </c>
       <c r="G287" t="s">
         <v>5</v>
       </c>
       <c r="H287" s="3">
-        <v>17833.95</v>
+        <v>6184.77</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9693,13 +9669,13 @@
         <v>578</v>
       </c>
       <c r="F288" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G288" t="s">
         <v>5</v>
       </c>
       <c r="H288" s="3">
-        <v>829.77</v>
+        <v>390.16</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9719,13 +9695,13 @@
         <v>580</v>
       </c>
       <c r="F289" s="2">
-        <v>6.000</v>
+        <v>1.000</v>
       </c>
       <c r="G289" t="s">
         <v>5</v>
       </c>
       <c r="H289" s="3">
-        <v>5140.98</v>
+        <v>3115.88</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9745,13 +9721,13 @@
         <v>582</v>
       </c>
       <c r="F290" s="2">
-        <v>26.000</v>
+        <v>1.000</v>
       </c>
       <c r="G290" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H290" s="3">
-        <v>7144.80</v>
+        <v>722.95</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9771,13 +9747,13 @@
         <v>584</v>
       </c>
       <c r="F291" s="2">
-        <v>150.000</v>
+        <v>9.000</v>
       </c>
       <c r="G291" t="s">
         <v>5</v>
       </c>
       <c r="H291" s="3">
-        <v>6184.77</v>
+        <v>5851.42</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9797,13 +9773,13 @@
         <v>586</v>
       </c>
       <c r="F292" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G292" t="s">
         <v>5</v>
       </c>
       <c r="H292" s="3">
-        <v>390.16</v>
+        <v>2472.84</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9823,13 +9799,13 @@
         <v>588</v>
       </c>
       <c r="F293" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G293" t="s">
         <v>5</v>
       </c>
       <c r="H293" s="3">
-        <v>3115.88</v>
+        <v>1057.64</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9849,13 +9825,13 @@
         <v>590</v>
       </c>
       <c r="F294" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G294" t="s">
         <v>5</v>
       </c>
       <c r="H294" s="3">
-        <v>722.95</v>
+        <v>3375.18</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9875,13 +9851,13 @@
         <v>592</v>
       </c>
       <c r="F295" s="2">
-        <v>9.000</v>
+        <v>137.000</v>
       </c>
       <c r="G295" t="s">
         <v>5</v>
       </c>
       <c r="H295" s="3">
-        <v>5851.42</v>
+        <v>1546.59</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9907,7 +9883,7 @@
         <v>5</v>
       </c>
       <c r="H296" s="3">
-        <v>2472.84</v>
+        <v>92954.57</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9927,13 +9903,13 @@
         <v>596</v>
       </c>
       <c r="F297" s="2">
-        <v>3.000</v>
+        <v>9.000</v>
       </c>
       <c r="G297" t="s">
         <v>5</v>
       </c>
       <c r="H297" s="3">
-        <v>1057.64</v>
+        <v>9325.94</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9953,13 +9929,13 @@
         <v>598</v>
       </c>
       <c r="F298" s="2">
-        <v>10.000</v>
+        <v>134.000</v>
       </c>
       <c r="G298" t="s">
         <v>5</v>
       </c>
       <c r="H298" s="3">
-        <v>3375.18</v>
+        <v>1862.60</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9979,13 +9955,13 @@
         <v>600</v>
       </c>
       <c r="F299" s="2">
-        <v>137.000</v>
+        <v>34.000</v>
       </c>
       <c r="G299" t="s">
         <v>5</v>
       </c>
       <c r="H299" s="3">
-        <v>1546.59</v>
+        <v>5743.54</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10005,13 +9981,13 @@
         <v>602</v>
       </c>
       <c r="F300" s="2">
-        <v>4.000</v>
+        <v>995.450</v>
       </c>
       <c r="G300" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H300" s="3">
-        <v>92954.57</v>
+        <v>29023.15</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10031,13 +10007,13 @@
         <v>604</v>
       </c>
       <c r="F301" s="2">
-        <v>8.000</v>
+        <v>0.030</v>
       </c>
       <c r="G301" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H301" s="3">
-        <v>8289.73</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10057,13 +10033,13 @@
         <v>606</v>
       </c>
       <c r="F302" s="2">
-        <v>134.000</v>
+        <v>7588.030</v>
       </c>
       <c r="G302" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H302" s="3">
-        <v>1862.60</v>
+        <v>77503.80</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10083,13 +10059,13 @@
         <v>608</v>
       </c>
       <c r="F303" s="2">
-        <v>34.000</v>
+        <v>4341.740</v>
       </c>
       <c r="G303" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H303" s="3">
-        <v>5743.54</v>
+        <v>97205.65</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10109,13 +10085,13 @@
         <v>610</v>
       </c>
       <c r="F304" s="2">
-        <v>996.450</v>
+        <v>1421.310</v>
       </c>
       <c r="G304" t="s">
         <v>21</v>
       </c>
       <c r="H304" s="3">
-        <v>29052.32</v>
+        <v>44652.52</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10135,13 +10111,13 @@
         <v>612</v>
       </c>
       <c r="F305" s="2">
-        <v>0.030</v>
+        <v>643.140</v>
       </c>
       <c r="G305" t="s">
         <v>21</v>
       </c>
       <c r="H305" s="3">
-        <v>2.71</v>
+        <v>59009.19</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10161,13 +10137,13 @@
         <v>614</v>
       </c>
       <c r="F306" s="2">
-        <v>8011.930</v>
+        <v>3136.160</v>
       </c>
       <c r="G306" t="s">
         <v>21</v>
       </c>
       <c r="H306" s="3">
-        <v>81832.99</v>
+        <v>31424.71</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10187,13 +10163,13 @@
         <v>616</v>
       </c>
       <c r="F307" s="2">
-        <v>4394.140</v>
+        <v>1605.120</v>
       </c>
       <c r="G307" t="s">
         <v>21</v>
       </c>
       <c r="H307" s="3">
-        <v>98378.82</v>
+        <v>34731.49</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10213,13 +10189,13 @@
         <v>618</v>
       </c>
       <c r="F308" s="2">
-        <v>1147.310</v>
+        <v>649.890</v>
       </c>
       <c r="G308" t="s">
         <v>21</v>
       </c>
       <c r="H308" s="3">
-        <v>36044.42</v>
+        <v>22536.68</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10239,13 +10215,13 @@
         <v>620</v>
       </c>
       <c r="F309" s="2">
-        <v>647.140</v>
+        <v>30.200</v>
       </c>
       <c r="G309" t="s">
         <v>21</v>
       </c>
       <c r="H309" s="3">
-        <v>59376.20</v>
+        <v>2013.43</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10265,13 +10241,13 @@
         <v>622</v>
       </c>
       <c r="F310" s="2">
-        <v>3166.360</v>
+        <v>49.000</v>
       </c>
       <c r="G310" t="s">
         <v>21</v>
       </c>
       <c r="H310" s="3">
-        <v>31727.31</v>
+        <v>5423.81</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10291,13 +10267,13 @@
         <v>624</v>
       </c>
       <c r="F311" s="2">
-        <v>1609.120</v>
+        <v>85.500</v>
       </c>
       <c r="G311" t="s">
         <v>21</v>
       </c>
       <c r="H311" s="3">
-        <v>34818.04</v>
+        <v>13412.61</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10317,13 +10293,13 @@
         <v>626</v>
       </c>
       <c r="F312" s="2">
-        <v>652.890</v>
+        <v>4064.000</v>
       </c>
       <c r="G312" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H312" s="3">
-        <v>22640.72</v>
+        <v>10202.03</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10343,13 +10319,13 @@
         <v>628</v>
       </c>
       <c r="F313" s="2">
-        <v>30.200</v>
+        <v>115.000</v>
       </c>
       <c r="G313" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H313" s="3">
-        <v>2013.43</v>
+        <v>53288.13</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10369,13 +10345,13 @@
         <v>630</v>
       </c>
       <c r="F314" s="2">
-        <v>49.000</v>
+        <v>13.000</v>
       </c>
       <c r="G314" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H314" s="3">
-        <v>5423.81</v>
+        <v>793.91</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10395,13 +10371,13 @@
         <v>632</v>
       </c>
       <c r="F315" s="2">
-        <v>85.500</v>
+        <v>15.000</v>
       </c>
       <c r="G315" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H315" s="3">
-        <v>13412.61</v>
+        <v>2189.51</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10421,13 +10397,13 @@
         <v>634</v>
       </c>
       <c r="F316" s="2">
-        <v>4161.000</v>
+        <v>18.000</v>
       </c>
       <c r="G316" t="s">
         <v>5</v>
       </c>
       <c r="H316" s="3">
-        <v>10445.52</v>
+        <v>21927.31</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10447,13 +10423,13 @@
         <v>636</v>
       </c>
       <c r="F317" s="2">
-        <v>116.000</v>
+        <v>4061.000</v>
       </c>
       <c r="G317" t="s">
         <v>5</v>
       </c>
       <c r="H317" s="3">
-        <v>53751.50</v>
+        <v>323652.26</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10473,13 +10449,13 @@
         <v>638</v>
       </c>
       <c r="F318" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G318" t="s">
         <v>5</v>
       </c>
       <c r="H318" s="3">
-        <v>916.05</v>
+        <v>1479.92</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10499,13 +10475,13 @@
         <v>640</v>
       </c>
       <c r="F319" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G319" t="s">
         <v>5</v>
       </c>
       <c r="H319" s="3">
-        <v>2189.51</v>
+        <v>5961.18</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10525,13 +10501,13 @@
         <v>642</v>
       </c>
       <c r="F320" s="2">
-        <v>18.000</v>
+        <v>2.000</v>
       </c>
       <c r="G320" t="s">
         <v>5</v>
       </c>
       <c r="H320" s="3">
-        <v>21927.31</v>
+        <v>2131.03</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10551,13 +10527,13 @@
         <v>644</v>
       </c>
       <c r="F321" s="2">
-        <v>4090.000</v>
+        <v>2.000</v>
       </c>
       <c r="G321" t="s">
         <v>5</v>
       </c>
       <c r="H321" s="3">
-        <v>325963.55</v>
+        <v>2466.60</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10577,13 +10553,13 @@
         <v>646</v>
       </c>
       <c r="F322" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G322" t="s">
         <v>5</v>
       </c>
       <c r="H322" s="3">
-        <v>1479.92</v>
+        <v>1661.14</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10603,13 +10579,13 @@
         <v>648</v>
       </c>
       <c r="F323" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G323" t="s">
         <v>5</v>
       </c>
       <c r="H323" s="3">
-        <v>11922.37</v>
+        <v>12736.13</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10629,13 +10605,13 @@
         <v>650</v>
       </c>
       <c r="F324" s="2">
-        <v>2.000</v>
+        <v>3112.000</v>
       </c>
       <c r="G324" t="s">
         <v>5</v>
       </c>
       <c r="H324" s="3">
-        <v>2131.03</v>
+        <v>265967.08</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10655,13 +10631,13 @@
         <v>652</v>
       </c>
       <c r="F325" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G325" t="s">
         <v>5</v>
       </c>
       <c r="H325" s="3">
-        <v>2466.60</v>
+        <v>521.42</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10681,13 +10657,13 @@
         <v>654</v>
       </c>
       <c r="F326" s="2">
-        <v>3.000</v>
+        <v>44.000</v>
       </c>
       <c r="G326" t="s">
         <v>5</v>
       </c>
       <c r="H326" s="3">
-        <v>1661.14</v>
+        <v>3757.18</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10707,13 +10683,13 @@
         <v>656</v>
       </c>
       <c r="F327" s="2">
-        <v>2.000</v>
+        <v>2366.000</v>
       </c>
       <c r="G327" t="s">
         <v>5</v>
       </c>
       <c r="H327" s="3">
-        <v>12736.13</v>
+        <v>62075.65</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10733,13 +10709,13 @@
         <v>658</v>
       </c>
       <c r="F328" s="2">
-        <v>3400.000</v>
+        <v>1.000</v>
       </c>
       <c r="G328" t="s">
         <v>5</v>
       </c>
       <c r="H328" s="3">
-        <v>290581.00</v>
+        <v>1167.91</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10759,13 +10735,13 @@
         <v>660</v>
       </c>
       <c r="F329" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G329" t="s">
         <v>5</v>
       </c>
       <c r="H329" s="3">
-        <v>521.42</v>
+        <v>3312.79</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10785,13 +10761,13 @@
         <v>662</v>
       </c>
       <c r="F330" s="2">
-        <v>50.000</v>
+        <v>2.000</v>
       </c>
       <c r="G330" t="s">
         <v>5</v>
       </c>
       <c r="H330" s="3">
-        <v>4269.52</v>
+        <v>1065.54</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10811,13 +10787,13 @@
         <v>664</v>
       </c>
       <c r="F331" s="2">
-        <v>2819.000</v>
+        <v>9.000</v>
       </c>
       <c r="G331" t="s">
         <v>5</v>
       </c>
       <c r="H331" s="3">
-        <v>73961.02</v>
+        <v>3452.33</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10837,13 +10813,13 @@
         <v>666</v>
       </c>
       <c r="F332" s="2">
-        <v>1.000</v>
+        <v>302.000</v>
       </c>
       <c r="G332" t="s">
         <v>5</v>
       </c>
       <c r="H332" s="3">
-        <v>1167.91</v>
+        <v>13818.01</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10863,13 +10839,13 @@
         <v>668</v>
       </c>
       <c r="F333" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G333" t="s">
         <v>5</v>
       </c>
       <c r="H333" s="3">
-        <v>3312.79</v>
+        <v>2547.86</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10889,13 +10865,13 @@
         <v>670</v>
       </c>
       <c r="F334" s="2">
-        <v>2.000</v>
+        <v>264.000</v>
       </c>
       <c r="G334" t="s">
         <v>5</v>
       </c>
       <c r="H334" s="3">
-        <v>1065.54</v>
+        <v>6531.71</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10915,13 +10891,13 @@
         <v>672</v>
       </c>
       <c r="F335" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G335" t="s">
         <v>5</v>
       </c>
       <c r="H335" s="3">
-        <v>3924.69</v>
+        <v>17092.40</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10941,13 +10917,13 @@
         <v>674</v>
       </c>
       <c r="F336" s="2">
-        <v>308.000</v>
+        <v>338.000</v>
       </c>
       <c r="G336" t="s">
         <v>5</v>
       </c>
       <c r="H336" s="3">
-        <v>14092.54</v>
+        <v>195283.77</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10967,117 +10943,13 @@
         <v>676</v>
       </c>
       <c r="F337" s="2">
-        <v>2.000</v>
+        <v>2294.000</v>
       </c>
       <c r="G337" t="s">
         <v>5</v>
       </c>
       <c r="H337" s="3">
-        <v>2547.86</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1</v>
-      </c>
-      <c r="C338" t="s">
-        <v>2</v>
-      </c>
-      <c r="D338" t="s">
-        <v>677</v>
-      </c>
-      <c r="E338" t="s">
-        <v>678</v>
-      </c>
-      <c r="F338" s="2">
-        <v>266.000</v>
-      </c>
-      <c r="G338" t="s">
-        <v>5</v>
-      </c>
-      <c r="H338" s="3">
-        <v>6581.19</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="A339" t="s">
-        <v>0</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1</v>
-      </c>
-      <c r="C339" t="s">
-        <v>2</v>
-      </c>
-      <c r="D339" t="s">
-        <v>679</v>
-      </c>
-      <c r="E339" t="s">
-        <v>680</v>
-      </c>
-      <c r="F339" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G339" t="s">
-        <v>5</v>
-      </c>
-      <c r="H339" s="3">
-        <v>8546.20</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="A340" t="s">
-        <v>0</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" t="s">
-        <v>2</v>
-      </c>
-      <c r="D340" t="s">
-        <v>681</v>
-      </c>
-      <c r="E340" t="s">
-        <v>682</v>
-      </c>
-      <c r="F340" s="2">
-        <v>338.000</v>
-      </c>
-      <c r="G340" t="s">
-        <v>5</v>
-      </c>
-      <c r="H340" s="3">
-        <v>196403.35</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="A341" t="s">
-        <v>0</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1</v>
-      </c>
-      <c r="C341" t="s">
-        <v>2</v>
-      </c>
-      <c r="D341" t="s">
-        <v>683</v>
-      </c>
-      <c r="E341" t="s">
-        <v>684</v>
-      </c>
-      <c r="F341" s="2">
-        <v>2170.000</v>
-      </c>
-      <c r="G341" t="s">
-        <v>5</v>
-      </c>
-      <c r="H341" s="3">
-        <v>294766.79</v>
+        <v>319029.48</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="683">
   <si>
     <t>4600042975</t>
   </si>
@@ -85,6 +85,12 @@
     <t>CURVA 90 GR PVC PB JE ESG DN 150</t>
   </si>
   <si>
+    <t>30000187</t>
+  </si>
+  <si>
+    <t>HIDRANTE COLUNA C/ BASE FLANGEADA DN 100</t>
+  </si>
+  <si>
     <t>30000190</t>
   </si>
   <si>
@@ -349,6 +355,12 @@
     <t>SELIM 90 G PVC DN 300 X 100 ENCAIXE</t>
   </si>
   <si>
+    <t>30001670</t>
+  </si>
+  <si>
+    <t>FORA ESPECIFICAÇÃO TAMPAO FFDN900RUA/ESG</t>
+  </si>
+  <si>
     <t>30001683</t>
   </si>
   <si>
@@ -445,6 +457,12 @@
     <t>CAP FF DUCTIL BOLSA JE2GS DN150</t>
   </si>
   <si>
+    <t>30002356</t>
+  </si>
+  <si>
+    <t>CAP FF PARA PVC - EN 12842 DN 50</t>
+  </si>
+  <si>
     <t>30002393</t>
   </si>
   <si>
@@ -571,12 +589,6 @@
     <t>SELIM AJUST TUBO PVC E CER DN 200X100</t>
   </si>
   <si>
-    <t>30003442</t>
-  </si>
-  <si>
-    <t>FORA ESPEC TAMPAO FFCXC/TAMP ARTP/VALVT5</t>
-  </si>
-  <si>
     <t>30003467</t>
   </si>
   <si>
@@ -703,12 +715,6 @@
     <t>TE FF TRI FL DN500X150 PN10/16 LMIN=500</t>
   </si>
   <si>
-    <t>30003741</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN500X50 PN10/16/25 LMIN500</t>
-  </si>
-  <si>
     <t>30003756</t>
   </si>
   <si>
@@ -979,6 +985,12 @@
     <t>CRUZETA PVC BBBB JE PBA DN 100 X 75</t>
   </si>
   <si>
+    <t>30005087</t>
+  </si>
+  <si>
+    <t>CONEXOES MET LIGACOES DOMICIL ADAP FEMEA</t>
+  </si>
+  <si>
     <t>30005088</t>
   </si>
   <si>
@@ -1171,12 +1183,6 @@
     <t>LUVA ELETROF - DE 32 - SDR 11 - PE 100</t>
   </si>
   <si>
-    <t>30005752</t>
-  </si>
-  <si>
-    <t>LUVA ELETROF - DE 63 - SDR 11 - PE 100</t>
-  </si>
-  <si>
     <t>30005755</t>
   </si>
   <si>
@@ -1345,12 +1351,6 @@
     <t>TE FF TRI FL DN400X150 PN10/16 LMIN=500</t>
   </si>
   <si>
-    <t>30007186</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN600X150 PN10/16 LMIN=500</t>
-  </si>
-  <si>
     <t>30007189</t>
   </si>
   <si>
@@ -1573,12 +1573,6 @@
     <t>ADAPT PVC PPVC X BFF REKA DN 75 X 75</t>
   </si>
   <si>
-    <t>30008284</t>
-  </si>
-  <si>
-    <t>COTOV 45 GR ELETROF DE 225 SDR 11 PE 100</t>
-  </si>
-  <si>
     <t>30008307</t>
   </si>
   <si>
@@ -1594,6 +1588,12 @@
     <t>CURVA 90 GR PVC PB JE ESG DN 150 LONGA</t>
   </si>
   <si>
+    <t>30008324</t>
+  </si>
+  <si>
+    <t>CURVA 90GR FF BOLSAS JE DN200</t>
+  </si>
+  <si>
     <t>30008335</t>
   </si>
   <si>
@@ -1642,6 +1642,12 @@
     <t>REDUCAO CONCENTRICA ELETROF - DE 90 X 63</t>
   </si>
   <si>
+    <t>30008669</t>
+  </si>
+  <si>
+    <t>TAMPAO TIL - TUBO DE INSP E LIMP DL 100</t>
+  </si>
+  <si>
     <t>30008671</t>
   </si>
   <si>
@@ -1798,12 +1804,6 @@
     <t>LUVA AJUST.DN 450 DE 450-482 TRAVA AXIAL</t>
   </si>
   <si>
-    <t>30023271</t>
-  </si>
-  <si>
-    <t>LUVA AJUST.FL DN 50 TRAVA AX DE 57-64 MM</t>
-  </si>
-  <si>
     <t>30025022</t>
   </si>
   <si>
@@ -1820,12 +1820,6 @@
   </si>
   <si>
     <t>TUBO PVC RIG PB JEI/JERI DN 75 CL. 20</t>
-  </si>
-  <si>
-    <t>30028787</t>
-  </si>
-  <si>
-    <t>TUBO PVC-U ESG DE 315 PAR CEL CM 6M</t>
   </si>
   <si>
     <t>30028856</t>
@@ -2172,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2192,28 +2186,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2259,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>477180.890</v>
+        <v>449991.890</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="3">
-        <v>710997.70</v>
+        <v>670486.10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2467,13 +2461,13 @@
         <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="3">
-        <v>7424.33</v>
+        <v>1784.99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2493,13 +2487,13 @@
         <v>27</v>
       </c>
       <c r="F12" s="2">
-        <v>195.000</v>
+        <v>2.000</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>6514.75</v>
+        <v>7424.33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2519,13 +2513,13 @@
         <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>24.000</v>
+        <v>197.000</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>3305.94</v>
+        <v>6581.57</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2545,13 +2539,13 @@
         <v>31</v>
       </c>
       <c r="F14" s="2">
-        <v>76.000</v>
+        <v>21.000</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>7487.71</v>
+        <v>2892.70</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2571,13 +2565,13 @@
         <v>33</v>
       </c>
       <c r="F15" s="2">
-        <v>2.000</v>
+        <v>76.000</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>4581.87</v>
+        <v>7487.71</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2597,13 +2591,13 @@
         <v>35</v>
       </c>
       <c r="F16" s="2">
-        <v>171.000</v>
+        <v>2.000</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>5122.28</v>
+        <v>4581.87</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2623,13 +2617,13 @@
         <v>37</v>
       </c>
       <c r="F17" s="2">
-        <v>1.000</v>
+        <v>170.000</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>938.52</v>
+        <v>5092.33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2649,13 +2643,13 @@
         <v>39</v>
       </c>
       <c r="F18" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>399.86</v>
+        <v>938.52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2681,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="3">
-        <v>621.34</v>
+        <v>399.86</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2701,13 +2695,13 @@
         <v>43</v>
       </c>
       <c r="F20" s="2">
-        <v>11.000</v>
+        <v>4.000</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>1081.91</v>
+        <v>497.07</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2727,13 +2721,13 @@
         <v>45</v>
       </c>
       <c r="F21" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>12396.89</v>
+        <v>1081.91</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2753,13 +2747,13 @@
         <v>47</v>
       </c>
       <c r="F22" s="2">
-        <v>58.000</v>
+        <v>1.000</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>5489.94</v>
+        <v>12396.89</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2779,13 +2773,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="2">
-        <v>20.000</v>
+        <v>55.000</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>89.31</v>
+        <v>5205.98</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2805,13 +2799,13 @@
         <v>51</v>
       </c>
       <c r="F24" s="2">
-        <v>3.000</v>
+        <v>20.000</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>77.40</v>
+        <v>89.31</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2831,13 +2825,13 @@
         <v>53</v>
       </c>
       <c r="F25" s="2">
-        <v>9.000</v>
+        <v>3.000</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>3237.61</v>
+        <v>77.40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2857,13 +2851,13 @@
         <v>55</v>
       </c>
       <c r="F26" s="2">
-        <v>10.000</v>
+        <v>9.000</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>2565.61</v>
+        <v>3237.61</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2883,13 +2877,13 @@
         <v>57</v>
       </c>
       <c r="F27" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>150.52</v>
+        <v>2565.61</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2909,13 +2903,13 @@
         <v>59</v>
       </c>
       <c r="F28" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="3">
-        <v>504.02</v>
+        <v>150.52</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2935,13 +2929,13 @@
         <v>61</v>
       </c>
       <c r="F29" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>1626.61</v>
+        <v>252.01</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2961,13 +2955,13 @@
         <v>63</v>
       </c>
       <c r="F30" s="2">
-        <v>3.000</v>
+        <v>12.000</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>6733.09</v>
+        <v>2439.90</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2987,13 +2981,13 @@
         <v>65</v>
       </c>
       <c r="F31" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="3">
-        <v>3157.92</v>
+        <v>6733.09</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3013,13 +3007,13 @@
         <v>67</v>
       </c>
       <c r="F32" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>4382.06</v>
+        <v>3157.92</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3039,13 +3033,13 @@
         <v>69</v>
       </c>
       <c r="F33" s="2">
-        <v>6.000</v>
+        <v>10.000</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="3">
-        <v>1379.76</v>
+        <v>4382.06</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3065,13 +3059,13 @@
         <v>71</v>
       </c>
       <c r="F34" s="2">
-        <v>4.000</v>
+        <v>6.000</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H34" s="3">
-        <v>3200.77</v>
+        <v>1379.76</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3091,13 +3085,13 @@
         <v>73</v>
       </c>
       <c r="F35" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>1055.94</v>
+        <v>3200.77</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3117,13 +3111,13 @@
         <v>75</v>
       </c>
       <c r="F36" s="2">
-        <v>70.000</v>
+        <v>1.000</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>4987.85</v>
+        <v>1055.94</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3143,13 +3137,13 @@
         <v>77</v>
       </c>
       <c r="F37" s="2">
-        <v>3.000</v>
+        <v>70.000</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="3">
-        <v>135.03</v>
+        <v>4987.85</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3169,13 +3163,13 @@
         <v>79</v>
       </c>
       <c r="F38" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="3">
-        <v>873.15</v>
+        <v>90.02</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3195,13 +3189,13 @@
         <v>81</v>
       </c>
       <c r="F39" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="3">
-        <v>85.59</v>
+        <v>873.15</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3221,13 +3215,13 @@
         <v>83</v>
       </c>
       <c r="F40" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>1998.30</v>
+        <v>85.59</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3253,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>4682.98</v>
+        <v>1998.30</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3273,13 +3267,13 @@
         <v>87</v>
       </c>
       <c r="F42" s="2">
-        <v>446.000</v>
+        <v>1.000</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>9395.79</v>
+        <v>4682.98</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3299,13 +3293,13 @@
         <v>89</v>
       </c>
       <c r="F43" s="2">
-        <v>1.000</v>
+        <v>443.000</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>460.29</v>
+        <v>9332.58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3325,13 +3319,13 @@
         <v>91</v>
       </c>
       <c r="F44" s="2">
-        <v>4322.000</v>
+        <v>1.000</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>39594.73</v>
+        <v>460.29</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3351,13 +3345,13 @@
         <v>93</v>
       </c>
       <c r="F45" s="2">
-        <v>15.000</v>
+        <v>4337.000</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>930.59</v>
+        <v>39732.41</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3377,13 +3371,13 @@
         <v>95</v>
       </c>
       <c r="F46" s="2">
-        <v>13.000</v>
+        <v>15.000</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>2420.53</v>
+        <v>930.59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3403,13 +3397,13 @@
         <v>97</v>
       </c>
       <c r="F47" s="2">
-        <v>1.000</v>
+        <v>13.000</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>207.52</v>
+        <v>2420.53</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3429,13 +3423,13 @@
         <v>99</v>
       </c>
       <c r="F48" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>5712.24</v>
+        <v>207.52</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3455,13 +3449,13 @@
         <v>101</v>
       </c>
       <c r="F49" s="2">
-        <v>28.000</v>
+        <v>7.000</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>458.93</v>
+        <v>5712.24</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3481,13 +3475,13 @@
         <v>103</v>
       </c>
       <c r="F50" s="2">
-        <v>5.000</v>
+        <v>11.000</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <v>376.40</v>
+        <v>180.29</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3507,13 +3501,13 @@
         <v>105</v>
       </c>
       <c r="F51" s="2">
-        <v>33.000</v>
+        <v>5.000</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="3">
-        <v>1984.50</v>
+        <v>376.40</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3533,13 +3527,13 @@
         <v>107</v>
       </c>
       <c r="F52" s="2">
-        <v>8.000</v>
+        <v>33.000</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>359.90</v>
+        <v>1984.50</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3559,13 +3553,13 @@
         <v>109</v>
       </c>
       <c r="F53" s="2">
-        <v>3.000</v>
+        <v>8.000</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="3">
-        <v>72.81</v>
+        <v>359.90</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3585,13 +3579,13 @@
         <v>111</v>
       </c>
       <c r="F54" s="2">
-        <v>57.000</v>
+        <v>2.000</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>2031.69</v>
+        <v>48.54</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3611,13 +3605,13 @@
         <v>113</v>
       </c>
       <c r="F55" s="2">
-        <v>28.000</v>
+        <v>55.000</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="3">
-        <v>650.33</v>
+        <v>1960.40</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3637,13 +3631,13 @@
         <v>115</v>
       </c>
       <c r="F56" s="2">
-        <v>91.140</v>
+        <v>2.000</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H56" s="3">
-        <v>23635.38</v>
+        <v>1372.23</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3663,13 +3657,13 @@
         <v>117</v>
       </c>
       <c r="F57" s="2">
-        <v>27900.340</v>
+        <v>28.000</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>63325.50</v>
+        <v>650.33</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3689,13 +3683,13 @@
         <v>119</v>
       </c>
       <c r="F58" s="2">
-        <v>38.000</v>
+        <v>91.140</v>
       </c>
       <c r="G58" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H58" s="3">
-        <v>13930.88</v>
+        <v>23635.38</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3715,13 +3709,13 @@
         <v>121</v>
       </c>
       <c r="F59" s="2">
-        <v>4.000</v>
+        <v>26308.820</v>
       </c>
       <c r="G59" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H59" s="3">
-        <v>1267.35</v>
+        <v>59713.27</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3741,13 +3735,13 @@
         <v>123</v>
       </c>
       <c r="F60" s="2">
-        <v>2.000</v>
+        <v>30.000</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>1489.56</v>
+        <v>10998.07</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3767,13 +3761,13 @@
         <v>125</v>
       </c>
       <c r="F61" s="2">
-        <v>30.000</v>
+        <v>4.000</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="3">
-        <v>7396.64</v>
+        <v>1267.35</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3793,13 +3787,13 @@
         <v>127</v>
       </c>
       <c r="F62" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>570.00</v>
+        <v>1489.56</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3819,13 +3813,13 @@
         <v>129</v>
       </c>
       <c r="F63" s="2">
-        <v>7.000</v>
+        <v>30.000</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="3">
-        <v>594.91</v>
+        <v>7396.64</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3845,13 +3839,13 @@
         <v>131</v>
       </c>
       <c r="F64" s="2">
-        <v>41.000</v>
+        <v>15.000</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
       </c>
       <c r="H64" s="3">
-        <v>1561.21</v>
+        <v>570.00</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3871,13 +3865,13 @@
         <v>133</v>
       </c>
       <c r="F65" s="2">
-        <v>130.000</v>
+        <v>7.000</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
       </c>
       <c r="H65" s="3">
-        <v>696.80</v>
+        <v>594.91</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3897,13 +3891,13 @@
         <v>135</v>
       </c>
       <c r="F66" s="2">
-        <v>2.000</v>
+        <v>41.000</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>5237.47</v>
+        <v>1561.21</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3923,13 +3917,13 @@
         <v>137</v>
       </c>
       <c r="F67" s="2">
-        <v>2.000</v>
+        <v>130.000</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
       </c>
       <c r="H67" s="3">
-        <v>1726.34</v>
+        <v>696.80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3949,13 +3943,13 @@
         <v>139</v>
       </c>
       <c r="F68" s="2">
-        <v>7.000</v>
+        <v>2.000</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="3">
-        <v>1314.83</v>
+        <v>5237.47</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3975,13 +3969,13 @@
         <v>141</v>
       </c>
       <c r="F69" s="2">
-        <v>70.000</v>
+        <v>2.000</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
       </c>
       <c r="H69" s="3">
-        <v>1944.05</v>
+        <v>1726.34</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4001,13 +3995,13 @@
         <v>143</v>
       </c>
       <c r="F70" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
       </c>
       <c r="H70" s="3">
-        <v>197.65</v>
+        <v>1314.83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4027,13 +4021,13 @@
         <v>145</v>
       </c>
       <c r="F71" s="2">
-        <v>9.000</v>
+        <v>69.000</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="3">
-        <v>243.40</v>
+        <v>1916.28</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4053,13 +4047,13 @@
         <v>147</v>
       </c>
       <c r="F72" s="2">
-        <v>4252.000</v>
+        <v>2.000</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>43806.83</v>
+        <v>197.65</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4079,13 +4073,13 @@
         <v>149</v>
       </c>
       <c r="F73" s="2">
-        <v>14.000</v>
+        <v>5.000</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="3">
-        <v>623.35</v>
+        <v>162.69</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4105,13 +4099,13 @@
         <v>151</v>
       </c>
       <c r="F74" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
       <c r="H74" s="3">
-        <v>39.63</v>
+        <v>243.41</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4131,13 +4125,13 @@
         <v>153</v>
       </c>
       <c r="F75" s="2">
-        <v>2.000</v>
+        <v>4221.000</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="3">
-        <v>25.31</v>
+        <v>43487.65</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4157,13 +4151,13 @@
         <v>155</v>
       </c>
       <c r="F76" s="2">
-        <v>1.000</v>
+        <v>14.000</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>25.81</v>
+        <v>623.35</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4183,13 +4177,13 @@
         <v>157</v>
       </c>
       <c r="F77" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
       </c>
       <c r="H77" s="3">
-        <v>25707.02</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4209,13 +4203,13 @@
         <v>159</v>
       </c>
       <c r="F78" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>275.00</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4235,13 +4229,13 @@
         <v>161</v>
       </c>
       <c r="F79" s="2">
-        <v>838.000</v>
+        <v>1.000</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="3">
-        <v>5429.28</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4261,13 +4255,13 @@
         <v>163</v>
       </c>
       <c r="F80" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="3">
-        <v>387.41</v>
+        <v>25707.02</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4287,13 +4281,13 @@
         <v>165</v>
       </c>
       <c r="F81" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>9170.01</v>
+        <v>275.00</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4313,13 +4307,13 @@
         <v>167</v>
       </c>
       <c r="F82" s="2">
-        <v>3.000</v>
+        <v>813.000</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="3">
-        <v>1237.70</v>
+        <v>5267.32</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4339,13 +4333,13 @@
         <v>169</v>
       </c>
       <c r="F83" s="2">
-        <v>554.000</v>
+        <v>1.000</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>4000.56</v>
+        <v>387.41</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4365,13 +4359,13 @@
         <v>171</v>
       </c>
       <c r="F84" s="2">
-        <v>32.000</v>
+        <v>2.000</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
       <c r="H84" s="3">
-        <v>6613.64</v>
+        <v>9170.01</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4391,13 +4385,13 @@
         <v>173</v>
       </c>
       <c r="F85" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="3">
-        <v>1566.88</v>
+        <v>1237.70</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4417,13 +4411,13 @@
         <v>175</v>
       </c>
       <c r="F86" s="2">
-        <v>4.000</v>
+        <v>551.000</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
       </c>
       <c r="H86" s="3">
-        <v>3894.16</v>
+        <v>3975.45</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4443,13 +4437,13 @@
         <v>177</v>
       </c>
       <c r="F87" s="2">
-        <v>2.000</v>
+        <v>30.000</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="3">
-        <v>558.66</v>
+        <v>6200.29</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4469,13 +4463,13 @@
         <v>179</v>
       </c>
       <c r="F88" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="3">
-        <v>1541.22</v>
+        <v>391.72</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4495,13 +4489,13 @@
         <v>181</v>
       </c>
       <c r="F89" s="2">
-        <v>13.000</v>
+        <v>4.000</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>486.40</v>
+        <v>3894.16</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4521,13 +4515,13 @@
         <v>183</v>
       </c>
       <c r="F90" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
       </c>
       <c r="H90" s="3">
-        <v>5439.92</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4547,13 +4541,13 @@
         <v>185</v>
       </c>
       <c r="F91" s="2">
-        <v>381.000</v>
+        <v>13.000</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>66529.14</v>
+        <v>1335.73</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4579,7 +4573,7 @@
         <v>5</v>
       </c>
       <c r="H92" s="3">
-        <v>226.17</v>
+        <v>224.49</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4599,13 +4593,13 @@
         <v>189</v>
       </c>
       <c r="F93" s="2">
-        <v>21.000</v>
+        <v>3.000</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="3">
-        <v>357.02</v>
+        <v>5439.92</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4625,13 +4619,13 @@
         <v>191</v>
       </c>
       <c r="F94" s="2">
-        <v>15.000</v>
+        <v>540.000</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>1190.74</v>
+        <v>94293.26</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4651,13 +4645,13 @@
         <v>193</v>
       </c>
       <c r="F95" s="2">
-        <v>2.000</v>
+        <v>20.000</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="3">
-        <v>289.49</v>
+        <v>340.02</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4677,13 +4671,13 @@
         <v>195</v>
       </c>
       <c r="F96" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="3">
-        <v>119.58</v>
+        <v>1190.74</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4709,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <v>676.65</v>
+        <v>289.49</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4729,13 +4723,13 @@
         <v>199</v>
       </c>
       <c r="F98" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>152.05</v>
+        <v>119.58</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4755,13 +4749,13 @@
         <v>201</v>
       </c>
       <c r="F99" s="2">
-        <v>12.000</v>
+        <v>2.000</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>1342.27</v>
+        <v>676.65</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4781,13 +4775,13 @@
         <v>203</v>
       </c>
       <c r="F100" s="2">
-        <v>239.000</v>
+        <v>2.000</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>10260.85</v>
+        <v>152.05</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4807,13 +4801,13 @@
         <v>205</v>
       </c>
       <c r="F101" s="2">
-        <v>558.000</v>
+        <v>12.000</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>38638.70</v>
+        <v>1342.27</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4833,13 +4827,13 @@
         <v>207</v>
       </c>
       <c r="F102" s="2">
-        <v>1.000</v>
+        <v>239.000</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>472.35</v>
+        <v>10260.85</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4859,13 +4853,13 @@
         <v>209</v>
       </c>
       <c r="F103" s="2">
-        <v>2.000</v>
+        <v>549.000</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="3">
-        <v>238.65</v>
+        <v>38015.50</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4891,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="H104" s="3">
-        <v>366.72</v>
+        <v>472.35</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4911,13 +4905,13 @@
         <v>213</v>
       </c>
       <c r="F105" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
       </c>
       <c r="H105" s="3">
-        <v>480.82</v>
+        <v>238.65</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4943,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="3">
-        <v>917.47</v>
+        <v>366.72</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4963,13 +4957,13 @@
         <v>217</v>
       </c>
       <c r="F107" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
       </c>
       <c r="H107" s="3">
-        <v>562.37</v>
+        <v>961.64</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4995,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <v>884.45</v>
+        <v>917.47</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5015,13 +5009,13 @@
         <v>221</v>
       </c>
       <c r="F109" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
       </c>
       <c r="H109" s="3">
-        <v>2049.23</v>
+        <v>562.37</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5041,13 +5035,13 @@
         <v>223</v>
       </c>
       <c r="F110" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="H110" s="3">
-        <v>574.64</v>
+        <v>884.45</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5067,13 +5061,13 @@
         <v>225</v>
       </c>
       <c r="F111" s="2">
-        <v>9.000</v>
+        <v>10.000</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
       </c>
       <c r="H111" s="3">
-        <v>780.61</v>
+        <v>2049.23</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5099,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="3">
-        <v>2982.22</v>
+        <v>574.64</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5119,13 +5113,13 @@
         <v>229</v>
       </c>
       <c r="F113" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="3">
-        <v>8727.40</v>
+        <v>780.61</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5145,13 +5139,13 @@
         <v>231</v>
       </c>
       <c r="F114" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>2885.82</v>
+        <v>2982.22</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5171,13 +5165,13 @@
         <v>233</v>
       </c>
       <c r="F115" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>490.00</v>
+        <v>8727.40</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5197,13 +5191,13 @@
         <v>235</v>
       </c>
       <c r="F116" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>733.37</v>
+        <v>490.00</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5223,13 +5217,13 @@
         <v>237</v>
       </c>
       <c r="F117" s="2">
-        <v>1578.050</v>
+        <v>1.000</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H117" s="3">
-        <v>171951.85</v>
+        <v>733.37</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5249,13 +5243,13 @@
         <v>239</v>
       </c>
       <c r="F118" s="2">
-        <v>1.810</v>
+        <v>1578.050</v>
       </c>
       <c r="G118" t="s">
         <v>21</v>
       </c>
       <c r="H118" s="3">
-        <v>362.00</v>
+        <v>171951.85</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5275,13 +5269,13 @@
         <v>241</v>
       </c>
       <c r="F119" s="2">
-        <v>438.000</v>
+        <v>1.810</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
       </c>
       <c r="H119" s="3">
-        <v>95952.60</v>
+        <v>362.00</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5301,13 +5295,13 @@
         <v>243</v>
       </c>
       <c r="F120" s="2">
-        <v>829.000</v>
+        <v>425.000</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
       </c>
       <c r="H120" s="3">
-        <v>641065.70</v>
+        <v>93104.69</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5327,13 +5321,13 @@
         <v>245</v>
       </c>
       <c r="F121" s="2">
-        <v>32.000</v>
+        <v>829.000</v>
       </c>
       <c r="G121" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H121" s="3">
-        <v>187.36</v>
+        <v>641065.70</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5353,13 +5347,13 @@
         <v>247</v>
       </c>
       <c r="F122" s="2">
-        <v>1.000</v>
+        <v>16.000</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="3">
-        <v>431.01</v>
+        <v>93.68</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5385,7 +5379,7 @@
         <v>5</v>
       </c>
       <c r="H123" s="3">
-        <v>6585.02</v>
+        <v>431.02</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5405,13 +5399,13 @@
         <v>251</v>
       </c>
       <c r="F124" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="3">
-        <v>14094.09</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5431,13 +5425,13 @@
         <v>253</v>
       </c>
       <c r="F125" s="2">
-        <v>11.000</v>
+        <v>13.000</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="3">
-        <v>6196.52</v>
+        <v>12214.88</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5457,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="F126" s="2">
-        <v>7.000</v>
+        <v>11.000</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="3">
-        <v>3816.25</v>
+        <v>6196.52</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5483,13 +5477,13 @@
         <v>257</v>
       </c>
       <c r="F127" s="2">
-        <v>7.000</v>
+        <v>6.000</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H127" s="3">
-        <v>2657.58</v>
+        <v>3271.07</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5509,13 +5503,13 @@
         <v>259</v>
       </c>
       <c r="F128" s="2">
-        <v>3.000</v>
+        <v>7.000</v>
       </c>
       <c r="G128" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H128" s="3">
-        <v>3855.50</v>
+        <v>2657.58</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5535,13 +5529,13 @@
         <v>261</v>
       </c>
       <c r="F129" s="2">
-        <v>9.000</v>
+        <v>3.000</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <v>2303.27</v>
+        <v>3855.50</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5561,13 +5555,13 @@
         <v>263</v>
       </c>
       <c r="F130" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130" s="3">
-        <v>501.52</v>
+        <v>2303.27</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5587,13 +5581,13 @@
         <v>265</v>
       </c>
       <c r="F131" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="3">
-        <v>6.38</v>
+        <v>501.52</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5619,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="H132" s="3">
-        <v>487.90</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5645,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>116.87</v>
+        <v>292.74</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5665,13 +5659,13 @@
         <v>271</v>
       </c>
       <c r="F134" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>1131.44</v>
+        <v>116.87</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5691,13 +5685,13 @@
         <v>273</v>
       </c>
       <c r="F135" s="2">
-        <v>7.000</v>
+        <v>2.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>295.66</v>
+        <v>1131.44</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5717,13 +5711,13 @@
         <v>275</v>
       </c>
       <c r="F136" s="2">
-        <v>32.000</v>
+        <v>6.000</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
       </c>
       <c r="H136" s="3">
-        <v>1624.90</v>
+        <v>253.42</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5743,13 +5737,13 @@
         <v>277</v>
       </c>
       <c r="F137" s="2">
-        <v>2.000</v>
+        <v>31.000</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>309.33</v>
+        <v>1574.12</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5775,7 +5769,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="3">
-        <v>98.23</v>
+        <v>309.33</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5795,13 +5789,13 @@
         <v>281</v>
       </c>
       <c r="F139" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="3">
-        <v>41.84</v>
+        <v>98.23</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5821,13 +5815,13 @@
         <v>283</v>
       </c>
       <c r="F140" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
       </c>
       <c r="H140" s="3">
-        <v>2941.20</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5847,13 +5841,13 @@
         <v>285</v>
       </c>
       <c r="F141" s="2">
-        <v>2.000</v>
+        <v>10.000</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
       <c r="H141" s="3">
-        <v>798.38</v>
+        <v>2941.20</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5873,13 +5867,13 @@
         <v>287</v>
       </c>
       <c r="F142" s="2">
-        <v>75.000</v>
+        <v>2.000</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
       </c>
       <c r="H142" s="3">
-        <v>3523.05</v>
+        <v>798.38</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5899,13 +5893,13 @@
         <v>289</v>
       </c>
       <c r="F143" s="2">
-        <v>29.000</v>
+        <v>75.000</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="3">
-        <v>920.29</v>
+        <v>3523.06</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5925,13 +5919,13 @@
         <v>291</v>
       </c>
       <c r="F144" s="2">
-        <v>35.000</v>
+        <v>29.000</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
       </c>
       <c r="H144" s="3">
-        <v>5549.02</v>
+        <v>920.29</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5951,13 +5945,13 @@
         <v>293</v>
       </c>
       <c r="F145" s="2">
-        <v>100.000</v>
+        <v>31.000</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="3">
-        <v>55877.69</v>
+        <v>4914.84</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5977,13 +5971,13 @@
         <v>295</v>
       </c>
       <c r="F146" s="2">
-        <v>39.000</v>
+        <v>77.000</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <v>4902.49</v>
+        <v>43025.81</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6003,13 +5997,13 @@
         <v>297</v>
       </c>
       <c r="F147" s="2">
-        <v>28.000</v>
+        <v>39.000</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="3">
-        <v>748.33</v>
+        <v>4902.49</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6029,13 +6023,13 @@
         <v>299</v>
       </c>
       <c r="F148" s="2">
-        <v>66.000</v>
+        <v>28.000</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
       </c>
       <c r="H148" s="3">
-        <v>1240.14</v>
+        <v>748.33</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6055,13 +6049,13 @@
         <v>301</v>
       </c>
       <c r="F149" s="2">
-        <v>31.000</v>
+        <v>65.000</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="3">
-        <v>6006.41</v>
+        <v>1221.35</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6081,13 +6075,13 @@
         <v>303</v>
       </c>
       <c r="F150" s="2">
-        <v>2.000</v>
+        <v>31.000</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="3">
-        <v>58.34</v>
+        <v>6006.40</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6107,13 +6101,13 @@
         <v>305</v>
       </c>
       <c r="F151" s="2">
-        <v>7.000</v>
+        <v>2.000</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>1228.86</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6133,13 +6127,13 @@
         <v>307</v>
       </c>
       <c r="F152" s="2">
-        <v>6.000</v>
+        <v>7.000</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="3">
-        <v>223.04</v>
+        <v>1228.86</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6159,13 +6153,13 @@
         <v>309</v>
       </c>
       <c r="F153" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="3">
-        <v>556.00</v>
+        <v>223.04</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6185,13 +6179,13 @@
         <v>311</v>
       </c>
       <c r="F154" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="3">
-        <v>427.57</v>
+        <v>556.00</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6211,13 +6205,13 @@
         <v>313</v>
       </c>
       <c r="F155" s="2">
-        <v>14.000</v>
+        <v>15.000</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="3">
-        <v>383.94</v>
+        <v>427.57</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6237,13 +6231,13 @@
         <v>315</v>
       </c>
       <c r="F156" s="2">
-        <v>2.000</v>
+        <v>13.000</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
       </c>
       <c r="H156" s="3">
-        <v>10.06</v>
+        <v>356.52</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6263,13 +6257,13 @@
         <v>317</v>
       </c>
       <c r="F157" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
       </c>
       <c r="H157" s="3">
-        <v>473.49</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6295,7 +6289,7 @@
         <v>5</v>
       </c>
       <c r="H158" s="3">
-        <v>41.46</v>
+        <v>473.49</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6321,7 +6315,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="3">
-        <v>36.12</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6341,13 +6335,13 @@
         <v>323</v>
       </c>
       <c r="F160" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="3">
-        <v>144.27</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6367,13 +6361,13 @@
         <v>325</v>
       </c>
       <c r="F161" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="3">
-        <v>3572.22</v>
+        <v>172.81</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6393,13 +6387,13 @@
         <v>327</v>
       </c>
       <c r="F162" s="2">
-        <v>209.000</v>
+        <v>9.000</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="3">
-        <v>1872.47</v>
+        <v>144.27</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6419,13 +6413,13 @@
         <v>329</v>
       </c>
       <c r="F163" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
       </c>
       <c r="H163" s="3">
-        <v>2178.42</v>
+        <v>3572.22</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6445,13 +6439,13 @@
         <v>331</v>
       </c>
       <c r="F164" s="2">
-        <v>17.000</v>
+        <v>196.000</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="3">
-        <v>1751.12</v>
+        <v>1755.99</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6471,13 +6465,13 @@
         <v>333</v>
       </c>
       <c r="F165" s="2">
-        <v>2.000</v>
+        <v>13.000</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
       </c>
       <c r="H165" s="3">
-        <v>495.95</v>
+        <v>2178.42</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6497,13 +6491,13 @@
         <v>335</v>
       </c>
       <c r="F166" s="2">
-        <v>4.000</v>
+        <v>17.000</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="H166" s="3">
-        <v>1334.60</v>
+        <v>1751.12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6523,13 +6517,13 @@
         <v>337</v>
       </c>
       <c r="F167" s="2">
-        <v>18.000</v>
+        <v>2.000</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="3">
-        <v>2221.41</v>
+        <v>495.95</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6549,13 +6543,13 @@
         <v>339</v>
       </c>
       <c r="F168" s="2">
-        <v>23.000</v>
+        <v>4.000</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="3">
-        <v>1296.85</v>
+        <v>1334.60</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6575,13 +6569,13 @@
         <v>341</v>
       </c>
       <c r="F169" s="2">
-        <v>1.000</v>
+        <v>18.000</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="3">
-        <v>69.60</v>
+        <v>2221.41</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6601,13 +6595,13 @@
         <v>343</v>
       </c>
       <c r="F170" s="2">
-        <v>10.000</v>
+        <v>23.000</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>261.25</v>
+        <v>1296.86</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6633,7 +6627,7 @@
         <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>11.47</v>
+        <v>69.60</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6653,13 +6647,13 @@
         <v>347</v>
       </c>
       <c r="F172" s="2">
-        <v>1000.000</v>
+        <v>10.000</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>5366.60</v>
+        <v>261.25</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6679,13 +6673,13 @@
         <v>349</v>
       </c>
       <c r="F173" s="2">
-        <v>21.000</v>
+        <v>1.000</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>624.64</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6705,13 +6699,13 @@
         <v>351</v>
       </c>
       <c r="F174" s="2">
-        <v>54.000</v>
+        <v>977.000</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
       </c>
       <c r="H174" s="3">
-        <v>3077.03</v>
+        <v>5243.18</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6731,13 +6725,13 @@
         <v>353</v>
       </c>
       <c r="F175" s="2">
-        <v>3.000</v>
+        <v>20.000</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
       </c>
       <c r="H175" s="3">
-        <v>1170.45</v>
+        <v>594.90</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6757,13 +6751,13 @@
         <v>355</v>
       </c>
       <c r="F176" s="2">
-        <v>2.000</v>
+        <v>53.000</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
       </c>
       <c r="H176" s="3">
-        <v>209.59</v>
+        <v>3020.05</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6783,13 +6777,13 @@
         <v>357</v>
       </c>
       <c r="F177" s="2">
-        <v>45.000</v>
+        <v>3.000</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
       </c>
       <c r="H177" s="3">
-        <v>5646.08</v>
+        <v>1170.45</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6809,13 +6803,13 @@
         <v>359</v>
       </c>
       <c r="F178" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G178" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H178" s="3">
-        <v>344.89</v>
+        <v>209.59</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6835,13 +6829,13 @@
         <v>361</v>
       </c>
       <c r="F179" s="2">
-        <v>1.000</v>
+        <v>44.000</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
       </c>
       <c r="H179" s="3">
-        <v>217.24</v>
+        <v>5520.61</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6861,13 +6855,13 @@
         <v>363</v>
       </c>
       <c r="F180" s="2">
-        <v>43.000</v>
+        <v>3.000</v>
       </c>
       <c r="G180" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H180" s="3">
-        <v>6798.56</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6887,13 +6881,13 @@
         <v>365</v>
       </c>
       <c r="F181" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
       </c>
       <c r="H181" s="3">
-        <v>2968.59</v>
+        <v>217.23</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6913,13 +6907,13 @@
         <v>367</v>
       </c>
       <c r="F182" s="2">
-        <v>3.000</v>
+        <v>43.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>5507.99</v>
+        <v>6798.56</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6939,13 +6933,13 @@
         <v>369</v>
       </c>
       <c r="F183" s="2">
-        <v>17.000</v>
+        <v>16.000</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
       </c>
       <c r="H183" s="3">
-        <v>6003.24</v>
+        <v>2968.59</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6965,13 +6959,13 @@
         <v>371</v>
       </c>
       <c r="F184" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
       <c r="H184" s="3">
-        <v>262.35</v>
+        <v>5507.99</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6991,13 +6985,13 @@
         <v>373</v>
       </c>
       <c r="F185" s="2">
-        <v>911.000</v>
+        <v>17.000</v>
       </c>
       <c r="G185" t="s">
         <v>5</v>
       </c>
       <c r="H185" s="3">
-        <v>34267.26</v>
+        <v>6003.24</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7017,13 +7011,13 @@
         <v>375</v>
       </c>
       <c r="F186" s="2">
-        <v>21.000</v>
+        <v>1.000</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
       <c r="H186" s="3">
-        <v>1043.62</v>
+        <v>262.35</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7043,13 +7037,13 @@
         <v>377</v>
       </c>
       <c r="F187" s="2">
-        <v>66.000</v>
+        <v>899.000</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="3">
-        <v>2228.45</v>
+        <v>33815.89</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7069,13 +7063,13 @@
         <v>379</v>
       </c>
       <c r="F188" s="2">
-        <v>14.000</v>
+        <v>21.000</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
       </c>
       <c r="H188" s="3">
-        <v>559.92</v>
+        <v>1043.61</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7095,13 +7089,13 @@
         <v>381</v>
       </c>
       <c r="F189" s="2">
-        <v>869.000</v>
+        <v>66.000</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
       </c>
       <c r="H189" s="3">
-        <v>3668.20</v>
+        <v>2228.45</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7121,13 +7115,13 @@
         <v>383</v>
       </c>
       <c r="F190" s="2">
-        <v>4.000</v>
+        <v>14.000</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
       <c r="H190" s="3">
-        <v>541.41</v>
+        <v>559.92</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7147,13 +7141,13 @@
         <v>385</v>
       </c>
       <c r="F191" s="2">
-        <v>238.000</v>
+        <v>862.000</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
       </c>
       <c r="H191" s="3">
-        <v>1106.70</v>
+        <v>3638.66</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7173,13 +7167,13 @@
         <v>387</v>
       </c>
       <c r="F192" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
       <c r="H192" s="3">
-        <v>15.31</v>
+        <v>270.71</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7199,13 +7193,13 @@
         <v>389</v>
       </c>
       <c r="F193" s="2">
-        <v>3.000</v>
+        <v>238.000</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
       </c>
       <c r="H193" s="3">
-        <v>2111.01</v>
+        <v>1106.70</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7225,13 +7219,13 @@
         <v>391</v>
       </c>
       <c r="F194" s="2">
-        <v>10.000</v>
+        <v>3.000</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
       <c r="H194" s="3">
-        <v>15963.35</v>
+        <v>2111.01</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7251,13 +7245,13 @@
         <v>393</v>
       </c>
       <c r="F195" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
       </c>
       <c r="H195" s="3">
-        <v>2098.09</v>
+        <v>15963.35</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7283,7 +7277,7 @@
         <v>5</v>
       </c>
       <c r="H196" s="3">
-        <v>7112.72</v>
+        <v>2098.09</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7303,13 +7297,13 @@
         <v>397</v>
       </c>
       <c r="F197" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G197" t="s">
         <v>5</v>
       </c>
       <c r="H197" s="3">
-        <v>10096.56</v>
+        <v>7112.72</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7329,13 +7323,13 @@
         <v>399</v>
       </c>
       <c r="F198" s="2">
-        <v>1097.000</v>
+        <v>7.000</v>
       </c>
       <c r="G198" t="s">
         <v>5</v>
       </c>
       <c r="H198" s="3">
-        <v>6214.47</v>
+        <v>10096.56</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7355,13 +7349,13 @@
         <v>401</v>
       </c>
       <c r="F199" s="2">
-        <v>40.000</v>
+        <v>1076.000</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
       </c>
       <c r="H199" s="3">
-        <v>545.34</v>
+        <v>6095.54</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7381,13 +7375,13 @@
         <v>403</v>
       </c>
       <c r="F200" s="2">
-        <v>9.000</v>
+        <v>38.000</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
       <c r="H200" s="3">
-        <v>1747.14</v>
+        <v>518.08</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7407,13 +7401,13 @@
         <v>405</v>
       </c>
       <c r="F201" s="2">
-        <v>7.000</v>
+        <v>9.000</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="3">
-        <v>557.03</v>
+        <v>1747.14</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7433,13 +7427,13 @@
         <v>407</v>
       </c>
       <c r="F202" s="2">
-        <v>9.000</v>
+        <v>7.000</v>
       </c>
       <c r="G202" t="s">
         <v>5</v>
       </c>
       <c r="H202" s="3">
-        <v>2248.82</v>
+        <v>557.03</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7459,13 +7453,13 @@
         <v>409</v>
       </c>
       <c r="F203" s="2">
-        <v>18.000</v>
+        <v>9.000</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
       </c>
       <c r="H203" s="3">
-        <v>11235.38</v>
+        <v>2248.82</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7485,13 +7479,13 @@
         <v>411</v>
       </c>
       <c r="F204" s="2">
-        <v>6.000</v>
+        <v>18.000</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
       </c>
       <c r="H204" s="3">
-        <v>6315.19</v>
+        <v>11235.38</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7517,7 +7511,7 @@
         <v>5</v>
       </c>
       <c r="H205" s="3">
-        <v>3704.06</v>
+        <v>4210.13</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7537,13 +7531,13 @@
         <v>415</v>
       </c>
       <c r="F206" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
       </c>
       <c r="H206" s="3">
-        <v>2512.57</v>
+        <v>3704.06</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7563,13 +7557,13 @@
         <v>417</v>
       </c>
       <c r="F207" s="2">
-        <v>46.000</v>
+        <v>8.000</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
       </c>
       <c r="H207" s="3">
-        <v>1776.48</v>
+        <v>2233.40</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7589,13 +7583,13 @@
         <v>419</v>
       </c>
       <c r="F208" s="2">
-        <v>1704.000</v>
+        <v>46.000</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
       </c>
       <c r="H208" s="3">
-        <v>31907.73</v>
+        <v>1776.48</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7615,13 +7609,13 @@
         <v>421</v>
       </c>
       <c r="F209" s="2">
-        <v>1.000</v>
+        <v>1680.000</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
       </c>
       <c r="H209" s="3">
-        <v>92.01</v>
+        <v>31458.23</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7641,13 +7635,13 @@
         <v>423</v>
       </c>
       <c r="F210" s="2">
-        <v>44.000</v>
+        <v>1.000</v>
       </c>
       <c r="G210" t="s">
         <v>5</v>
       </c>
       <c r="H210" s="3">
-        <v>3481.78</v>
+        <v>92.01</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7667,13 +7661,13 @@
         <v>425</v>
       </c>
       <c r="F211" s="2">
-        <v>12.000</v>
+        <v>42.000</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
       </c>
       <c r="H211" s="3">
-        <v>3197.00</v>
+        <v>3323.51</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7693,13 +7687,13 @@
         <v>427</v>
       </c>
       <c r="F212" s="2">
-        <v>8.000</v>
+        <v>12.000</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
       </c>
       <c r="H212" s="3">
-        <v>1490.54</v>
+        <v>3197.00</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7719,13 +7713,13 @@
         <v>429</v>
       </c>
       <c r="F213" s="2">
-        <v>5.000</v>
+        <v>8.000</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
       </c>
       <c r="H213" s="3">
-        <v>77.87</v>
+        <v>1522.51</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7745,13 +7739,13 @@
         <v>431</v>
       </c>
       <c r="F214" s="2">
-        <v>54.000</v>
+        <v>5.000</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
       </c>
       <c r="H214" s="3">
-        <v>1285.96</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7771,13 +7765,13 @@
         <v>433</v>
       </c>
       <c r="F215" s="2">
-        <v>21.000</v>
+        <v>53.000</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
       </c>
       <c r="H215" s="3">
-        <v>1524.13</v>
+        <v>1262.15</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7797,13 +7791,13 @@
         <v>435</v>
       </c>
       <c r="F216" s="2">
-        <v>5.000</v>
+        <v>19.000</v>
       </c>
       <c r="G216" t="s">
         <v>5</v>
       </c>
       <c r="H216" s="3">
-        <v>528.88</v>
+        <v>1378.97</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7823,13 +7817,13 @@
         <v>437</v>
       </c>
       <c r="F217" s="2">
-        <v>1044.000</v>
+        <v>5.000</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
       </c>
       <c r="H217" s="3">
-        <v>199757.83</v>
+        <v>528.88</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7849,13 +7843,13 @@
         <v>439</v>
       </c>
       <c r="F218" s="2">
-        <v>1.000</v>
+        <v>1016.000</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
       </c>
       <c r="H218" s="3">
-        <v>545.88</v>
+        <v>194400.33</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7881,7 +7875,7 @@
         <v>5</v>
       </c>
       <c r="H219" s="3">
-        <v>2622.09</v>
+        <v>545.88</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7907,7 +7901,7 @@
         <v>5</v>
       </c>
       <c r="H220" s="3">
-        <v>5747.70</v>
+        <v>2622.09</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7927,13 +7921,13 @@
         <v>445</v>
       </c>
       <c r="F221" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G221" t="s">
         <v>5</v>
       </c>
       <c r="H221" s="3">
-        <v>25157.14</v>
+        <v>5747.70</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8109,13 +8103,13 @@
         <v>459</v>
       </c>
       <c r="F228" s="2">
-        <v>256.000</v>
+        <v>196.000</v>
       </c>
       <c r="G228" t="s">
         <v>5</v>
       </c>
       <c r="H228" s="3">
-        <v>5186.56</v>
+        <v>3970.96</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8525,13 +8519,13 @@
         <v>491</v>
       </c>
       <c r="F244" s="2">
-        <v>43.000</v>
+        <v>36.000</v>
       </c>
       <c r="G244" t="s">
         <v>5</v>
       </c>
       <c r="H244" s="3">
-        <v>12142.41</v>
+        <v>10165.74</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8655,13 +8649,13 @@
         <v>501</v>
       </c>
       <c r="F249" s="2">
-        <v>38.000</v>
+        <v>37.000</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
       </c>
       <c r="H249" s="3">
-        <v>17487.79</v>
+        <v>17027.58</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8733,13 +8727,13 @@
         <v>507</v>
       </c>
       <c r="F252" s="2">
-        <v>473.190</v>
+        <v>129.560</v>
       </c>
       <c r="G252" t="s">
         <v>21</v>
       </c>
       <c r="H252" s="3">
-        <v>8613.26</v>
+        <v>2358.32</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8759,13 +8753,13 @@
         <v>509</v>
       </c>
       <c r="F253" s="2">
-        <v>1288.540</v>
+        <v>1259.040</v>
       </c>
       <c r="G253" t="s">
         <v>21</v>
       </c>
       <c r="H253" s="3">
-        <v>5500.87</v>
+        <v>5374.93</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8811,13 +8805,13 @@
         <v>513</v>
       </c>
       <c r="F255" s="2">
-        <v>1140.050</v>
+        <v>1464.210</v>
       </c>
       <c r="G255" t="s">
         <v>21</v>
       </c>
       <c r="H255" s="3">
-        <v>42864.76</v>
+        <v>55052.85</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8912,16 +8906,16 @@
         <v>520</v>
       </c>
       <c r="E259" t="s">
-        <v>521</v>
+        <v>345</v>
       </c>
       <c r="F259" s="2">
-        <v>2.000</v>
+        <v>39.000</v>
       </c>
       <c r="G259" t="s">
         <v>5</v>
       </c>
       <c r="H259" s="3">
-        <v>1671.40</v>
+        <v>3077.20</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8935,19 +8929,19 @@
         <v>2</v>
       </c>
       <c r="D260" t="s">
+        <v>521</v>
+      </c>
+      <c r="E260" t="s">
         <v>522</v>
       </c>
-      <c r="E260" t="s">
-        <v>341</v>
-      </c>
       <c r="F260" s="2">
-        <v>43.000</v>
+        <v>2.000</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
       </c>
       <c r="H260" s="3">
-        <v>3392.81</v>
+        <v>239.09</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8967,13 +8961,13 @@
         <v>524</v>
       </c>
       <c r="F261" s="2">
-        <v>2.000</v>
+        <v>26.000</v>
       </c>
       <c r="G261" t="s">
         <v>5</v>
       </c>
       <c r="H261" s="3">
-        <v>239.09</v>
+        <v>1490.69</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8993,13 +8987,13 @@
         <v>526</v>
       </c>
       <c r="F262" s="2">
-        <v>26.000</v>
+        <v>2.000</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
       </c>
       <c r="H262" s="3">
-        <v>1490.69</v>
+        <v>263.13</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9019,13 +9013,13 @@
         <v>528</v>
       </c>
       <c r="F263" s="2">
-        <v>5.000</v>
+        <v>6.000</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
       </c>
       <c r="H263" s="3">
-        <v>2672.99</v>
+        <v>3207.59</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9227,13 +9221,13 @@
         <v>544</v>
       </c>
       <c r="F271" s="2">
-        <v>15.000</v>
+        <v>104.000</v>
       </c>
       <c r="G271" t="s">
         <v>5</v>
       </c>
       <c r="H271" s="3">
-        <v>1463.71</v>
+        <v>1086.28</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9253,13 +9247,13 @@
         <v>546</v>
       </c>
       <c r="F272" s="2">
-        <v>4.000</v>
+        <v>15.000</v>
       </c>
       <c r="G272" t="s">
         <v>5</v>
       </c>
       <c r="H272" s="3">
-        <v>159.90</v>
+        <v>1463.71</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9285,7 +9279,7 @@
         <v>5</v>
       </c>
       <c r="H273" s="3">
-        <v>1048.02</v>
+        <v>159.90</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9305,13 +9299,13 @@
         <v>550</v>
       </c>
       <c r="F274" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G274" t="s">
         <v>5</v>
       </c>
       <c r="H274" s="3">
-        <v>261.34</v>
+        <v>1048.02</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9337,7 +9331,7 @@
         <v>5</v>
       </c>
       <c r="H275" s="3">
-        <v>12317.52</v>
+        <v>261.34</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9357,13 +9351,13 @@
         <v>554</v>
       </c>
       <c r="F276" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="G276" t="s">
         <v>5</v>
       </c>
       <c r="H276" s="3">
-        <v>892.37</v>
+        <v>12317.52</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9383,13 +9377,13 @@
         <v>556</v>
       </c>
       <c r="F277" s="2">
-        <v>1294.390</v>
+        <v>5.000</v>
       </c>
       <c r="G277" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H277" s="3">
-        <v>67543.16</v>
+        <v>892.37</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9409,13 +9403,13 @@
         <v>558</v>
       </c>
       <c r="F278" s="2">
-        <v>192.560</v>
+        <v>1294.390</v>
       </c>
       <c r="G278" t="s">
         <v>21</v>
       </c>
       <c r="H278" s="3">
-        <v>99701.27</v>
+        <v>67543.16</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9435,13 +9429,13 @@
         <v>560</v>
       </c>
       <c r="F279" s="2">
-        <v>1.000</v>
+        <v>192.560</v>
       </c>
       <c r="G279" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H279" s="3">
-        <v>1161.99</v>
+        <v>99701.27</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9467,7 +9461,7 @@
         <v>5</v>
       </c>
       <c r="H280" s="3">
-        <v>1705.35</v>
+        <v>1161.99</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9493,7 +9487,7 @@
         <v>5</v>
       </c>
       <c r="H281" s="3">
-        <v>295.04</v>
+        <v>1705.35</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9513,13 +9507,13 @@
         <v>566</v>
       </c>
       <c r="F282" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G282" t="s">
         <v>5</v>
       </c>
       <c r="H282" s="3">
-        <v>685.80</v>
+        <v>295.04</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9539,13 +9533,13 @@
         <v>568</v>
       </c>
       <c r="F283" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G283" t="s">
         <v>5</v>
       </c>
       <c r="H283" s="3">
-        <v>17833.95</v>
+        <v>685.80</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9565,13 +9559,13 @@
         <v>570</v>
       </c>
       <c r="F284" s="2">
-        <v>4.000</v>
+        <v>6.000</v>
       </c>
       <c r="G284" t="s">
         <v>5</v>
       </c>
       <c r="H284" s="3">
-        <v>829.77</v>
+        <v>17833.95</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9591,13 +9585,13 @@
         <v>572</v>
       </c>
       <c r="F285" s="2">
-        <v>6.000</v>
+        <v>4.000</v>
       </c>
       <c r="G285" t="s">
         <v>5</v>
       </c>
       <c r="H285" s="3">
-        <v>5140.98</v>
+        <v>829.77</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9617,13 +9611,13 @@
         <v>574</v>
       </c>
       <c r="F286" s="2">
-        <v>26.000</v>
+        <v>6.000</v>
       </c>
       <c r="G286" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H286" s="3">
-        <v>7144.80</v>
+        <v>5140.98</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9643,13 +9637,13 @@
         <v>576</v>
       </c>
       <c r="F287" s="2">
-        <v>150.000</v>
+        <v>26.000</v>
       </c>
       <c r="G287" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H287" s="3">
-        <v>6184.77</v>
+        <v>7144.80</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9669,13 +9663,13 @@
         <v>578</v>
       </c>
       <c r="F288" s="2">
-        <v>1.000</v>
+        <v>150.000</v>
       </c>
       <c r="G288" t="s">
         <v>5</v>
       </c>
       <c r="H288" s="3">
-        <v>390.16</v>
+        <v>6184.77</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9701,7 +9695,7 @@
         <v>5</v>
       </c>
       <c r="H289" s="3">
-        <v>3115.88</v>
+        <v>390.16</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9727,7 +9721,7 @@
         <v>5</v>
       </c>
       <c r="H290" s="3">
-        <v>722.95</v>
+        <v>3115.88</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9747,13 +9741,13 @@
         <v>584</v>
       </c>
       <c r="F291" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G291" t="s">
         <v>5</v>
       </c>
       <c r="H291" s="3">
-        <v>5851.42</v>
+        <v>722.95</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9773,13 +9767,13 @@
         <v>586</v>
       </c>
       <c r="F292" s="2">
-        <v>4.000</v>
+        <v>9.000</v>
       </c>
       <c r="G292" t="s">
         <v>5</v>
       </c>
       <c r="H292" s="3">
-        <v>2472.84</v>
+        <v>5851.42</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9799,13 +9793,13 @@
         <v>588</v>
       </c>
       <c r="F293" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G293" t="s">
         <v>5</v>
       </c>
       <c r="H293" s="3">
-        <v>1057.64</v>
+        <v>2472.84</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9825,13 +9819,13 @@
         <v>590</v>
       </c>
       <c r="F294" s="2">
-        <v>10.000</v>
+        <v>3.000</v>
       </c>
       <c r="G294" t="s">
         <v>5</v>
       </c>
       <c r="H294" s="3">
-        <v>3375.18</v>
+        <v>1057.64</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9851,13 +9845,13 @@
         <v>592</v>
       </c>
       <c r="F295" s="2">
-        <v>137.000</v>
+        <v>10.000</v>
       </c>
       <c r="G295" t="s">
         <v>5</v>
       </c>
       <c r="H295" s="3">
-        <v>1546.59</v>
+        <v>3375.18</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9877,13 +9871,13 @@
         <v>594</v>
       </c>
       <c r="F296" s="2">
-        <v>4.000</v>
+        <v>137.000</v>
       </c>
       <c r="G296" t="s">
         <v>5</v>
       </c>
       <c r="H296" s="3">
-        <v>92954.57</v>
+        <v>1546.59</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9903,13 +9897,13 @@
         <v>596</v>
       </c>
       <c r="F297" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="G297" t="s">
         <v>5</v>
       </c>
       <c r="H297" s="3">
-        <v>9325.94</v>
+        <v>92954.57</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9981,13 +9975,13 @@
         <v>602</v>
       </c>
       <c r="F300" s="2">
-        <v>995.450</v>
+        <v>989.450</v>
       </c>
       <c r="G300" t="s">
         <v>21</v>
       </c>
       <c r="H300" s="3">
-        <v>29023.15</v>
+        <v>28848.21</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10007,13 +10001,13 @@
         <v>604</v>
       </c>
       <c r="F301" s="2">
-        <v>0.030</v>
+        <v>7966.930</v>
       </c>
       <c r="G301" t="s">
         <v>21</v>
       </c>
       <c r="H301" s="3">
-        <v>2.71</v>
+        <v>81374.63</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10033,13 +10027,13 @@
         <v>606</v>
       </c>
       <c r="F302" s="2">
-        <v>7588.030</v>
+        <v>4330.140</v>
       </c>
       <c r="G302" t="s">
         <v>21</v>
       </c>
       <c r="H302" s="3">
-        <v>77503.80</v>
+        <v>96945.94</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10059,13 +10053,13 @@
         <v>608</v>
       </c>
       <c r="F303" s="2">
-        <v>4341.740</v>
+        <v>1800.000</v>
       </c>
       <c r="G303" t="s">
         <v>21</v>
       </c>
       <c r="H303" s="3">
-        <v>97205.65</v>
+        <v>56549.62</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10085,13 +10079,13 @@
         <v>610</v>
       </c>
       <c r="F304" s="2">
-        <v>1421.310</v>
+        <v>527.570</v>
       </c>
       <c r="G304" t="s">
         <v>21</v>
       </c>
       <c r="H304" s="3">
-        <v>44652.52</v>
+        <v>48405.45</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10111,13 +10105,13 @@
         <v>612</v>
       </c>
       <c r="F305" s="2">
-        <v>643.140</v>
+        <v>3076.220</v>
       </c>
       <c r="G305" t="s">
         <v>21</v>
       </c>
       <c r="H305" s="3">
-        <v>59009.19</v>
+        <v>30824.10</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10137,13 +10131,13 @@
         <v>614</v>
       </c>
       <c r="F306" s="2">
-        <v>3136.160</v>
+        <v>1484.120</v>
       </c>
       <c r="G306" t="s">
         <v>21</v>
       </c>
       <c r="H306" s="3">
-        <v>31424.71</v>
+        <v>32113.30</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10163,13 +10157,13 @@
         <v>616</v>
       </c>
       <c r="F307" s="2">
-        <v>1605.120</v>
+        <v>649.890</v>
       </c>
       <c r="G307" t="s">
         <v>21</v>
       </c>
       <c r="H307" s="3">
-        <v>34731.49</v>
+        <v>22536.68</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10189,13 +10183,13 @@
         <v>618</v>
       </c>
       <c r="F308" s="2">
-        <v>649.890</v>
+        <v>26.200</v>
       </c>
       <c r="G308" t="s">
         <v>21</v>
       </c>
       <c r="H308" s="3">
-        <v>22536.68</v>
+        <v>1746.75</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10215,13 +10209,13 @@
         <v>620</v>
       </c>
       <c r="F309" s="2">
-        <v>30.200</v>
+        <v>49.000</v>
       </c>
       <c r="G309" t="s">
         <v>21</v>
       </c>
       <c r="H309" s="3">
-        <v>2013.43</v>
+        <v>5423.81</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10241,13 +10235,13 @@
         <v>622</v>
       </c>
       <c r="F310" s="2">
-        <v>49.000</v>
+        <v>85.500</v>
       </c>
       <c r="G310" t="s">
         <v>21</v>
       </c>
       <c r="H310" s="3">
-        <v>5423.81</v>
+        <v>13412.61</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10267,13 +10261,13 @@
         <v>624</v>
       </c>
       <c r="F311" s="2">
-        <v>85.500</v>
+        <v>3936.000</v>
       </c>
       <c r="G311" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H311" s="3">
-        <v>13412.61</v>
+        <v>9880.71</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10293,13 +10287,13 @@
         <v>626</v>
       </c>
       <c r="F312" s="2">
-        <v>4064.000</v>
+        <v>108.000</v>
       </c>
       <c r="G312" t="s">
         <v>5</v>
       </c>
       <c r="H312" s="3">
-        <v>10202.03</v>
+        <v>50044.50</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10319,13 +10313,13 @@
         <v>628</v>
       </c>
       <c r="F313" s="2">
-        <v>115.000</v>
+        <v>9.000</v>
       </c>
       <c r="G313" t="s">
         <v>5</v>
       </c>
       <c r="H313" s="3">
-        <v>53288.13</v>
+        <v>549.63</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10345,13 +10339,13 @@
         <v>630</v>
       </c>
       <c r="F314" s="2">
-        <v>13.000</v>
+        <v>15.000</v>
       </c>
       <c r="G314" t="s">
         <v>5</v>
       </c>
       <c r="H314" s="3">
-        <v>793.91</v>
+        <v>2189.51</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10371,13 +10365,13 @@
         <v>632</v>
       </c>
       <c r="F315" s="2">
-        <v>15.000</v>
+        <v>11.000</v>
       </c>
       <c r="G315" t="s">
         <v>5</v>
       </c>
       <c r="H315" s="3">
-        <v>2189.51</v>
+        <v>13400.03</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10397,13 +10391,13 @@
         <v>634</v>
       </c>
       <c r="F316" s="2">
-        <v>18.000</v>
+        <v>4019.000</v>
       </c>
       <c r="G316" t="s">
         <v>5</v>
       </c>
       <c r="H316" s="3">
-        <v>21927.31</v>
+        <v>320304.93</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10423,13 +10417,13 @@
         <v>636</v>
       </c>
       <c r="F317" s="2">
-        <v>4061.000</v>
+        <v>2.000</v>
       </c>
       <c r="G317" t="s">
         <v>5</v>
       </c>
       <c r="H317" s="3">
-        <v>323652.26</v>
+        <v>1479.92</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10449,13 +10443,13 @@
         <v>638</v>
       </c>
       <c r="F318" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G318" t="s">
         <v>5</v>
       </c>
       <c r="H318" s="3">
-        <v>1479.92</v>
+        <v>2980.59</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10481,7 +10475,7 @@
         <v>5</v>
       </c>
       <c r="H319" s="3">
-        <v>5961.18</v>
+        <v>2131.03</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10507,7 +10501,7 @@
         <v>5</v>
       </c>
       <c r="H320" s="3">
-        <v>2131.03</v>
+        <v>2466.60</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10527,13 +10521,13 @@
         <v>644</v>
       </c>
       <c r="F321" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G321" t="s">
         <v>5</v>
       </c>
       <c r="H321" s="3">
-        <v>2466.60</v>
+        <v>1661.14</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10553,13 +10547,13 @@
         <v>646</v>
       </c>
       <c r="F322" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G322" t="s">
         <v>5</v>
       </c>
       <c r="H322" s="3">
-        <v>1661.14</v>
+        <v>12736.13</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10579,13 +10573,13 @@
         <v>648</v>
       </c>
       <c r="F323" s="2">
-        <v>2.000</v>
+        <v>2836.000</v>
       </c>
       <c r="G323" t="s">
         <v>5</v>
       </c>
       <c r="H323" s="3">
-        <v>12736.13</v>
+        <v>242378.74</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10605,13 +10599,13 @@
         <v>650</v>
       </c>
       <c r="F324" s="2">
-        <v>3112.000</v>
+        <v>1.000</v>
       </c>
       <c r="G324" t="s">
         <v>5</v>
       </c>
       <c r="H324" s="3">
-        <v>265967.08</v>
+        <v>521.42</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10631,13 +10625,13 @@
         <v>652</v>
       </c>
       <c r="F325" s="2">
-        <v>1.000</v>
+        <v>33.000</v>
       </c>
       <c r="G325" t="s">
         <v>5</v>
       </c>
       <c r="H325" s="3">
-        <v>521.42</v>
+        <v>2817.88</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10657,13 +10651,13 @@
         <v>654</v>
       </c>
       <c r="F326" s="2">
-        <v>44.000</v>
+        <v>2153.000</v>
       </c>
       <c r="G326" t="s">
         <v>5</v>
       </c>
       <c r="H326" s="3">
-        <v>3757.18</v>
+        <v>56487.04</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10683,13 +10677,13 @@
         <v>656</v>
       </c>
       <c r="F327" s="2">
-        <v>2366.000</v>
+        <v>1.000</v>
       </c>
       <c r="G327" t="s">
         <v>5</v>
       </c>
       <c r="H327" s="3">
-        <v>62075.65</v>
+        <v>1167.91</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10709,13 +10703,13 @@
         <v>658</v>
       </c>
       <c r="F328" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G328" t="s">
         <v>5</v>
       </c>
       <c r="H328" s="3">
-        <v>1167.91</v>
+        <v>3312.79</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10735,13 +10729,13 @@
         <v>660</v>
       </c>
       <c r="F329" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G329" t="s">
         <v>5</v>
       </c>
       <c r="H329" s="3">
-        <v>3312.79</v>
+        <v>1065.54</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10761,13 +10755,13 @@
         <v>662</v>
       </c>
       <c r="F330" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="G330" t="s">
         <v>5</v>
       </c>
       <c r="H330" s="3">
-        <v>1065.54</v>
+        <v>3452.33</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10787,13 +10781,13 @@
         <v>664</v>
       </c>
       <c r="F331" s="2">
-        <v>9.000</v>
+        <v>299.000</v>
       </c>
       <c r="G331" t="s">
         <v>5</v>
       </c>
       <c r="H331" s="3">
-        <v>3452.33</v>
+        <v>13680.74</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10813,13 +10807,13 @@
         <v>666</v>
       </c>
       <c r="F332" s="2">
-        <v>302.000</v>
+        <v>2.000</v>
       </c>
       <c r="G332" t="s">
         <v>5</v>
       </c>
       <c r="H332" s="3">
-        <v>13818.01</v>
+        <v>2547.86</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10839,13 +10833,13 @@
         <v>668</v>
       </c>
       <c r="F333" s="2">
-        <v>2.000</v>
+        <v>260.000</v>
       </c>
       <c r="G333" t="s">
         <v>5</v>
       </c>
       <c r="H333" s="3">
-        <v>2547.86</v>
+        <v>6432.75</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10865,13 +10859,13 @@
         <v>670</v>
       </c>
       <c r="F334" s="2">
-        <v>264.000</v>
+        <v>2.000</v>
       </c>
       <c r="G334" t="s">
         <v>5</v>
       </c>
       <c r="H334" s="3">
-        <v>6531.71</v>
+        <v>17092.40</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10891,13 +10885,13 @@
         <v>672</v>
       </c>
       <c r="F335" s="2">
-        <v>2.000</v>
+        <v>335.000</v>
       </c>
       <c r="G335" t="s">
         <v>5</v>
       </c>
       <c r="H335" s="3">
-        <v>17092.40</v>
+        <v>193550.49</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10917,39 +10911,13 @@
         <v>674</v>
       </c>
       <c r="F336" s="2">
-        <v>338.000</v>
+        <v>2220.000</v>
       </c>
       <c r="G336" t="s">
         <v>5</v>
       </c>
       <c r="H336" s="3">
-        <v>195283.77</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="A337" t="s">
-        <v>0</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1</v>
-      </c>
-      <c r="C337" t="s">
-        <v>2</v>
-      </c>
-      <c r="D337" t="s">
-        <v>675</v>
-      </c>
-      <c r="E337" t="s">
-        <v>676</v>
-      </c>
-      <c r="F337" s="2">
-        <v>2294.000</v>
-      </c>
-      <c r="G337" t="s">
-        <v>5</v>
-      </c>
-      <c r="H337" s="3">
-        <v>319029.48</v>
+        <v>308738.33</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="685">
   <si>
     <t>4600042975</t>
   </si>
@@ -265,12 +265,6 @@
     <t>ANEL BORRACHA TB CNX FF BOLS JE DN150</t>
   </si>
   <si>
-    <t>30001156</t>
-  </si>
-  <si>
-    <t>ANEL FF AJUSTAVEL VEDACAO BOLSA FF DN450</t>
-  </si>
-  <si>
     <t>30001208</t>
   </si>
   <si>
@@ -457,12 +451,6 @@
     <t>CAP FF DUCTIL BOLSA JE2GS DN150</t>
   </si>
   <si>
-    <t>30002356</t>
-  </si>
-  <si>
-    <t>CAP FF PARA PVC - EN 12842 DN 50</t>
-  </si>
-  <si>
     <t>30002393</t>
   </si>
   <si>
@@ -577,6 +565,12 @@
     <t>LUVA ELETROF - DE 160 - SDR 11 - PE 100</t>
   </si>
   <si>
+    <t>30002826</t>
+  </si>
+  <si>
+    <t>LUVA ELETROF DE 90 SDR 11 PE 100</t>
+  </si>
+  <si>
     <t>30002899</t>
   </si>
   <si>
@@ -1189,6 +1183,12 @@
     <t>LUVA ELETROFUSAO DE 450 SDR 17 PE 100</t>
   </si>
   <si>
+    <t>30005773</t>
+  </si>
+  <si>
+    <t>LUVA FF PARA PVC - EN 12842 DN 75</t>
+  </si>
+  <si>
     <t>30005884</t>
   </si>
   <si>
@@ -1820,6 +1820,12 @@
   </si>
   <si>
     <t>TUBO PVC RIG PB JEI/JERI DN 75 CL. 20</t>
+  </si>
+  <si>
+    <t>30028787</t>
+  </si>
+  <si>
+    <t>TUBO PVC-U ESG DE 315 PAR CEL CM 6M</t>
   </si>
   <si>
     <t>30028856</t>
@@ -2166,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H336"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,28 +2192,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2253,13 +2259,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>449991.890</v>
+        <v>441381.890</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="3">
-        <v>670486.10</v>
+        <v>657657.21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2513,13 +2519,13 @@
         <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>197.000</v>
+        <v>190.000</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>6581.57</v>
+        <v>6347.71</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2727,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>1081.91</v>
+        <v>1081.90</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2851,13 +2857,13 @@
         <v>55</v>
       </c>
       <c r="F26" s="2">
-        <v>9.000</v>
+        <v>7.000</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>3237.61</v>
+        <v>2518.14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2955,13 +2961,13 @@
         <v>63</v>
       </c>
       <c r="F30" s="2">
-        <v>12.000</v>
+        <v>15.000</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>2439.90</v>
+        <v>3049.88</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3247,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>1998.30</v>
+        <v>4682.98</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3267,13 +3273,13 @@
         <v>87</v>
       </c>
       <c r="F42" s="2">
-        <v>1.000</v>
+        <v>442.000</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>4682.98</v>
+        <v>9311.51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3293,13 +3299,13 @@
         <v>89</v>
       </c>
       <c r="F43" s="2">
-        <v>443.000</v>
+        <v>1.000</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>9332.58</v>
+        <v>460.29</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3319,13 +3325,13 @@
         <v>91</v>
       </c>
       <c r="F44" s="2">
-        <v>1.000</v>
+        <v>4307.000</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>460.29</v>
+        <v>39457.65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3345,13 +3351,13 @@
         <v>93</v>
       </c>
       <c r="F45" s="2">
-        <v>4337.000</v>
+        <v>25.000</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>39732.41</v>
+        <v>1550.99</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3371,13 +3377,13 @@
         <v>95</v>
       </c>
       <c r="F46" s="2">
-        <v>15.000</v>
+        <v>13.000</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>930.59</v>
+        <v>2420.53</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3397,13 +3403,13 @@
         <v>97</v>
       </c>
       <c r="F47" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>2420.53</v>
+        <v>207.52</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3423,13 +3429,13 @@
         <v>99</v>
       </c>
       <c r="F48" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>207.52</v>
+        <v>5712.24</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3449,13 +3455,13 @@
         <v>101</v>
       </c>
       <c r="F49" s="2">
-        <v>7.000</v>
+        <v>11.000</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>5712.24</v>
+        <v>180.29</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3475,13 +3481,13 @@
         <v>103</v>
       </c>
       <c r="F50" s="2">
-        <v>11.000</v>
+        <v>5.000</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <v>180.29</v>
+        <v>376.40</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3501,13 +3507,13 @@
         <v>105</v>
       </c>
       <c r="F51" s="2">
-        <v>5.000</v>
+        <v>33.000</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="3">
-        <v>376.40</v>
+        <v>1984.50</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3527,13 +3533,13 @@
         <v>107</v>
       </c>
       <c r="F52" s="2">
-        <v>33.000</v>
+        <v>8.000</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>1984.50</v>
+        <v>359.90</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3553,13 +3559,13 @@
         <v>109</v>
       </c>
       <c r="F53" s="2">
-        <v>8.000</v>
+        <v>2.000</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="3">
-        <v>359.90</v>
+        <v>48.54</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3579,13 +3585,13 @@
         <v>111</v>
       </c>
       <c r="F54" s="2">
-        <v>2.000</v>
+        <v>55.000</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>48.54</v>
+        <v>1960.40</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3605,13 +3611,13 @@
         <v>113</v>
       </c>
       <c r="F55" s="2">
-        <v>55.000</v>
+        <v>2.000</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="3">
-        <v>1960.40</v>
+        <v>1372.23</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3631,13 +3637,13 @@
         <v>115</v>
       </c>
       <c r="F56" s="2">
-        <v>2.000</v>
+        <v>28.000</v>
       </c>
       <c r="G56" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="3">
-        <v>1372.23</v>
+        <v>650.33</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3657,13 +3663,13 @@
         <v>117</v>
       </c>
       <c r="F57" s="2">
-        <v>28.000</v>
+        <v>91.140</v>
       </c>
       <c r="G57" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H57" s="3">
-        <v>650.33</v>
+        <v>23635.38</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3683,13 +3689,13 @@
         <v>119</v>
       </c>
       <c r="F58" s="2">
-        <v>91.140</v>
+        <v>29673.020</v>
       </c>
       <c r="G58" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="3">
-        <v>23635.38</v>
+        <v>67348.96</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3709,13 +3715,13 @@
         <v>121</v>
       </c>
       <c r="F59" s="2">
-        <v>26308.820</v>
+        <v>30.000</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>59713.27</v>
+        <v>10998.07</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3735,13 +3741,13 @@
         <v>123</v>
       </c>
       <c r="F60" s="2">
-        <v>30.000</v>
+        <v>4.000</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>10998.07</v>
+        <v>1267.35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3761,13 +3767,13 @@
         <v>125</v>
       </c>
       <c r="F61" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="3">
-        <v>1267.35</v>
+        <v>1489.56</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3787,13 +3793,13 @@
         <v>127</v>
       </c>
       <c r="F62" s="2">
-        <v>2.000</v>
+        <v>30.000</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>1489.56</v>
+        <v>7396.64</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3813,13 +3819,13 @@
         <v>129</v>
       </c>
       <c r="F63" s="2">
-        <v>30.000</v>
+        <v>15.000</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="3">
-        <v>7396.64</v>
+        <v>570.00</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3839,13 +3845,13 @@
         <v>131</v>
       </c>
       <c r="F64" s="2">
-        <v>15.000</v>
+        <v>7.000</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
       </c>
       <c r="H64" s="3">
-        <v>570.00</v>
+        <v>594.91</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3865,13 +3871,13 @@
         <v>133</v>
       </c>
       <c r="F65" s="2">
-        <v>7.000</v>
+        <v>41.000</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
       </c>
       <c r="H65" s="3">
-        <v>594.91</v>
+        <v>1561.21</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3891,13 +3897,13 @@
         <v>135</v>
       </c>
       <c r="F66" s="2">
-        <v>41.000</v>
+        <v>130.000</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>1561.21</v>
+        <v>696.80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3917,13 +3923,13 @@
         <v>137</v>
       </c>
       <c r="F67" s="2">
-        <v>130.000</v>
+        <v>1.000</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
       </c>
       <c r="H67" s="3">
-        <v>696.80</v>
+        <v>2618.74</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3949,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="3">
-        <v>5237.47</v>
+        <v>1726.34</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3969,13 +3975,13 @@
         <v>141</v>
       </c>
       <c r="F69" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
       </c>
       <c r="H69" s="3">
-        <v>1726.34</v>
+        <v>1314.83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3995,13 +4001,13 @@
         <v>143</v>
       </c>
       <c r="F70" s="2">
-        <v>7.000</v>
+        <v>69.000</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
       </c>
       <c r="H70" s="3">
-        <v>1314.83</v>
+        <v>1916.28</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4021,13 +4027,13 @@
         <v>145</v>
       </c>
       <c r="F71" s="2">
-        <v>69.000</v>
+        <v>2.000</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="3">
-        <v>1916.28</v>
+        <v>197.65</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4047,13 +4053,13 @@
         <v>147</v>
       </c>
       <c r="F72" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>197.65</v>
+        <v>243.41</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4073,13 +4079,13 @@
         <v>149</v>
       </c>
       <c r="F73" s="2">
-        <v>5.000</v>
+        <v>4182.000</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="3">
-        <v>162.69</v>
+        <v>43085.91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4099,13 +4105,13 @@
         <v>151</v>
       </c>
       <c r="F74" s="2">
-        <v>9.000</v>
+        <v>14.000</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
       <c r="H74" s="3">
-        <v>243.41</v>
+        <v>623.35</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4125,13 +4131,13 @@
         <v>153</v>
       </c>
       <c r="F75" s="2">
-        <v>4221.000</v>
+        <v>1.000</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="3">
-        <v>43487.65</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4151,13 +4157,13 @@
         <v>155</v>
       </c>
       <c r="F76" s="2">
-        <v>14.000</v>
+        <v>2.000</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>623.35</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4183,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="3">
-        <v>39.63</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4203,13 +4209,13 @@
         <v>159</v>
       </c>
       <c r="F78" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>25.31</v>
+        <v>25707.02</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4235,7 +4241,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="3">
-        <v>25.81</v>
+        <v>275.00</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4255,13 +4261,13 @@
         <v>163</v>
       </c>
       <c r="F80" s="2">
-        <v>5.000</v>
+        <v>803.000</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="3">
-        <v>25707.02</v>
+        <v>5202.52</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4287,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>275.00</v>
+        <v>387.41</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4307,13 +4313,13 @@
         <v>167</v>
       </c>
       <c r="F82" s="2">
-        <v>813.000</v>
+        <v>2.000</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="3">
-        <v>5267.32</v>
+        <v>9170.01</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4333,13 +4339,13 @@
         <v>169</v>
       </c>
       <c r="F83" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>387.41</v>
+        <v>1237.70</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4359,13 +4365,13 @@
         <v>171</v>
       </c>
       <c r="F84" s="2">
-        <v>2.000</v>
+        <v>547.000</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
       <c r="H84" s="3">
-        <v>9170.01</v>
+        <v>3946.59</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4385,13 +4391,13 @@
         <v>173</v>
       </c>
       <c r="F85" s="2">
-        <v>3.000</v>
+        <v>30.000</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="3">
-        <v>1237.70</v>
+        <v>6200.29</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4411,13 +4417,13 @@
         <v>175</v>
       </c>
       <c r="F86" s="2">
-        <v>551.000</v>
+        <v>1.000</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
       </c>
       <c r="H86" s="3">
-        <v>3975.45</v>
+        <v>391.72</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4437,13 +4443,13 @@
         <v>177</v>
       </c>
       <c r="F87" s="2">
-        <v>30.000</v>
+        <v>4.000</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="3">
-        <v>6200.29</v>
+        <v>3894.16</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4463,13 +4469,13 @@
         <v>179</v>
       </c>
       <c r="F88" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="3">
-        <v>391.72</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4489,13 +4495,13 @@
         <v>181</v>
       </c>
       <c r="F89" s="2">
-        <v>4.000</v>
+        <v>13.000</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>3894.16</v>
+        <v>1335.73</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4515,13 +4521,13 @@
         <v>183</v>
       </c>
       <c r="F90" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
       </c>
       <c r="H90" s="3">
-        <v>558.66</v>
+        <v>224.49</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4541,13 +4547,13 @@
         <v>185</v>
       </c>
       <c r="F91" s="2">
-        <v>13.000</v>
+        <v>40.000</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>1335.73</v>
+        <v>1359.10</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4567,13 +4573,13 @@
         <v>187</v>
       </c>
       <c r="F92" s="2">
-        <v>6.000</v>
+        <v>3.000</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="3">
-        <v>224.49</v>
+        <v>5439.92</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4593,13 +4599,13 @@
         <v>189</v>
       </c>
       <c r="F93" s="2">
-        <v>3.000</v>
+        <v>535.000</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="3">
-        <v>5439.92</v>
+        <v>93420.18</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4619,13 +4625,13 @@
         <v>191</v>
       </c>
       <c r="F94" s="2">
-        <v>540.000</v>
+        <v>20.000</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>94293.26</v>
+        <v>340.02</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4645,13 +4651,13 @@
         <v>193</v>
       </c>
       <c r="F95" s="2">
-        <v>20.000</v>
+        <v>15.000</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="3">
-        <v>340.02</v>
+        <v>1190.74</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4671,13 +4677,13 @@
         <v>195</v>
       </c>
       <c r="F96" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="3">
-        <v>1190.74</v>
+        <v>289.49</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4697,13 +4703,13 @@
         <v>197</v>
       </c>
       <c r="F97" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <v>289.49</v>
+        <v>119.58</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4723,13 +4729,13 @@
         <v>199</v>
       </c>
       <c r="F98" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>119.58</v>
+        <v>676.65</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4755,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>676.65</v>
+        <v>152.05</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4775,13 +4781,13 @@
         <v>203</v>
       </c>
       <c r="F100" s="2">
-        <v>2.000</v>
+        <v>12.000</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>152.05</v>
+        <v>1342.27</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4801,13 +4807,13 @@
         <v>205</v>
       </c>
       <c r="F101" s="2">
-        <v>12.000</v>
+        <v>238.000</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>1342.27</v>
+        <v>10217.92</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4827,13 +4833,13 @@
         <v>207</v>
       </c>
       <c r="F102" s="2">
-        <v>239.000</v>
+        <v>549.000</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>10260.85</v>
+        <v>38015.50</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4853,13 +4859,13 @@
         <v>209</v>
       </c>
       <c r="F103" s="2">
-        <v>549.000</v>
+        <v>1.000</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="3">
-        <v>38015.50</v>
+        <v>472.35</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4879,13 +4885,13 @@
         <v>211</v>
       </c>
       <c r="F104" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
       </c>
       <c r="H104" s="3">
-        <v>472.35</v>
+        <v>238.65</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4905,13 +4911,13 @@
         <v>213</v>
       </c>
       <c r="F105" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
       </c>
       <c r="H105" s="3">
-        <v>238.65</v>
+        <v>366.72</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4931,13 +4937,13 @@
         <v>215</v>
       </c>
       <c r="F106" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
       </c>
       <c r="H106" s="3">
-        <v>366.72</v>
+        <v>961.64</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4957,13 +4963,13 @@
         <v>217</v>
       </c>
       <c r="F107" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
       </c>
       <c r="H107" s="3">
-        <v>961.64</v>
+        <v>917.47</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4989,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <v>917.47</v>
+        <v>562.37</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5015,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="H109" s="3">
-        <v>562.37</v>
+        <v>884.45</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5035,13 +5041,13 @@
         <v>223</v>
       </c>
       <c r="F110" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="H110" s="3">
-        <v>884.45</v>
+        <v>2049.23</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5061,13 +5067,13 @@
         <v>225</v>
       </c>
       <c r="F111" s="2">
-        <v>10.000</v>
+        <v>4.000</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
       </c>
       <c r="H111" s="3">
-        <v>2049.23</v>
+        <v>574.64</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5087,13 +5093,13 @@
         <v>227</v>
       </c>
       <c r="F112" s="2">
-        <v>4.000</v>
+        <v>9.000</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
       </c>
       <c r="H112" s="3">
-        <v>574.64</v>
+        <v>780.61</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5113,13 +5119,13 @@
         <v>229</v>
       </c>
       <c r="F113" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="3">
-        <v>780.61</v>
+        <v>2982.22</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5139,13 +5145,13 @@
         <v>231</v>
       </c>
       <c r="F114" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>2982.22</v>
+        <v>8727.40</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5165,13 +5171,13 @@
         <v>233</v>
       </c>
       <c r="F115" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>8727.40</v>
+        <v>490.00</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5191,13 +5197,13 @@
         <v>235</v>
       </c>
       <c r="F116" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>490.00</v>
+        <v>733.37</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5217,13 +5223,13 @@
         <v>237</v>
       </c>
       <c r="F117" s="2">
-        <v>1.000</v>
+        <v>1578.050</v>
       </c>
       <c r="G117" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H117" s="3">
-        <v>733.37</v>
+        <v>171951.85</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5243,13 +5249,13 @@
         <v>239</v>
       </c>
       <c r="F118" s="2">
-        <v>1578.050</v>
+        <v>1.810</v>
       </c>
       <c r="G118" t="s">
         <v>21</v>
       </c>
       <c r="H118" s="3">
-        <v>171951.85</v>
+        <v>362.00</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5269,13 +5275,13 @@
         <v>241</v>
       </c>
       <c r="F119" s="2">
-        <v>1.810</v>
+        <v>425.000</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
       </c>
       <c r="H119" s="3">
-        <v>362.00</v>
+        <v>93104.69</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5295,13 +5301,13 @@
         <v>243</v>
       </c>
       <c r="F120" s="2">
-        <v>425.000</v>
+        <v>819.000</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
       </c>
       <c r="H120" s="3">
-        <v>93104.69</v>
+        <v>633332.70</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5321,13 +5327,13 @@
         <v>245</v>
       </c>
       <c r="F121" s="2">
-        <v>829.000</v>
+        <v>15.000</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H121" s="3">
-        <v>641065.70</v>
+        <v>87.83</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5347,13 +5353,13 @@
         <v>247</v>
       </c>
       <c r="F122" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="3">
-        <v>93.68</v>
+        <v>431.02</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5379,7 +5385,7 @@
         <v>5</v>
       </c>
       <c r="H123" s="3">
-        <v>431.02</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5399,13 +5405,13 @@
         <v>251</v>
       </c>
       <c r="F124" s="2">
-        <v>1.000</v>
+        <v>13.000</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="3">
-        <v>6585.02</v>
+        <v>12214.88</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5425,13 +5431,13 @@
         <v>253</v>
       </c>
       <c r="F125" s="2">
-        <v>13.000</v>
+        <v>11.000</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="3">
-        <v>12214.88</v>
+        <v>6196.52</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5451,13 +5457,13 @@
         <v>255</v>
       </c>
       <c r="F126" s="2">
-        <v>11.000</v>
+        <v>6.000</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="3">
-        <v>6196.52</v>
+        <v>3271.07</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5477,13 +5483,13 @@
         <v>257</v>
       </c>
       <c r="F127" s="2">
-        <v>6.000</v>
+        <v>7.000</v>
       </c>
       <c r="G127" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H127" s="3">
-        <v>3271.07</v>
+        <v>2657.58</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5503,13 +5509,13 @@
         <v>259</v>
       </c>
       <c r="F128" s="2">
-        <v>7.000</v>
+        <v>3.000</v>
       </c>
       <c r="G128" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H128" s="3">
-        <v>2657.58</v>
+        <v>3855.50</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5529,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="F129" s="2">
-        <v>3.000</v>
+        <v>9.000</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <v>3855.50</v>
+        <v>2303.27</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5555,13 +5561,13 @@
         <v>263</v>
       </c>
       <c r="F130" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130" s="3">
-        <v>2303.27</v>
+        <v>501.52</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5581,13 +5587,13 @@
         <v>265</v>
       </c>
       <c r="F131" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="3">
-        <v>501.52</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5607,13 +5613,13 @@
         <v>267</v>
       </c>
       <c r="F132" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
       </c>
       <c r="H132" s="3">
-        <v>6.38</v>
+        <v>292.74</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5639,7 +5645,7 @@
         <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>292.74</v>
+        <v>116.87</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5659,13 +5665,13 @@
         <v>271</v>
       </c>
       <c r="F134" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>116.87</v>
+        <v>1131.44</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5685,13 +5691,13 @@
         <v>273</v>
       </c>
       <c r="F135" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>1131.44</v>
+        <v>253.42</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5711,13 +5717,13 @@
         <v>275</v>
       </c>
       <c r="F136" s="2">
-        <v>6.000</v>
+        <v>30.000</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
       </c>
       <c r="H136" s="3">
-        <v>253.42</v>
+        <v>1523.34</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5737,13 +5743,13 @@
         <v>277</v>
       </c>
       <c r="F137" s="2">
-        <v>31.000</v>
+        <v>2.000</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>1574.12</v>
+        <v>309.33</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5769,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="3">
-        <v>309.33</v>
+        <v>98.23</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5795,7 +5801,7 @@
         <v>5</v>
       </c>
       <c r="H139" s="3">
-        <v>98.23</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5815,13 +5821,13 @@
         <v>283</v>
       </c>
       <c r="F140" s="2">
-        <v>2.000</v>
+        <v>10.000</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
       </c>
       <c r="H140" s="3">
-        <v>20.92</v>
+        <v>2941.20</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5841,13 +5847,13 @@
         <v>285</v>
       </c>
       <c r="F141" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
       <c r="H141" s="3">
-        <v>2941.20</v>
+        <v>798.38</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5867,13 +5873,13 @@
         <v>287</v>
       </c>
       <c r="F142" s="2">
-        <v>2.000</v>
+        <v>75.000</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
       </c>
       <c r="H142" s="3">
-        <v>798.38</v>
+        <v>3523.06</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5893,13 +5899,13 @@
         <v>289</v>
       </c>
       <c r="F143" s="2">
-        <v>75.000</v>
+        <v>29.000</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="3">
-        <v>3523.06</v>
+        <v>920.29</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5925,7 +5931,7 @@
         <v>5</v>
       </c>
       <c r="H144" s="3">
-        <v>920.29</v>
+        <v>4597.76</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5945,13 +5951,13 @@
         <v>293</v>
       </c>
       <c r="F145" s="2">
-        <v>31.000</v>
+        <v>72.000</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="3">
-        <v>4914.84</v>
+        <v>40231.92</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5971,13 +5977,13 @@
         <v>295</v>
       </c>
       <c r="F146" s="2">
-        <v>77.000</v>
+        <v>39.000</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <v>43025.81</v>
+        <v>4902.49</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5997,13 +6003,13 @@
         <v>297</v>
       </c>
       <c r="F147" s="2">
-        <v>39.000</v>
+        <v>28.000</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="3">
-        <v>4902.49</v>
+        <v>748.33</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6023,13 +6029,13 @@
         <v>299</v>
       </c>
       <c r="F148" s="2">
-        <v>28.000</v>
+        <v>63.000</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
       </c>
       <c r="H148" s="3">
-        <v>748.33</v>
+        <v>1183.77</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6049,13 +6055,13 @@
         <v>301</v>
       </c>
       <c r="F149" s="2">
-        <v>65.000</v>
+        <v>31.000</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="3">
-        <v>1221.35</v>
+        <v>6006.40</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6075,13 +6081,13 @@
         <v>303</v>
       </c>
       <c r="F150" s="2">
-        <v>31.000</v>
+        <v>2.000</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="3">
-        <v>6006.40</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6101,13 +6107,13 @@
         <v>305</v>
       </c>
       <c r="F151" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>58.34</v>
+        <v>1228.86</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6127,13 +6133,13 @@
         <v>307</v>
       </c>
       <c r="F152" s="2">
-        <v>7.000</v>
+        <v>6.000</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="3">
-        <v>1228.86</v>
+        <v>223.04</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6153,13 +6159,13 @@
         <v>309</v>
       </c>
       <c r="F153" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="3">
-        <v>223.04</v>
+        <v>556.00</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6179,13 +6185,13 @@
         <v>311</v>
       </c>
       <c r="F154" s="2">
-        <v>2.000</v>
+        <v>15.000</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="3">
-        <v>556.00</v>
+        <v>427.57</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6205,13 +6211,13 @@
         <v>313</v>
       </c>
       <c r="F155" s="2">
-        <v>15.000</v>
+        <v>13.000</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="3">
-        <v>427.57</v>
+        <v>356.52</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6231,13 +6237,13 @@
         <v>315</v>
       </c>
       <c r="F156" s="2">
-        <v>13.000</v>
+        <v>2.000</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
       </c>
       <c r="H156" s="3">
-        <v>356.52</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6257,13 +6263,13 @@
         <v>317</v>
       </c>
       <c r="F157" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
       </c>
       <c r="H157" s="3">
-        <v>10.06</v>
+        <v>473.49</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6289,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="H158" s="3">
-        <v>473.49</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6315,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="3">
-        <v>41.46</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6335,13 +6341,13 @@
         <v>323</v>
       </c>
       <c r="F160" s="2">
-        <v>1.000</v>
+        <v>13.000</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="3">
-        <v>36.12</v>
+        <v>149.76</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6361,13 +6367,13 @@
         <v>325</v>
       </c>
       <c r="F161" s="2">
-        <v>15.000</v>
+        <v>9.000</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="3">
-        <v>172.81</v>
+        <v>144.27</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6387,13 +6393,13 @@
         <v>327</v>
       </c>
       <c r="F162" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="3">
-        <v>144.27</v>
+        <v>3572.22</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6413,13 +6419,13 @@
         <v>329</v>
       </c>
       <c r="F163" s="2">
-        <v>1.000</v>
+        <v>184.000</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
       </c>
       <c r="H163" s="3">
-        <v>3572.22</v>
+        <v>1648.48</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6439,13 +6445,13 @@
         <v>331</v>
       </c>
       <c r="F164" s="2">
-        <v>196.000</v>
+        <v>13.000</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="3">
-        <v>1755.99</v>
+        <v>2178.42</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6465,13 +6471,13 @@
         <v>333</v>
       </c>
       <c r="F165" s="2">
-        <v>13.000</v>
+        <v>17.000</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
       </c>
       <c r="H165" s="3">
-        <v>2178.42</v>
+        <v>1751.12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6491,13 +6497,13 @@
         <v>335</v>
       </c>
       <c r="F166" s="2">
-        <v>17.000</v>
+        <v>2.000</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="H166" s="3">
-        <v>1751.12</v>
+        <v>495.95</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6517,13 +6523,13 @@
         <v>337</v>
       </c>
       <c r="F167" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="3">
-        <v>495.95</v>
+        <v>1334.60</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6543,13 +6549,13 @@
         <v>339</v>
       </c>
       <c r="F168" s="2">
-        <v>4.000</v>
+        <v>18.000</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="3">
-        <v>1334.60</v>
+        <v>2221.41</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6569,13 +6575,13 @@
         <v>341</v>
       </c>
       <c r="F169" s="2">
-        <v>18.000</v>
+        <v>23.000</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="3">
-        <v>2221.41</v>
+        <v>1296.86</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6595,13 +6601,13 @@
         <v>343</v>
       </c>
       <c r="F170" s="2">
-        <v>23.000</v>
+        <v>1.000</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>1296.86</v>
+        <v>69.60</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6621,13 +6627,13 @@
         <v>345</v>
       </c>
       <c r="F171" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>69.60</v>
+        <v>261.25</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6647,13 +6653,13 @@
         <v>347</v>
       </c>
       <c r="F172" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>261.25</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6673,13 +6679,13 @@
         <v>349</v>
       </c>
       <c r="F173" s="2">
-        <v>1.000</v>
+        <v>974.000</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>11.47</v>
+        <v>5227.08</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6699,13 +6705,13 @@
         <v>351</v>
       </c>
       <c r="F174" s="2">
-        <v>977.000</v>
+        <v>20.000</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
       </c>
       <c r="H174" s="3">
-        <v>5243.18</v>
+        <v>594.90</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6725,13 +6731,13 @@
         <v>353</v>
       </c>
       <c r="F175" s="2">
-        <v>20.000</v>
+        <v>52.000</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
       </c>
       <c r="H175" s="3">
-        <v>594.90</v>
+        <v>2963.07</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6751,13 +6757,13 @@
         <v>355</v>
       </c>
       <c r="F176" s="2">
-        <v>53.000</v>
+        <v>3.000</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
       </c>
       <c r="H176" s="3">
-        <v>3020.05</v>
+        <v>1170.45</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6777,13 +6783,13 @@
         <v>357</v>
       </c>
       <c r="F177" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
       </c>
       <c r="H177" s="3">
-        <v>1170.45</v>
+        <v>209.59</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6803,13 +6809,13 @@
         <v>359</v>
       </c>
       <c r="F178" s="2">
-        <v>2.000</v>
+        <v>44.000</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
       </c>
       <c r="H178" s="3">
-        <v>209.59</v>
+        <v>5520.61</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6829,13 +6835,13 @@
         <v>361</v>
       </c>
       <c r="F179" s="2">
-        <v>44.000</v>
+        <v>3.000</v>
       </c>
       <c r="G179" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H179" s="3">
-        <v>5520.61</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6855,13 +6861,13 @@
         <v>363</v>
       </c>
       <c r="F180" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G180" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H180" s="3">
-        <v>344.89</v>
+        <v>217.23</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6881,13 +6887,13 @@
         <v>365</v>
       </c>
       <c r="F181" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
       </c>
       <c r="H181" s="3">
-        <v>217.23</v>
+        <v>6798.56</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6907,13 +6913,13 @@
         <v>367</v>
       </c>
       <c r="F182" s="2">
-        <v>43.000</v>
+        <v>16.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>6798.56</v>
+        <v>2968.59</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6933,13 +6939,13 @@
         <v>369</v>
       </c>
       <c r="F183" s="2">
-        <v>16.000</v>
+        <v>3.000</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
       </c>
       <c r="H183" s="3">
-        <v>2968.59</v>
+        <v>5507.99</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6959,13 +6965,13 @@
         <v>371</v>
       </c>
       <c r="F184" s="2">
-        <v>3.000</v>
+        <v>15.000</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
       <c r="H184" s="3">
-        <v>5507.99</v>
+        <v>5296.98</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6985,13 +6991,13 @@
         <v>373</v>
       </c>
       <c r="F185" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G185" t="s">
         <v>5</v>
       </c>
       <c r="H185" s="3">
-        <v>6003.24</v>
+        <v>262.35</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7011,13 +7017,13 @@
         <v>375</v>
       </c>
       <c r="F186" s="2">
-        <v>1.000</v>
+        <v>921.000</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
       <c r="H186" s="3">
-        <v>262.35</v>
+        <v>34643.41</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7037,13 +7043,13 @@
         <v>377</v>
       </c>
       <c r="F187" s="2">
-        <v>899.000</v>
+        <v>21.000</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="3">
-        <v>33815.89</v>
+        <v>1043.62</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7063,13 +7069,13 @@
         <v>379</v>
       </c>
       <c r="F188" s="2">
-        <v>21.000</v>
+        <v>66.000</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
       </c>
       <c r="H188" s="3">
-        <v>1043.61</v>
+        <v>2228.45</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7089,13 +7095,13 @@
         <v>381</v>
       </c>
       <c r="F189" s="2">
-        <v>66.000</v>
+        <v>14.000</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
       </c>
       <c r="H189" s="3">
-        <v>2228.45</v>
+        <v>559.92</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7115,13 +7121,13 @@
         <v>383</v>
       </c>
       <c r="F190" s="2">
-        <v>14.000</v>
+        <v>862.000</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
       <c r="H190" s="3">
-        <v>559.92</v>
+        <v>3638.66</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7141,13 +7147,13 @@
         <v>385</v>
       </c>
       <c r="F191" s="2">
-        <v>862.000</v>
+        <v>2.000</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
       </c>
       <c r="H191" s="3">
-        <v>3638.66</v>
+        <v>270.71</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7167,13 +7173,13 @@
         <v>387</v>
       </c>
       <c r="F192" s="2">
-        <v>2.000</v>
+        <v>238.000</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
       <c r="H192" s="3">
-        <v>270.71</v>
+        <v>1106.70</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7193,13 +7199,13 @@
         <v>389</v>
       </c>
       <c r="F193" s="2">
-        <v>238.000</v>
+        <v>3.000</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
       </c>
       <c r="H193" s="3">
-        <v>1106.70</v>
+        <v>2111.01</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7219,13 +7225,13 @@
         <v>391</v>
       </c>
       <c r="F194" s="2">
-        <v>3.000</v>
+        <v>8.000</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
       <c r="H194" s="3">
-        <v>2111.01</v>
+        <v>1068.07</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7329,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="H198" s="3">
-        <v>10096.56</v>
+        <v>10096.55</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7349,13 +7355,13 @@
         <v>401</v>
       </c>
       <c r="F199" s="2">
-        <v>1076.000</v>
+        <v>1229.000</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
       </c>
       <c r="H199" s="3">
-        <v>6095.54</v>
+        <v>6962.28</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7609,13 +7615,13 @@
         <v>421</v>
       </c>
       <c r="F209" s="2">
-        <v>1680.000</v>
+        <v>1664.000</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
       </c>
       <c r="H209" s="3">
-        <v>31458.23</v>
+        <v>31158.59</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7843,13 +7849,13 @@
         <v>439</v>
       </c>
       <c r="F218" s="2">
-        <v>1016.000</v>
+        <v>1003.000</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
       </c>
       <c r="H218" s="3">
-        <v>194400.33</v>
+        <v>191912.91</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8103,13 +8109,13 @@
         <v>459</v>
       </c>
       <c r="F228" s="2">
-        <v>196.000</v>
+        <v>157.000</v>
       </c>
       <c r="G228" t="s">
         <v>5</v>
       </c>
       <c r="H228" s="3">
-        <v>3970.96</v>
+        <v>3180.82</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8389,13 +8395,13 @@
         <v>481</v>
       </c>
       <c r="F239" s="2">
-        <v>24.000</v>
+        <v>54.000</v>
       </c>
       <c r="G239" t="s">
         <v>21</v>
       </c>
       <c r="H239" s="3">
-        <v>5809.78</v>
+        <v>13072.01</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8753,13 +8759,13 @@
         <v>509</v>
       </c>
       <c r="F253" s="2">
-        <v>1259.040</v>
+        <v>1238.040</v>
       </c>
       <c r="G253" t="s">
         <v>21</v>
       </c>
       <c r="H253" s="3">
-        <v>5374.93</v>
+        <v>5285.28</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8906,7 +8912,7 @@
         <v>520</v>
       </c>
       <c r="E259" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F259" s="2">
         <v>39.000</v>
@@ -9663,13 +9669,13 @@
         <v>578</v>
       </c>
       <c r="F288" s="2">
-        <v>150.000</v>
+        <v>250.000</v>
       </c>
       <c r="G288" t="s">
         <v>5</v>
       </c>
       <c r="H288" s="3">
-        <v>6184.77</v>
+        <v>10307.95</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10001,13 +10007,13 @@
         <v>604</v>
       </c>
       <c r="F301" s="2">
-        <v>7966.930</v>
+        <v>0.030</v>
       </c>
       <c r="G301" t="s">
         <v>21</v>
       </c>
       <c r="H301" s="3">
-        <v>81374.63</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10027,13 +10033,13 @@
         <v>606</v>
       </c>
       <c r="F302" s="2">
-        <v>4330.140</v>
+        <v>7834.430</v>
       </c>
       <c r="G302" t="s">
         <v>21</v>
       </c>
       <c r="H302" s="3">
-        <v>96945.94</v>
+        <v>80021.27</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10053,13 +10059,13 @@
         <v>608</v>
       </c>
       <c r="F303" s="2">
-        <v>1800.000</v>
+        <v>4330.140</v>
       </c>
       <c r="G303" t="s">
         <v>21</v>
       </c>
       <c r="H303" s="3">
-        <v>56549.62</v>
+        <v>96945.94</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10079,13 +10085,13 @@
         <v>610</v>
       </c>
       <c r="F304" s="2">
-        <v>527.570</v>
+        <v>1200.040</v>
       </c>
       <c r="G304" t="s">
         <v>21</v>
       </c>
       <c r="H304" s="3">
-        <v>48405.45</v>
+        <v>37701.00</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10105,13 +10111,13 @@
         <v>612</v>
       </c>
       <c r="F305" s="2">
-        <v>3076.220</v>
+        <v>527.570</v>
       </c>
       <c r="G305" t="s">
         <v>21</v>
       </c>
       <c r="H305" s="3">
-        <v>30824.10</v>
+        <v>48405.45</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10131,13 +10137,13 @@
         <v>614</v>
       </c>
       <c r="F306" s="2">
-        <v>1484.120</v>
+        <v>3076.220</v>
       </c>
       <c r="G306" t="s">
         <v>21</v>
       </c>
       <c r="H306" s="3">
-        <v>32113.30</v>
+        <v>30824.10</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10157,13 +10163,13 @@
         <v>616</v>
       </c>
       <c r="F307" s="2">
-        <v>649.890</v>
+        <v>1482.120</v>
       </c>
       <c r="G307" t="s">
         <v>21</v>
       </c>
       <c r="H307" s="3">
-        <v>22536.68</v>
+        <v>32070.02</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10183,13 +10189,13 @@
         <v>618</v>
       </c>
       <c r="F308" s="2">
-        <v>26.200</v>
+        <v>649.890</v>
       </c>
       <c r="G308" t="s">
         <v>21</v>
       </c>
       <c r="H308" s="3">
-        <v>1746.75</v>
+        <v>22536.68</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10209,13 +10215,13 @@
         <v>620</v>
       </c>
       <c r="F309" s="2">
-        <v>49.000</v>
+        <v>26.200</v>
       </c>
       <c r="G309" t="s">
         <v>21</v>
       </c>
       <c r="H309" s="3">
-        <v>5423.81</v>
+        <v>1746.75</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10235,13 +10241,13 @@
         <v>622</v>
       </c>
       <c r="F310" s="2">
-        <v>85.500</v>
+        <v>49.000</v>
       </c>
       <c r="G310" t="s">
         <v>21</v>
       </c>
       <c r="H310" s="3">
-        <v>13412.61</v>
+        <v>5423.81</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10261,13 +10267,13 @@
         <v>624</v>
       </c>
       <c r="F311" s="2">
-        <v>3936.000</v>
+        <v>85.500</v>
       </c>
       <c r="G311" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H311" s="3">
-        <v>9880.71</v>
+        <v>13412.61</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10287,13 +10293,13 @@
         <v>626</v>
       </c>
       <c r="F312" s="2">
-        <v>108.000</v>
+        <v>3931.000</v>
       </c>
       <c r="G312" t="s">
         <v>5</v>
       </c>
       <c r="H312" s="3">
-        <v>50044.50</v>
+        <v>9868.16</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10313,13 +10319,13 @@
         <v>628</v>
       </c>
       <c r="F313" s="2">
-        <v>9.000</v>
+        <v>104.000</v>
       </c>
       <c r="G313" t="s">
         <v>5</v>
       </c>
       <c r="H313" s="3">
-        <v>549.63</v>
+        <v>48191.00</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10339,13 +10345,13 @@
         <v>630</v>
       </c>
       <c r="F314" s="2">
-        <v>15.000</v>
+        <v>9.000</v>
       </c>
       <c r="G314" t="s">
         <v>5</v>
       </c>
       <c r="H314" s="3">
-        <v>2189.51</v>
+        <v>549.63</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10365,13 +10371,13 @@
         <v>632</v>
       </c>
       <c r="F315" s="2">
-        <v>11.000</v>
+        <v>15.000</v>
       </c>
       <c r="G315" t="s">
         <v>5</v>
       </c>
       <c r="H315" s="3">
-        <v>13400.03</v>
+        <v>2189.51</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10391,13 +10397,13 @@
         <v>634</v>
       </c>
       <c r="F316" s="2">
-        <v>4019.000</v>
+        <v>11.000</v>
       </c>
       <c r="G316" t="s">
         <v>5</v>
       </c>
       <c r="H316" s="3">
-        <v>320304.93</v>
+        <v>13400.03</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10417,13 +10423,13 @@
         <v>636</v>
       </c>
       <c r="F317" s="2">
-        <v>2.000</v>
+        <v>4118.000</v>
       </c>
       <c r="G317" t="s">
         <v>5</v>
       </c>
       <c r="H317" s="3">
-        <v>1479.92</v>
+        <v>328195.00</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10443,13 +10449,13 @@
         <v>638</v>
       </c>
       <c r="F318" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G318" t="s">
         <v>5</v>
       </c>
       <c r="H318" s="3">
-        <v>2980.59</v>
+        <v>1479.92</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10469,13 +10475,13 @@
         <v>640</v>
       </c>
       <c r="F319" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G319" t="s">
         <v>5</v>
       </c>
       <c r="H319" s="3">
-        <v>2131.03</v>
+        <v>2980.59</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10501,7 +10507,7 @@
         <v>5</v>
       </c>
       <c r="H320" s="3">
-        <v>2466.60</v>
+        <v>2131.03</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10521,13 +10527,13 @@
         <v>644</v>
       </c>
       <c r="F321" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G321" t="s">
         <v>5</v>
       </c>
       <c r="H321" s="3">
-        <v>1661.14</v>
+        <v>2466.60</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10547,13 +10553,13 @@
         <v>646</v>
       </c>
       <c r="F322" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G322" t="s">
         <v>5</v>
       </c>
       <c r="H322" s="3">
-        <v>12736.13</v>
+        <v>1661.14</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10573,13 +10579,13 @@
         <v>648</v>
       </c>
       <c r="F323" s="2">
-        <v>2836.000</v>
+        <v>2.000</v>
       </c>
       <c r="G323" t="s">
         <v>5</v>
       </c>
       <c r="H323" s="3">
-        <v>242378.74</v>
+        <v>12736.13</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10599,13 +10605,13 @@
         <v>650</v>
       </c>
       <c r="F324" s="2">
-        <v>1.000</v>
+        <v>2818.000</v>
       </c>
       <c r="G324" t="s">
         <v>5</v>
       </c>
       <c r="H324" s="3">
-        <v>521.42</v>
+        <v>240840.37</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10625,13 +10631,13 @@
         <v>652</v>
       </c>
       <c r="F325" s="2">
-        <v>33.000</v>
+        <v>1.000</v>
       </c>
       <c r="G325" t="s">
         <v>5</v>
       </c>
       <c r="H325" s="3">
-        <v>2817.88</v>
+        <v>521.42</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10651,13 +10657,13 @@
         <v>654</v>
       </c>
       <c r="F326" s="2">
-        <v>2153.000</v>
+        <v>33.000</v>
       </c>
       <c r="G326" t="s">
         <v>5</v>
       </c>
       <c r="H326" s="3">
-        <v>56487.04</v>
+        <v>2817.88</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10677,13 +10683,13 @@
         <v>656</v>
       </c>
       <c r="F327" s="2">
-        <v>1.000</v>
+        <v>2061.000</v>
       </c>
       <c r="G327" t="s">
         <v>5</v>
       </c>
       <c r="H327" s="3">
-        <v>1167.91</v>
+        <v>54073.23</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10703,13 +10709,13 @@
         <v>658</v>
       </c>
       <c r="F328" s="2">
-        <v>6.000</v>
+        <v>1.000</v>
       </c>
       <c r="G328" t="s">
         <v>5</v>
       </c>
       <c r="H328" s="3">
-        <v>3312.79</v>
+        <v>1167.91</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10729,13 +10735,13 @@
         <v>660</v>
       </c>
       <c r="F329" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="G329" t="s">
         <v>5</v>
       </c>
       <c r="H329" s="3">
-        <v>1065.54</v>
+        <v>3312.79</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10755,13 +10761,13 @@
         <v>662</v>
       </c>
       <c r="F330" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G330" t="s">
         <v>5</v>
       </c>
       <c r="H330" s="3">
-        <v>3452.33</v>
+        <v>1065.54</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10781,13 +10787,13 @@
         <v>664</v>
       </c>
       <c r="F331" s="2">
-        <v>299.000</v>
+        <v>9.000</v>
       </c>
       <c r="G331" t="s">
         <v>5</v>
       </c>
       <c r="H331" s="3">
-        <v>13680.74</v>
+        <v>3452.33</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10807,13 +10813,13 @@
         <v>666</v>
       </c>
       <c r="F332" s="2">
-        <v>2.000</v>
+        <v>298.000</v>
       </c>
       <c r="G332" t="s">
         <v>5</v>
       </c>
       <c r="H332" s="3">
-        <v>2547.86</v>
+        <v>13634.99</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10833,13 +10839,13 @@
         <v>668</v>
       </c>
       <c r="F333" s="2">
-        <v>260.000</v>
+        <v>2.000</v>
       </c>
       <c r="G333" t="s">
         <v>5</v>
       </c>
       <c r="H333" s="3">
-        <v>6432.75</v>
+        <v>2547.86</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10859,13 +10865,13 @@
         <v>670</v>
       </c>
       <c r="F334" s="2">
-        <v>2.000</v>
+        <v>259.000</v>
       </c>
       <c r="G334" t="s">
         <v>5</v>
       </c>
       <c r="H334" s="3">
-        <v>17092.40</v>
+        <v>6328.24</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10885,13 +10891,13 @@
         <v>672</v>
       </c>
       <c r="F335" s="2">
-        <v>335.000</v>
+        <v>2.000</v>
       </c>
       <c r="G335" t="s">
         <v>5</v>
       </c>
       <c r="H335" s="3">
-        <v>193550.49</v>
+        <v>17092.40</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10911,13 +10917,39 @@
         <v>674</v>
       </c>
       <c r="F336" s="2">
-        <v>2220.000</v>
+        <v>334.000</v>
       </c>
       <c r="G336" t="s">
         <v>5</v>
       </c>
       <c r="H336" s="3">
-        <v>308738.33</v>
+        <v>192972.72</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>675</v>
+      </c>
+      <c r="E337" t="s">
+        <v>676</v>
+      </c>
+      <c r="F337" s="2">
+        <v>2431.000</v>
+      </c>
+      <c r="G337" t="s">
+        <v>5</v>
+      </c>
+      <c r="H337" s="3">
+        <v>334855.09</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="681">
   <si>
     <t>4600042975</t>
   </si>
@@ -175,12 +175,6 @@
     <t>CAP FF DUCTIL BOLSA JE2GS DN200</t>
   </si>
   <si>
-    <t>30004410</t>
-  </si>
-  <si>
-    <t>CAP FF DUCTIL BOLSA JE2GS DN75</t>
-  </si>
-  <si>
     <t>30004643</t>
   </si>
   <si>
@@ -826,6 +820,12 @@
     <t>JUNTA FLEXI ESGOTO ADAP DN 300MMX300MM</t>
   </si>
   <si>
+    <t>50001070</t>
+  </si>
+  <si>
+    <t>LACRE ANTIFRAUDE P HIDRÔMETRO COMPR 01 M</t>
+  </si>
+  <si>
     <t>30023262</t>
   </si>
   <si>
@@ -886,6 +886,12 @@
     <t>LUVA CORRER BB ESG DN 100 - JEI</t>
   </si>
   <si>
+    <t>30001548</t>
+  </si>
+  <si>
+    <t>LUVA CORRER BB ESG DN 150 - JEI</t>
+  </si>
+  <si>
     <t>30005896</t>
   </si>
   <si>
@@ -1243,6 +1249,12 @@
     <t>TAMPAO ARTICULADO FF DN600 RUA/ESG REV08</t>
   </si>
   <si>
+    <t>30032232</t>
+  </si>
+  <si>
+    <t>TAMPAO FF  CX C/TAMP ART P/VALV T5 REV08</t>
+  </si>
+  <si>
     <t>30032233</t>
   </si>
   <si>
@@ -1327,6 +1339,12 @@
     <t>TE DE SERV INTEGR ART DN 100 P/ DE 32</t>
   </si>
   <si>
+    <t>30007034</t>
+  </si>
+  <si>
+    <t>TE DE SERV INTEGR ART DN 50 P/ DE 20</t>
+  </si>
+  <si>
     <t>30003467</t>
   </si>
   <si>
@@ -1880,6 +1898,12 @@
   </si>
   <si>
     <t>UNIAO P/TUBO PEAD DE 20 MM 1 EXTR CAP</t>
+  </si>
+  <si>
+    <t>30003832</t>
+  </si>
+  <si>
+    <t>UNIAO P/TUBO PEAD DE 32 MM</t>
   </si>
   <si>
     <t>30029526</t>
@@ -2136,7 +2160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,28 +2180,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2197,13 +2221,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>14.000</v>
+        <v>13.000</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3">
-        <v>3864.06</v>
+        <v>3588.06</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2223,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>1023.11</v>
+        <v>2046.21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2249,13 +2273,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>873.15</v>
+        <v>2619.45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2411,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>348.11</v>
+        <v>334.83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2665,13 +2689,13 @@
         <v>41</v>
       </c>
       <c r="F20" s="2">
-        <v>27.000</v>
+        <v>24.000</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>2305.54</v>
+        <v>2049.37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2743,13 +2767,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="2">
-        <v>30.000</v>
+        <v>32.000</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>1523.34</v>
+        <v>1624.90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2847,13 +2871,13 @@
         <v>55</v>
       </c>
       <c r="F27" s="2">
-        <v>1.000</v>
+        <v>75.000</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>49.11</v>
+        <v>3523.06</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2873,13 +2897,13 @@
         <v>57</v>
       </c>
       <c r="F28" s="2">
-        <v>75.000</v>
+        <v>29.000</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="3">
-        <v>3523.06</v>
+        <v>920.29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2899,13 +2923,13 @@
         <v>59</v>
       </c>
       <c r="F29" s="2">
-        <v>29.000</v>
+        <v>166.000</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>920.29</v>
+        <v>4972.51</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2925,13 +2949,13 @@
         <v>61</v>
       </c>
       <c r="F30" s="2">
-        <v>167.000</v>
+        <v>12.000</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>5002.47</v>
+        <v>1902.52</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2951,13 +2975,13 @@
         <v>63</v>
       </c>
       <c r="F31" s="2">
-        <v>13.000</v>
+        <v>91.000</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="3">
-        <v>2061.06</v>
+        <v>50848.66</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2977,13 +3001,13 @@
         <v>65</v>
       </c>
       <c r="F32" s="2">
-        <v>64.000</v>
+        <v>39.000</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>35761.70</v>
+        <v>4902.49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3003,13 +3027,13 @@
         <v>67</v>
       </c>
       <c r="F33" s="2">
-        <v>39.000</v>
+        <v>28.000</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>4902.49</v>
+        <v>748.33</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3029,13 +3053,13 @@
         <v>69</v>
       </c>
       <c r="F34" s="2">
-        <v>28.000</v>
+        <v>63.000</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>748.33</v>
+        <v>1183.77</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3055,13 +3079,13 @@
         <v>71</v>
       </c>
       <c r="F35" s="2">
-        <v>63.000</v>
+        <v>31.000</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>1183.77</v>
+        <v>6006.40</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3081,13 +3105,13 @@
         <v>73</v>
       </c>
       <c r="F36" s="2">
-        <v>31.000</v>
+        <v>10.000</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>6006.40</v>
+        <v>2941.20</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3107,13 +3131,13 @@
         <v>75</v>
       </c>
       <c r="F37" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="3">
-        <v>2941.20</v>
+        <v>798.38</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3139,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="3">
-        <v>798.38</v>
+        <v>1726.34</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3159,13 +3183,13 @@
         <v>79</v>
       </c>
       <c r="F39" s="2">
-        <v>2.000</v>
+        <v>76.000</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="3">
-        <v>1726.34</v>
+        <v>7487.71</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3185,13 +3209,13 @@
         <v>81</v>
       </c>
       <c r="F40" s="2">
-        <v>76.000</v>
+        <v>7.000</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>7487.71</v>
+        <v>1314.83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3211,13 +3235,13 @@
         <v>83</v>
       </c>
       <c r="F41" s="2">
-        <v>7.000</v>
+        <v>4138.000</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>1314.83</v>
+        <v>37809.84</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3237,13 +3261,13 @@
         <v>85</v>
       </c>
       <c r="F42" s="2">
-        <v>4152.000</v>
+        <v>9.000</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>38037.75</v>
+        <v>144.27</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3263,13 +3287,13 @@
         <v>87</v>
       </c>
       <c r="F43" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>144.27</v>
+        <v>54.09</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3289,13 +3313,13 @@
         <v>89</v>
       </c>
       <c r="F44" s="2">
-        <v>3.000</v>
+        <v>4156.000</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>81.13</v>
+        <v>42818.30</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3315,13 +3339,13 @@
         <v>91</v>
       </c>
       <c r="F45" s="2">
-        <v>3989.000</v>
+        <v>7.000</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>41097.62</v>
+        <v>80.64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3341,13 +3365,13 @@
         <v>93</v>
       </c>
       <c r="F46" s="2">
-        <v>8.000</v>
+        <v>7.000</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>92.16</v>
+        <v>1228.86</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3367,13 +3391,13 @@
         <v>95</v>
       </c>
       <c r="F47" s="2">
-        <v>7.000</v>
+        <v>2.000</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>1228.86</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3393,13 +3417,13 @@
         <v>97</v>
       </c>
       <c r="F48" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>58.34</v>
+        <v>223.04</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3419,13 +3443,13 @@
         <v>99</v>
       </c>
       <c r="F49" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>223.04</v>
+        <v>556.00</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3445,13 +3469,13 @@
         <v>101</v>
       </c>
       <c r="F50" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <v>556.00</v>
+        <v>938.52</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3471,13 +3495,13 @@
         <v>103</v>
       </c>
       <c r="F51" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="3">
-        <v>938.52</v>
+        <v>427.57</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3497,13 +3521,13 @@
         <v>105</v>
       </c>
       <c r="F52" s="2">
-        <v>15.000</v>
+        <v>14.000</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>427.57</v>
+        <v>623.35</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3523,13 +3547,13 @@
         <v>107</v>
       </c>
       <c r="F53" s="2">
-        <v>14.000</v>
+        <v>13.000</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="3">
-        <v>623.35</v>
+        <v>356.52</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3549,13 +3573,13 @@
         <v>109</v>
       </c>
       <c r="F54" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>356.52</v>
+        <v>46.60</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3575,13 +3599,13 @@
         <v>111</v>
       </c>
       <c r="F55" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="3">
-        <v>46.60</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3601,13 +3625,13 @@
         <v>113</v>
       </c>
       <c r="F56" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G56" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="3">
-        <v>10.06</v>
+        <v>295.04</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3633,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>295.04</v>
+        <v>473.49</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3659,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>473.49</v>
+        <v>150.52</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3685,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>150.52</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3711,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>41.46</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3737,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="3">
-        <v>39.63</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3757,13 +3781,13 @@
         <v>125</v>
       </c>
       <c r="F62" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>36.12</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3783,13 +3807,13 @@
         <v>127</v>
       </c>
       <c r="F63" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="3">
-        <v>25.31</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3809,13 +3833,13 @@
         <v>129</v>
       </c>
       <c r="F64" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
       </c>
       <c r="H64" s="3">
-        <v>99.61</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3835,13 +3859,13 @@
         <v>131</v>
       </c>
       <c r="F65" s="2">
-        <v>1.000</v>
+        <v>18.000</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
       </c>
       <c r="H65" s="3">
-        <v>25.81</v>
+        <v>2221.41</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3861,13 +3885,13 @@
         <v>133</v>
       </c>
       <c r="F66" s="2">
-        <v>18.000</v>
+        <v>23.000</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>2221.41</v>
+        <v>1296.86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3887,13 +3911,13 @@
         <v>135</v>
       </c>
       <c r="F67" s="2">
-        <v>23.000</v>
+        <v>1.000</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
       </c>
       <c r="H67" s="3">
-        <v>1296.86</v>
+        <v>69.60</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3910,16 +3934,16 @@
         <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F68" s="2">
-        <v>1.000</v>
+        <v>39.000</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="3">
-        <v>69.60</v>
+        <v>3077.20</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3933,19 +3957,19 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" t="s">
         <v>138</v>
       </c>
-      <c r="E69" t="s">
-        <v>137</v>
-      </c>
       <c r="F69" s="2">
-        <v>39.000</v>
+        <v>5.000</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
       </c>
       <c r="H69" s="3">
-        <v>3077.20</v>
+        <v>25707.02</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3965,13 +3989,13 @@
         <v>140</v>
       </c>
       <c r="F70" s="2">
-        <v>5.000</v>
+        <v>8.000</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
       </c>
       <c r="H70" s="3">
-        <v>25707.02</v>
+        <v>209.00</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3991,13 +4015,13 @@
         <v>142</v>
       </c>
       <c r="F71" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="3">
-        <v>209.00</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4017,13 +4041,13 @@
         <v>144</v>
       </c>
       <c r="F72" s="2">
-        <v>1.000</v>
+        <v>20.000</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>11.47</v>
+        <v>594.90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4043,13 +4067,13 @@
         <v>146</v>
       </c>
       <c r="F73" s="2">
-        <v>20.000</v>
+        <v>51.000</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="3">
-        <v>594.90</v>
+        <v>2906.09</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4069,13 +4093,13 @@
         <v>148</v>
       </c>
       <c r="F74" s="2">
-        <v>51.000</v>
+        <v>5.000</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
       <c r="H74" s="3">
-        <v>2906.09</v>
+        <v>399.86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4095,13 +4119,13 @@
         <v>150</v>
       </c>
       <c r="F75" s="2">
-        <v>5.000</v>
+        <v>2.000</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="3">
-        <v>399.86</v>
+        <v>239.09</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4121,13 +4145,13 @@
         <v>152</v>
       </c>
       <c r="F76" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>239.09</v>
+        <v>1170.45</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4147,13 +4171,13 @@
         <v>154</v>
       </c>
       <c r="F77" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
       </c>
       <c r="H77" s="3">
-        <v>1170.45</v>
+        <v>275.00</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4173,13 +4197,13 @@
         <v>156</v>
       </c>
       <c r="F78" s="2">
-        <v>1.000</v>
+        <v>900.000</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>275.00</v>
+        <v>4678.37</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4199,13 +4223,13 @@
         <v>158</v>
       </c>
       <c r="F79" s="2">
-        <v>915.000</v>
+        <v>2.000</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="3">
-        <v>4910.47</v>
+        <v>209.59</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4225,13 +4249,13 @@
         <v>160</v>
       </c>
       <c r="F80" s="2">
-        <v>2.000</v>
+        <v>56.000</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="3">
-        <v>209.59</v>
+        <v>3310.00</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4251,13 +4275,13 @@
         <v>162</v>
       </c>
       <c r="F81" s="2">
-        <v>56.000</v>
+        <v>44.000</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>3310.00</v>
+        <v>5520.61</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4277,13 +4301,13 @@
         <v>164</v>
       </c>
       <c r="F82" s="2">
-        <v>44.000</v>
+        <v>1.000</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="3">
-        <v>5520.61</v>
+        <v>3572.22</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4309,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>3572.22</v>
+        <v>4682.98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4329,13 +4353,13 @@
         <v>168</v>
       </c>
       <c r="F84" s="2">
-        <v>1.000</v>
+        <v>180.000</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
       <c r="H84" s="3">
-        <v>4682.98</v>
+        <v>1598.45</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4355,13 +4379,13 @@
         <v>170</v>
       </c>
       <c r="F85" s="2">
-        <v>185.000</v>
+        <v>25.000</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="3">
-        <v>1657.43</v>
+        <v>1433.36</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4381,13 +4405,13 @@
         <v>172</v>
       </c>
       <c r="F86" s="2">
-        <v>26.000</v>
+        <v>13.000</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
       </c>
       <c r="H86" s="3">
-        <v>1490.69</v>
+        <v>2178.42</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4407,13 +4431,13 @@
         <v>174</v>
       </c>
       <c r="F87" s="2">
-        <v>13.000</v>
+        <v>16.000</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="3">
-        <v>2178.42</v>
+        <v>1648.12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4433,13 +4457,13 @@
         <v>176</v>
       </c>
       <c r="F88" s="2">
-        <v>17.000</v>
+        <v>2.000</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="3">
-        <v>1751.12</v>
+        <v>495.95</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4465,7 +4489,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>495.95</v>
+        <v>263.13</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4485,13 +4509,13 @@
         <v>180</v>
       </c>
       <c r="F90" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
       </c>
       <c r="H90" s="3">
-        <v>263.13</v>
+        <v>497.07</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4517,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>497.07</v>
+        <v>1334.60</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4537,13 +4561,13 @@
         <v>184</v>
       </c>
       <c r="F92" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="3">
-        <v>1334.60</v>
+        <v>3115.88</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4569,7 +4593,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="3">
-        <v>3115.88</v>
+        <v>387.41</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4589,13 +4613,13 @@
         <v>188</v>
       </c>
       <c r="F94" s="2">
-        <v>1.000</v>
+        <v>770.000</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>387.41</v>
+        <v>4776.46</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4615,13 +4639,13 @@
         <v>190</v>
       </c>
       <c r="F95" s="2">
-        <v>773.000</v>
+        <v>288.000</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="3">
-        <v>4794.98</v>
+        <v>3140.55</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4641,13 +4665,13 @@
         <v>192</v>
       </c>
       <c r="F96" s="2">
-        <v>288.000</v>
+        <v>6.000</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="3">
-        <v>3251.21</v>
+        <v>3207.59</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4667,13 +4691,13 @@
         <v>194</v>
       </c>
       <c r="F97" s="2">
-        <v>6.000</v>
+        <v>447.000</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <v>3207.59</v>
+        <v>9416.84</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4693,13 +4717,13 @@
         <v>196</v>
       </c>
       <c r="F98" s="2">
-        <v>437.000</v>
+        <v>4066.000</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>9206.17</v>
+        <v>324050.68</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4719,13 +4743,13 @@
         <v>198</v>
       </c>
       <c r="F99" s="2">
-        <v>4101.000</v>
+        <v>2370.000</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>326840.12</v>
+        <v>62180.03</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4745,13 +4769,13 @@
         <v>200</v>
       </c>
       <c r="F100" s="2">
-        <v>2164.000</v>
+        <v>5.000</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>56775.46</v>
+        <v>748.67</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4771,13 +4795,13 @@
         <v>202</v>
       </c>
       <c r="F101" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>748.67</v>
+        <v>217.23</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4797,13 +4821,13 @@
         <v>204</v>
       </c>
       <c r="F102" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>217.23</v>
+        <v>6798.56</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4823,13 +4847,13 @@
         <v>206</v>
       </c>
       <c r="F103" s="2">
-        <v>43.000</v>
+        <v>16.000</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="3">
-        <v>6798.56</v>
+        <v>2968.59</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4849,13 +4873,13 @@
         <v>208</v>
       </c>
       <c r="F104" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
       </c>
       <c r="H104" s="3">
-        <v>2968.59</v>
+        <v>252.01</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4881,7 +4905,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="3">
-        <v>252.01</v>
+        <v>460.29</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4901,13 +4925,13 @@
         <v>212</v>
       </c>
       <c r="F106" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
       </c>
       <c r="H106" s="3">
-        <v>460.29</v>
+        <v>5507.99</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4927,13 +4951,13 @@
         <v>214</v>
       </c>
       <c r="F107" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
       </c>
       <c r="H107" s="3">
-        <v>5507.99</v>
+        <v>1479.92</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4953,13 +4977,13 @@
         <v>216</v>
       </c>
       <c r="F108" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <v>1479.92</v>
+        <v>1167.91</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4979,13 +5003,13 @@
         <v>218</v>
       </c>
       <c r="F109" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
       </c>
       <c r="H109" s="3">
-        <v>1167.91</v>
+        <v>3312.79</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5005,13 +5029,13 @@
         <v>220</v>
       </c>
       <c r="F110" s="2">
-        <v>6.000</v>
+        <v>3.000</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="H110" s="3">
-        <v>3312.79</v>
+        <v>1661.14</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5031,13 +5055,13 @@
         <v>222</v>
       </c>
       <c r="F111" s="2">
-        <v>3.000</v>
+        <v>18.000</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
       </c>
       <c r="H111" s="3">
-        <v>1661.14</v>
+        <v>715.94</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5057,13 +5081,13 @@
         <v>224</v>
       </c>
       <c r="F112" s="2">
-        <v>18.000</v>
+        <v>1.000</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
       </c>
       <c r="H112" s="3">
-        <v>715.94</v>
+        <v>1784.99</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5083,13 +5107,13 @@
         <v>226</v>
       </c>
       <c r="F113" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="3">
-        <v>1784.99</v>
+        <v>5439.92</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5109,13 +5133,13 @@
         <v>228</v>
       </c>
       <c r="F114" s="2">
-        <v>3.000</v>
+        <v>330.000</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>5439.92</v>
+        <v>189813.78</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5135,13 +5159,13 @@
         <v>230</v>
       </c>
       <c r="F115" s="2">
-        <v>332.000</v>
+        <v>2550.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>191817.20</v>
+        <v>217935.75</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5161,13 +5185,13 @@
         <v>232</v>
       </c>
       <c r="F116" s="2">
-        <v>2580.000</v>
+        <v>3501.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>220499.70</v>
+        <v>482244.98</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5187,13 +5211,13 @@
         <v>234</v>
       </c>
       <c r="F117" s="2">
-        <v>3579.000</v>
+        <v>1.000</v>
       </c>
       <c r="G117" t="s">
         <v>5</v>
       </c>
       <c r="H117" s="3">
-        <v>492986.87</v>
+        <v>2980.59</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5213,13 +5237,13 @@
         <v>236</v>
       </c>
       <c r="F118" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G118" t="s">
         <v>5</v>
       </c>
       <c r="H118" s="3">
-        <v>2980.59</v>
+        <v>12736.13</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5245,7 +5269,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="3">
-        <v>12736.13</v>
+        <v>2131.03</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5271,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="3">
-        <v>2131.03</v>
+        <v>2466.60</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5297,7 +5321,7 @@
         <v>5</v>
       </c>
       <c r="H121" s="3">
-        <v>2466.60</v>
+        <v>2547.86</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5317,13 +5341,13 @@
         <v>244</v>
       </c>
       <c r="F122" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="3">
-        <v>2547.86</v>
+        <v>521.42</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5343,13 +5367,13 @@
         <v>246</v>
       </c>
       <c r="F123" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G123" t="s">
         <v>5</v>
       </c>
       <c r="H123" s="3">
-        <v>521.42</v>
+        <v>3382.72</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5369,13 +5393,13 @@
         <v>248</v>
       </c>
       <c r="F124" s="2">
-        <v>9.000</v>
+        <v>5.000</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="3">
-        <v>3452.33</v>
+        <v>2872.72</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5395,13 +5419,13 @@
         <v>250</v>
       </c>
       <c r="F125" s="2">
-        <v>5.000</v>
+        <v>9.000</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="3">
-        <v>2872.72</v>
+        <v>3178.19</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5421,13 +5445,13 @@
         <v>252</v>
       </c>
       <c r="F126" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="3">
-        <v>3178.19</v>
+        <v>262.35</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5447,13 +5471,13 @@
         <v>254</v>
       </c>
       <c r="F127" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G127" t="s">
         <v>5</v>
       </c>
       <c r="H127" s="3">
-        <v>262.35</v>
+        <v>2518.14</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5473,13 +5497,13 @@
         <v>256</v>
       </c>
       <c r="F128" s="2">
-        <v>7.000</v>
+        <v>938.000</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
       </c>
       <c r="H128" s="3">
-        <v>2518.14</v>
+        <v>35282.87</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5499,13 +5523,13 @@
         <v>258</v>
       </c>
       <c r="F129" s="2">
-        <v>940.000</v>
+        <v>31.000</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <v>35358.10</v>
+        <v>1923.23</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5525,13 +5549,13 @@
         <v>260</v>
       </c>
       <c r="F130" s="2">
-        <v>38.000</v>
+        <v>21.000</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130" s="3">
-        <v>2357.50</v>
+        <v>1043.61</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5551,13 +5575,13 @@
         <v>262</v>
       </c>
       <c r="F131" s="2">
-        <v>21.000</v>
+        <v>11.000</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="3">
-        <v>1043.62</v>
+        <v>1121.09</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5577,13 +5601,13 @@
         <v>264</v>
       </c>
       <c r="F132" s="2">
-        <v>11.000</v>
+        <v>3.000</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
       </c>
       <c r="H132" s="3">
-        <v>1081.90</v>
+        <v>192.16</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5603,13 +5627,13 @@
         <v>266</v>
       </c>
       <c r="F133" s="2">
-        <v>3.000</v>
+        <v>62.000</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>192.16</v>
+        <v>2093.40</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5629,13 +5653,13 @@
         <v>268</v>
       </c>
       <c r="F134" s="2">
-        <v>62.000</v>
+        <v>13.000</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>2093.40</v>
+        <v>2420.53</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5655,13 +5679,13 @@
         <v>270</v>
       </c>
       <c r="F135" s="2">
-        <v>13.000</v>
+        <v>3817.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>2420.53</v>
+        <v>14758.02</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5863,13 +5887,13 @@
         <v>286</v>
       </c>
       <c r="F143" s="2">
-        <v>7.000</v>
+        <v>9.000</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="3">
-        <v>10096.55</v>
+        <v>12981.29</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5889,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="F144" s="2">
-        <v>1371.000</v>
+        <v>1361.000</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
       </c>
       <c r="H144" s="3">
-        <v>7766.71</v>
+        <v>7704.32</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5915,13 +5939,13 @@
         <v>290</v>
       </c>
       <c r="F145" s="2">
-        <v>544.000</v>
+        <v>541.000</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="3">
-        <v>3924.96</v>
+        <v>4257.70</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5941,13 +5965,13 @@
         <v>292</v>
       </c>
       <c r="F146" s="2">
-        <v>33.000</v>
+        <v>9.000</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <v>449.91</v>
+        <v>141.10</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5967,13 +5991,13 @@
         <v>294</v>
       </c>
       <c r="F147" s="2">
-        <v>26.000</v>
+        <v>49.000</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="3">
-        <v>2872.65</v>
+        <v>668.05</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5993,13 +6017,13 @@
         <v>296</v>
       </c>
       <c r="F148" s="2">
-        <v>9.000</v>
+        <v>26.000</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
       </c>
       <c r="H148" s="3">
-        <v>1747.14</v>
+        <v>2958.39</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6019,13 +6043,13 @@
         <v>298</v>
       </c>
       <c r="F149" s="2">
-        <v>7.000</v>
+        <v>9.000</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="3">
-        <v>557.03</v>
+        <v>1747.14</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6045,13 +6069,13 @@
         <v>300</v>
       </c>
       <c r="F150" s="2">
-        <v>27.000</v>
+        <v>7.000</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="3">
-        <v>5580.26</v>
+        <v>557.03</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6071,13 +6095,13 @@
         <v>302</v>
       </c>
       <c r="F151" s="2">
-        <v>9.000</v>
+        <v>27.000</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>2248.82</v>
+        <v>5580.26</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6097,13 +6121,13 @@
         <v>304</v>
       </c>
       <c r="F152" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="3">
-        <v>207.52</v>
+        <v>2248.82</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6123,13 +6147,13 @@
         <v>306</v>
       </c>
       <c r="F153" s="2">
-        <v>18.000</v>
+        <v>1.000</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="3">
-        <v>11235.38</v>
+        <v>207.52</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6149,13 +6173,13 @@
         <v>308</v>
       </c>
       <c r="F154" s="2">
-        <v>7.000</v>
+        <v>18.000</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="3">
-        <v>5712.24</v>
+        <v>11235.38</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6175,13 +6199,13 @@
         <v>310</v>
       </c>
       <c r="F155" s="2">
-        <v>4.000</v>
+        <v>7.000</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="3">
-        <v>4210.13</v>
+        <v>5712.24</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6207,7 +6231,7 @@
         <v>5</v>
       </c>
       <c r="H156" s="3">
-        <v>3894.16</v>
+        <v>4210.13</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6233,7 +6257,7 @@
         <v>5</v>
       </c>
       <c r="H157" s="3">
-        <v>3704.06</v>
+        <v>3894.16</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6253,13 +6277,13 @@
         <v>316</v>
       </c>
       <c r="F158" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G158" t="s">
         <v>5</v>
       </c>
       <c r="H158" s="3">
-        <v>338.11</v>
+        <v>3704.06</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6279,13 +6303,13 @@
         <v>318</v>
       </c>
       <c r="F159" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
       </c>
       <c r="H159" s="3">
-        <v>1954.22</v>
+        <v>338.11</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6305,13 +6329,13 @@
         <v>320</v>
       </c>
       <c r="F160" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="3">
-        <v>558.66</v>
+        <v>1954.23</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6331,13 +6355,13 @@
         <v>322</v>
       </c>
       <c r="F161" s="2">
-        <v>46.000</v>
+        <v>2.000</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="3">
-        <v>1776.48</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6357,13 +6381,13 @@
         <v>324</v>
       </c>
       <c r="F162" s="2">
-        <v>13.000</v>
+        <v>46.000</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="3">
-        <v>1335.73</v>
+        <v>1776.48</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6383,13 +6407,13 @@
         <v>326</v>
       </c>
       <c r="F163" s="2">
-        <v>3.000</v>
+        <v>13.000</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
       </c>
       <c r="H163" s="3">
-        <v>60.22</v>
+        <v>1335.73</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6409,13 +6433,13 @@
         <v>328</v>
       </c>
       <c r="F164" s="2">
-        <v>14.000</v>
+        <v>1.000</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="3">
-        <v>559.92</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6435,13 +6459,13 @@
         <v>330</v>
       </c>
       <c r="F165" s="2">
-        <v>6.000</v>
+        <v>14.000</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
       </c>
       <c r="H165" s="3">
-        <v>224.49</v>
+        <v>559.92</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6461,13 +6485,13 @@
         <v>332</v>
       </c>
       <c r="F166" s="2">
-        <v>862.000</v>
+        <v>6.000</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="H166" s="3">
-        <v>3638.66</v>
+        <v>224.49</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6487,13 +6511,13 @@
         <v>334</v>
       </c>
       <c r="F167" s="2">
-        <v>5.000</v>
+        <v>861.000</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="3">
-        <v>376.40</v>
+        <v>3634.44</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6513,13 +6537,13 @@
         <v>336</v>
       </c>
       <c r="F168" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="3">
-        <v>270.71</v>
+        <v>376.40</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6539,13 +6563,13 @@
         <v>338</v>
       </c>
       <c r="F169" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="3">
-        <v>2565.61</v>
+        <v>270.71</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6565,13 +6589,13 @@
         <v>340</v>
       </c>
       <c r="F170" s="2">
-        <v>238.000</v>
+        <v>10.000</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>1106.70</v>
+        <v>2565.61</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6591,13 +6615,13 @@
         <v>342</v>
       </c>
       <c r="F171" s="2">
-        <v>40.000</v>
+        <v>238.000</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>1359.10</v>
+        <v>1106.70</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6617,13 +6641,13 @@
         <v>344</v>
       </c>
       <c r="F172" s="2">
-        <v>6.000</v>
+        <v>40.000</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>17833.95</v>
+        <v>1359.10</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6643,13 +6667,13 @@
         <v>346</v>
       </c>
       <c r="F173" s="2">
-        <v>3.000</v>
+        <v>6.000</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>2111.01</v>
+        <v>17833.95</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6669,13 +6693,13 @@
         <v>348</v>
       </c>
       <c r="F174" s="2">
-        <v>16.000</v>
+        <v>3.000</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
       </c>
       <c r="H174" s="3">
-        <v>1634.66</v>
+        <v>2111.01</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6695,13 +6719,13 @@
         <v>350</v>
       </c>
       <c r="F175" s="2">
-        <v>6.000</v>
+        <v>7.000</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
       </c>
       <c r="H175" s="3">
-        <v>801.05</v>
+        <v>715.16</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6721,13 +6745,13 @@
         <v>352</v>
       </c>
       <c r="F176" s="2">
-        <v>1.000</v>
+        <v>25.000</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
       </c>
       <c r="H176" s="3">
-        <v>92.01</v>
+        <v>3337.73</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6753,7 +6777,7 @@
         <v>5</v>
       </c>
       <c r="H177" s="3">
-        <v>1055.94</v>
+        <v>92.01</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6773,13 +6797,13 @@
         <v>356</v>
       </c>
       <c r="F178" s="2">
-        <v>42.000</v>
+        <v>1.000</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
       </c>
       <c r="H178" s="3">
-        <v>3323.51</v>
+        <v>1055.94</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6799,13 +6823,13 @@
         <v>358</v>
       </c>
       <c r="F179" s="2">
-        <v>41.000</v>
+        <v>42.000</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
       </c>
       <c r="H179" s="3">
-        <v>2465.60</v>
+        <v>3323.51</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6825,13 +6849,13 @@
         <v>360</v>
       </c>
       <c r="F180" s="2">
-        <v>12.000</v>
+        <v>41.000</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
       </c>
       <c r="H180" s="3">
-        <v>3197.00</v>
+        <v>2465.60</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6851,13 +6875,13 @@
         <v>362</v>
       </c>
       <c r="F181" s="2">
-        <v>4.000</v>
+        <v>12.000</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
       </c>
       <c r="H181" s="3">
-        <v>585.81</v>
+        <v>3197.00</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6877,13 +6901,13 @@
         <v>364</v>
       </c>
       <c r="F182" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>685.80</v>
+        <v>585.81</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6903,13 +6927,13 @@
         <v>366</v>
       </c>
       <c r="F183" s="2">
-        <v>21.000</v>
+        <v>2.000</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
       </c>
       <c r="H183" s="3">
-        <v>1122.74</v>
+        <v>685.80</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6929,13 +6953,13 @@
         <v>368</v>
       </c>
       <c r="F184" s="2">
-        <v>1.000</v>
+        <v>21.000</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
       <c r="H184" s="3">
-        <v>390.16</v>
+        <v>1122.74</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6955,13 +6979,13 @@
         <v>370</v>
       </c>
       <c r="F185" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="G185" t="s">
         <v>5</v>
       </c>
       <c r="H185" s="3">
-        <v>2197.64</v>
+        <v>390.16</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6981,13 +7005,13 @@
         <v>372</v>
       </c>
       <c r="F186" s="2">
-        <v>15.000</v>
+        <v>8.000</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
       <c r="H186" s="3">
-        <v>1190.74</v>
+        <v>2197.64</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7007,13 +7031,13 @@
         <v>374</v>
       </c>
       <c r="F187" s="2">
-        <v>8.000</v>
+        <v>15.000</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="3">
-        <v>1522.51</v>
+        <v>1190.74</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7033,13 +7057,13 @@
         <v>376</v>
       </c>
       <c r="F188" s="2">
-        <v>2.000</v>
+        <v>8.000</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
       </c>
       <c r="H188" s="3">
-        <v>289.49</v>
+        <v>1522.51</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7059,13 +7083,13 @@
         <v>378</v>
       </c>
       <c r="F189" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
       </c>
       <c r="H189" s="3">
-        <v>119.58</v>
+        <v>289.49</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7085,13 +7109,13 @@
         <v>380</v>
       </c>
       <c r="F190" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
       <c r="H190" s="3">
-        <v>676.65</v>
+        <v>119.58</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7111,13 +7135,13 @@
         <v>382</v>
       </c>
       <c r="F191" s="2">
-        <v>8.000</v>
+        <v>2.000</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
       </c>
       <c r="H191" s="3">
-        <v>359.90</v>
+        <v>676.65</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7137,13 +7161,13 @@
         <v>384</v>
       </c>
       <c r="F192" s="2">
-        <v>5.000</v>
+        <v>8.000</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
       <c r="H192" s="3">
-        <v>77.87</v>
+        <v>359.90</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7163,13 +7187,13 @@
         <v>386</v>
       </c>
       <c r="F193" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
       </c>
       <c r="H193" s="3">
-        <v>48.54</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7189,13 +7213,13 @@
         <v>388</v>
       </c>
       <c r="F194" s="2">
-        <v>53.000</v>
+        <v>2.000</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
       <c r="H194" s="3">
-        <v>1262.15</v>
+        <v>48.54</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7215,13 +7239,13 @@
         <v>390</v>
       </c>
       <c r="F195" s="2">
-        <v>1.000</v>
+        <v>53.000</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
       </c>
       <c r="H195" s="3">
-        <v>76.03</v>
+        <v>1262.15</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7241,13 +7265,13 @@
         <v>392</v>
       </c>
       <c r="F196" s="2">
-        <v>1614.000</v>
+        <v>1.000</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
       </c>
       <c r="H196" s="3">
-        <v>30222.27</v>
+        <v>76.03</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7267,13 +7291,13 @@
         <v>394</v>
       </c>
       <c r="F197" s="2">
-        <v>446269.890</v>
+        <v>1609.000</v>
       </c>
       <c r="G197" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="H197" s="3">
-        <v>664940.46</v>
+        <v>30128.62</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7287,19 +7311,19 @@
         <v>2</v>
       </c>
       <c r="D198" t="s">
+        <v>395</v>
+      </c>
+      <c r="E198" t="s">
         <v>396</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" s="2">
+        <v>440354.890</v>
+      </c>
+      <c r="G198" t="s">
         <v>397</v>
       </c>
-      <c r="F198" s="2">
-        <v>55.000</v>
-      </c>
-      <c r="G198" t="s">
-        <v>5</v>
-      </c>
       <c r="H198" s="3">
-        <v>1960.40</v>
+        <v>658437.37</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7319,13 +7343,13 @@
         <v>399</v>
       </c>
       <c r="F199" s="2">
-        <v>960.000</v>
+        <v>67.000</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
       </c>
       <c r="H199" s="3">
-        <v>183685.31</v>
+        <v>2388.13</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7345,13 +7369,13 @@
         <v>401</v>
       </c>
       <c r="F200" s="2">
-        <v>496.000</v>
+        <v>986.000</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
       <c r="H200" s="3">
-        <v>86610.10</v>
+        <v>188660.10</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7371,13 +7395,13 @@
         <v>403</v>
       </c>
       <c r="F201" s="2">
-        <v>34.000</v>
+        <v>586.000</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="3">
-        <v>5743.54</v>
+        <v>102325.64</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7397,13 +7421,13 @@
         <v>405</v>
       </c>
       <c r="F202" s="2">
-        <v>298.000</v>
+        <v>34.000</v>
       </c>
       <c r="G202" t="s">
         <v>5</v>
       </c>
       <c r="H202" s="3">
-        <v>13634.99</v>
+        <v>5743.54</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7423,13 +7447,13 @@
         <v>407</v>
       </c>
       <c r="F203" s="2">
-        <v>259.000</v>
+        <v>297.000</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
       </c>
       <c r="H203" s="3">
-        <v>6328.24</v>
+        <v>13589.23</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7449,13 +7473,13 @@
         <v>409</v>
       </c>
       <c r="F204" s="2">
-        <v>85.000</v>
+        <v>258.000</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
       </c>
       <c r="H204" s="3">
-        <v>39417.65</v>
+        <v>6303.81</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7475,13 +7499,13 @@
         <v>411</v>
       </c>
       <c r="F205" s="2">
-        <v>11.000</v>
+        <v>113.000</v>
       </c>
       <c r="G205" t="s">
         <v>5</v>
       </c>
       <c r="H205" s="3">
-        <v>1605.64</v>
+        <v>52404.23</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7501,13 +7525,13 @@
         <v>413</v>
       </c>
       <c r="F206" s="2">
-        <v>11.000</v>
+        <v>4.000</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
       </c>
       <c r="H206" s="3">
-        <v>13400.03</v>
+        <v>244.28</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7527,13 +7551,13 @@
         <v>415</v>
       </c>
       <c r="F207" s="2">
-        <v>104.000</v>
+        <v>16.000</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
       </c>
       <c r="H207" s="3">
-        <v>1086.28</v>
+        <v>2335.48</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7553,13 +7577,13 @@
         <v>417</v>
       </c>
       <c r="F208" s="2">
-        <v>134.000</v>
+        <v>11.000</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
       </c>
       <c r="H208" s="3">
-        <v>1862.60</v>
+        <v>13400.03</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7579,13 +7603,13 @@
         <v>419</v>
       </c>
       <c r="F209" s="2">
-        <v>10.000</v>
+        <v>104.000</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
       </c>
       <c r="H209" s="3">
-        <v>494.31</v>
+        <v>1086.28</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7605,13 +7629,13 @@
         <v>421</v>
       </c>
       <c r="F210" s="2">
-        <v>15.000</v>
+        <v>134.000</v>
       </c>
       <c r="G210" t="s">
         <v>5</v>
       </c>
       <c r="H210" s="3">
-        <v>1463.71</v>
+        <v>1862.60</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7631,13 +7655,13 @@
         <v>423</v>
       </c>
       <c r="F211" s="2">
-        <v>19.000</v>
+        <v>10.000</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
       </c>
       <c r="H211" s="3">
-        <v>1378.97</v>
+        <v>494.31</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7657,13 +7681,13 @@
         <v>425</v>
       </c>
       <c r="F212" s="2">
-        <v>5.000</v>
+        <v>15.000</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
       </c>
       <c r="H212" s="3">
-        <v>528.88</v>
+        <v>1463.71</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7683,13 +7707,13 @@
         <v>427</v>
       </c>
       <c r="F213" s="2">
-        <v>4.000</v>
+        <v>19.000</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
       </c>
       <c r="H213" s="3">
-        <v>829.77</v>
+        <v>1378.97</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7709,13 +7733,13 @@
         <v>429</v>
       </c>
       <c r="F214" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
       </c>
       <c r="H214" s="3">
-        <v>5140.98</v>
+        <v>528.88</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7735,13 +7759,13 @@
         <v>431</v>
       </c>
       <c r="F215" s="2">
-        <v>10.000</v>
+        <v>4.000</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
       </c>
       <c r="H215" s="3">
-        <v>3375.18</v>
+        <v>829.77</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7761,13 +7785,13 @@
         <v>433</v>
       </c>
       <c r="F216" s="2">
-        <v>3.000</v>
+        <v>6.000</v>
       </c>
       <c r="G216" t="s">
         <v>5</v>
       </c>
       <c r="H216" s="3">
-        <v>1057.64</v>
+        <v>5140.98</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7787,13 +7811,13 @@
         <v>435</v>
       </c>
       <c r="F217" s="2">
-        <v>157.000</v>
+        <v>10.000</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
       </c>
       <c r="H217" s="3">
-        <v>5245.21</v>
+        <v>3375.18</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7813,13 +7837,13 @@
         <v>437</v>
       </c>
       <c r="F218" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
       </c>
       <c r="H218" s="3">
-        <v>159.90</v>
+        <v>1057.64</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7839,13 +7863,13 @@
         <v>439</v>
       </c>
       <c r="F219" s="2">
-        <v>18.000</v>
+        <v>152.000</v>
       </c>
       <c r="G219" t="s">
         <v>5</v>
       </c>
       <c r="H219" s="3">
-        <v>306.02</v>
+        <v>5078.16</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7865,13 +7889,13 @@
         <v>441</v>
       </c>
       <c r="F220" s="2">
-        <v>48.000</v>
+        <v>4.000</v>
       </c>
       <c r="G220" t="s">
         <v>5</v>
       </c>
       <c r="H220" s="3">
-        <v>972.48</v>
+        <v>159.90</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7891,13 +7915,13 @@
         <v>443</v>
       </c>
       <c r="F221" s="2">
-        <v>28.000</v>
+        <v>79.000</v>
       </c>
       <c r="G221" t="s">
         <v>5</v>
       </c>
       <c r="H221" s="3">
-        <v>650.33</v>
+        <v>1234.94</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7917,13 +7941,13 @@
         <v>445</v>
       </c>
       <c r="F222" s="2">
-        <v>70.000</v>
+        <v>18.000</v>
       </c>
       <c r="G222" t="s">
         <v>5</v>
       </c>
       <c r="H222" s="3">
-        <v>4987.85</v>
+        <v>306.02</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7943,13 +7967,13 @@
         <v>447</v>
       </c>
       <c r="F223" s="2">
-        <v>12.000</v>
+        <v>74.000</v>
       </c>
       <c r="G223" t="s">
         <v>5</v>
       </c>
       <c r="H223" s="3">
-        <v>1342.27</v>
+        <v>1499.24</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7969,13 +7993,13 @@
         <v>449</v>
       </c>
       <c r="F224" s="2">
-        <v>176.000</v>
+        <v>28.000</v>
       </c>
       <c r="G224" t="s">
         <v>5</v>
       </c>
       <c r="H224" s="3">
-        <v>8935.86</v>
+        <v>650.33</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7995,13 +8019,13 @@
         <v>451</v>
       </c>
       <c r="F225" s="2">
-        <v>236.000</v>
+        <v>70.000</v>
       </c>
       <c r="G225" t="s">
         <v>5</v>
       </c>
       <c r="H225" s="3">
-        <v>10132.06</v>
+        <v>4987.85</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8021,13 +8045,13 @@
         <v>453</v>
       </c>
       <c r="F226" s="2">
-        <v>549.000</v>
+        <v>12.000</v>
       </c>
       <c r="G226" t="s">
         <v>5</v>
       </c>
       <c r="H226" s="3">
-        <v>38015.50</v>
+        <v>1342.27</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8047,13 +8071,13 @@
         <v>455</v>
       </c>
       <c r="F227" s="2">
-        <v>1.000</v>
+        <v>176.000</v>
       </c>
       <c r="G227" t="s">
         <v>5</v>
       </c>
       <c r="H227" s="3">
-        <v>472.35</v>
+        <v>8935.86</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8073,13 +8097,13 @@
         <v>457</v>
       </c>
       <c r="F228" s="2">
-        <v>2.000</v>
+        <v>236.000</v>
       </c>
       <c r="G228" t="s">
         <v>5</v>
       </c>
       <c r="H228" s="3">
-        <v>625.12</v>
+        <v>10132.06</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8099,13 +8123,13 @@
         <v>459</v>
       </c>
       <c r="F229" s="2">
-        <v>1.000</v>
+        <v>548.000</v>
       </c>
       <c r="G229" t="s">
         <v>5</v>
       </c>
       <c r="H229" s="3">
-        <v>562.37</v>
+        <v>37946.26</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8125,13 +8149,13 @@
         <v>461</v>
       </c>
       <c r="F230" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G230" t="s">
         <v>5</v>
       </c>
       <c r="H230" s="3">
-        <v>2262.24</v>
+        <v>472.35</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8151,13 +8175,13 @@
         <v>463</v>
       </c>
       <c r="F231" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G231" t="s">
         <v>5</v>
       </c>
       <c r="H231" s="3">
-        <v>884.45</v>
+        <v>625.12</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8177,13 +8201,13 @@
         <v>465</v>
       </c>
       <c r="F232" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G232" t="s">
         <v>5</v>
       </c>
       <c r="H232" s="3">
-        <v>1558.08</v>
+        <v>562.37</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8203,13 +8227,13 @@
         <v>467</v>
       </c>
       <c r="F233" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G233" t="s">
         <v>5</v>
       </c>
       <c r="H233" s="3">
-        <v>4193.32</v>
+        <v>2262.24</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8229,13 +8253,13 @@
         <v>469</v>
       </c>
       <c r="F234" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G234" t="s">
         <v>5</v>
       </c>
       <c r="H234" s="3">
-        <v>2049.23</v>
+        <v>884.45</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8255,13 +8279,13 @@
         <v>471</v>
       </c>
       <c r="F235" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G235" t="s">
         <v>5</v>
       </c>
       <c r="H235" s="3">
-        <v>261.34</v>
+        <v>1558.08</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8281,13 +8305,13 @@
         <v>473</v>
       </c>
       <c r="F236" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G236" t="s">
         <v>5</v>
       </c>
       <c r="H236" s="3">
-        <v>574.64</v>
+        <v>4193.32</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8307,13 +8331,13 @@
         <v>475</v>
       </c>
       <c r="F237" s="2">
-        <v>15.000</v>
+        <v>10.000</v>
       </c>
       <c r="G237" t="s">
         <v>5</v>
       </c>
       <c r="H237" s="3">
-        <v>3049.88</v>
+        <v>2049.23</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8333,13 +8357,13 @@
         <v>477</v>
       </c>
       <c r="F238" s="2">
-        <v>8.000</v>
+        <v>3.000</v>
       </c>
       <c r="G238" t="s">
         <v>5</v>
       </c>
       <c r="H238" s="3">
-        <v>2130.04</v>
+        <v>261.34</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8365,7 +8389,7 @@
         <v>5</v>
       </c>
       <c r="H239" s="3">
-        <v>1048.02</v>
+        <v>574.64</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8385,13 +8409,13 @@
         <v>481</v>
       </c>
       <c r="F240" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G240" t="s">
         <v>5</v>
       </c>
       <c r="H240" s="3">
-        <v>257.36</v>
+        <v>3049.88</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8411,13 +8435,13 @@
         <v>483</v>
       </c>
       <c r="F241" s="2">
-        <v>2.000</v>
+        <v>8.000</v>
       </c>
       <c r="G241" t="s">
         <v>5</v>
       </c>
       <c r="H241" s="3">
-        <v>238.65</v>
+        <v>2130.04</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8437,13 +8461,13 @@
         <v>485</v>
       </c>
       <c r="F242" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="G242" t="s">
         <v>5</v>
       </c>
       <c r="H242" s="3">
-        <v>2000.83</v>
+        <v>1048.02</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8463,13 +8487,13 @@
         <v>487</v>
       </c>
       <c r="F243" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G243" t="s">
         <v>5</v>
       </c>
       <c r="H243" s="3">
-        <v>1267.35</v>
+        <v>257.36</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8495,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="H244" s="3">
-        <v>961.64</v>
+        <v>238.65</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8515,13 +8539,13 @@
         <v>491</v>
       </c>
       <c r="F245" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G245" t="s">
         <v>5</v>
       </c>
       <c r="H245" s="3">
-        <v>352.04</v>
+        <v>2000.83</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8541,13 +8565,13 @@
         <v>493</v>
       </c>
       <c r="F246" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G246" t="s">
         <v>5</v>
       </c>
       <c r="H246" s="3">
-        <v>366.72</v>
+        <v>1267.35</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8567,13 +8591,13 @@
         <v>495</v>
       </c>
       <c r="F247" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G247" t="s">
         <v>5</v>
       </c>
       <c r="H247" s="3">
-        <v>917.47</v>
+        <v>961.64</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8593,13 +8617,13 @@
         <v>497</v>
       </c>
       <c r="F248" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G248" t="s">
         <v>5</v>
       </c>
       <c r="H248" s="3">
-        <v>1489.56</v>
+        <v>352.04</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8619,13 +8643,13 @@
         <v>499</v>
       </c>
       <c r="F249" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
       </c>
       <c r="H249" s="3">
-        <v>193.42</v>
+        <v>366.72</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8645,13 +8669,13 @@
         <v>501</v>
       </c>
       <c r="F250" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G250" t="s">
         <v>5</v>
       </c>
       <c r="H250" s="3">
-        <v>780.61</v>
+        <v>917.47</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8671,13 +8695,13 @@
         <v>503</v>
       </c>
       <c r="F251" s="2">
-        <v>30.000</v>
+        <v>2.000</v>
       </c>
       <c r="G251" t="s">
         <v>5</v>
       </c>
       <c r="H251" s="3">
-        <v>7396.64</v>
+        <v>1489.56</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8697,13 +8721,13 @@
         <v>505</v>
       </c>
       <c r="F252" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G252" t="s">
         <v>5</v>
       </c>
       <c r="H252" s="3">
-        <v>1265.56</v>
+        <v>193.42</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8723,13 +8747,13 @@
         <v>507</v>
       </c>
       <c r="F253" s="2">
-        <v>21.000</v>
+        <v>9.000</v>
       </c>
       <c r="G253" t="s">
         <v>5</v>
       </c>
       <c r="H253" s="3">
-        <v>2892.70</v>
+        <v>780.61</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8749,13 +8773,13 @@
         <v>509</v>
       </c>
       <c r="F254" s="2">
-        <v>1.000</v>
+        <v>30.000</v>
       </c>
       <c r="G254" t="s">
         <v>5</v>
       </c>
       <c r="H254" s="3">
-        <v>545.88</v>
+        <v>7396.64</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8775,13 +8799,13 @@
         <v>511</v>
       </c>
       <c r="F255" s="2">
-        <v>4.000</v>
+        <v>10.000</v>
       </c>
       <c r="G255" t="s">
         <v>5</v>
       </c>
       <c r="H255" s="3">
-        <v>2982.22</v>
+        <v>1265.56</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8801,13 +8825,13 @@
         <v>513</v>
       </c>
       <c r="F256" s="2">
-        <v>1.000</v>
+        <v>21.000</v>
       </c>
       <c r="G256" t="s">
         <v>5</v>
       </c>
       <c r="H256" s="3">
-        <v>2622.09</v>
+        <v>2892.70</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8827,13 +8851,13 @@
         <v>515</v>
       </c>
       <c r="F257" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G257" t="s">
         <v>5</v>
       </c>
       <c r="H257" s="3">
-        <v>6733.09</v>
+        <v>545.88</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8853,13 +8877,13 @@
         <v>517</v>
       </c>
       <c r="F258" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G258" t="s">
         <v>5</v>
       </c>
       <c r="H258" s="3">
-        <v>12317.52</v>
+        <v>2982.22</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8885,7 +8909,7 @@
         <v>5</v>
       </c>
       <c r="H259" s="3">
-        <v>5747.70</v>
+        <v>2622.09</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8905,13 +8929,13 @@
         <v>521</v>
       </c>
       <c r="F260" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
       </c>
       <c r="H260" s="3">
-        <v>8727.40</v>
+        <v>6733.09</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8931,13 +8955,13 @@
         <v>523</v>
       </c>
       <c r="F261" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G261" t="s">
         <v>5</v>
       </c>
       <c r="H261" s="3">
-        <v>4995.36</v>
+        <v>12317.52</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8957,13 +8981,13 @@
         <v>525</v>
       </c>
       <c r="F262" s="2">
-        <v>14.000</v>
+        <v>1.000</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
       </c>
       <c r="H262" s="3">
-        <v>177.30</v>
+        <v>5747.70</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8983,13 +9007,13 @@
         <v>527</v>
       </c>
       <c r="F263" s="2">
-        <v>14.000</v>
+        <v>1.000</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
       </c>
       <c r="H263" s="3">
-        <v>532.00</v>
+        <v>8727.40</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9009,13 +9033,13 @@
         <v>529</v>
       </c>
       <c r="F264" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G264" t="s">
         <v>5</v>
       </c>
       <c r="H264" s="3">
-        <v>1122.53</v>
+        <v>4995.36</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9035,13 +9059,13 @@
         <v>531</v>
       </c>
       <c r="F265" s="2">
-        <v>7.000</v>
+        <v>14.000</v>
       </c>
       <c r="G265" t="s">
         <v>5</v>
       </c>
       <c r="H265" s="3">
-        <v>490.00</v>
+        <v>177.30</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9061,13 +9085,13 @@
         <v>533</v>
       </c>
       <c r="F266" s="2">
-        <v>9.000</v>
+        <v>14.000</v>
       </c>
       <c r="G266" t="s">
         <v>5</v>
       </c>
       <c r="H266" s="3">
-        <v>658.82</v>
+        <v>532.00</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9087,13 +9111,13 @@
         <v>535</v>
       </c>
       <c r="F267" s="2">
-        <v>7.000</v>
+        <v>17.000</v>
       </c>
       <c r="G267" t="s">
         <v>5</v>
       </c>
       <c r="H267" s="3">
-        <v>594.91</v>
+        <v>1122.53</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9113,13 +9137,13 @@
         <v>537</v>
       </c>
       <c r="F268" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G268" t="s">
         <v>5</v>
       </c>
       <c r="H268" s="3">
-        <v>725.39</v>
+        <v>490.00</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9139,13 +9163,13 @@
         <v>539</v>
       </c>
       <c r="F269" s="2">
-        <v>6.000</v>
+        <v>9.000</v>
       </c>
       <c r="G269" t="s">
         <v>5</v>
       </c>
       <c r="H269" s="3">
-        <v>2089.82</v>
+        <v>658.82</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9165,13 +9189,13 @@
         <v>541</v>
       </c>
       <c r="F270" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G270" t="s">
         <v>5</v>
       </c>
       <c r="H270" s="3">
-        <v>722.95</v>
+        <v>594.91</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9197,7 +9221,7 @@
         <v>5</v>
       </c>
       <c r="H271" s="3">
-        <v>3157.92</v>
+        <v>725.39</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9217,13 +9241,13 @@
         <v>545</v>
       </c>
       <c r="F272" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G272" t="s">
         <v>5</v>
       </c>
       <c r="H272" s="3">
-        <v>733.37</v>
+        <v>2089.82</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9243,13 +9267,13 @@
         <v>547</v>
       </c>
       <c r="F273" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G273" t="s">
         <v>5</v>
       </c>
       <c r="H273" s="3">
-        <v>892.37</v>
+        <v>722.95</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9269,13 +9293,13 @@
         <v>549</v>
       </c>
       <c r="F274" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G274" t="s">
         <v>5</v>
       </c>
       <c r="H274" s="3">
-        <v>5851.42</v>
+        <v>3157.92</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9295,13 +9319,13 @@
         <v>551</v>
       </c>
       <c r="F275" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="G275" t="s">
         <v>5</v>
       </c>
       <c r="H275" s="3">
-        <v>2472.84</v>
+        <v>733.37</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9321,13 +9345,13 @@
         <v>553</v>
       </c>
       <c r="F276" s="2">
-        <v>250.000</v>
+        <v>5.000</v>
       </c>
       <c r="G276" t="s">
         <v>5</v>
       </c>
       <c r="H276" s="3">
-        <v>10307.95</v>
+        <v>892.37</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9347,13 +9371,13 @@
         <v>555</v>
       </c>
       <c r="F277" s="2">
-        <v>54.000</v>
+        <v>9.000</v>
       </c>
       <c r="G277" t="s">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="H277" s="3">
-        <v>13072.01</v>
+        <v>5851.42</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9367,19 +9391,19 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
+        <v>556</v>
+      </c>
+      <c r="E278" t="s">
         <v>557</v>
       </c>
-      <c r="E278" t="s">
-        <v>558</v>
-      </c>
       <c r="F278" s="2">
-        <v>91.140</v>
+        <v>4.000</v>
       </c>
       <c r="G278" t="s">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="H278" s="3">
-        <v>23635.38</v>
+        <v>2472.84</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9393,19 +9417,19 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
+        <v>558</v>
+      </c>
+      <c r="E279" t="s">
         <v>559</v>
       </c>
-      <c r="E279" t="s">
-        <v>560</v>
-      </c>
       <c r="F279" s="2">
-        <v>12.000</v>
+        <v>250.000</v>
       </c>
       <c r="G279" t="s">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="H279" s="3">
-        <v>3876.07</v>
+        <v>10307.95</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9419,19 +9443,19 @@
         <v>2</v>
       </c>
       <c r="D280" t="s">
+        <v>560</v>
+      </c>
+      <c r="E280" t="s">
         <v>561</v>
       </c>
-      <c r="E280" t="s">
+      <c r="F280" s="2">
+        <v>54.000</v>
+      </c>
+      <c r="G280" t="s">
         <v>562</v>
       </c>
-      <c r="F280" s="2">
-        <v>7.000</v>
-      </c>
-      <c r="G280" t="s">
-        <v>556</v>
-      </c>
       <c r="H280" s="3">
-        <v>2657.58</v>
+        <v>13072.01</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9451,13 +9475,13 @@
         <v>564</v>
       </c>
       <c r="F281" s="2">
-        <v>10.000</v>
+        <v>91.140</v>
       </c>
       <c r="G281" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H281" s="3">
-        <v>4382.06</v>
+        <v>23635.38</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9477,13 +9501,13 @@
         <v>566</v>
       </c>
       <c r="F282" s="2">
-        <v>719.500</v>
+        <v>12.000</v>
       </c>
       <c r="G282" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H282" s="3">
-        <v>156295.44</v>
+        <v>3876.07</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9503,13 +9527,13 @@
         <v>568</v>
       </c>
       <c r="F283" s="2">
-        <v>6.000</v>
+        <v>7.000</v>
       </c>
       <c r="G283" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H283" s="3">
-        <v>1379.76</v>
+        <v>2657.58</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9529,13 +9553,13 @@
         <v>570</v>
       </c>
       <c r="F284" s="2">
-        <v>21.730</v>
+        <v>10.000</v>
       </c>
       <c r="G284" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H284" s="3">
-        <v>2244.35</v>
+        <v>4382.06</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9555,13 +9579,13 @@
         <v>572</v>
       </c>
       <c r="F285" s="2">
-        <v>647.890</v>
+        <v>719.500</v>
       </c>
       <c r="G285" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H285" s="3">
-        <v>22467.33</v>
+        <v>156295.44</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9581,13 +9605,13 @@
         <v>574</v>
       </c>
       <c r="F286" s="2">
-        <v>3052.020</v>
+        <v>6.000</v>
       </c>
       <c r="G286" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H286" s="3">
-        <v>30581.61</v>
+        <v>1379.76</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9607,13 +9631,13 @@
         <v>576</v>
       </c>
       <c r="F287" s="2">
-        <v>1458.120</v>
+        <v>21.730</v>
       </c>
       <c r="G287" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H287" s="3">
-        <v>31550.71</v>
+        <v>2244.35</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9633,13 +9657,13 @@
         <v>578</v>
       </c>
       <c r="F288" s="2">
-        <v>26.000</v>
+        <v>647.890</v>
       </c>
       <c r="G288" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H288" s="3">
-        <v>7144.80</v>
+        <v>22467.33</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9659,13 +9683,13 @@
         <v>580</v>
       </c>
       <c r="F289" s="2">
-        <v>1294.390</v>
+        <v>3047.020</v>
       </c>
       <c r="G289" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H289" s="3">
-        <v>67543.16</v>
+        <v>30531.51</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9685,13 +9709,13 @@
         <v>582</v>
       </c>
       <c r="F290" s="2">
-        <v>129.560</v>
+        <v>1457.120</v>
       </c>
       <c r="G290" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H290" s="3">
-        <v>2358.32</v>
+        <v>31529.07</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9711,13 +9735,13 @@
         <v>584</v>
       </c>
       <c r="F291" s="2">
-        <v>1578.050</v>
+        <v>26.000</v>
       </c>
       <c r="G291" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H291" s="3">
-        <v>171951.85</v>
+        <v>7144.80</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9737,13 +9761,13 @@
         <v>586</v>
       </c>
       <c r="F292" s="2">
-        <v>27392.190</v>
+        <v>1294.390</v>
       </c>
       <c r="G292" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H292" s="3">
-        <v>62172.04</v>
+        <v>67543.16</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9763,13 +9787,13 @@
         <v>588</v>
       </c>
       <c r="F293" s="2">
-        <v>1146.040</v>
+        <v>129.560</v>
       </c>
       <c r="G293" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H293" s="3">
-        <v>4892.53</v>
+        <v>2358.32</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9789,13 +9813,13 @@
         <v>590</v>
       </c>
       <c r="F294" s="2">
-        <v>1.810</v>
+        <v>1578.050</v>
       </c>
       <c r="G294" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H294" s="3">
-        <v>362.00</v>
+        <v>171951.85</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9815,13 +9839,13 @@
         <v>592</v>
       </c>
       <c r="F295" s="2">
-        <v>425.000</v>
+        <v>30039.060</v>
       </c>
       <c r="G295" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H295" s="3">
-        <v>93104.69</v>
+        <v>68179.58</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9841,13 +9865,13 @@
         <v>594</v>
       </c>
       <c r="F296" s="2">
-        <v>222.000</v>
+        <v>1134.040</v>
       </c>
       <c r="G296" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H296" s="3">
-        <v>39238.07</v>
+        <v>4841.30</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9867,13 +9891,13 @@
         <v>596</v>
       </c>
       <c r="F297" s="2">
-        <v>192.560</v>
+        <v>1.810</v>
       </c>
       <c r="G297" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H297" s="3">
-        <v>99701.27</v>
+        <v>362.00</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9893,13 +9917,13 @@
         <v>598</v>
       </c>
       <c r="F298" s="2">
-        <v>819.000</v>
+        <v>425.000</v>
       </c>
       <c r="G298" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H298" s="3">
-        <v>633332.70</v>
+        <v>93104.69</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9919,13 +9943,13 @@
         <v>600</v>
       </c>
       <c r="F299" s="2">
-        <v>1464.210</v>
+        <v>222.000</v>
       </c>
       <c r="G299" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H299" s="3">
-        <v>55052.85</v>
+        <v>39238.07</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9945,13 +9969,13 @@
         <v>602</v>
       </c>
       <c r="F300" s="2">
-        <v>3.000</v>
+        <v>192.560</v>
       </c>
       <c r="G300" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H300" s="3">
-        <v>344.89</v>
+        <v>99701.27</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9971,13 +9995,13 @@
         <v>604</v>
       </c>
       <c r="F301" s="2">
-        <v>24.700</v>
+        <v>819.000</v>
       </c>
       <c r="G301" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H301" s="3">
-        <v>1646.75</v>
+        <v>633332.70</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9997,13 +10021,13 @@
         <v>606</v>
       </c>
       <c r="F302" s="2">
-        <v>49.000</v>
+        <v>2364.210</v>
       </c>
       <c r="G302" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H302" s="3">
-        <v>5423.81</v>
+        <v>88891.97</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10023,13 +10047,13 @@
         <v>608</v>
       </c>
       <c r="F303" s="2">
-        <v>7228.630</v>
+        <v>3.000</v>
       </c>
       <c r="G303" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H303" s="3">
-        <v>73833.63</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10049,13 +10073,13 @@
         <v>610</v>
       </c>
       <c r="F304" s="2">
-        <v>4380.140</v>
+        <v>24.700</v>
       </c>
       <c r="G304" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H304" s="3">
-        <v>98065.36</v>
+        <v>1646.75</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10075,13 +10099,13 @@
         <v>612</v>
       </c>
       <c r="F305" s="2">
-        <v>1243.040</v>
+        <v>49.000</v>
       </c>
       <c r="G305" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H305" s="3">
-        <v>39051.91</v>
+        <v>5423.81</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10101,13 +10125,13 @@
         <v>614</v>
       </c>
       <c r="F306" s="2">
-        <v>527.570</v>
+        <v>7138.530</v>
       </c>
       <c r="G306" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H306" s="3">
-        <v>48405.45</v>
+        <v>72913.34</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10127,13 +10151,13 @@
         <v>616</v>
       </c>
       <c r="F307" s="2">
-        <v>85.500</v>
+        <v>4369.140</v>
       </c>
       <c r="G307" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H307" s="3">
-        <v>13412.61</v>
+        <v>97819.07</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10153,13 +10177,13 @@
         <v>618</v>
       </c>
       <c r="F308" s="2">
-        <v>988.950</v>
+        <v>1416.040</v>
       </c>
       <c r="G308" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H308" s="3">
-        <v>28833.63</v>
+        <v>44486.96</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10179,13 +10203,13 @@
         <v>620</v>
       </c>
       <c r="F309" s="2">
-        <v>0.030</v>
+        <v>527.570</v>
       </c>
       <c r="G309" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H309" s="3">
-        <v>2.71</v>
+        <v>48405.45</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10205,13 +10229,13 @@
         <v>622</v>
       </c>
       <c r="F310" s="2">
-        <v>97.000</v>
+        <v>85.500</v>
       </c>
       <c r="G310" t="s">
-        <v>5</v>
+        <v>562</v>
       </c>
       <c r="H310" s="3">
-        <v>197.39</v>
+        <v>13412.61</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10231,13 +10255,13 @@
         <v>624</v>
       </c>
       <c r="F311" s="2">
-        <v>4206.000</v>
+        <v>988.950</v>
       </c>
       <c r="G311" t="s">
-        <v>5</v>
+        <v>562</v>
       </c>
       <c r="H311" s="3">
-        <v>10558.51</v>
+        <v>28833.62</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10257,13 +10281,13 @@
         <v>626</v>
       </c>
       <c r="F312" s="2">
-        <v>15.000</v>
+        <v>0.030</v>
       </c>
       <c r="G312" t="s">
-        <v>5</v>
+        <v>562</v>
       </c>
       <c r="H312" s="3">
-        <v>8351.11</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10283,13 +10307,13 @@
         <v>628</v>
       </c>
       <c r="F313" s="2">
-        <v>1.000</v>
+        <v>97.000</v>
       </c>
       <c r="G313" t="s">
         <v>5</v>
       </c>
       <c r="H313" s="3">
-        <v>431.02</v>
+        <v>197.39</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10309,13 +10333,13 @@
         <v>630</v>
       </c>
       <c r="F314" s="2">
-        <v>22.000</v>
+        <v>30.000</v>
       </c>
       <c r="G314" t="s">
         <v>5</v>
       </c>
       <c r="H314" s="3">
-        <v>8696.59</v>
+        <v>175.65</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10335,13 +10359,13 @@
         <v>632</v>
       </c>
       <c r="F315" s="2">
-        <v>4.000</v>
+        <v>4184.000</v>
       </c>
       <c r="G315" t="s">
         <v>5</v>
       </c>
       <c r="H315" s="3">
-        <v>3200.77</v>
+        <v>10503.28</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10361,13 +10385,13 @@
         <v>634</v>
       </c>
       <c r="F316" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G316" t="s">
         <v>5</v>
       </c>
       <c r="H316" s="3">
-        <v>1161.99</v>
+        <v>8351.11</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10393,7 +10417,7 @@
         <v>5</v>
       </c>
       <c r="H317" s="3">
-        <v>6585.02</v>
+        <v>431.02</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10413,13 +10437,13 @@
         <v>638</v>
       </c>
       <c r="F318" s="2">
-        <v>38.000</v>
+        <v>22.000</v>
       </c>
       <c r="G318" t="s">
         <v>5</v>
       </c>
       <c r="H318" s="3">
-        <v>10730.51</v>
+        <v>8696.59</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10439,13 +10463,13 @@
         <v>640</v>
       </c>
       <c r="F319" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G319" t="s">
         <v>5</v>
       </c>
       <c r="H319" s="3">
-        <v>1386.58</v>
+        <v>3200.77</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10465,13 +10489,13 @@
         <v>642</v>
       </c>
       <c r="F320" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G320" t="s">
         <v>5</v>
       </c>
       <c r="H320" s="3">
-        <v>1132.30</v>
+        <v>1161.99</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10491,13 +10515,13 @@
         <v>644</v>
       </c>
       <c r="F321" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="G321" t="s">
         <v>5</v>
       </c>
       <c r="H321" s="3">
-        <v>12214.88</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10517,13 +10541,13 @@
         <v>646</v>
       </c>
       <c r="F322" s="2">
-        <v>1.000</v>
+        <v>42.000</v>
       </c>
       <c r="G322" t="s">
         <v>5</v>
       </c>
       <c r="H322" s="3">
-        <v>1721.73</v>
+        <v>11860.04</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10543,13 +10567,13 @@
         <v>648</v>
       </c>
       <c r="F323" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G323" t="s">
         <v>5</v>
       </c>
       <c r="H323" s="3">
-        <v>1705.35</v>
+        <v>924.39</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10575,7 +10599,7 @@
         <v>5</v>
       </c>
       <c r="H324" s="3">
-        <v>7220.40</v>
+        <v>1132.30</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10595,13 +10619,13 @@
         <v>652</v>
       </c>
       <c r="F325" s="2">
-        <v>3.000</v>
+        <v>13.000</v>
       </c>
       <c r="G325" t="s">
         <v>5</v>
       </c>
       <c r="H325" s="3">
-        <v>27085.68</v>
+        <v>12214.88</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10621,13 +10645,13 @@
         <v>654</v>
       </c>
       <c r="F326" s="2">
-        <v>30.000</v>
+        <v>1.000</v>
       </c>
       <c r="G326" t="s">
         <v>5</v>
       </c>
       <c r="H326" s="3">
-        <v>10998.07</v>
+        <v>1721.73</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10647,13 +10671,13 @@
         <v>656</v>
       </c>
       <c r="F327" s="2">
-        <v>37.000</v>
+        <v>1.000</v>
       </c>
       <c r="G327" t="s">
         <v>5</v>
       </c>
       <c r="H327" s="3">
-        <v>17027.58</v>
+        <v>1705.35</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10673,13 +10697,13 @@
         <v>658</v>
       </c>
       <c r="F328" s="2">
-        <v>11.000</v>
+        <v>2.000</v>
       </c>
       <c r="G328" t="s">
         <v>5</v>
       </c>
       <c r="H328" s="3">
-        <v>6196.52</v>
+        <v>7220.40</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10699,13 +10723,13 @@
         <v>660</v>
       </c>
       <c r="F329" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G329" t="s">
         <v>5</v>
       </c>
       <c r="H329" s="3">
-        <v>2002.48</v>
+        <v>27085.68</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10725,13 +10749,13 @@
         <v>662</v>
       </c>
       <c r="F330" s="2">
-        <v>9.000</v>
+        <v>30.000</v>
       </c>
       <c r="G330" t="s">
         <v>5</v>
       </c>
       <c r="H330" s="3">
-        <v>4906.61</v>
+        <v>10998.07</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10751,12 +10775,116 @@
         <v>664</v>
       </c>
       <c r="F331" s="2">
+        <v>37.000</v>
+      </c>
+      <c r="G331" t="s">
+        <v>5</v>
+      </c>
+      <c r="H331" s="3">
+        <v>17027.58</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>665</v>
+      </c>
+      <c r="E332" t="s">
+        <v>666</v>
+      </c>
+      <c r="F332" s="2">
+        <v>11.000</v>
+      </c>
+      <c r="G332" t="s">
+        <v>5</v>
+      </c>
+      <c r="H332" s="3">
+        <v>6196.52</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>667</v>
+      </c>
+      <c r="E333" t="s">
+        <v>668</v>
+      </c>
+      <c r="F333" s="2">
         <v>1.000</v>
       </c>
-      <c r="G331" t="s">
-        <v>5</v>
-      </c>
-      <c r="H331" s="3">
+      <c r="G333" t="s">
+        <v>5</v>
+      </c>
+      <c r="H333" s="3">
+        <v>2002.48</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>669</v>
+      </c>
+      <c r="E334" t="s">
+        <v>670</v>
+      </c>
+      <c r="F334" s="2">
+        <v>9.000</v>
+      </c>
+      <c r="G334" t="s">
+        <v>5</v>
+      </c>
+      <c r="H334" s="3">
+        <v>4906.61</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>671</v>
+      </c>
+      <c r="E335" t="s">
+        <v>672</v>
+      </c>
+      <c r="F335" s="2">
+        <v>1.000</v>
+      </c>
+      <c r="G335" t="s">
+        <v>5</v>
+      </c>
+      <c r="H335" s="3">
         <v>377.72</v>
       </c>
     </row>

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -3313,13 +3313,13 @@
         <v>89</v>
       </c>
       <c r="F44" s="2">
-        <v>4156.000</v>
+        <v>4155.000</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>42818.30</v>
+        <v>42807.99</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4197,13 +4197,13 @@
         <v>156</v>
       </c>
       <c r="F78" s="2">
-        <v>900.000</v>
+        <v>898.000</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>4678.37</v>
+        <v>4667.97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4743,13 +4743,13 @@
         <v>198</v>
       </c>
       <c r="F99" s="2">
-        <v>2370.000</v>
+        <v>2368.000</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>62180.03</v>
+        <v>62127.55</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5133,13 +5133,13 @@
         <v>228</v>
       </c>
       <c r="F114" s="2">
-        <v>330.000</v>
+        <v>328.000</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>189813.78</v>
+        <v>188663.39</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5159,13 +5159,13 @@
         <v>230</v>
       </c>
       <c r="F115" s="2">
-        <v>2550.000</v>
+        <v>2548.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>217935.75</v>
+        <v>217764.82</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5185,13 +5185,13 @@
         <v>232</v>
       </c>
       <c r="F116" s="2">
-        <v>3501.000</v>
+        <v>3478.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>482244.98</v>
+        <v>479076.90</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5497,13 +5497,13 @@
         <v>256</v>
       </c>
       <c r="F128" s="2">
-        <v>938.000</v>
+        <v>937.000</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
       </c>
       <c r="H128" s="3">
-        <v>35282.87</v>
+        <v>35245.25</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5679,13 +5679,13 @@
         <v>270</v>
       </c>
       <c r="F135" s="2">
-        <v>3817.000</v>
+        <v>3785.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>14758.02</v>
+        <v>14634.28</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7369,13 +7369,13 @@
         <v>401</v>
       </c>
       <c r="F200" s="2">
-        <v>986.000</v>
+        <v>985.000</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
       <c r="H200" s="3">
-        <v>188660.10</v>
+        <v>188468.76</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10125,13 +10125,13 @@
         <v>614</v>
       </c>
       <c r="F306" s="2">
-        <v>7138.530</v>
+        <v>7135.530</v>
       </c>
       <c r="G306" t="s">
         <v>562</v>
       </c>
       <c r="H306" s="3">
-        <v>72913.34</v>
+        <v>72882.70</v>
       </c>
     </row>
     <row r="307" spans="1:8">

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -5679,13 +5679,13 @@
         <v>270</v>
       </c>
       <c r="F135" s="2">
-        <v>3785.000</v>
+        <v>3780.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>14634.28</v>
+        <v>14614.95</v>
       </c>
     </row>
     <row r="136" spans="1:8">

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="681">
-  <si>
-    <t>4600042975</t>
-  </si>
-  <si>
-    <t>ZIGURATE CONSTRUÇÃO LTDA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="543">
+  <si>
+    <t>4600041302</t>
+  </si>
+  <si>
+    <t>CONSÓRCIO MANUTENÇÃO NOVA SP</t>
   </si>
   <si>
     <t>0006</t>
@@ -67,10 +67,22 @@
     <t>ABRACADEIRA FF REPARO TUBO DN50 LMIN=150</t>
   </si>
   <si>
-    <t>30004098</t>
-  </si>
-  <si>
-    <t>ABRACADEIRA INOX REPARO TUBO DN250 L=400</t>
+    <t>30000153</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA INOX REPARO TUBO DN100 L=300</t>
+  </si>
+  <si>
+    <t>30004095</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA INOX REPARO TUBO DN150 L=300</t>
+  </si>
+  <si>
+    <t>30002151</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA INOX REPARO TUBO DN50 L=300</t>
   </si>
   <si>
     <t>30008113</t>
@@ -97,22 +109,22 @@
     <t>ADAPTADOR FF PPVC X BFF DN 75 X DN 75</t>
   </si>
   <si>
-    <t>30004246</t>
-  </si>
-  <si>
-    <t>ADAPTADOR FF PPVC X BFF DN 75 X DN 80</t>
-  </si>
-  <si>
-    <t>30002031</t>
-  </si>
-  <si>
-    <t>ADAPTADOR PVC BOLSA P/TUBO CERAM DN 100</t>
-  </si>
-  <si>
-    <t>30001148</t>
-  </si>
-  <si>
-    <t>ANEL BORRACHA TB CNX FF BOLS JE DN150</t>
+    <t>30004248</t>
+  </si>
+  <si>
+    <t>ADAPTADOR P/TUBO PE - NTS 179 DE 32 MM</t>
+  </si>
+  <si>
+    <t>30001136</t>
+  </si>
+  <si>
+    <t>ADAPTADOR P/TUBO PE - NTS 179 DN 20</t>
+  </si>
+  <si>
+    <t>30002076</t>
+  </si>
+  <si>
+    <t>ANEL VEDACAO P/ PVC COL ESGOTO DN 100</t>
   </si>
   <si>
     <t>30004141</t>
@@ -127,6 +139,18 @@
     <t>ANEL VEDACAO P/ PVC COL ESGOTO DN 200</t>
   </si>
   <si>
+    <t>30004483</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO FERRO MALEAV GALV DN25X20</t>
+  </si>
+  <si>
+    <t>30004486</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO FERRO MALEAV GALV DN50X25</t>
+  </si>
+  <si>
     <t>30004388</t>
   </si>
   <si>
@@ -139,18 +163,18 @@
     <t>CAIXA PLASTICA COMPLETA UMA NTS 303</t>
   </si>
   <si>
+    <t>50000472</t>
+  </si>
+  <si>
+    <t>CAIXA PLASTICA COMPLETA UMA-P - NTS 333</t>
+  </si>
+  <si>
     <t>30004403</t>
   </si>
   <si>
     <t>CAP ELETROF - DE 110 - SDR 11 - PE 100</t>
   </si>
   <si>
-    <t>30002352</t>
-  </si>
-  <si>
-    <t>CAP ELETROF - DE 63 - SDR 11 - PE 100</t>
-  </si>
-  <si>
     <t>30004405</t>
   </si>
   <si>
@@ -175,16 +199,76 @@
     <t>CAP FF DUCTIL BOLSA JE2GS DN200</t>
   </si>
   <si>
+    <t>30004408</t>
+  </si>
+  <si>
+    <t>CAP FF DUCTIL BOLSA JE2GS DN300</t>
+  </si>
+  <si>
+    <t>30000032</t>
+  </si>
+  <si>
+    <t>CAP FF DUCTIL BOLSA JE2GS DN50</t>
+  </si>
+  <si>
+    <t>30004410</t>
+  </si>
+  <si>
+    <t>CAP FF DUCTIL BOLSA JE2GS DN75</t>
+  </si>
+  <si>
+    <t>30002355</t>
+  </si>
+  <si>
+    <t>CAP FF DUCTIL BOLSA JE2GS DN80</t>
+  </si>
+  <si>
+    <t>30001055</t>
+  </si>
+  <si>
+    <t>CAP FF PARA PVC - EN 12842 DN 100</t>
+  </si>
+  <si>
+    <t>30002356</t>
+  </si>
+  <si>
+    <t>CAP FF PARA PVC - EN 12842 DN 50</t>
+  </si>
+  <si>
+    <t>30000564</t>
+  </si>
+  <si>
+    <t>CAP FF PARA PVC - EN 12842 DN 75</t>
+  </si>
+  <si>
+    <t>30001057</t>
+  </si>
+  <si>
+    <t>CAP PVC JE DN 100 (DE 110 MM)</t>
+  </si>
+  <si>
     <t>30004643</t>
   </si>
   <si>
     <t>CAVALETE PVC DN 20 (3/4) KIT COMPLETO-</t>
   </si>
   <si>
-    <t>30004697</t>
-  </si>
-  <si>
-    <t>COLAR TOM P/TUBO PE DE 32 X DN 20 C/ REG</t>
+    <t>30002194</t>
+  </si>
+  <si>
+    <t>COLAR TOM 200A400 MULTI FL DND 50</t>
+  </si>
+  <si>
+    <t>30004691</t>
+  </si>
+  <si>
+    <t>COLAR TOM 80A200 MULTI DND 80</t>
+  </si>
+  <si>
+    <t>30001075</t>
+  </si>
+  <si>
+    <t>COLAR TOM 80A200 MULTI FL DND 100</t>
   </si>
   <si>
     <t>30000287</t>
@@ -205,22 +289,34 @@
     <t>COLAR TOMADA ACO INOX DN50A150 X DNR20</t>
   </si>
   <si>
-    <t>30004704</t>
-  </si>
-  <si>
-    <t>COLAR TOMADA FF C.INOX DN50A150 X DNR20</t>
-  </si>
-  <si>
-    <t>30004716</t>
-  </si>
-  <si>
-    <t>COLAR TOMADA FF DN100 X DNR25 FF OU FIBR</t>
-  </si>
-  <si>
-    <t>30004725</t>
-  </si>
-  <si>
-    <t>COLAR TOMADA FF DN75 X DNR25 FF OU FIBR</t>
+    <t>30004703</t>
+  </si>
+  <si>
+    <t>COLAR TOMADA FF C.INOX DN200A300 X DNR20</t>
+  </si>
+  <si>
+    <t>30002202</t>
+  </si>
+  <si>
+    <t>COLAR TOMADA FF C.INOX DN50A150 X DNR25</t>
+  </si>
+  <si>
+    <t>30002204</t>
+  </si>
+  <si>
+    <t>COLAR TOMADA FF CINTA INOX DN100 X DNR50</t>
+  </si>
+  <si>
+    <t>30001080</t>
+  </si>
+  <si>
+    <t>COLAR TOMADA FF CINTA INOX DN400 X DNR20</t>
+  </si>
+  <si>
+    <t>30000288</t>
+  </si>
+  <si>
+    <t>COLAR TOMADA FF CINTA INOX DN75 X DNR50</t>
   </si>
   <si>
     <t>30004732</t>
@@ -253,12 +349,6 @@
     <t>COLARINHO DE 63 LG C/ FL SDR 11 PE100</t>
   </si>
   <si>
-    <t>30002228</t>
-  </si>
-  <si>
-    <t>COLARINHO DE 90 LG C/ FL SDR 11 PE100</t>
-  </si>
-  <si>
     <t>30001346</t>
   </si>
   <si>
@@ -271,30 +361,12 @@
     <t>CONEXOES MET LIG DOMICI FEMEA 3/4"X 32MM</t>
   </si>
   <si>
-    <t>30002393</t>
-  </si>
-  <si>
-    <t>CONEXOES MET LIG DOMICIL MACHO 1 POL</t>
-  </si>
-  <si>
     <t>30002394</t>
   </si>
   <si>
     <t>CONEXOES MET LIGACOES  FÊMEA DN 20</t>
   </si>
   <si>
-    <t>30005087</t>
-  </si>
-  <si>
-    <t>CONEXOES MET LIGACOES DOMICIL ADAP FEMEA</t>
-  </si>
-  <si>
-    <t>30004941</t>
-  </si>
-  <si>
-    <t>COTOV 45 G ELETROF DE 160 SDR 11 PE 100</t>
-  </si>
-  <si>
     <t>30004940</t>
   </si>
   <si>
@@ -313,96 +385,12 @@
     <t>COTOV 90 G ELETROF DE 160 SDR 11 PE 100</t>
   </si>
   <si>
-    <t>30000315</t>
-  </si>
-  <si>
-    <t>COTOV 90 G ELETROF DE 225 SDR 11 PE 100</t>
-  </si>
-  <si>
-    <t>30004948</t>
-  </si>
-  <si>
-    <t>COTOVELO 45 G ELETROF DE 63 PE 100</t>
-  </si>
-  <si>
-    <t>30002424</t>
-  </si>
-  <si>
-    <t>COTOVELO 45 GR ELETROF DE 90 PE 100</t>
-  </si>
-  <si>
-    <t>30004953</t>
-  </si>
-  <si>
-    <t>COTOVELO 90 GR ELETROF DE 63 PE 100</t>
-  </si>
-  <si>
     <t>30000001</t>
   </si>
   <si>
     <t>COTOVELO 90 GR ELETROF DE 90 PE 100</t>
   </si>
   <si>
-    <t>30004965</t>
-  </si>
-  <si>
-    <t>COTOVELO 90GR FERRO MALEAV GALV DN25X25</t>
-  </si>
-  <si>
-    <t>30009004</t>
-  </si>
-  <si>
-    <t>CRUZETA FF DUCTIL BOLSAS JE2GS DN150X100</t>
-  </si>
-  <si>
-    <t>30004981</t>
-  </si>
-  <si>
-    <t>CRUZETA FF DUCTIL BOLSAS JE2GS DN150X150</t>
-  </si>
-  <si>
-    <t>30000736</t>
-  </si>
-  <si>
-    <t>CRUZETA FF DUCTIL BOLSAS JE2GS DN80 X 80</t>
-  </si>
-  <si>
-    <t>30004998</t>
-  </si>
-  <si>
-    <t>CRUZETA PVC BBBB JE PBA DN 100 X 100</t>
-  </si>
-  <si>
-    <t>30002449</t>
-  </si>
-  <si>
-    <t>CRUZETA PVC BBBB JE PBA DN 100 X 50</t>
-  </si>
-  <si>
-    <t>30004999</t>
-  </si>
-  <si>
-    <t>CRUZETA PVC BBBB JE PBA DN 100 X 75</t>
-  </si>
-  <si>
-    <t>30002450</t>
-  </si>
-  <si>
-    <t>CRUZETA PVC BBBB JE PBA DN 50 X 50</t>
-  </si>
-  <si>
-    <t>30000047</t>
-  </si>
-  <si>
-    <t>CRUZETA PVC BBBB JE PBA DN 75 X 75</t>
-  </si>
-  <si>
-    <t>30002464</t>
-  </si>
-  <si>
-    <t>CURVA 22 G 30 PVC PB JE DN 100</t>
-  </si>
-  <si>
     <t>30005264</t>
   </si>
   <si>
@@ -415,33 +403,12 @@
     <t>CURVA 45 GR FF P/ PVC - EN 12842 DN 50</t>
   </si>
   <si>
-    <t>30005266</t>
+    <t>30008307</t>
   </si>
   <si>
     <t>CURVA 45 GR FF P/ PVC - EN 12842 DN 75</t>
   </si>
   <si>
-    <t>30008307</t>
-  </si>
-  <si>
-    <t>30002686</t>
-  </si>
-  <si>
-    <t>CURVA 45 GR LG DE 450 PE 100 SDR 11</t>
-  </si>
-  <si>
-    <t>30005280</t>
-  </si>
-  <si>
-    <t>CURVA 45 GR PVC PB JE DN 100</t>
-  </si>
-  <si>
-    <t>30005281</t>
-  </si>
-  <si>
-    <t>CURVA 45 GR PVC PB JE DN 50</t>
-  </si>
-  <si>
     <t>30005283</t>
   </si>
   <si>
@@ -454,28 +421,16 @@
     <t>CURVA 45 GR PVC PB JE ESG DN 200 - JEI</t>
   </si>
   <si>
-    <t>30000324</t>
-  </si>
-  <si>
-    <t>CURVA 45GR FF BOLSAS JE2GS DN150</t>
-  </si>
-  <si>
-    <t>30008312</t>
-  </si>
-  <si>
-    <t>CURVA 45GR FF BOLSAS JE2GS DN200</t>
-  </si>
-  <si>
-    <t>30005290</t>
-  </si>
-  <si>
-    <t>CURVA 45GR FF BOLSAS JE2GS DN250</t>
-  </si>
-  <si>
-    <t>30002695</t>
-  </si>
-  <si>
-    <t>CURVA 45GR FF BOLSAS JE2GS DN300</t>
+    <t>30005285</t>
+  </si>
+  <si>
+    <t>CURVA 45 GR PVC PB JE ESG DN 300 - JEI</t>
+  </si>
+  <si>
+    <t>30000325</t>
+  </si>
+  <si>
+    <t>CURVA 45GR FF FLANGES DN300 PN10</t>
   </si>
   <si>
     <t>30005282</t>
@@ -484,12 +439,6 @@
     <t>CURVA 45GR PVC CTA PB ESG DN100 JEI/JERI</t>
   </si>
   <si>
-    <t>30005329</t>
-  </si>
-  <si>
-    <t>CURVA 90 GR FF P/ PVC - EN 12842 DN 100</t>
-  </si>
-  <si>
     <t>30000051</t>
   </si>
   <si>
@@ -502,24 +451,18 @@
     <t>CURVA 90 GR FF P/ PVC - EN 12842 DN 75</t>
   </si>
   <si>
-    <t>30005135</t>
-  </si>
-  <si>
-    <t>CURVA 90 GR LG DE 450 PE 100 SDR 17</t>
-  </si>
-  <si>
-    <t>30001208</t>
-  </si>
-  <si>
-    <t>CURVA 90 GR LG DE 450 PE100 SDR 11 TERM</t>
-  </si>
-  <si>
     <t>30005144</t>
   </si>
   <si>
     <t>CURVA 90 GR PVC LONGA PB JE ESG DN 100</t>
   </si>
   <si>
+    <t>30000139</t>
+  </si>
+  <si>
+    <t>CURVA 90 GR PVC PB JE ESG DN 150</t>
+  </si>
+  <si>
     <t>30008322</t>
   </si>
   <si>
@@ -544,34 +487,22 @@
     <t>CURVA 90 GR PVC PB JE ESG DN 300 - JEI</t>
   </si>
   <si>
+    <t>30022735</t>
+  </si>
+  <si>
+    <t>CURVA 90 GR PVC PB JE/JERI ESG DN 100</t>
+  </si>
+  <si>
     <t>30008324</t>
   </si>
   <si>
     <t>CURVA 90GR FF BOLSAS JE DN200</t>
   </si>
   <si>
-    <t>30000328</t>
-  </si>
-  <si>
-    <t>CURVA 90GR FF BOLSAS JE2GS DN150</t>
-  </si>
-  <si>
-    <t>30005154</t>
-  </si>
-  <si>
-    <t>CURVA 90GR FF BOLSAS JE2GS DN250</t>
-  </si>
-  <si>
-    <t>30019532</t>
-  </si>
-  <si>
-    <t>CURVA 90GR FF FLANGES DN 400 PN16</t>
-  </si>
-  <si>
-    <t>30002732</t>
-  </si>
-  <si>
-    <t>CURVA 90GR FF FLANGES DN150 PN10/16</t>
+    <t>30000757</t>
+  </si>
+  <si>
+    <t>CURVA 90GR FF BOLSAS JE2GS DN75</t>
   </si>
   <si>
     <t>30002722</t>
@@ -580,40 +511,16 @@
     <t>CURVA 90GR PVC PB ESG DN100 CTA JEI/JERI</t>
   </si>
   <si>
-    <t>30022469</t>
-  </si>
-  <si>
-    <t>CURVA PVC 45GR LG PB JEI/JERI ESG DN100</t>
-  </si>
-  <si>
-    <t>30008335</t>
-  </si>
-  <si>
-    <t>CURVA90 FF FLG DISS DN100 HIDR COL DN100</t>
-  </si>
-  <si>
-    <t>30001228</t>
-  </si>
-  <si>
-    <t>DE 63(PEAD) X DE 20(RAMAL PE)-ARTICULADO</t>
-  </si>
-  <si>
-    <t>50000021</t>
-  </si>
-  <si>
-    <t>DISPOSITIVO MED METAL  DN 20</t>
-  </si>
-  <si>
     <t>50000178</t>
   </si>
   <si>
     <t>DISPOSITIVO MED PLASTICO DN 20</t>
   </si>
   <si>
-    <t>30008353</t>
-  </si>
-  <si>
-    <t>EXTREMIDADE FF B JE2GS FLG DN150 PN10/16</t>
+    <t>30005509</t>
+  </si>
+  <si>
+    <t>EXTREMIDAD FF P FLG DN50 PN10/16/25 L340</t>
   </si>
   <si>
     <t>30005510</t>
@@ -622,10 +529,10 @@
     <t>EXTREMIDADE FF B JE2GS FLG DN200 PN10</t>
   </si>
   <si>
-    <t>30005514</t>
-  </si>
-  <si>
-    <t>EXTREMIDADE FF B JE2GS FLG DN75 PN10/16</t>
+    <t>30001252</t>
+  </si>
+  <si>
+    <t>EXTREMIDADE FF B JE2GS FLG DN300 PN10</t>
   </si>
   <si>
     <t>30005517</t>
@@ -640,6 +547,12 @@
     <t>EXTREMIDADE FF P FLG DN150 PN10/16 L=380</t>
   </si>
   <si>
+    <t>30005519</t>
+  </si>
+  <si>
+    <t>EXTREMIDADE FF P FLG DN80 PN10/16 L=350</t>
+  </si>
+  <si>
     <t>30001254</t>
   </si>
   <si>
@@ -652,40 +565,28 @@
     <t>EXTREMIDADE FF PONT FLG DN400 PN10 L=480</t>
   </si>
   <si>
-    <t>50000023</t>
-  </si>
-  <si>
-    <t>FILTRO FF C/CARTUCHO FILTRANTE DN 100</t>
-  </si>
-  <si>
-    <t>50000194</t>
-  </si>
-  <si>
-    <t>FILTRO FF C/CARTUCHO FILTRANTE DN 150</t>
-  </si>
-  <si>
-    <t>50000196</t>
-  </si>
-  <si>
-    <t>FILTRO FF C/CARTUCHO FILTRANTE DN 50</t>
-  </si>
-  <si>
-    <t>50000095</t>
-  </si>
-  <si>
-    <t>FILTRO FF C/CARTUCHO FILTRANTE DN 80</t>
-  </si>
-  <si>
-    <t>10002234</t>
-  </si>
-  <si>
-    <t>FORA ESPECIFICACAO</t>
-  </si>
-  <si>
-    <t>30000187</t>
-  </si>
-  <si>
-    <t>HIDRANTE COLUNA C/ BASE FLANGEADA DN 100</t>
+    <t>30003442</t>
+  </si>
+  <si>
+    <t>FORA ESPEC TAMPAO FFCXC/TAMP ARTP/VALVT5</t>
+  </si>
+  <si>
+    <t>30003439</t>
+  </si>
+  <si>
+    <t>FORA ESPECIFI TAMPAO ARTICFFDN600RUA/AGU</t>
+  </si>
+  <si>
+    <t>30006983</t>
+  </si>
+  <si>
+    <t>FORA ESPECIFICAÇÃO TAMPAO FFDUCTIL DN200</t>
+  </si>
+  <si>
+    <t>50000098</t>
+  </si>
+  <si>
+    <t>GUARNICAO 1- 1/2 POL</t>
   </si>
   <si>
     <t>30002899</t>
@@ -694,12 +595,6 @@
     <t>HIDRANTE SUBT C/BASE FLANG DN 75 SIMPLES</t>
   </si>
   <si>
-    <t>50000387</t>
-  </si>
-  <si>
-    <t>HIDRO ULTRAS Qn 1,5 (Q3=2,5) - PULSADO</t>
-  </si>
-  <si>
     <t>50000108</t>
   </si>
   <si>
@@ -718,16 +613,16 @@
     <t>HIDROM ELETRON ULTRASSONICO FLANGEADO 2"</t>
   </si>
   <si>
-    <t>50000102</t>
-  </si>
-  <si>
-    <t>HIDROM ELETRON ULTRASSONICO FLANGEADO 4"</t>
-  </si>
-  <si>
-    <t>50000055</t>
-  </si>
-  <si>
-    <t>HIDROM TAQUIMETRICO DN100 1800 M3/DIA</t>
+    <t>50000210</t>
+  </si>
+  <si>
+    <t>HIDROM ELETRON ULTRASSONICO FLANGEADO 3"</t>
+  </si>
+  <si>
+    <t>50000221</t>
+  </si>
+  <si>
+    <t>HIDROM TAQUIM EXTREM ROSCADA DN 25-QN 5</t>
   </si>
   <si>
     <t>50000057</t>
@@ -736,16 +631,10 @@
     <t>HIDROM ULTRASSON DN 25-QN 5.0</t>
   </si>
   <si>
-    <t>50000323</t>
-  </si>
-  <si>
-    <t>HIDROM VELOCIM GRANDE CAP DN 50 CLASSE C</t>
-  </si>
-  <si>
-    <t>50000120</t>
-  </si>
-  <si>
-    <t>HIDROM VELOCIM TELEM PRE MONO/MULTI JATO</t>
+    <t>50000113</t>
+  </si>
+  <si>
+    <t>HIDROM ULTRASSON DN40-QN 10.0</t>
   </si>
   <si>
     <t>50000252</t>
@@ -754,10 +643,28 @@
     <t>HIDROMETRO ULTRA DN20-QN 2.5</t>
   </si>
   <si>
-    <t>30008409</t>
-  </si>
-  <si>
-    <t>JUNTA FF BOL VAR DIA DEMAX175 X DEMIN125</t>
+    <t>30005601</t>
+  </si>
+  <si>
+    <t>JUNTA FF BOL VAR DIA DEMAX150 X DEMIN100</t>
+  </si>
+  <si>
+    <t>30005602</t>
+  </si>
+  <si>
+    <t>JUNTA FF BOL VAR DIA DEMAX200 X DEMIN150</t>
+  </si>
+  <si>
+    <t>30002951</t>
+  </si>
+  <si>
+    <t>JUNTA FF BOL VAR DIA DEMAX225 X DEMIN175</t>
+  </si>
+  <si>
+    <t>30002952</t>
+  </si>
+  <si>
+    <t>JUNTA FF BOL VAR DIA DEMAX300 X DEMIN250</t>
   </si>
   <si>
     <t>30005611</t>
@@ -766,10 +673,10 @@
     <t>JUNTA FF BOLS VAR DIA DEMAX100 X DEMIN50</t>
   </si>
   <si>
-    <t>30005612</t>
-  </si>
-  <si>
-    <t>JUNTA FF BOLS VAR DIA DEMAX125 X DEMIN75</t>
+    <t>30002956</t>
+  </si>
+  <si>
+    <t>JUNTA FF BOLS VAR DIAM DEMAX55 X DEMIN25</t>
   </si>
   <si>
     <t>30000614</t>
@@ -790,6 +697,12 @@
     <t>JUNTA FLEX ESGOTO ADAP DN 150MMX150MM</t>
   </si>
   <si>
+    <t>30002958</t>
+  </si>
+  <si>
+    <t>JUNTA FLEX ESGOTO LUVA DN 100MM PVCXPVC</t>
+  </si>
+  <si>
     <t>30005617</t>
   </si>
   <si>
@@ -802,12 +715,6 @@
     <t>JUNTA FLEX ESGOTO LUVA DN 200MM PVCXPVC</t>
   </si>
   <si>
-    <t>30008412</t>
-  </si>
-  <si>
-    <t>JUNTA FLEX ESGOTO LUVA DN300MM PVCXPVC</t>
-  </si>
-  <si>
     <t>30005619</t>
   </si>
   <si>
@@ -826,16 +733,16 @@
     <t>LACRE ANTIFRAUDE P HIDRÔMETRO COMPR 01 M</t>
   </si>
   <si>
-    <t>30023262</t>
-  </si>
-  <si>
-    <t>LUVA AJUST.DN 450 DE 450-482 TRAVA AXIAL</t>
-  </si>
-  <si>
-    <t>30000361</t>
-  </si>
-  <si>
-    <t>LUVA AJUSTAV. DE 315 A 355MM TRAVA AXIAL</t>
+    <t>30005876</t>
+  </si>
+  <si>
+    <t>LUVA AJUSTAV. DE 108 A 130MM TRAVA AXIAL</t>
+  </si>
+  <si>
+    <t>30005877</t>
+  </si>
+  <si>
+    <t>LUVA AJUSTAV. DE 133 A 154MM TRAVA AXIAL</t>
   </si>
   <si>
     <t>30005884</t>
@@ -844,30 +751,42 @@
     <t>LUVA AJUSTAVEL DE 57 A 70MM TRAVA AXIAL</t>
   </si>
   <si>
+    <t>30005886</t>
+  </si>
+  <si>
+    <t>LUVA AJUSTAVEL DE 86 A 104MM TRAVA AXIAL</t>
+  </si>
+  <si>
+    <t>30005887</t>
+  </si>
+  <si>
+    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN100</t>
+  </si>
+  <si>
     <t>30001546</t>
   </si>
   <si>
     <t>LUVA BIPARTIDA FF P/BOLSAS FF DN150</t>
   </si>
   <si>
+    <t>30005888</t>
+  </si>
+  <si>
+    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN200</t>
+  </si>
+  <si>
+    <t>30002794</t>
+  </si>
+  <si>
+    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN250</t>
+  </si>
+  <si>
     <t>30005889</t>
   </si>
   <si>
     <t>LUVA BIPARTIDA FF P/BOLSAS FF DN300</t>
   </si>
   <si>
-    <t>30000190</t>
-  </si>
-  <si>
-    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN350</t>
-  </si>
-  <si>
-    <t>30002795</t>
-  </si>
-  <si>
-    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN50</t>
-  </si>
-  <si>
     <t>30005893</t>
   </si>
   <si>
@@ -898,6 +817,12 @@
     <t>LUVA CORRER BB ESG DN 200 - JE</t>
   </si>
   <si>
+    <t>30002798</t>
+  </si>
+  <si>
+    <t>LUVA CORRER BB ESG DN 200 - JEI</t>
+  </si>
+  <si>
     <t>30008427</t>
   </si>
   <si>
@@ -916,22 +841,28 @@
     <t>LUVA CORRER FF BOLSAS JE2GS DN100</t>
   </si>
   <si>
-    <t>30002803</t>
-  </si>
-  <si>
-    <t>LUVA CORRER FF BOLSAS JE2GS DN150</t>
-  </si>
-  <si>
     <t>30005907</t>
   </si>
   <si>
     <t>LUVA CORRER FF BOLSAS JE2GS DN200</t>
   </si>
   <si>
-    <t>30001551</t>
-  </si>
-  <si>
-    <t>LUVA CORRER FF BOLSAS JE2GS DN250</t>
+    <t>30002805</t>
+  </si>
+  <si>
+    <t>LUVA CORRER FF BOLSAS JE2GS DN80</t>
+  </si>
+  <si>
+    <t>30005917</t>
+  </si>
+  <si>
+    <t>LUVA CORRER FF C/BOLSAS JM DN100</t>
+  </si>
+  <si>
+    <t>30002809</t>
+  </si>
+  <si>
+    <t>LUVA CORRER FF C/BOLSAS JM DN150</t>
   </si>
   <si>
     <t>30005919</t>
@@ -952,12 +883,6 @@
     <t>LUVA CORRER FF C/BOLSAS JM DN300</t>
   </si>
   <si>
-    <t>30002810</t>
-  </si>
-  <si>
-    <t>LUVA CORRER FF C/BOLSAS JM DN350</t>
-  </si>
-  <si>
     <t>30005921</t>
   </si>
   <si>
@@ -982,10 +907,10 @@
     <t>LUVA CORRER FF C/BOLSAS JM DN80</t>
   </si>
   <si>
-    <t>30005926</t>
-  </si>
-  <si>
-    <t>LUVA CORRER FF DUCTIL BOLSAS JE2GS DN 50</t>
+    <t>30008432</t>
+  </si>
+  <si>
+    <t>LUVA CORRER FF DUCTIL BOLSAS JE - DN 80</t>
   </si>
   <si>
     <t>30002813</t>
@@ -994,16 +919,16 @@
     <t>LUVA CORRER FF DUCTIL BOLSAS JE2GS DN 75</t>
   </si>
   <si>
-    <t>30008433</t>
-  </si>
-  <si>
-    <t>LUVA CORRER PVC BB JE DN 100</t>
-  </si>
-  <si>
-    <t>30005746</t>
-  </si>
-  <si>
-    <t>LUVA ELETROF - DE 110 - SDR 11 - PE 100</t>
+    <t>30005931</t>
+  </si>
+  <si>
+    <t>LUVA CORRER PVC BB JE DN 50</t>
+  </si>
+  <si>
+    <t>30001557</t>
+  </si>
+  <si>
+    <t>LUVA CORRER PVC BB JE DN 75</t>
   </si>
   <si>
     <t>30002823</t>
@@ -1030,34 +955,16 @@
     <t>LUVA ELETROF - DE 225 - SDR 11 - PE 100.</t>
   </si>
   <si>
-    <t>30000631</t>
-  </si>
-  <si>
-    <t>LUVA ELETROF - DE 315 - SDR 11 - PE 100</t>
-  </si>
-  <si>
     <t>30005750</t>
   </si>
   <si>
     <t>LUVA ELETROF - DE 32 - SDR 11 - PE 100</t>
   </si>
   <si>
-    <t>30002826</t>
-  </si>
-  <si>
-    <t>LUVA ELETROF DE 90 SDR 11 PE 100</t>
-  </si>
-  <si>
-    <t>30010547</t>
-  </si>
-  <si>
-    <t>LUVA ELETROF. DE 450 SDR 11 PE 100</t>
-  </si>
-  <si>
-    <t>30005755</t>
-  </si>
-  <si>
-    <t>LUVA ELETROFUSAO DE 450 SDR 17 PE 100</t>
+    <t>30005771</t>
+  </si>
+  <si>
+    <t>LUVA FF PARA PVC - EN 12842 DN 100</t>
   </si>
   <si>
     <t>30005772</t>
@@ -1072,28 +979,31 @@
     <t>LUVA FF PARA PVC - EN 12842 DN 75</t>
   </si>
   <si>
-    <t>30006842</t>
-  </si>
-  <si>
-    <t>REDUC CONC 160X90 TERMOF. PE 100 SDR 11</t>
-  </si>
-  <si>
-    <t>30000943</t>
-  </si>
-  <si>
-    <t>REDUC CONC 315X160 TERMOF. PE 100 SDR 11</t>
-  </si>
-  <si>
-    <t>30006854</t>
-  </si>
-  <si>
-    <t>REDUC CONC 90X63 TERMOF. PE 100 SDR 11</t>
-  </si>
-  <si>
-    <t>30001590</t>
-  </si>
-  <si>
-    <t>REDUCAO CONC ELETROF - DE 110 X 63</t>
+    <t>30002845</t>
+  </si>
+  <si>
+    <t>LUVA RED FF P/ PVC EN 12842 DN 100 X 50</t>
+  </si>
+  <si>
+    <t>30005790</t>
+  </si>
+  <si>
+    <t>30005791</t>
+  </si>
+  <si>
+    <t>LUVA RED FF P/ PVC EN 12842 DN 100 X 75</t>
+  </si>
+  <si>
+    <t>50000139</t>
+  </si>
+  <si>
+    <t>PORCA METALICA 1POL</t>
+  </si>
+  <si>
+    <t>30001585</t>
+  </si>
+  <si>
+    <t>REDUC CONC 225X110 TERMOF. PE 100 SDR 11</t>
   </si>
   <si>
     <t>30006864</t>
@@ -1102,10 +1012,10 @@
     <t>REDUCAO CONC ELETROF - DE 110 X 90</t>
   </si>
   <si>
-    <t>30000099</t>
-  </si>
-  <si>
-    <t>REDUCAO CONC ELETROF - DE 160 X 110</t>
+    <t>30008609</t>
+  </si>
+  <si>
+    <t>REDUCAO CONC ELETROF - DE 160 X 90</t>
   </si>
   <si>
     <t>30010436</t>
@@ -1114,64 +1024,16 @@
     <t>REDUCAO CONC ELETROF - DE 200 X 160</t>
   </si>
   <si>
-    <t>30008611</t>
-  </si>
-  <si>
-    <t>REDUCAO CONCENTRICA ELETROF - DE 90 X 63</t>
-  </si>
-  <si>
-    <t>30015248</t>
-  </si>
-  <si>
-    <t>REDUCAO FF BOLSAS JE DN 250 X 200</t>
-  </si>
-  <si>
-    <t>30000100</t>
-  </si>
-  <si>
-    <t>REDUCAO FF FLANGES DN150 X 50 PN10/16</t>
-  </si>
-  <si>
-    <t>30003505</t>
-  </si>
-  <si>
-    <t>REDUCAO FF PONTA BOLSA JE2GS DN100 X 50</t>
-  </si>
-  <si>
-    <t>30006912</t>
-  </si>
-  <si>
-    <t>REDUCAO FF PONTA BOLSA JE2GS DN150 X 100</t>
-  </si>
-  <si>
-    <t>30003507</t>
-  </si>
-  <si>
-    <t>REDUCAO FF PONTA BOLSA JE2GS DN200 X 150</t>
-  </si>
-  <si>
-    <t>30003508</t>
-  </si>
-  <si>
-    <t>REDUCAO FF PONTA BOLSA JE2GS DN250 X 150</t>
-  </si>
-  <si>
-    <t>30003509</t>
-  </si>
-  <si>
-    <t>REDUCAO FF PONTA BOLSA JE2GS DN300 X 250</t>
-  </si>
-  <si>
-    <t>30001605</t>
-  </si>
-  <si>
-    <t>REDUCAO FF PONTA BOLSA JE2GS DN75 X 50</t>
-  </si>
-  <si>
-    <t>30006931</t>
-  </si>
-  <si>
-    <t>REDUCAO PVC PB JE DN 100 X 50</t>
+    <t>30006911</t>
+  </si>
+  <si>
+    <t>REDUCAO FF PONTA BOLSA JE2GS DN100 X 75</t>
+  </si>
+  <si>
+    <t>30008618</t>
+  </si>
+  <si>
+    <t>REDUCAO FF PONTA BOLSA JE2GS DN150 X 80</t>
   </si>
   <si>
     <t>30001607</t>
@@ -1186,10 +1048,10 @@
     <t>REDUCAO PVC PB JE DN 75 X 50</t>
   </si>
   <si>
-    <t>30003524</t>
-  </si>
-  <si>
-    <t>REGISTRO MET.P/RAMAL PREDIAL DNR 25</t>
+    <t>30021805</t>
+  </si>
+  <si>
+    <t>REGISTRO MET. RAMAL PREDIAL DNR 50 -2POL</t>
   </si>
   <si>
     <t>30006747</t>
@@ -1225,22 +1087,22 @@
     <t>SELIM AJUST TUBO PVC E CER DN 200X100</t>
   </si>
   <si>
-    <t>30025251</t>
-  </si>
-  <si>
-    <t>SELIM AJUST TUBO PVC E CER DN 300X100</t>
-  </si>
-  <si>
-    <t>50000292</t>
-  </si>
-  <si>
-    <t>SUPORTE ADAPTADOR METALICO P/DISPOSITIVO</t>
-  </si>
-  <si>
-    <t>50000335</t>
-  </si>
-  <si>
-    <t>TAMPA PLASTICA PARA CAIXA UMA NTS 303</t>
+    <t>30023927</t>
+  </si>
+  <si>
+    <t>SELIM AJUST TUBO PVC E CER DN 200X150</t>
+  </si>
+  <si>
+    <t>50000143</t>
+  </si>
+  <si>
+    <t>SUPORTE ADAPTADOR PLASTICO P/DISPOSITIVO</t>
+  </si>
+  <si>
+    <t>30032251</t>
+  </si>
+  <si>
+    <t>TAMPAO ARTICULADO FF DN600 RUA/AGUA REV8</t>
   </si>
   <si>
     <t>30032220</t>
@@ -1267,64 +1129,10 @@
     <t>TAMPAO FF DUCTIL REV 08 DN 900 RUA/AGUA</t>
   </si>
   <si>
-    <t>30008669</t>
-  </si>
-  <si>
-    <t>TAMPAO TIL - TUBO DE INSP E LIMP DL 100</t>
-  </si>
-  <si>
-    <t>30025022</t>
-  </si>
-  <si>
-    <t>TAMPAO TIL EM PP COM TRAVAS DL 100</t>
-  </si>
-  <si>
-    <t>30000443</t>
-  </si>
-  <si>
-    <t>TE 90 GR ELETROF - DE 63 PE 100</t>
-  </si>
-  <si>
-    <t>30008671</t>
-  </si>
-  <si>
-    <t>TE 90 GR ELETROF DE 110 PE 100</t>
-  </si>
-  <si>
-    <t>30006997</t>
-  </si>
-  <si>
-    <t>TE 90 GR ELETROF DE 90 - SDR 11 - PE 100</t>
-  </si>
-  <si>
-    <t>30007025</t>
-  </si>
-  <si>
-    <t>TE DE SELA ELETROF DE 110 X 63TIPO PONTA</t>
-  </si>
-  <si>
-    <t>30011078</t>
-  </si>
-  <si>
-    <t>TE DE SELA ELETROF DE 160 X 110 TP PONTA</t>
-  </si>
-  <si>
-    <t>30011129</t>
-  </si>
-  <si>
-    <t>TE DE SELA ELETROF DE 315 X 110TP PONTA</t>
-  </si>
-  <si>
-    <t>30021796</t>
-  </si>
-  <si>
-    <t>TE DE SELA ELETROF DE 315 X 63 TP PONTA</t>
-  </si>
-  <si>
-    <t>30021791</t>
-  </si>
-  <si>
-    <t>TE DE SELA ELETROF DE 315 X 90 TP PONTA</t>
+    <t>30008676</t>
+  </si>
+  <si>
+    <t>TE DE SELA ELETROF DE 355X110 TP FEMEA</t>
   </si>
   <si>
     <t>30000211</t>
@@ -1375,16 +1183,16 @@
     <t>TE DE SERVICO ELETROF - DE 160 X 20</t>
   </si>
   <si>
-    <t>30007242</t>
-  </si>
-  <si>
-    <t>TE DE SERVICO ELETROF - DE 32 X 20</t>
-  </si>
-  <si>
-    <t>30003671</t>
-  </si>
-  <si>
-    <t>TE DE SERVICO ELETROF - DE 63 X 20</t>
+    <t>30007240</t>
+  </si>
+  <si>
+    <t>TE DE SERVICO ELETROF - DE 225 X 20</t>
+  </si>
+  <si>
+    <t>30007245</t>
+  </si>
+  <si>
+    <t>TE DE SERVICO ELETROF-DE 90 X 32</t>
   </si>
   <si>
     <t>30003672</t>
@@ -1393,58 +1201,22 @@
     <t>TE DE SERVICO ELETROF. DE 90 X 20</t>
   </si>
   <si>
-    <t>30003684</t>
-  </si>
-  <si>
-    <t>TE FF BOLSA JE2GS FLG DN250X100 PN10/16</t>
-  </si>
-  <si>
-    <t>30007303</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 100 X 100 PN 10/16</t>
-  </si>
-  <si>
-    <t>30003702</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 150 X 100 PN 10/16</t>
-  </si>
-  <si>
-    <t>30007306</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 150 X 75 PN 10/16</t>
-  </si>
-  <si>
-    <t>30003703</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 200 X 100 PN 10</t>
-  </si>
-  <si>
-    <t>30007307</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 200 X 150 PN 10</t>
-  </si>
-  <si>
-    <t>30007314</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 400 X 400 PN 10</t>
-  </si>
-  <si>
-    <t>30003708</t>
-  </si>
-  <si>
-    <t>TE FF C/FLANGES DN 75 X 75 PN 10/16</t>
-  </si>
-  <si>
-    <t>30008695</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 100 X 100</t>
+    <t>30008683</t>
+  </si>
+  <si>
+    <t>TE FF BOLSA JE2GS FLG DN150X75 PN10/16</t>
+  </si>
+  <si>
+    <t>30001891</t>
+  </si>
+  <si>
+    <t>TE FF BOLSA JE2GS FLG DN200X75 PN10/16</t>
+  </si>
+  <si>
+    <t>30007308</t>
+  </si>
+  <si>
+    <t>TE FF C/FLANGES DN 200 X 200 PN 16</t>
   </si>
   <si>
     <t>30003715</t>
@@ -1453,88 +1225,34 @@
     <t>TE FF DUCTIL C/BOLSAS JE DN 100 X 75</t>
   </si>
   <si>
-    <t>30000798</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 150 X 100</t>
-  </si>
-  <si>
     <t>30007278</t>
   </si>
   <si>
     <t>TE FF DUCTIL C/BOLSAS JE DN 150 X 150</t>
   </si>
   <si>
-    <t>30008687</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 150 X 50</t>
-  </si>
-  <si>
     <t>30007286</t>
   </si>
   <si>
     <t>TE FF DUCTIL C/BOLSAS JE DN 150 X 75</t>
   </si>
   <si>
-    <t>30003689</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 150 X 80</t>
-  </si>
-  <si>
-    <t>30007279</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 200 X 100</t>
-  </si>
-  <si>
-    <t>30001890</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 200 X 150</t>
-  </si>
-  <si>
     <t>30003693</t>
   </si>
   <si>
     <t>TE FF DUCTIL C/BOLSAS JE DN 200 X 200</t>
   </si>
   <si>
-    <t>30007280</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 200 X 75</t>
-  </si>
-  <si>
-    <t>30003690</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 200 X 80</t>
-  </si>
-  <si>
-    <t>30003694</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 250 X 250</t>
-  </si>
-  <si>
-    <t>30001897</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 300 X 300</t>
-  </si>
-  <si>
-    <t>30007332</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 75 X 50</t>
-  </si>
-  <si>
-    <t>30003716</t>
-  </si>
-  <si>
-    <t>TE FF DUCTIL C/BOLSAS JE DN 75 X 75</t>
+    <t>30008689</t>
+  </si>
+  <si>
+    <t>TE FF DUCTIL C/BOLSAS JE DN 400 X 80</t>
+  </si>
+  <si>
+    <t>30000804</t>
+  </si>
+  <si>
+    <t>TE FF DUCTIL C/BOLSAS JE DN 80 X 80</t>
   </si>
   <si>
     <t>30001914</t>
@@ -1555,52 +1273,16 @@
     <t>TE FF PARA PVC - EN 12842 DN 75</t>
   </si>
   <si>
-    <t>30007162</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN100X100 PN10/16 LMIN=205</t>
-  </si>
-  <si>
-    <t>30003732</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN150X75 PN10/16 LMIN=205</t>
-  </si>
-  <si>
-    <t>30007165</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN200X100 PN10/16 LMIN=250</t>
-  </si>
-  <si>
-    <t>30000808</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN200X150 PN10/16 LMIN=250</t>
-  </si>
-  <si>
-    <t>30008703</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN300X150 PN10/16 LMIN=400</t>
-  </si>
-  <si>
-    <t>30007175</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN400X150 PN10/16 LMIN=500</t>
-  </si>
-  <si>
-    <t>30003740</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN500X150 PN10/16 LMIN=500</t>
-  </si>
-  <si>
-    <t>30007189</t>
-  </si>
-  <si>
-    <t>TE FF TRI FL DN600X75 PN10/16 LMIN=500</t>
+    <t>30007170</t>
+  </si>
+  <si>
+    <t>TE FF TRI FL DN300X200 PN10 LMIN=400</t>
+  </si>
+  <si>
+    <t>30019450</t>
+  </si>
+  <si>
+    <t>TE FF TRIP FL DN 400 X 200 PN16 LMIN=500</t>
   </si>
   <si>
     <t>30007195</t>
@@ -1609,6 +1291,12 @@
     <t>TE PP P/TUBO PEAD DE 32 X 32 MM</t>
   </si>
   <si>
+    <t>30007203</t>
+  </si>
+  <si>
+    <t>TE PVC BBB JE ESG DN 150 X 100- JEI/JERI</t>
+  </si>
+  <si>
     <t>30001925</t>
   </si>
   <si>
@@ -1621,111 +1309,45 @@
     <t>TE PVC BBB JE ESG DN 200 X 200 JEI/ JERI</t>
   </si>
   <si>
-    <t>30003756</t>
-  </si>
-  <si>
-    <t>TE PVC BBP JE ESGOTO DN 200 X 200</t>
-  </si>
-  <si>
-    <t>30007227</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 110 X 63 PE 100</t>
-  </si>
-  <si>
-    <t>30001931</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 110 X 90 PE 100</t>
-  </si>
-  <si>
-    <t>30007228</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 160 X 110 PE 100</t>
-  </si>
-  <si>
-    <t>30007229</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 160 X 90 PE 100</t>
-  </si>
-  <si>
-    <t>30020665</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 200 X 160 PE 100</t>
-  </si>
-  <si>
-    <t>30000816</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 200 X 90  PE 100</t>
-  </si>
-  <si>
-    <t>30003765</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 225 X 90 PE 100</t>
-  </si>
-  <si>
-    <t>30008715</t>
-  </si>
-  <si>
-    <t>TE RED. ELETROF DE 90 X 63 PE 100</t>
-  </si>
-  <si>
-    <t>30021719</t>
-  </si>
-  <si>
-    <t>TE SELA ELETROF DE315 X DE20 TP PONTA</t>
-  </si>
-  <si>
-    <t>30021720</t>
-  </si>
-  <si>
-    <t>TE SELA ELETROF DE315 X DE32 TP PONTA</t>
-  </si>
-  <si>
-    <t>30015120</t>
-  </si>
-  <si>
-    <t>TIL- TUBO INSPEÇÃO/LIMPEZA DN 100X100</t>
-  </si>
-  <si>
-    <t>30007691</t>
-  </si>
-  <si>
-    <t>TUBO FF K7 PONTA E BOLSA JE2GS DN150</t>
+    <t>30008708</t>
+  </si>
+  <si>
+    <t>TE PVC JE DN 100X75 - FORA ESPECIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>30010469</t>
+  </si>
+  <si>
+    <t>TE RED. ELETROF DE 200 X 110 PE 100</t>
+  </si>
+  <si>
+    <t>30007233</t>
+  </si>
+  <si>
+    <t>TE RED. ELETROF DE 315 X 225 PE 100</t>
+  </si>
+  <si>
+    <t>30003896</t>
+  </si>
+  <si>
+    <t>TUBO FF K7 PONTA E BOLSA JE2GS DN300</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>30001797</t>
-  </si>
-  <si>
-    <t>TUBO FF K7 PONTA E BOLSA JE2GS DN200</t>
-  </si>
-  <si>
-    <t>30007692</t>
-  </si>
-  <si>
-    <t>TUBO FF K7 PONTA E BOLSA JE2GS DN250</t>
-  </si>
-  <si>
-    <t>30003896</t>
-  </si>
-  <si>
-    <t>TUBO FF K7 PONTA E BOLSA JE2GS DN300</t>
-  </si>
-  <si>
     <t>30000849</t>
   </si>
   <si>
     <t>TUBO FF K7 PONTA E BOLSA JE2GS DN400</t>
   </si>
   <si>
+    <t>30007697</t>
+  </si>
+  <si>
+    <t>TUBO FF K7 PT E B JE EN 681-1 AGUA DN150</t>
+  </si>
+  <si>
     <t>30000125</t>
   </si>
   <si>
@@ -1738,16 +1360,22 @@
     <t>TUBO FF K7 REVINTCIM PT/BOL JE ESG DN200</t>
   </si>
   <si>
-    <t>30007853</t>
-  </si>
-  <si>
-    <t>TUBO FF K9 PT E B JE EN 681-1 AGUA DN100</t>
-  </si>
-  <si>
-    <t>30028866</t>
-  </si>
-  <si>
-    <t>TUBO PBA DN 100 1,00 MPA JEI/JERI CM 6M</t>
+    <t>30003905</t>
+  </si>
+  <si>
+    <t>TUBO FF K7 REVINTCIM PT/BOL JE ESG DN300</t>
+  </si>
+  <si>
+    <t>30007626</t>
+  </si>
+  <si>
+    <t>TUBO FF K9 PONTA E BOLSA JE2GS DN300</t>
+  </si>
+  <si>
+    <t>30007628</t>
+  </si>
+  <si>
+    <t>TUBO FF K9 PONTA E BOLSA JE2GS DN80</t>
   </si>
   <si>
     <t>30028862</t>
@@ -1762,10 +1390,16 @@
     <t>TUBO PBA DN 75 1,00 MPA JEI/JERI CM 6M</t>
   </si>
   <si>
-    <t>30013385</t>
-  </si>
-  <si>
-    <t>TUBO PEAD AG PE 100 DE DE 400 PN 10</t>
+    <t>30007888</t>
+  </si>
+  <si>
+    <t>TUBO PEAD AG PE 100 DE 160 PN 16</t>
+  </si>
+  <si>
+    <t>30007889</t>
+  </si>
+  <si>
+    <t>TUBO PEAD AG PE 100 DE 200 PN 16</t>
   </si>
   <si>
     <t>30008808</t>
@@ -1774,12 +1408,6 @@
     <t>TUBO PEAD AG PE 80 DE 110 PN 12.5</t>
   </si>
   <si>
-    <t>30007894</t>
-  </si>
-  <si>
-    <t>TUBO PEAD AG PE 80 DE 63 PN 12.5</t>
-  </si>
-  <si>
     <t>30003797</t>
   </si>
   <si>
@@ -1798,60 +1426,18 @@
     <t>TUBO PEAD DN 32 - PE 80 - 1.0 MPA</t>
   </si>
   <si>
-    <t>30003799</t>
-  </si>
-  <si>
-    <t>TUBO PEAD ESG PE 100 DE 225 PN10</t>
-  </si>
-  <si>
-    <t>30003802</t>
-  </si>
-  <si>
-    <t>TUBO PEAD PE 80 AGUA DE 225 PN12.5 SDR11</t>
-  </si>
-  <si>
-    <t>30007905</t>
-  </si>
-  <si>
-    <t>TUBO PEAD PE 80 AGUA DE 250 PN12.5 SDR11</t>
-  </si>
-  <si>
     <t>30008810</t>
   </si>
   <si>
     <t>TUBO PEAD PE 80 AGUA DE 315 PN12.5 SDR11</t>
   </si>
   <si>
-    <t>30003803</t>
-  </si>
-  <si>
-    <t>TUBO PEAD PE 80 AGUA DE 400 PN12.5 SDR11</t>
-  </si>
-  <si>
     <t>30007909</t>
   </si>
   <si>
     <t>TUBO PEAD PE 80 AGUA DE 90 PN12.5 SDR11</t>
   </si>
   <si>
-    <t>30005460</t>
-  </si>
-  <si>
-    <t>TUBO PVC 12 DEFOFO JEI/JERI-DN300 P/B JE</t>
-  </si>
-  <si>
-    <t>30028868</t>
-  </si>
-  <si>
-    <t>TUBO PVC DEFOFO PN1,0 MPA AG DN150 CM 6M</t>
-  </si>
-  <si>
-    <t>30028869</t>
-  </si>
-  <si>
-    <t>TUBO PVC DEFOFO PN1,0 MPA AG DN200 CM 6M</t>
-  </si>
-  <si>
     <t>30028856</t>
   </si>
   <si>
@@ -1882,36 +1468,60 @@
     <t>TUBO PVC RIG JEI/JERI ESG DN 400 CM 6M</t>
   </si>
   <si>
+    <t>30026319</t>
+  </si>
+  <si>
+    <t>TUBO PVC RIG PB JEI/JERI DN 100 CL 20</t>
+  </si>
+  <si>
+    <t>30026317</t>
+  </si>
+  <si>
+    <t>TUBO PVC RIG PB JEI/JERI DN 50 CL 20.</t>
+  </si>
+  <si>
     <t>30026318</t>
   </si>
   <si>
     <t>TUBO PVC RIG PB JEI/JERI DN 75 CL. 20</t>
   </si>
   <si>
+    <t>30007933</t>
+  </si>
+  <si>
+    <t>TUBO PVC RIG PB JEI/JERI ESG DN 150</t>
+  </si>
+  <si>
     <t>30028787</t>
   </si>
   <si>
     <t>TUBO PVC-U ESG DE 315 PAR CEL CM 6M</t>
   </si>
   <si>
-    <t>30007764</t>
-  </si>
-  <si>
-    <t>UNIAO P/TUBO PEAD DE 20 MM 1 EXTR CAP</t>
-  </si>
-  <si>
     <t>30003832</t>
   </si>
   <si>
     <t>UNIAO P/TUBO PEAD DE 32 MM</t>
   </si>
   <si>
+    <t>30007765</t>
+  </si>
+  <si>
+    <t>UNIAO P/TUBO PEAD DE 32 MM 1 EXTR CAP</t>
+  </si>
+  <si>
     <t>30029526</t>
   </si>
   <si>
     <t>UNIAO PLASTICA P/TUBO PE DE 20</t>
   </si>
   <si>
+    <t>30001875</t>
+  </si>
+  <si>
+    <t>VALV GAV CM REV ELAST BB JE CAB FF DN 50</t>
+  </si>
+  <si>
     <t>30007804</t>
   </si>
   <si>
@@ -1930,12 +1540,6 @@
     <t>VALV GAV CM REV ELAST BB JE CAB FF DN100</t>
   </si>
   <si>
-    <t>30000888</t>
-  </si>
-  <si>
-    <t>VALV GAV CM REV ELAST BB JE CAB FF DN150</t>
-  </si>
-  <si>
     <t>30008829</t>
   </si>
   <si>
@@ -1966,12 +1570,6 @@
     <t>VALV GAV CM REV ELAST FL CAB DN 100</t>
   </si>
   <si>
-    <t>30003854</t>
-  </si>
-  <si>
-    <t>VALV GAV CM REV ELAST FL CAB DN 150</t>
-  </si>
-  <si>
     <t>30007809</t>
   </si>
   <si>
@@ -1990,12 +1588,6 @@
     <t>VALV GAV CM REV ELAST FL CAB DN 300 PN10</t>
   </si>
   <si>
-    <t>30007811</t>
-  </si>
-  <si>
-    <t>VALV GAV CM REV ELAST FL CAB DN 400 PN10</t>
-  </si>
-  <si>
     <t>30001877</t>
   </si>
   <si>
@@ -2014,22 +1606,16 @@
     <t>VALV GAV CM REV ELAST FL CAB DN 80</t>
   </si>
   <si>
-    <t>30007820</t>
-  </si>
-  <si>
-    <t>VALV GAV CM REV ELASTBB JE CAB FF DN300</t>
-  </si>
-  <si>
     <t>30003860</t>
   </si>
   <si>
     <t>VALV GAV CM RV ELAST BB JE CAB PVC DN100</t>
   </si>
   <si>
-    <t>30007984</t>
-  </si>
-  <si>
-    <t>VENTOSA FF TRIPL FUNC FLA DN 50 PN10/16/</t>
+    <t>30020895</t>
+  </si>
+  <si>
+    <t>VENTOSA TRIP FUNC FECH AMORT DN 50 PN16</t>
   </si>
   <si>
     <t>Fornecedor</t>
@@ -2160,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,7 +1755,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="12" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="26" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="30" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="8" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="10" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="42" customWidth="1"/>
@@ -2180,28 +1766,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>673</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>674</v>
+        <v>536</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>677</v>
+        <v>539</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>678</v>
+        <v>540</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2221,13 +1807,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>13.000</v>
+        <v>82.000</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3">
-        <v>3588.06</v>
+        <v>22632.36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2247,13 +1833,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>4.000</v>
+        <v>35.000</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>2046.21</v>
+        <v>17904.37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2273,13 +1859,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>3.000</v>
+        <v>23.000</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>2619.45</v>
+        <v>20082.47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2299,13 +1885,13 @@
         <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3">
-        <v>1285.17</v>
+        <v>6425.84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2325,13 +1911,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>2618.74</v>
+        <v>13093.68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2351,13 +1937,13 @@
         <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="3">
-        <v>4581.87</v>
+        <v>11454.68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2377,13 +1963,13 @@
         <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>9.000</v>
+        <v>25.000</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="3">
-        <v>2303.27</v>
+        <v>6397.97</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2403,13 +1989,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>501.52</v>
+        <v>1582.95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2429,13 +2015,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="2">
-        <v>16.000</v>
+        <v>3.000</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>334.83</v>
+        <v>750.47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2455,13 +2041,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="3">
-        <v>292.74</v>
+        <v>153.40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2481,13 +2067,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>39.000</v>
+        <v>15.000</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>1485.06</v>
+        <v>313.91</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2507,13 +2093,13 @@
         <v>27</v>
       </c>
       <c r="F13" s="2">
-        <v>43.000</v>
+        <v>7.000</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>4070.13</v>
+        <v>683.07</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2533,13 +2119,13 @@
         <v>29</v>
       </c>
       <c r="F14" s="2">
-        <v>3.000</v>
+        <v>19.000</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>116.87</v>
+        <v>723.49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2559,13 +2145,13 @@
         <v>31</v>
       </c>
       <c r="F15" s="2">
-        <v>130.000</v>
+        <v>150.000</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>696.80</v>
+        <v>14198.14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2585,13 +2171,13 @@
         <v>33</v>
       </c>
       <c r="F16" s="2">
-        <v>8.000</v>
+        <v>18.000</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>85.59</v>
+        <v>78.03</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2611,13 +2197,13 @@
         <v>35</v>
       </c>
       <c r="F17" s="2">
-        <v>5.000</v>
+        <v>624.000</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>6.38</v>
+        <v>1279.20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2637,13 +2223,13 @@
         <v>37</v>
       </c>
       <c r="F18" s="2">
-        <v>20.000</v>
+        <v>447.000</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>89.31</v>
+        <v>326.45</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2663,13 +2249,13 @@
         <v>39</v>
       </c>
       <c r="F19" s="2">
-        <v>2.000</v>
+        <v>98.000</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="3">
-        <v>1131.44</v>
+        <v>125.14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2689,13 +2275,13 @@
         <v>41</v>
       </c>
       <c r="F20" s="2">
-        <v>24.000</v>
+        <v>136.000</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>2049.37</v>
+        <v>607.32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2715,13 +2301,13 @@
         <v>43</v>
       </c>
       <c r="F21" s="2">
-        <v>6.000</v>
+        <v>60.000</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>253.42</v>
+        <v>227.27</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2741,13 +2327,13 @@
         <v>45</v>
       </c>
       <c r="F22" s="2">
-        <v>69.000</v>
+        <v>4.000</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>1916.28</v>
+        <v>48.64</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2767,13 +2353,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="2">
-        <v>32.000</v>
+        <v>11.000</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>1624.90</v>
+        <v>6222.91</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2793,13 +2379,13 @@
         <v>49</v>
       </c>
       <c r="F24" s="2">
-        <v>3.000</v>
+        <v>334.000</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>77.40</v>
+        <v>28520.40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2819,13 +2405,13 @@
         <v>51</v>
       </c>
       <c r="F25" s="2">
-        <v>2.000</v>
+        <v>113.000</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>197.65</v>
+        <v>20496.57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2845,13 +2431,13 @@
         <v>53</v>
       </c>
       <c r="F26" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>309.33</v>
+        <v>380.14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2871,13 +2457,13 @@
         <v>55</v>
       </c>
       <c r="F27" s="2">
-        <v>75.000</v>
+        <v>1.000</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>3523.06</v>
+        <v>50.78</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2897,13 +2483,13 @@
         <v>57</v>
       </c>
       <c r="F28" s="2">
-        <v>29.000</v>
+        <v>4.000</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="3">
-        <v>920.29</v>
+        <v>103.20</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2923,13 +2509,13 @@
         <v>59</v>
       </c>
       <c r="F29" s="2">
-        <v>166.000</v>
+        <v>2.000</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>4972.51</v>
+        <v>197.65</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2949,13 +2535,13 @@
         <v>61</v>
       </c>
       <c r="F30" s="2">
-        <v>12.000</v>
+        <v>4.000</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>1902.52</v>
+        <v>618.66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2975,13 +2561,13 @@
         <v>63</v>
       </c>
       <c r="F31" s="2">
-        <v>91.000</v>
+        <v>2.000</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="3">
-        <v>50848.66</v>
+        <v>542.22</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3001,13 +2587,13 @@
         <v>65</v>
       </c>
       <c r="F32" s="2">
-        <v>39.000</v>
+        <v>10.000</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>4902.49</v>
+        <v>201.79</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3027,13 +2613,13 @@
         <v>67</v>
       </c>
       <c r="F33" s="2">
-        <v>28.000</v>
+        <v>6.000</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>748.33</v>
+        <v>339.93</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3053,13 +2639,13 @@
         <v>69</v>
       </c>
       <c r="F34" s="2">
-        <v>63.000</v>
+        <v>14.000</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>1183.77</v>
+        <v>566.79</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3079,13 +2665,13 @@
         <v>71</v>
       </c>
       <c r="F35" s="2">
-        <v>31.000</v>
+        <v>15.000</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>6006.40</v>
+        <v>675.15</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3105,13 +2691,13 @@
         <v>73</v>
       </c>
       <c r="F36" s="2">
-        <v>10.000</v>
+        <v>17.000</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>2941.20</v>
+        <v>553.16</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3131,13 +2717,13 @@
         <v>75</v>
       </c>
       <c r="F37" s="2">
-        <v>2.000</v>
+        <v>22.000</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="3">
-        <v>798.38</v>
+        <v>1229.98</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3157,13 +2743,13 @@
         <v>77</v>
       </c>
       <c r="F38" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="3">
-        <v>1726.34</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3183,13 +2769,13 @@
         <v>79</v>
       </c>
       <c r="F39" s="2">
-        <v>76.000</v>
+        <v>181.000</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="3">
-        <v>7487.71</v>
+        <v>8502.32</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3209,13 +2795,13 @@
         <v>81</v>
       </c>
       <c r="F40" s="2">
-        <v>7.000</v>
+        <v>2.000</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>1314.83</v>
+        <v>4960.91</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3235,13 +2821,13 @@
         <v>83</v>
       </c>
       <c r="F41" s="2">
-        <v>4138.000</v>
+        <v>1.000</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>37809.84</v>
+        <v>1940.18</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3261,13 +2847,13 @@
         <v>85</v>
       </c>
       <c r="F42" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>144.27</v>
+        <v>2226.13</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3287,13 +2873,13 @@
         <v>87</v>
       </c>
       <c r="F43" s="2">
-        <v>2.000</v>
+        <v>264.000</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>54.09</v>
+        <v>7908.11</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3313,13 +2899,13 @@
         <v>89</v>
       </c>
       <c r="F44" s="2">
-        <v>4155.000</v>
+        <v>276.000</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>42807.99</v>
+        <v>43757.98</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3339,13 +2925,13 @@
         <v>91</v>
       </c>
       <c r="F45" s="2">
-        <v>7.000</v>
+        <v>285.000</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>80.64</v>
+        <v>159251.27</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3365,13 +2951,13 @@
         <v>93</v>
       </c>
       <c r="F46" s="2">
-        <v>7.000</v>
+        <v>3.000</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>1228.86</v>
+        <v>308.38</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3391,13 +2977,13 @@
         <v>95</v>
       </c>
       <c r="F47" s="2">
-        <v>2.000</v>
+        <v>46.000</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>58.34</v>
+        <v>2898.44</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3417,13 +3003,13 @@
         <v>97</v>
       </c>
       <c r="F48" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>223.04</v>
+        <v>603.23</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3443,13 +3029,13 @@
         <v>99</v>
       </c>
       <c r="F49" s="2">
-        <v>2.000</v>
+        <v>16.000</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>556.00</v>
+        <v>2244.02</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3469,13 +3055,13 @@
         <v>101</v>
       </c>
       <c r="F50" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="3">
-        <v>938.52</v>
+        <v>571.29</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3495,13 +3081,13 @@
         <v>103</v>
       </c>
       <c r="F51" s="2">
-        <v>15.000</v>
+        <v>10.000</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="3">
-        <v>427.57</v>
+        <v>1937.55</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3521,13 +3107,13 @@
         <v>105</v>
       </c>
       <c r="F52" s="2">
-        <v>14.000</v>
+        <v>8.000</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>623.35</v>
+        <v>2352.96</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3547,13 +3133,13 @@
         <v>107</v>
       </c>
       <c r="F53" s="2">
-        <v>13.000</v>
+        <v>7.000</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="3">
-        <v>356.52</v>
+        <v>2794.33</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3579,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>46.60</v>
+        <v>863.17</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3599,13 +3185,13 @@
         <v>111</v>
       </c>
       <c r="F55" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="3">
-        <v>10.06</v>
+        <v>295.57</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3625,13 +3211,13 @@
         <v>113</v>
       </c>
       <c r="F56" s="2">
-        <v>1.000</v>
+        <v>1403.000</v>
       </c>
       <c r="G56" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="3">
-        <v>295.04</v>
+        <v>12783.95</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3651,13 +3237,13 @@
         <v>115</v>
       </c>
       <c r="F57" s="2">
-        <v>1.000</v>
+        <v>40.000</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>473.49</v>
+        <v>641.18</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3677,13 +3263,13 @@
         <v>117</v>
       </c>
       <c r="F58" s="2">
-        <v>1.000</v>
+        <v>2800.000</v>
       </c>
       <c r="G58" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>150.52</v>
+        <v>28847.85</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3703,13 +3289,13 @@
         <v>119</v>
       </c>
       <c r="F59" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="G59" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>41.46</v>
+        <v>380.69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3729,13 +3315,13 @@
         <v>121</v>
       </c>
       <c r="F60" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>39.63</v>
+        <v>334.55</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3755,13 +3341,13 @@
         <v>123</v>
       </c>
       <c r="F61" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="3">
-        <v>36.12</v>
+        <v>1390.00</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3781,13 +3367,13 @@
         <v>125</v>
       </c>
       <c r="F62" s="2">
-        <v>2.000</v>
+        <v>25.000</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>25.31</v>
+        <v>1165.08</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3807,13 +3393,13 @@
         <v>127</v>
       </c>
       <c r="F63" s="2">
-        <v>4.000</v>
+        <v>11.000</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="3">
-        <v>99.61</v>
+        <v>1357.53</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3833,13 +3419,13 @@
         <v>129</v>
       </c>
       <c r="F64" s="2">
-        <v>1.000</v>
+        <v>16.000</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
       </c>
       <c r="H64" s="3">
-        <v>25.81</v>
+        <v>902.16</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3859,13 +3445,13 @@
         <v>131</v>
       </c>
       <c r="F65" s="2">
-        <v>18.000</v>
+        <v>29.000</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
       </c>
       <c r="H65" s="3">
-        <v>2221.41</v>
+        <v>2288.17</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3885,13 +3471,13 @@
         <v>133</v>
       </c>
       <c r="F66" s="2">
-        <v>23.000</v>
+        <v>2.000</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>1296.86</v>
+        <v>59.49</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3911,13 +3497,13 @@
         <v>135</v>
       </c>
       <c r="F67" s="2">
-        <v>1.000</v>
+        <v>37.000</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
       </c>
       <c r="H67" s="3">
-        <v>69.60</v>
+        <v>2108.34</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3934,16 +3520,16 @@
         <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2">
-        <v>39.000</v>
+        <v>4.000</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="3">
-        <v>3077.20</v>
+        <v>606.42</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3957,19 +3543,19 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F69" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
       </c>
       <c r="H69" s="3">
-        <v>25707.02</v>
+        <v>1448.47</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3983,19 +3569,19 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" s="2">
-        <v>8.000</v>
+        <v>640.000</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
       </c>
       <c r="H70" s="3">
-        <v>209.00</v>
+        <v>3326.89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4009,19 +3595,19 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F71" s="2">
-        <v>1.000</v>
+        <v>23.000</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="3">
-        <v>11.47</v>
+        <v>1359.47</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4035,19 +3621,19 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F72" s="2">
-        <v>20.000</v>
+        <v>42.000</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>594.90</v>
+        <v>5269.68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4061,19 +3647,19 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F73" s="2">
-        <v>51.000</v>
+        <v>180.000</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="3">
-        <v>2906.09</v>
+        <v>1598.47</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4087,19 +3673,19 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F74" s="2">
-        <v>5.000</v>
+        <v>15.000</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
       </c>
       <c r="H74" s="3">
-        <v>399.86</v>
+        <v>851.70</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4113,19 +3699,19 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F75" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="3">
-        <v>239.09</v>
+        <v>401.34</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4139,19 +3725,19 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F76" s="2">
-        <v>3.000</v>
+        <v>5.000</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>1170.45</v>
+        <v>837.86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4165,19 +3751,19 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F77" s="2">
-        <v>1.000</v>
+        <v>47.000</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
       </c>
       <c r="H77" s="3">
-        <v>275.00</v>
+        <v>4841.34</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4191,19 +3777,19 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F78" s="2">
-        <v>898.000</v>
+        <v>2.000</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>4667.97</v>
+        <v>495.95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4217,19 +3803,19 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F79" s="2">
-        <v>2.000</v>
+        <v>103.000</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="3">
-        <v>209.59</v>
+        <v>1913.71</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4243,19 +3829,19 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" s="2">
-        <v>56.000</v>
+        <v>1.000</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="3">
-        <v>3310.00</v>
+        <v>131.57</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4269,19 +3855,19 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F81" s="2">
-        <v>44.000</v>
+        <v>1.000</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>5520.61</v>
+        <v>72.70</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4295,19 +3881,19 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F82" s="2">
-        <v>1.000</v>
+        <v>1374.000</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="3">
-        <v>3572.22</v>
+        <v>8523.23</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4321,19 +3907,19 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F83" s="2">
-        <v>1.000</v>
+        <v>2800.000</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>4682.98</v>
+        <v>72931.63</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4347,19 +3933,19 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F84" s="2">
-        <v>180.000</v>
+        <v>5.000</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
       <c r="H84" s="3">
-        <v>1598.45</v>
+        <v>383.07</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4373,19 +3959,19 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F85" s="2">
-        <v>25.000</v>
+        <v>3.000</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="3">
-        <v>1433.36</v>
+        <v>651.70</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4399,19 +3985,19 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F86" s="2">
-        <v>13.000</v>
+        <v>3.000</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
       </c>
       <c r="H86" s="3">
-        <v>2178.42</v>
+        <v>1263.43</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4425,19 +4011,19 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F87" s="2">
-        <v>16.000</v>
+        <v>15.000</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="3">
-        <v>1648.12</v>
+        <v>2783.05</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4451,19 +4037,19 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F88" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="3">
-        <v>495.95</v>
+        <v>1008.05</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4477,19 +4063,19 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F89" s="2">
-        <v>2.000</v>
+        <v>14.000</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>263.13</v>
+        <v>1572.64</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4503,19 +4089,19 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F90" s="2">
-        <v>4.000</v>
+        <v>12.000</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
       </c>
       <c r="H90" s="3">
-        <v>497.07</v>
+        <v>5523.49</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4529,19 +4115,19 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F91" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>1334.60</v>
+        <v>3671.99</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4555,19 +4141,19 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F92" s="2">
-        <v>1.000</v>
+        <v>151.000</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="3">
-        <v>3115.88</v>
+        <v>5691.94</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4581,19 +4167,19 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F93" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="3">
-        <v>387.41</v>
+        <v>560.27</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4607,19 +4193,19 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F94" s="2">
-        <v>770.000</v>
+        <v>38.000</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>4776.46</v>
+        <v>3477.47</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4633,19 +4219,19 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F95" s="2">
-        <v>288.000</v>
+        <v>1.000</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="3">
-        <v>3140.55</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4659,19 +4245,19 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F96" s="2">
-        <v>6.000</v>
+        <v>11.000</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="3">
-        <v>3207.59</v>
+        <v>19946.36</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4685,19 +4271,19 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F97" s="2">
-        <v>447.000</v>
+        <v>1.000</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <v>9416.84</v>
+        <v>85.47</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4711,19 +4297,19 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F98" s="2">
-        <v>4066.000</v>
+        <v>2369.000</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>324050.68</v>
+        <v>326318.48</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4737,19 +4323,19 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F99" s="2">
-        <v>2368.000</v>
+        <v>1.000</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>62127.55</v>
+        <v>2980.59</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4763,19 +4349,19 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F100" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>748.67</v>
+        <v>4463.84</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4789,19 +4375,19 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F101" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>217.23</v>
+        <v>1598.31</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4815,19 +4401,19 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F102" s="2">
-        <v>43.000</v>
+        <v>20.000</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>6798.56</v>
+        <v>24666.05</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4841,19 +4427,19 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F103" s="2">
-        <v>16.000</v>
+        <v>6.000</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="3">
-        <v>2968.59</v>
+        <v>10134.33</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4867,19 +4453,19 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F104" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
       </c>
       <c r="H104" s="3">
-        <v>252.01</v>
+        <v>751.71</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4893,10 +4479,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F105" s="2">
         <v>1.000</v>
@@ -4905,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="3">
-        <v>460.29</v>
+        <v>279.59</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4919,19 +4505,19 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F106" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
       </c>
       <c r="H106" s="3">
-        <v>5507.99</v>
+        <v>740.97</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4945,10 +4531,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F107" s="2">
         <v>2.000</v>
@@ -4957,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="3">
-        <v>1479.92</v>
+        <v>902.80</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4971,19 +4557,19 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F108" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <v>1167.91</v>
+        <v>1166.57</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4997,19 +4583,19 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F109" s="2">
-        <v>6.000</v>
+        <v>8.000</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
       </c>
       <c r="H109" s="3">
-        <v>3312.79</v>
+        <v>2825.06</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5023,19 +4609,19 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F110" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="H110" s="3">
-        <v>1661.14</v>
+        <v>91.20</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5049,19 +4635,19 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F111" s="2">
-        <v>18.000</v>
+        <v>2.000</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
       </c>
       <c r="H111" s="3">
-        <v>715.94</v>
+        <v>719.47</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5075,19 +4661,19 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F112" s="2">
-        <v>1.000</v>
+        <v>514.000</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
       </c>
       <c r="H112" s="3">
-        <v>1784.99</v>
+        <v>19074.89</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5101,19 +4687,19 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F113" s="2">
-        <v>3.000</v>
+        <v>352.000</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="3">
-        <v>5439.92</v>
+        <v>23009.79</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5127,19 +4713,19 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F114" s="2">
-        <v>328.000</v>
+        <v>892.000</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>188663.39</v>
+        <v>29388.73</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5153,19 +4739,19 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F115" s="2">
-        <v>2548.000</v>
+        <v>176.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>217764.82</v>
+        <v>9043.46</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5179,19 +4765,19 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F116" s="2">
-        <v>3478.000</v>
+        <v>69.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>479076.90</v>
+        <v>7032.31</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5205,19 +4791,19 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F117" s="2">
-        <v>1.000</v>
+        <v>45.000</v>
       </c>
       <c r="G117" t="s">
         <v>5</v>
       </c>
       <c r="H117" s="3">
-        <v>2980.59</v>
+        <v>1519.40</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5231,19 +4817,19 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F118" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="G118" t="s">
         <v>5</v>
       </c>
       <c r="H118" s="3">
-        <v>12736.13</v>
+        <v>1675.75</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5257,19 +4843,19 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F119" s="2">
-        <v>2.000</v>
+        <v>4789.000</v>
       </c>
       <c r="G119" t="s">
         <v>5</v>
       </c>
       <c r="H119" s="3">
-        <v>2131.03</v>
+        <v>18515.88</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5283,10 +4869,10 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F120" s="2">
         <v>2.000</v>
@@ -5295,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="3">
-        <v>2466.60</v>
+        <v>2463.85</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5309,10 +4895,10 @@
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F121" s="2">
         <v>2.000</v>
@@ -5321,7 +4907,7 @@
         <v>5</v>
       </c>
       <c r="H121" s="3">
-        <v>2547.86</v>
+        <v>4533.88</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5335,19 +4921,19 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F122" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="3">
-        <v>521.42</v>
+        <v>6385.34</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5361,19 +4947,19 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F123" s="2">
-        <v>9.000</v>
+        <v>6.000</v>
       </c>
       <c r="G123" t="s">
         <v>5</v>
       </c>
       <c r="H123" s="3">
-        <v>3382.72</v>
+        <v>12368.67</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5387,19 +4973,19 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F124" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="3">
-        <v>2872.72</v>
+        <v>3260.53</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5413,19 +4999,19 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F125" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="3">
-        <v>3178.19</v>
+        <v>3527.49</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5439,19 +5025,19 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F126" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="3">
-        <v>262.35</v>
+        <v>6294.26</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5465,19 +5051,19 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F127" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="G127" t="s">
         <v>5</v>
       </c>
       <c r="H127" s="3">
-        <v>2518.14</v>
+        <v>4585.00</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5491,19 +5077,19 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F128" s="2">
-        <v>937.000</v>
+        <v>1.000</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
       </c>
       <c r="H128" s="3">
-        <v>35245.25</v>
+        <v>7112.72</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5517,19 +5103,19 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F129" s="2">
-        <v>31.000</v>
+        <v>71.000</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <v>1923.23</v>
+        <v>102407.91</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5543,19 +5129,19 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F130" s="2">
-        <v>21.000</v>
+        <v>562.000</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130" s="3">
-        <v>1043.61</v>
+        <v>3181.36</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5569,19 +5155,19 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F131" s="2">
-        <v>11.000</v>
+        <v>261.000</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="3">
-        <v>1121.09</v>
+        <v>2053.95</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5595,19 +5181,19 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F132" s="2">
-        <v>3.000</v>
+        <v>92.000</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
       </c>
       <c r="H132" s="3">
-        <v>192.16</v>
+        <v>1442.37</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5621,19 +5207,19 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F133" s="2">
-        <v>62.000</v>
+        <v>113.000</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>2093.40</v>
+        <v>1540.59</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5647,19 +5233,19 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F134" s="2">
-        <v>13.000</v>
+        <v>44.000</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>2420.53</v>
+        <v>1343.00</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5673,19 +5259,19 @@
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F135" s="2">
-        <v>3780.000</v>
+        <v>28.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>14614.95</v>
+        <v>3185.96</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5699,19 +5285,19 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E136" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F136" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
       </c>
       <c r="H136" s="3">
-        <v>46477.28</v>
+        <v>194.13</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5725,19 +5311,19 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F137" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>12396.89</v>
+        <v>159.15</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5751,19 +5337,19 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F138" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G138" t="s">
         <v>5</v>
       </c>
       <c r="H138" s="3">
-        <v>15963.35</v>
+        <v>499.74</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5777,19 +5363,19 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F139" s="2">
-        <v>2.000</v>
+        <v>43.000</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="3">
-        <v>3527.49</v>
+        <v>3120.30</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5803,19 +5389,19 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F140" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
       </c>
       <c r="H140" s="3">
-        <v>7112.72</v>
+        <v>2283.44</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5829,19 +5415,19 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F141" s="2">
-        <v>2.000</v>
+        <v>12.000</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
       <c r="H141" s="3">
-        <v>7424.33</v>
+        <v>5668.76</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5855,19 +5441,19 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F142" s="2">
-        <v>3.000</v>
+        <v>10.000</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
       </c>
       <c r="H142" s="3">
-        <v>1237.70</v>
+        <v>6951.09</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5881,19 +5467,19 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F143" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="3">
-        <v>12981.29</v>
+        <v>3749.58</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5907,19 +5493,19 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F144" s="2">
-        <v>1361.000</v>
+        <v>5.000</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
       </c>
       <c r="H144" s="3">
-        <v>7704.32</v>
+        <v>5800.85</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5933,19 +5519,19 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F145" s="2">
-        <v>541.000</v>
+        <v>3.000</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="3">
-        <v>4257.70</v>
+        <v>5120.09</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5959,19 +5545,19 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F146" s="2">
-        <v>9.000</v>
+        <v>5.000</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <v>141.10</v>
+        <v>1690.54</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5985,19 +5571,19 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F147" s="2">
-        <v>49.000</v>
+        <v>6.000</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="3">
-        <v>668.05</v>
+        <v>1642.41</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6011,19 +5597,19 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F148" s="2">
-        <v>26.000</v>
+        <v>20.000</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
       </c>
       <c r="H148" s="3">
-        <v>2958.39</v>
+        <v>5922.04</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6037,19 +5623,19 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F149" s="2">
-        <v>9.000</v>
+        <v>3.000</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="3">
-        <v>1747.14</v>
+        <v>162.71</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6063,19 +5649,19 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F150" s="2">
-        <v>7.000</v>
+        <v>4.000</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="3">
-        <v>557.03</v>
+        <v>419.08</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6089,19 +5675,19 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F151" s="2">
-        <v>27.000</v>
+        <v>30.000</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>5580.26</v>
+        <v>179.61</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6115,19 +5701,19 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F152" s="2">
-        <v>9.000</v>
+        <v>6.000</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="3">
-        <v>2248.82</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6141,19 +5727,19 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F153" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="3">
-        <v>207.52</v>
+        <v>374.16</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6167,19 +5753,19 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F154" s="2">
-        <v>18.000</v>
+        <v>575.000</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="3">
-        <v>11235.38</v>
+        <v>2545.17</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6193,19 +5779,19 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F155" s="2">
-        <v>7.000</v>
+        <v>16.000</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="3">
-        <v>5712.24</v>
+        <v>1204.47</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6219,19 +5805,19 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F156" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
       </c>
       <c r="H156" s="3">
-        <v>4210.13</v>
+        <v>270.71</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6245,19 +5831,19 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E157" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F157" s="2">
-        <v>4.000</v>
+        <v>25.000</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
       </c>
       <c r="H157" s="3">
-        <v>3894.16</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6271,19 +5857,19 @@
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F158" s="2">
-        <v>4.000</v>
+        <v>10.000</v>
       </c>
       <c r="G158" t="s">
         <v>5</v>
       </c>
       <c r="H158" s="3">
-        <v>3704.06</v>
+        <v>1194.56</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6297,19 +5883,19 @@
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F159" s="2">
-        <v>1.000</v>
+        <v>30.000</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
       </c>
       <c r="H159" s="3">
-        <v>338.11</v>
+        <v>3064.98</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6323,19 +5909,19 @@
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F160" s="2">
-        <v>7.000</v>
+        <v>54.000</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="3">
-        <v>1954.23</v>
+        <v>7209.49</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6349,19 +5935,19 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F161" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="3">
-        <v>558.66</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6375,19 +5961,19 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
+        <v>324</v>
+      </c>
+      <c r="E162" t="s">
         <v>323</v>
       </c>
-      <c r="E162" t="s">
-        <v>324</v>
-      </c>
       <c r="F162" s="2">
-        <v>46.000</v>
+        <v>4.000</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="3">
-        <v>1776.48</v>
+        <v>317.81</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6407,13 +5993,13 @@
         <v>326</v>
       </c>
       <c r="F163" s="2">
-        <v>13.000</v>
+        <v>6.000</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
       </c>
       <c r="H163" s="3">
-        <v>1335.73</v>
+        <v>483.20</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6433,13 +6019,13 @@
         <v>328</v>
       </c>
       <c r="F164" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="3">
-        <v>20.07</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6459,13 +6045,13 @@
         <v>330</v>
       </c>
       <c r="F165" s="2">
-        <v>14.000</v>
+        <v>1.000</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
       </c>
       <c r="H165" s="3">
-        <v>559.92</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6485,13 +6071,13 @@
         <v>332</v>
       </c>
       <c r="F166" s="2">
-        <v>6.000</v>
+        <v>1.000</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="H166" s="3">
-        <v>224.49</v>
+        <v>266.42</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6511,13 +6097,13 @@
         <v>334</v>
       </c>
       <c r="F167" s="2">
-        <v>861.000</v>
+        <v>8.000</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="3">
-        <v>3634.44</v>
+        <v>1141.60</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6537,13 +6123,13 @@
         <v>336</v>
       </c>
       <c r="F168" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="3">
-        <v>376.40</v>
+        <v>1028.70</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6563,13 +6149,13 @@
         <v>338</v>
       </c>
       <c r="F169" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="3">
-        <v>270.71</v>
+        <v>543.81</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6589,13 +6175,13 @@
         <v>340</v>
       </c>
       <c r="F170" s="2">
-        <v>10.000</v>
+        <v>2.000</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>2565.61</v>
+        <v>412.45</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6615,13 +6201,13 @@
         <v>342</v>
       </c>
       <c r="F171" s="2">
-        <v>238.000</v>
+        <v>1.000</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>1106.70</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6641,13 +6227,13 @@
         <v>344</v>
       </c>
       <c r="F172" s="2">
-        <v>40.000</v>
+        <v>9.000</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>1359.10</v>
+        <v>214.33</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6667,13 +6253,13 @@
         <v>346</v>
       </c>
       <c r="F173" s="2">
-        <v>6.000</v>
+        <v>15.000</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>17833.95</v>
+        <v>3032.79</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6693,13 +6279,13 @@
         <v>348</v>
       </c>
       <c r="F174" s="2">
-        <v>3.000</v>
+        <v>1990.000</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
       </c>
       <c r="H174" s="3">
-        <v>2111.01</v>
+        <v>37262.79</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6719,13 +6305,13 @@
         <v>350</v>
       </c>
       <c r="F175" s="2">
-        <v>7.000</v>
+        <v>3432.000</v>
       </c>
       <c r="G175" t="s">
-        <v>5</v>
+        <v>351</v>
       </c>
       <c r="H175" s="3">
-        <v>715.16</v>
+        <v>5131.65</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6739,19 +6325,19 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E176" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F176" s="2">
-        <v>25.000</v>
+        <v>103.000</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
       </c>
       <c r="H176" s="3">
-        <v>3337.73</v>
+        <v>3671.30</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6765,19 +6351,19 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E177" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F177" s="2">
-        <v>1.000</v>
+        <v>13.000</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
       </c>
       <c r="H177" s="3">
-        <v>92.01</v>
+        <v>2487.40</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6791,19 +6377,19 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E178" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F178" s="2">
-        <v>1.000</v>
+        <v>658.000</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
       </c>
       <c r="H178" s="3">
-        <v>1055.94</v>
+        <v>114898.06</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6817,19 +6403,19 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E179" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F179" s="2">
-        <v>42.000</v>
+        <v>7.000</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
       </c>
       <c r="H179" s="3">
-        <v>3323.51</v>
+        <v>1219.43</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6843,19 +6429,19 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E180" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F180" s="2">
-        <v>41.000</v>
+        <v>11.000</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
       </c>
       <c r="H180" s="3">
-        <v>2465.60</v>
+        <v>145.79</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6869,19 +6455,19 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E181" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F181" s="2">
-        <v>12.000</v>
+        <v>22.000</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
       </c>
       <c r="H181" s="3">
-        <v>3197.00</v>
+        <v>10363.87</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6895,19 +6481,19 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F182" s="2">
-        <v>4.000</v>
+        <v>98.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>585.81</v>
+        <v>45447.92</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6921,19 +6507,19 @@
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E183" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F183" s="2">
-        <v>2.000</v>
+        <v>26.000</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
       </c>
       <c r="H183" s="3">
-        <v>685.80</v>
+        <v>1587.82</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6947,19 +6533,19 @@
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E184" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F184" s="2">
-        <v>21.000</v>
+        <v>88.000</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
       <c r="H184" s="3">
-        <v>1122.74</v>
+        <v>12845.15</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6973,10 +6559,10 @@
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E185" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F185" s="2">
         <v>1.000</v>
@@ -6985,7 +6571,7 @@
         <v>5</v>
       </c>
       <c r="H185" s="3">
-        <v>390.16</v>
+        <v>1218.18</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6999,19 +6585,19 @@
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E186" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F186" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
       <c r="H186" s="3">
-        <v>2197.64</v>
+        <v>1720.00</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7025,19 +6611,19 @@
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E187" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F187" s="2">
-        <v>15.000</v>
+        <v>184.000</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="3">
-        <v>1190.74</v>
+        <v>6147.25</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7051,19 +6637,19 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E188" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F188" s="2">
-        <v>8.000</v>
+        <v>28.000</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
       </c>
       <c r="H188" s="3">
-        <v>1522.51</v>
+        <v>1119.31</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7077,19 +6663,19 @@
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E189" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F189" s="2">
-        <v>2.000</v>
+        <v>459.000</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
       </c>
       <c r="H189" s="3">
-        <v>289.49</v>
+        <v>7175.19</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7103,19 +6689,19 @@
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E190" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F190" s="2">
-        <v>1.000</v>
+        <v>59.000</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
       <c r="H190" s="3">
-        <v>119.58</v>
+        <v>1003.06</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7129,19 +6715,19 @@
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E191" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F191" s="2">
-        <v>2.000</v>
+        <v>502.000</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
       </c>
       <c r="H191" s="3">
-        <v>676.65</v>
+        <v>10170.52</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7155,19 +6741,19 @@
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E192" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F192" s="2">
-        <v>8.000</v>
+        <v>44.000</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
       <c r="H192" s="3">
-        <v>359.90</v>
+        <v>1021.95</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7181,19 +6767,19 @@
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E193" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F193" s="2">
-        <v>5.000</v>
+        <v>96.000</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
       </c>
       <c r="H193" s="3">
-        <v>77.87</v>
+        <v>6840.48</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7207,19 +6793,19 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E194" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F194" s="2">
-        <v>2.000</v>
+        <v>22.000</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
       <c r="H194" s="3">
-        <v>48.54</v>
+        <v>2460.83</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7233,19 +6819,19 @@
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E195" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F195" s="2">
-        <v>53.000</v>
+        <v>1.000</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
       </c>
       <c r="H195" s="3">
-        <v>1262.15</v>
+        <v>189.22</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7259,19 +6845,19 @@
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E196" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F196" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
       </c>
       <c r="H196" s="3">
-        <v>76.03</v>
+        <v>1201.67</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7285,19 +6871,19 @@
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E197" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F197" s="2">
-        <v>1609.000</v>
+        <v>299.000</v>
       </c>
       <c r="G197" t="s">
         <v>5</v>
       </c>
       <c r="H197" s="3">
-        <v>30128.62</v>
+        <v>20704.25</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7311,19 +6897,19 @@
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E198" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F198" s="2">
-        <v>440354.890</v>
+        <v>2.000</v>
       </c>
       <c r="G198" t="s">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="H198" s="3">
-        <v>658437.37</v>
+        <v>651.09</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7343,13 +6929,13 @@
         <v>399</v>
       </c>
       <c r="F199" s="2">
-        <v>67.000</v>
+        <v>1.000</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
       </c>
       <c r="H199" s="3">
-        <v>2388.13</v>
+        <v>562.67</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7369,13 +6955,13 @@
         <v>401</v>
       </c>
       <c r="F200" s="2">
-        <v>985.000</v>
+        <v>1.000</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
       <c r="H200" s="3">
-        <v>188468.76</v>
+        <v>1125.55</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7395,13 +6981,13 @@
         <v>403</v>
       </c>
       <c r="F201" s="2">
-        <v>586.000</v>
+        <v>5.000</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="3">
-        <v>102325.64</v>
+        <v>718.30</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7421,13 +7007,13 @@
         <v>405</v>
       </c>
       <c r="F202" s="2">
-        <v>34.000</v>
+        <v>1.000</v>
       </c>
       <c r="G202" t="s">
         <v>5</v>
       </c>
       <c r="H202" s="3">
-        <v>5743.54</v>
+        <v>266.26</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7447,13 +7033,13 @@
         <v>407</v>
       </c>
       <c r="F203" s="2">
-        <v>297.000</v>
+        <v>1.000</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
       </c>
       <c r="H203" s="3">
-        <v>13589.23</v>
+        <v>257.36</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7473,13 +7059,13 @@
         <v>409</v>
       </c>
       <c r="F204" s="2">
-        <v>258.000</v>
+        <v>2.000</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
       </c>
       <c r="H204" s="3">
-        <v>6303.81</v>
+        <v>961.64</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7499,13 +7085,13 @@
         <v>411</v>
       </c>
       <c r="F205" s="2">
-        <v>113.000</v>
+        <v>1.000</v>
       </c>
       <c r="G205" t="s">
         <v>5</v>
       </c>
       <c r="H205" s="3">
-        <v>52404.23</v>
+        <v>726.22</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7525,13 +7111,13 @@
         <v>413</v>
       </c>
       <c r="F206" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
       </c>
       <c r="H206" s="3">
-        <v>244.28</v>
+        <v>662.53</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7551,13 +7137,13 @@
         <v>415</v>
       </c>
       <c r="F207" s="2">
-        <v>16.000</v>
+        <v>2.000</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
       </c>
       <c r="H207" s="3">
-        <v>2335.48</v>
+        <v>493.11</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7577,13 +7163,13 @@
         <v>417</v>
       </c>
       <c r="F208" s="2">
-        <v>11.000</v>
+        <v>7.000</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
       </c>
       <c r="H208" s="3">
-        <v>13400.03</v>
+        <v>885.89</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7603,13 +7189,13 @@
         <v>419</v>
       </c>
       <c r="F209" s="2">
-        <v>104.000</v>
+        <v>41.000</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
       </c>
       <c r="H209" s="3">
-        <v>1086.28</v>
+        <v>5647.65</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7629,13 +7215,13 @@
         <v>421</v>
       </c>
       <c r="F210" s="2">
-        <v>134.000</v>
+        <v>1.000</v>
       </c>
       <c r="G210" t="s">
         <v>5</v>
       </c>
       <c r="H210" s="3">
-        <v>1862.60</v>
+        <v>4700.00</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7655,13 +7241,13 @@
         <v>423</v>
       </c>
       <c r="F211" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
       </c>
       <c r="H211" s="3">
-        <v>494.31</v>
+        <v>8560.17</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7681,13 +7267,13 @@
         <v>425</v>
       </c>
       <c r="F212" s="2">
-        <v>15.000</v>
+        <v>40.000</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
       </c>
       <c r="H212" s="3">
-        <v>1463.71</v>
+        <v>506.58</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7707,13 +7293,13 @@
         <v>427</v>
       </c>
       <c r="F213" s="2">
-        <v>19.000</v>
+        <v>1.000</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
       </c>
       <c r="H213" s="3">
-        <v>1378.97</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7733,13 +7319,13 @@
         <v>429</v>
       </c>
       <c r="F214" s="2">
-        <v>5.000</v>
+        <v>11.000</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
       </c>
       <c r="H214" s="3">
-        <v>528.88</v>
+        <v>418.00</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7759,13 +7345,13 @@
         <v>431</v>
       </c>
       <c r="F215" s="2">
-        <v>4.000</v>
+        <v>24.000</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
       </c>
       <c r="H215" s="3">
-        <v>829.77</v>
+        <v>1584.75</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7785,13 +7371,13 @@
         <v>433</v>
       </c>
       <c r="F216" s="2">
-        <v>6.000</v>
+        <v>1.000</v>
       </c>
       <c r="G216" t="s">
         <v>5</v>
       </c>
       <c r="H216" s="3">
-        <v>5140.98</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7811,13 +7397,13 @@
         <v>435</v>
       </c>
       <c r="F217" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
       </c>
       <c r="H217" s="3">
-        <v>3375.18</v>
+        <v>685.11</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7837,13 +7423,13 @@
         <v>437</v>
       </c>
       <c r="F218" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
       </c>
       <c r="H218" s="3">
-        <v>1057.64</v>
+        <v>8149.76</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7863,13 +7449,13 @@
         <v>439</v>
       </c>
       <c r="F219" s="2">
-        <v>152.000</v>
+        <v>4.800</v>
       </c>
       <c r="G219" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H219" s="3">
-        <v>5078.16</v>
+        <v>1822.34</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7883,19 +7469,19 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
+        <v>441</v>
+      </c>
+      <c r="E220" t="s">
+        <v>442</v>
+      </c>
+      <c r="F220" s="2">
+        <v>16.000</v>
+      </c>
+      <c r="G220" t="s">
         <v>440</v>
       </c>
-      <c r="E220" t="s">
-        <v>441</v>
-      </c>
-      <c r="F220" s="2">
-        <v>4.000</v>
-      </c>
-      <c r="G220" t="s">
-        <v>5</v>
-      </c>
       <c r="H220" s="3">
-        <v>159.90</v>
+        <v>7011.29</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7909,19 +7495,19 @@
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E221" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F221" s="2">
-        <v>79.000</v>
+        <v>17.000</v>
       </c>
       <c r="G221" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H221" s="3">
-        <v>1234.94</v>
+        <v>2938.94</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7935,19 +7521,19 @@
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E222" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F222" s="2">
-        <v>18.000</v>
+        <v>184.000</v>
       </c>
       <c r="G222" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H222" s="3">
-        <v>306.02</v>
+        <v>39969.93</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7961,19 +7547,19 @@
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E223" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F223" s="2">
-        <v>74.000</v>
+        <v>1.090</v>
       </c>
       <c r="G223" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H223" s="3">
-        <v>1499.24</v>
+        <v>250.66</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7987,19 +7573,19 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E224" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F224" s="2">
-        <v>28.000</v>
+        <v>20.300</v>
       </c>
       <c r="G224" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H224" s="3">
-        <v>650.33</v>
+        <v>6816.84</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8013,19 +7599,19 @@
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E225" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F225" s="2">
-        <v>70.000</v>
+        <v>13.000</v>
       </c>
       <c r="G225" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H225" s="3">
-        <v>4987.85</v>
+        <v>3437.72</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8039,19 +7625,19 @@
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E226" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F226" s="2">
-        <v>12.000</v>
+        <v>22.000</v>
       </c>
       <c r="G226" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H226" s="3">
-        <v>1342.27</v>
+        <v>2084.93</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8065,19 +7651,19 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E227" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F227" s="2">
-        <v>176.000</v>
+        <v>345.400</v>
       </c>
       <c r="G227" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H227" s="3">
-        <v>8935.86</v>
+        <v>3460.95</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8091,19 +7677,19 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E228" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F228" s="2">
-        <v>236.000</v>
+        <v>99.000</v>
       </c>
       <c r="G228" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H228" s="3">
-        <v>10132.06</v>
+        <v>2142.16</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8117,19 +7703,19 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E229" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F229" s="2">
-        <v>548.000</v>
+        <v>11.000</v>
       </c>
       <c r="G229" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H229" s="3">
-        <v>37946.26</v>
+        <v>974.64</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8143,19 +7729,19 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E230" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F230" s="2">
-        <v>1.000</v>
+        <v>84.000</v>
       </c>
       <c r="G230" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H230" s="3">
-        <v>472.35</v>
+        <v>13440.76</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8169,19 +7755,19 @@
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E231" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F231" s="2">
-        <v>2.000</v>
+        <v>168.620</v>
       </c>
       <c r="G231" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H231" s="3">
-        <v>625.12</v>
+        <v>8798.84</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8195,19 +7781,19 @@
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E232" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F232" s="2">
-        <v>1.000</v>
+        <v>47.250</v>
       </c>
       <c r="G232" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H232" s="3">
-        <v>562.37</v>
+        <v>5148.59</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8221,19 +7807,19 @@
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E233" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F233" s="2">
-        <v>4.000</v>
+        <v>22433.300</v>
       </c>
       <c r="G233" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H233" s="3">
-        <v>2262.24</v>
+        <v>50916.71</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8247,19 +7833,19 @@
         <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E234" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F234" s="2">
-        <v>1.000</v>
+        <v>2883.960</v>
       </c>
       <c r="G234" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H234" s="3">
-        <v>884.45</v>
+        <v>12311.83</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8273,19 +7859,19 @@
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E235" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F235" s="2">
-        <v>2.000</v>
+        <v>29.390</v>
       </c>
       <c r="G235" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H235" s="3">
-        <v>1558.08</v>
+        <v>15217.18</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8299,19 +7885,19 @@
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E236" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F236" s="2">
-        <v>1.000</v>
+        <v>1198.180</v>
       </c>
       <c r="G236" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H236" s="3">
-        <v>4193.32</v>
+        <v>45050.39</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8325,19 +7911,19 @@
         <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E237" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F237" s="2">
-        <v>10.000</v>
+        <v>32.610</v>
       </c>
       <c r="G237" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H237" s="3">
-        <v>2049.23</v>
+        <v>333.10</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8351,19 +7937,19 @@
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E238" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F238" s="2">
-        <v>3.000</v>
+        <v>35.000</v>
       </c>
       <c r="G238" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H238" s="3">
-        <v>261.34</v>
+        <v>783.60</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8377,19 +7963,19 @@
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E239" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F239" s="2">
-        <v>4.000</v>
+        <v>1503.980</v>
       </c>
       <c r="G239" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H239" s="3">
-        <v>574.64</v>
+        <v>47249.72</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8403,19 +7989,19 @@
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E240" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F240" s="2">
-        <v>15.000</v>
+        <v>290.430</v>
       </c>
       <c r="G240" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H240" s="3">
-        <v>3049.88</v>
+        <v>26647.45</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8429,19 +8015,19 @@
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E241" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F241" s="2">
-        <v>8.000</v>
+        <v>59.100</v>
       </c>
       <c r="G241" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H241" s="3">
-        <v>2130.04</v>
+        <v>9271.17</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8455,19 +8041,19 @@
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E242" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F242" s="2">
-        <v>4.000</v>
+        <v>241.900</v>
       </c>
       <c r="G242" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H242" s="3">
-        <v>1048.02</v>
+        <v>7817.79</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8481,19 +8067,19 @@
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E243" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F243" s="2">
-        <v>1.000</v>
+        <v>154.000</v>
       </c>
       <c r="G243" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H243" s="3">
-        <v>257.36</v>
+        <v>2851.98</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8507,19 +8093,19 @@
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E244" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F244" s="2">
-        <v>2.000</v>
+        <v>0.690</v>
       </c>
       <c r="G244" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H244" s="3">
-        <v>238.65</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8533,19 +8119,19 @@
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E245" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F245" s="2">
-        <v>5.000</v>
+        <v>52.790</v>
       </c>
       <c r="G245" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H245" s="3">
-        <v>2000.83</v>
+        <v>1134.03</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8559,19 +8145,19 @@
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E246" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F246" s="2">
-        <v>4.000</v>
+        <v>78.310</v>
       </c>
       <c r="G246" t="s">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="H246" s="3">
-        <v>1267.35</v>
+        <v>7083.14</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8585,19 +8171,19 @@
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E247" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F247" s="2">
-        <v>2.000</v>
+        <v>228.000</v>
       </c>
       <c r="G247" t="s">
         <v>5</v>
       </c>
       <c r="H247" s="3">
-        <v>961.64</v>
+        <v>1334.95</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8611,19 +8197,19 @@
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E248" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F248" s="2">
-        <v>1.000</v>
+        <v>75.000</v>
       </c>
       <c r="G248" t="s">
         <v>5</v>
       </c>
       <c r="H248" s="3">
-        <v>352.04</v>
+        <v>413.17</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8637,19 +8223,19 @@
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E249" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F249" s="2">
-        <v>1.000</v>
+        <v>4355.000</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
       </c>
       <c r="H249" s="3">
-        <v>366.72</v>
+        <v>10932.56</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8663,19 +8249,19 @@
         <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E250" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F250" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G250" t="s">
         <v>5</v>
       </c>
       <c r="H250" s="3">
-        <v>917.47</v>
+        <v>3203.83</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8689,19 +8275,19 @@
         <v>2</v>
       </c>
       <c r="D251" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E251" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F251" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G251" t="s">
         <v>5</v>
       </c>
       <c r="H251" s="3">
-        <v>1489.56</v>
+        <v>556.74</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8715,19 +8301,19 @@
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E252" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F252" s="2">
-        <v>2.000</v>
+        <v>11.000</v>
       </c>
       <c r="G252" t="s">
         <v>5</v>
       </c>
       <c r="H252" s="3">
-        <v>193.42</v>
+        <v>4741.17</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8741,19 +8327,19 @@
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E253" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F253" s="2">
-        <v>9.000</v>
+        <v>6.000</v>
       </c>
       <c r="G253" t="s">
         <v>5</v>
       </c>
       <c r="H253" s="3">
-        <v>780.61</v>
+        <v>2371.80</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8767,19 +8353,19 @@
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E254" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F254" s="2">
-        <v>30.000</v>
+        <v>2.000</v>
       </c>
       <c r="G254" t="s">
         <v>5</v>
       </c>
       <c r="H254" s="3">
-        <v>7396.64</v>
+        <v>2323.99</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8793,19 +8379,19 @@
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E255" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F255" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="G255" t="s">
         <v>5</v>
       </c>
       <c r="H255" s="3">
-        <v>1265.56</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8819,19 +8405,19 @@
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E256" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F256" s="2">
-        <v>21.000</v>
+        <v>6.000</v>
       </c>
       <c r="G256" t="s">
         <v>5</v>
       </c>
       <c r="H256" s="3">
-        <v>2892.70</v>
+        <v>1694.29</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8845,19 +8431,19 @@
         <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E257" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F257" s="2">
-        <v>1.000</v>
+        <v>38.000</v>
       </c>
       <c r="G257" t="s">
         <v>5</v>
       </c>
       <c r="H257" s="3">
-        <v>545.88</v>
+        <v>17563.39</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8871,19 +8457,19 @@
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E258" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F258" s="2">
-        <v>4.000</v>
+        <v>14.000</v>
       </c>
       <c r="G258" t="s">
         <v>5</v>
       </c>
       <c r="H258" s="3">
-        <v>2982.22</v>
+        <v>7926.12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8897,19 +8483,19 @@
         <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E259" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F259" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G259" t="s">
         <v>5</v>
       </c>
       <c r="H259" s="3">
-        <v>2622.09</v>
+        <v>3443.46</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8923,19 +8509,19 @@
         <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E260" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F260" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
       </c>
       <c r="H260" s="3">
-        <v>6733.09</v>
+        <v>6821.40</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8949,19 +8535,19 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E261" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F261" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G261" t="s">
         <v>5</v>
       </c>
       <c r="H261" s="3">
-        <v>12317.52</v>
+        <v>7220.40</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8975,19 +8561,19 @@
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E262" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F262" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
       </c>
       <c r="H262" s="3">
-        <v>5747.70</v>
+        <v>2566.22</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9001,19 +8587,19 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E263" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F263" s="2">
-        <v>1.000</v>
+        <v>18.000</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
       </c>
       <c r="H263" s="3">
-        <v>8727.40</v>
+        <v>8283.69</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9027,19 +8613,19 @@
         <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E264" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F264" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G264" t="s">
         <v>5</v>
       </c>
       <c r="H264" s="3">
-        <v>4995.36</v>
+        <v>3943.24</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9053,19 +8639,19 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E265" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F265" s="2">
-        <v>14.000</v>
+        <v>5.000</v>
       </c>
       <c r="G265" t="s">
         <v>5</v>
       </c>
       <c r="H265" s="3">
-        <v>177.30</v>
+        <v>2725.89</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9079,1813 +8665,19 @@
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E266" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F266" s="2">
-        <v>14.000</v>
+        <v>3.000</v>
       </c>
       <c r="G266" t="s">
         <v>5</v>
       </c>
       <c r="H266" s="3">
-        <v>532.00</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1</v>
-      </c>
-      <c r="C267" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" t="s">
-        <v>534</v>
-      </c>
-      <c r="E267" t="s">
-        <v>535</v>
-      </c>
-      <c r="F267" s="2">
-        <v>17.000</v>
-      </c>
-      <c r="G267" t="s">
-        <v>5</v>
-      </c>
-      <c r="H267" s="3">
-        <v>1122.53</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>2</v>
-      </c>
-      <c r="D268" t="s">
-        <v>536</v>
-      </c>
-      <c r="E268" t="s">
-        <v>537</v>
-      </c>
-      <c r="F268" s="2">
-        <v>7.000</v>
-      </c>
-      <c r="G268" t="s">
-        <v>5</v>
-      </c>
-      <c r="H268" s="3">
-        <v>490.00</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>0</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1</v>
-      </c>
-      <c r="C269" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" t="s">
-        <v>538</v>
-      </c>
-      <c r="E269" t="s">
-        <v>539</v>
-      </c>
-      <c r="F269" s="2">
-        <v>9.000</v>
-      </c>
-      <c r="G269" t="s">
-        <v>5</v>
-      </c>
-      <c r="H269" s="3">
-        <v>658.82</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="s">
-        <v>0</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1</v>
-      </c>
-      <c r="C270" t="s">
-        <v>2</v>
-      </c>
-      <c r="D270" t="s">
-        <v>540</v>
-      </c>
-      <c r="E270" t="s">
-        <v>541</v>
-      </c>
-      <c r="F270" s="2">
-        <v>7.000</v>
-      </c>
-      <c r="G270" t="s">
-        <v>5</v>
-      </c>
-      <c r="H270" s="3">
-        <v>594.91</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1</v>
-      </c>
-      <c r="C271" t="s">
-        <v>2</v>
-      </c>
-      <c r="D271" t="s">
-        <v>542</v>
-      </c>
-      <c r="E271" t="s">
-        <v>543</v>
-      </c>
-      <c r="F271" s="2">
-        <v>2.000</v>
-      </c>
-      <c r="G271" t="s">
-        <v>5</v>
-      </c>
-      <c r="H271" s="3">
-        <v>725.39</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
-        <v>2</v>
-      </c>
-      <c r="D272" t="s">
-        <v>544</v>
-      </c>
-      <c r="E272" t="s">
-        <v>545</v>
-      </c>
-      <c r="F272" s="2">
-        <v>6.000</v>
-      </c>
-      <c r="G272" t="s">
-        <v>5</v>
-      </c>
-      <c r="H272" s="3">
-        <v>2089.82</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
-        <v>2</v>
-      </c>
-      <c r="D273" t="s">
-        <v>546</v>
-      </c>
-      <c r="E273" t="s">
-        <v>547</v>
-      </c>
-      <c r="F273" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G273" t="s">
-        <v>5</v>
-      </c>
-      <c r="H273" s="3">
-        <v>722.95</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>0</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1</v>
-      </c>
-      <c r="C274" t="s">
-        <v>2</v>
-      </c>
-      <c r="D274" t="s">
-        <v>548</v>
-      </c>
-      <c r="E274" t="s">
-        <v>549</v>
-      </c>
-      <c r="F274" s="2">
-        <v>2.000</v>
-      </c>
-      <c r="G274" t="s">
-        <v>5</v>
-      </c>
-      <c r="H274" s="3">
-        <v>3157.92</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1</v>
-      </c>
-      <c r="C275" t="s">
-        <v>2</v>
-      </c>
-      <c r="D275" t="s">
-        <v>550</v>
-      </c>
-      <c r="E275" t="s">
-        <v>551</v>
-      </c>
-      <c r="F275" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G275" t="s">
-        <v>5</v>
-      </c>
-      <c r="H275" s="3">
-        <v>733.37</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>0</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
-        <v>2</v>
-      </c>
-      <c r="D276" t="s">
-        <v>552</v>
-      </c>
-      <c r="E276" t="s">
-        <v>553</v>
-      </c>
-      <c r="F276" s="2">
-        <v>5.000</v>
-      </c>
-      <c r="G276" t="s">
-        <v>5</v>
-      </c>
-      <c r="H276" s="3">
-        <v>892.37</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1</v>
-      </c>
-      <c r="C277" t="s">
-        <v>2</v>
-      </c>
-      <c r="D277" t="s">
-        <v>554</v>
-      </c>
-      <c r="E277" t="s">
-        <v>555</v>
-      </c>
-      <c r="F277" s="2">
-        <v>9.000</v>
-      </c>
-      <c r="G277" t="s">
-        <v>5</v>
-      </c>
-      <c r="H277" s="3">
-        <v>5851.42</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1</v>
-      </c>
-      <c r="C278" t="s">
-        <v>2</v>
-      </c>
-      <c r="D278" t="s">
-        <v>556</v>
-      </c>
-      <c r="E278" t="s">
-        <v>557</v>
-      </c>
-      <c r="F278" s="2">
-        <v>4.000</v>
-      </c>
-      <c r="G278" t="s">
-        <v>5</v>
-      </c>
-      <c r="H278" s="3">
-        <v>2472.84</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>0</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" t="s">
-        <v>558</v>
-      </c>
-      <c r="E279" t="s">
-        <v>559</v>
-      </c>
-      <c r="F279" s="2">
-        <v>250.000</v>
-      </c>
-      <c r="G279" t="s">
-        <v>5</v>
-      </c>
-      <c r="H279" s="3">
-        <v>10307.95</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>0</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" t="s">
-        <v>560</v>
-      </c>
-      <c r="E280" t="s">
-        <v>561</v>
-      </c>
-      <c r="F280" s="2">
-        <v>54.000</v>
-      </c>
-      <c r="G280" t="s">
-        <v>562</v>
-      </c>
-      <c r="H280" s="3">
-        <v>13072.01</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1</v>
-      </c>
-      <c r="C281" t="s">
-        <v>2</v>
-      </c>
-      <c r="D281" t="s">
-        <v>563</v>
-      </c>
-      <c r="E281" t="s">
-        <v>564</v>
-      </c>
-      <c r="F281" s="2">
-        <v>91.140</v>
-      </c>
-      <c r="G281" t="s">
-        <v>562</v>
-      </c>
-      <c r="H281" s="3">
-        <v>23635.38</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>0</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1</v>
-      </c>
-      <c r="C282" t="s">
-        <v>2</v>
-      </c>
-      <c r="D282" t="s">
-        <v>565</v>
-      </c>
-      <c r="E282" t="s">
-        <v>566</v>
-      </c>
-      <c r="F282" s="2">
-        <v>12.000</v>
-      </c>
-      <c r="G282" t="s">
-        <v>562</v>
-      </c>
-      <c r="H282" s="3">
-        <v>3876.07</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1</v>
-      </c>
-      <c r="C283" t="s">
-        <v>2</v>
-      </c>
-      <c r="D283" t="s">
-        <v>567</v>
-      </c>
-      <c r="E283" t="s">
-        <v>568</v>
-      </c>
-      <c r="F283" s="2">
-        <v>7.000</v>
-      </c>
-      <c r="G283" t="s">
-        <v>562</v>
-      </c>
-      <c r="H283" s="3">
-        <v>2657.58</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>0</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
-        <v>2</v>
-      </c>
-      <c r="D284" t="s">
-        <v>569</v>
-      </c>
-      <c r="E284" t="s">
-        <v>570</v>
-      </c>
-      <c r="F284" s="2">
-        <v>10.000</v>
-      </c>
-      <c r="G284" t="s">
-        <v>562</v>
-      </c>
-      <c r="H284" s="3">
-        <v>4382.06</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1</v>
-      </c>
-      <c r="C285" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" t="s">
-        <v>571</v>
-      </c>
-      <c r="E285" t="s">
-        <v>572</v>
-      </c>
-      <c r="F285" s="2">
-        <v>719.500</v>
-      </c>
-      <c r="G285" t="s">
-        <v>562</v>
-      </c>
-      <c r="H285" s="3">
-        <v>156295.44</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1</v>
-      </c>
-      <c r="C286" t="s">
-        <v>2</v>
-      </c>
-      <c r="D286" t="s">
-        <v>573</v>
-      </c>
-      <c r="E286" t="s">
-        <v>574</v>
-      </c>
-      <c r="F286" s="2">
-        <v>6.000</v>
-      </c>
-      <c r="G286" t="s">
-        <v>562</v>
-      </c>
-      <c r="H286" s="3">
-        <v>1379.76</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1</v>
-      </c>
-      <c r="C287" t="s">
-        <v>2</v>
-      </c>
-      <c r="D287" t="s">
-        <v>575</v>
-      </c>
-      <c r="E287" t="s">
-        <v>576</v>
-      </c>
-      <c r="F287" s="2">
-        <v>21.730</v>
-      </c>
-      <c r="G287" t="s">
-        <v>562</v>
-      </c>
-      <c r="H287" s="3">
-        <v>2244.35</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1</v>
-      </c>
-      <c r="C288" t="s">
-        <v>2</v>
-      </c>
-      <c r="D288" t="s">
-        <v>577</v>
-      </c>
-      <c r="E288" t="s">
-        <v>578</v>
-      </c>
-      <c r="F288" s="2">
-        <v>647.890</v>
-      </c>
-      <c r="G288" t="s">
-        <v>562</v>
-      </c>
-      <c r="H288" s="3">
-        <v>22467.33</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>0</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>2</v>
-      </c>
-      <c r="D289" t="s">
-        <v>579</v>
-      </c>
-      <c r="E289" t="s">
-        <v>580</v>
-      </c>
-      <c r="F289" s="2">
-        <v>3047.020</v>
-      </c>
-      <c r="G289" t="s">
-        <v>562</v>
-      </c>
-      <c r="H289" s="3">
-        <v>30531.51</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1</v>
-      </c>
-      <c r="C290" t="s">
-        <v>2</v>
-      </c>
-      <c r="D290" t="s">
-        <v>581</v>
-      </c>
-      <c r="E290" t="s">
-        <v>582</v>
-      </c>
-      <c r="F290" s="2">
-        <v>1457.120</v>
-      </c>
-      <c r="G290" t="s">
-        <v>562</v>
-      </c>
-      <c r="H290" s="3">
-        <v>31529.07</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
-        <v>0</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1</v>
-      </c>
-      <c r="C291" t="s">
-        <v>2</v>
-      </c>
-      <c r="D291" t="s">
-        <v>583</v>
-      </c>
-      <c r="E291" t="s">
-        <v>584</v>
-      </c>
-      <c r="F291" s="2">
-        <v>26.000</v>
-      </c>
-      <c r="G291" t="s">
-        <v>562</v>
-      </c>
-      <c r="H291" s="3">
-        <v>7144.80</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>0</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1</v>
-      </c>
-      <c r="C292" t="s">
-        <v>2</v>
-      </c>
-      <c r="D292" t="s">
-        <v>585</v>
-      </c>
-      <c r="E292" t="s">
-        <v>586</v>
-      </c>
-      <c r="F292" s="2">
-        <v>1294.390</v>
-      </c>
-      <c r="G292" t="s">
-        <v>562</v>
-      </c>
-      <c r="H292" s="3">
-        <v>67543.16</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" t="s">
-        <v>0</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1</v>
-      </c>
-      <c r="C293" t="s">
-        <v>2</v>
-      </c>
-      <c r="D293" t="s">
-        <v>587</v>
-      </c>
-      <c r="E293" t="s">
-        <v>588</v>
-      </c>
-      <c r="F293" s="2">
-        <v>129.560</v>
-      </c>
-      <c r="G293" t="s">
-        <v>562</v>
-      </c>
-      <c r="H293" s="3">
-        <v>2358.32</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
-        <v>0</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1</v>
-      </c>
-      <c r="C294" t="s">
-        <v>2</v>
-      </c>
-      <c r="D294" t="s">
-        <v>589</v>
-      </c>
-      <c r="E294" t="s">
-        <v>590</v>
-      </c>
-      <c r="F294" s="2">
-        <v>1578.050</v>
-      </c>
-      <c r="G294" t="s">
-        <v>562</v>
-      </c>
-      <c r="H294" s="3">
-        <v>171951.85</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>0</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1</v>
-      </c>
-      <c r="C295" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" t="s">
-        <v>591</v>
-      </c>
-      <c r="E295" t="s">
-        <v>592</v>
-      </c>
-      <c r="F295" s="2">
-        <v>30039.060</v>
-      </c>
-      <c r="G295" t="s">
-        <v>562</v>
-      </c>
-      <c r="H295" s="3">
-        <v>68179.58</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1</v>
-      </c>
-      <c r="C296" t="s">
-        <v>2</v>
-      </c>
-      <c r="D296" t="s">
-        <v>593</v>
-      </c>
-      <c r="E296" t="s">
-        <v>594</v>
-      </c>
-      <c r="F296" s="2">
-        <v>1134.040</v>
-      </c>
-      <c r="G296" t="s">
-        <v>562</v>
-      </c>
-      <c r="H296" s="3">
-        <v>4841.30</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
-        <v>0</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1</v>
-      </c>
-      <c r="C297" t="s">
-        <v>2</v>
-      </c>
-      <c r="D297" t="s">
-        <v>595</v>
-      </c>
-      <c r="E297" t="s">
-        <v>596</v>
-      </c>
-      <c r="F297" s="2">
-        <v>1.810</v>
-      </c>
-      <c r="G297" t="s">
-        <v>562</v>
-      </c>
-      <c r="H297" s="3">
-        <v>362.00</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>0</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1</v>
-      </c>
-      <c r="C298" t="s">
-        <v>2</v>
-      </c>
-      <c r="D298" t="s">
-        <v>597</v>
-      </c>
-      <c r="E298" t="s">
-        <v>598</v>
-      </c>
-      <c r="F298" s="2">
-        <v>425.000</v>
-      </c>
-      <c r="G298" t="s">
-        <v>562</v>
-      </c>
-      <c r="H298" s="3">
-        <v>93104.69</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
-        <v>0</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1</v>
-      </c>
-      <c r="C299" t="s">
-        <v>2</v>
-      </c>
-      <c r="D299" t="s">
-        <v>599</v>
-      </c>
-      <c r="E299" t="s">
-        <v>600</v>
-      </c>
-      <c r="F299" s="2">
-        <v>222.000</v>
-      </c>
-      <c r="G299" t="s">
-        <v>562</v>
-      </c>
-      <c r="H299" s="3">
-        <v>39238.07</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" t="s">
-        <v>0</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1</v>
-      </c>
-      <c r="C300" t="s">
-        <v>2</v>
-      </c>
-      <c r="D300" t="s">
-        <v>601</v>
-      </c>
-      <c r="E300" t="s">
-        <v>602</v>
-      </c>
-      <c r="F300" s="2">
-        <v>192.560</v>
-      </c>
-      <c r="G300" t="s">
-        <v>562</v>
-      </c>
-      <c r="H300" s="3">
-        <v>99701.27</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>0</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1</v>
-      </c>
-      <c r="C301" t="s">
-        <v>2</v>
-      </c>
-      <c r="D301" t="s">
-        <v>603</v>
-      </c>
-      <c r="E301" t="s">
-        <v>604</v>
-      </c>
-      <c r="F301" s="2">
-        <v>819.000</v>
-      </c>
-      <c r="G301" t="s">
-        <v>562</v>
-      </c>
-      <c r="H301" s="3">
-        <v>633332.70</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>0</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1</v>
-      </c>
-      <c r="C302" t="s">
-        <v>2</v>
-      </c>
-      <c r="D302" t="s">
-        <v>605</v>
-      </c>
-      <c r="E302" t="s">
-        <v>606</v>
-      </c>
-      <c r="F302" s="2">
-        <v>2364.210</v>
-      </c>
-      <c r="G302" t="s">
-        <v>562</v>
-      </c>
-      <c r="H302" s="3">
-        <v>88891.97</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>0</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1</v>
-      </c>
-      <c r="C303" t="s">
-        <v>2</v>
-      </c>
-      <c r="D303" t="s">
-        <v>607</v>
-      </c>
-      <c r="E303" t="s">
-        <v>608</v>
-      </c>
-      <c r="F303" s="2">
-        <v>3.000</v>
-      </c>
-      <c r="G303" t="s">
-        <v>562</v>
-      </c>
-      <c r="H303" s="3">
-        <v>344.89</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>0</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1</v>
-      </c>
-      <c r="C304" t="s">
-        <v>2</v>
-      </c>
-      <c r="D304" t="s">
-        <v>609</v>
-      </c>
-      <c r="E304" t="s">
-        <v>610</v>
-      </c>
-      <c r="F304" s="2">
-        <v>24.700</v>
-      </c>
-      <c r="G304" t="s">
-        <v>562</v>
-      </c>
-      <c r="H304" s="3">
-        <v>1646.75</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1</v>
-      </c>
-      <c r="C305" t="s">
-        <v>2</v>
-      </c>
-      <c r="D305" t="s">
-        <v>611</v>
-      </c>
-      <c r="E305" t="s">
-        <v>612</v>
-      </c>
-      <c r="F305" s="2">
-        <v>49.000</v>
-      </c>
-      <c r="G305" t="s">
-        <v>562</v>
-      </c>
-      <c r="H305" s="3">
-        <v>5423.81</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>0</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1</v>
-      </c>
-      <c r="C306" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" t="s">
-        <v>613</v>
-      </c>
-      <c r="E306" t="s">
-        <v>614</v>
-      </c>
-      <c r="F306" s="2">
-        <v>7135.530</v>
-      </c>
-      <c r="G306" t="s">
-        <v>562</v>
-      </c>
-      <c r="H306" s="3">
-        <v>72882.70</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>0</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1</v>
-      </c>
-      <c r="C307" t="s">
-        <v>2</v>
-      </c>
-      <c r="D307" t="s">
-        <v>615</v>
-      </c>
-      <c r="E307" t="s">
-        <v>616</v>
-      </c>
-      <c r="F307" s="2">
-        <v>4369.140</v>
-      </c>
-      <c r="G307" t="s">
-        <v>562</v>
-      </c>
-      <c r="H307" s="3">
-        <v>97819.07</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>0</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1</v>
-      </c>
-      <c r="C308" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" t="s">
-        <v>617</v>
-      </c>
-      <c r="E308" t="s">
-        <v>618</v>
-      </c>
-      <c r="F308" s="2">
-        <v>1416.040</v>
-      </c>
-      <c r="G308" t="s">
-        <v>562</v>
-      </c>
-      <c r="H308" s="3">
-        <v>44486.96</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>0</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1</v>
-      </c>
-      <c r="C309" t="s">
-        <v>2</v>
-      </c>
-      <c r="D309" t="s">
-        <v>619</v>
-      </c>
-      <c r="E309" t="s">
-        <v>620</v>
-      </c>
-      <c r="F309" s="2">
-        <v>527.570</v>
-      </c>
-      <c r="G309" t="s">
-        <v>562</v>
-      </c>
-      <c r="H309" s="3">
-        <v>48405.45</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>0</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1</v>
-      </c>
-      <c r="C310" t="s">
-        <v>2</v>
-      </c>
-      <c r="D310" t="s">
-        <v>621</v>
-      </c>
-      <c r="E310" t="s">
-        <v>622</v>
-      </c>
-      <c r="F310" s="2">
-        <v>85.500</v>
-      </c>
-      <c r="G310" t="s">
-        <v>562</v>
-      </c>
-      <c r="H310" s="3">
-        <v>13412.61</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
-        <v>0</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1</v>
-      </c>
-      <c r="C311" t="s">
-        <v>2</v>
-      </c>
-      <c r="D311" t="s">
-        <v>623</v>
-      </c>
-      <c r="E311" t="s">
-        <v>624</v>
-      </c>
-      <c r="F311" s="2">
-        <v>988.950</v>
-      </c>
-      <c r="G311" t="s">
-        <v>562</v>
-      </c>
-      <c r="H311" s="3">
-        <v>28833.62</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" t="s">
-        <v>0</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1</v>
-      </c>
-      <c r="C312" t="s">
-        <v>2</v>
-      </c>
-      <c r="D312" t="s">
-        <v>625</v>
-      </c>
-      <c r="E312" t="s">
-        <v>626</v>
-      </c>
-      <c r="F312" s="2">
-        <v>0.030</v>
-      </c>
-      <c r="G312" t="s">
-        <v>562</v>
-      </c>
-      <c r="H312" s="3">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>0</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1</v>
-      </c>
-      <c r="C313" t="s">
-        <v>2</v>
-      </c>
-      <c r="D313" t="s">
-        <v>627</v>
-      </c>
-      <c r="E313" t="s">
-        <v>628</v>
-      </c>
-      <c r="F313" s="2">
-        <v>97.000</v>
-      </c>
-      <c r="G313" t="s">
-        <v>5</v>
-      </c>
-      <c r="H313" s="3">
-        <v>197.39</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="A314" t="s">
-        <v>0</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1</v>
-      </c>
-      <c r="C314" t="s">
-        <v>2</v>
-      </c>
-      <c r="D314" t="s">
-        <v>629</v>
-      </c>
-      <c r="E314" t="s">
-        <v>630</v>
-      </c>
-      <c r="F314" s="2">
-        <v>30.000</v>
-      </c>
-      <c r="G314" t="s">
-        <v>5</v>
-      </c>
-      <c r="H314" s="3">
-        <v>175.65</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="A315" t="s">
-        <v>0</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1</v>
-      </c>
-      <c r="C315" t="s">
-        <v>2</v>
-      </c>
-      <c r="D315" t="s">
-        <v>631</v>
-      </c>
-      <c r="E315" t="s">
-        <v>632</v>
-      </c>
-      <c r="F315" s="2">
-        <v>4184.000</v>
-      </c>
-      <c r="G315" t="s">
-        <v>5</v>
-      </c>
-      <c r="H315" s="3">
-        <v>10503.28</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>0</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1</v>
-      </c>
-      <c r="C316" t="s">
-        <v>2</v>
-      </c>
-      <c r="D316" t="s">
-        <v>633</v>
-      </c>
-      <c r="E316" t="s">
-        <v>634</v>
-      </c>
-      <c r="F316" s="2">
-        <v>15.000</v>
-      </c>
-      <c r="G316" t="s">
-        <v>5</v>
-      </c>
-      <c r="H316" s="3">
-        <v>8351.11</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" t="s">
-        <v>0</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1</v>
-      </c>
-      <c r="C317" t="s">
-        <v>2</v>
-      </c>
-      <c r="D317" t="s">
-        <v>635</v>
-      </c>
-      <c r="E317" t="s">
-        <v>636</v>
-      </c>
-      <c r="F317" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G317" t="s">
-        <v>5</v>
-      </c>
-      <c r="H317" s="3">
-        <v>431.02</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" t="s">
-        <v>0</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1</v>
-      </c>
-      <c r="C318" t="s">
-        <v>2</v>
-      </c>
-      <c r="D318" t="s">
-        <v>637</v>
-      </c>
-      <c r="E318" t="s">
-        <v>638</v>
-      </c>
-      <c r="F318" s="2">
-        <v>22.000</v>
-      </c>
-      <c r="G318" t="s">
-        <v>5</v>
-      </c>
-      <c r="H318" s="3">
-        <v>8696.59</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>0</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1</v>
-      </c>
-      <c r="C319" t="s">
-        <v>2</v>
-      </c>
-      <c r="D319" t="s">
-        <v>639</v>
-      </c>
-      <c r="E319" t="s">
-        <v>640</v>
-      </c>
-      <c r="F319" s="2">
-        <v>4.000</v>
-      </c>
-      <c r="G319" t="s">
-        <v>5</v>
-      </c>
-      <c r="H319" s="3">
-        <v>3200.77</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="A320" t="s">
-        <v>0</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1</v>
-      </c>
-      <c r="C320" t="s">
-        <v>2</v>
-      </c>
-      <c r="D320" t="s">
-        <v>641</v>
-      </c>
-      <c r="E320" t="s">
-        <v>642</v>
-      </c>
-      <c r="F320" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G320" t="s">
-        <v>5</v>
-      </c>
-      <c r="H320" s="3">
-        <v>1161.99</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="A321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1</v>
-      </c>
-      <c r="C321" t="s">
-        <v>2</v>
-      </c>
-      <c r="D321" t="s">
-        <v>643</v>
-      </c>
-      <c r="E321" t="s">
-        <v>644</v>
-      </c>
-      <c r="F321" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G321" t="s">
-        <v>5</v>
-      </c>
-      <c r="H321" s="3">
-        <v>6585.02</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1</v>
-      </c>
-      <c r="C322" t="s">
-        <v>2</v>
-      </c>
-      <c r="D322" t="s">
-        <v>645</v>
-      </c>
-      <c r="E322" t="s">
-        <v>646</v>
-      </c>
-      <c r="F322" s="2">
-        <v>42.000</v>
-      </c>
-      <c r="G322" t="s">
-        <v>5</v>
-      </c>
-      <c r="H322" s="3">
-        <v>11860.04</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="A323" t="s">
-        <v>0</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1</v>
-      </c>
-      <c r="C323" t="s">
-        <v>2</v>
-      </c>
-      <c r="D323" t="s">
-        <v>647</v>
-      </c>
-      <c r="E323" t="s">
-        <v>648</v>
-      </c>
-      <c r="F323" s="2">
-        <v>2.000</v>
-      </c>
-      <c r="G323" t="s">
-        <v>5</v>
-      </c>
-      <c r="H323" s="3">
-        <v>924.39</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="A324" t="s">
-        <v>0</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1</v>
-      </c>
-      <c r="C324" t="s">
-        <v>2</v>
-      </c>
-      <c r="D324" t="s">
-        <v>649</v>
-      </c>
-      <c r="E324" t="s">
-        <v>650</v>
-      </c>
-      <c r="F324" s="2">
-        <v>2.000</v>
-      </c>
-      <c r="G324" t="s">
-        <v>5</v>
-      </c>
-      <c r="H324" s="3">
-        <v>1132.30</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="A325" t="s">
-        <v>0</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1</v>
-      </c>
-      <c r="C325" t="s">
-        <v>2</v>
-      </c>
-      <c r="D325" t="s">
-        <v>651</v>
-      </c>
-      <c r="E325" t="s">
-        <v>652</v>
-      </c>
-      <c r="F325" s="2">
-        <v>13.000</v>
-      </c>
-      <c r="G325" t="s">
-        <v>5</v>
-      </c>
-      <c r="H325" s="3">
-        <v>12214.88</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" t="s">
-        <v>0</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1</v>
-      </c>
-      <c r="C326" t="s">
-        <v>2</v>
-      </c>
-      <c r="D326" t="s">
-        <v>653</v>
-      </c>
-      <c r="E326" t="s">
-        <v>654</v>
-      </c>
-      <c r="F326" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G326" t="s">
-        <v>5</v>
-      </c>
-      <c r="H326" s="3">
-        <v>1721.73</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="A327" t="s">
-        <v>0</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1</v>
-      </c>
-      <c r="C327" t="s">
-        <v>2</v>
-      </c>
-      <c r="D327" t="s">
-        <v>655</v>
-      </c>
-      <c r="E327" t="s">
-        <v>656</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G327" t="s">
-        <v>5</v>
-      </c>
-      <c r="H327" s="3">
-        <v>1705.35</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" t="s">
-        <v>0</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1</v>
-      </c>
-      <c r="C328" t="s">
-        <v>2</v>
-      </c>
-      <c r="D328" t="s">
-        <v>657</v>
-      </c>
-      <c r="E328" t="s">
-        <v>658</v>
-      </c>
-      <c r="F328" s="2">
-        <v>2.000</v>
-      </c>
-      <c r="G328" t="s">
-        <v>5</v>
-      </c>
-      <c r="H328" s="3">
-        <v>7220.40</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="A329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1</v>
-      </c>
-      <c r="C329" t="s">
-        <v>2</v>
-      </c>
-      <c r="D329" t="s">
-        <v>659</v>
-      </c>
-      <c r="E329" t="s">
-        <v>660</v>
-      </c>
-      <c r="F329" s="2">
-        <v>3.000</v>
-      </c>
-      <c r="G329" t="s">
-        <v>5</v>
-      </c>
-      <c r="H329" s="3">
-        <v>27085.68</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="A330" t="s">
-        <v>0</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1</v>
-      </c>
-      <c r="C330" t="s">
-        <v>2</v>
-      </c>
-      <c r="D330" t="s">
-        <v>661</v>
-      </c>
-      <c r="E330" t="s">
-        <v>662</v>
-      </c>
-      <c r="F330" s="2">
-        <v>30.000</v>
-      </c>
-      <c r="G330" t="s">
-        <v>5</v>
-      </c>
-      <c r="H330" s="3">
-        <v>10998.07</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1</v>
-      </c>
-      <c r="C331" t="s">
-        <v>2</v>
-      </c>
-      <c r="D331" t="s">
-        <v>663</v>
-      </c>
-      <c r="E331" t="s">
-        <v>664</v>
-      </c>
-      <c r="F331" s="2">
-        <v>37.000</v>
-      </c>
-      <c r="G331" t="s">
-        <v>5</v>
-      </c>
-      <c r="H331" s="3">
-        <v>17027.58</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" t="s">
-        <v>0</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1</v>
-      </c>
-      <c r="C332" t="s">
-        <v>2</v>
-      </c>
-      <c r="D332" t="s">
-        <v>665</v>
-      </c>
-      <c r="E332" t="s">
-        <v>666</v>
-      </c>
-      <c r="F332" s="2">
-        <v>11.000</v>
-      </c>
-      <c r="G332" t="s">
-        <v>5</v>
-      </c>
-      <c r="H332" s="3">
-        <v>6196.52</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="A333" t="s">
-        <v>0</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1</v>
-      </c>
-      <c r="C333" t="s">
-        <v>2</v>
-      </c>
-      <c r="D333" t="s">
-        <v>667</v>
-      </c>
-      <c r="E333" t="s">
-        <v>668</v>
-      </c>
-      <c r="F333" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G333" t="s">
-        <v>5</v>
-      </c>
-      <c r="H333" s="3">
-        <v>2002.48</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" t="s">
-        <v>0</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1</v>
-      </c>
-      <c r="C334" t="s">
-        <v>2</v>
-      </c>
-      <c r="D334" t="s">
-        <v>669</v>
-      </c>
-      <c r="E334" t="s">
-        <v>670</v>
-      </c>
-      <c r="F334" s="2">
-        <v>9.000</v>
-      </c>
-      <c r="G334" t="s">
-        <v>5</v>
-      </c>
-      <c r="H334" s="3">
-        <v>4906.61</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="A335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1</v>
-      </c>
-      <c r="C335" t="s">
-        <v>2</v>
-      </c>
-      <c r="D335" t="s">
-        <v>671</v>
-      </c>
-      <c r="E335" t="s">
-        <v>672</v>
-      </c>
-      <c r="F335" s="2">
-        <v>1.000</v>
-      </c>
-      <c r="G335" t="s">
-        <v>5</v>
-      </c>
-      <c r="H335" s="3">
-        <v>377.72</v>
+        <v>3602.06</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -4771,13 +4771,13 @@
         <v>233</v>
       </c>
       <c r="F116" s="2">
-        <v>69.000</v>
+        <v>67.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>7032.31</v>
+        <v>6828.47</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6305,13 +6305,13 @@
         <v>350</v>
       </c>
       <c r="F175" s="2">
-        <v>3432.000</v>
+        <v>1332.000</v>
       </c>
       <c r="G175" t="s">
         <v>351</v>
       </c>
       <c r="H175" s="3">
-        <v>5131.65</v>
+        <v>1991.65</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6487,13 +6487,13 @@
         <v>365</v>
       </c>
       <c r="F182" s="2">
-        <v>98.000</v>
+        <v>97.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>45447.92</v>
+        <v>44984.17</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7969,13 +7969,13 @@
         <v>480</v>
       </c>
       <c r="F239" s="2">
-        <v>1503.980</v>
+        <v>1488.860</v>
       </c>
       <c r="G239" t="s">
         <v>440</v>
       </c>
       <c r="H239" s="3">
-        <v>47249.72</v>
+        <v>46774.71</v>
       </c>
     </row>
     <row r="240" spans="1:8">

--- a/sheets/estoque.XLSX
+++ b/sheets/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="541">
   <si>
     <t>4600041302</t>
   </si>
@@ -593,12 +593,6 @@
   </si>
   <si>
     <t>HIDRANTE SUBT C/BASE FLANG DN 75 SIMPLES</t>
-  </si>
-  <si>
-    <t>50000108</t>
-  </si>
-  <si>
-    <t>HIDRO UNIJATO DN20 QN0,75 M³/H - PRE-EQ</t>
   </si>
   <si>
     <t>50000530</t>
@@ -1746,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1766,28 +1760,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4277,13 +4271,13 @@
         <v>195</v>
       </c>
       <c r="F97" s="2">
-        <v>1.000</v>
+        <v>2369.000</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <v>85.47</v>
+        <v>326318.48</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4303,13 +4297,13 @@
         <v>197</v>
       </c>
       <c r="F98" s="2">
-        <v>2369.000</v>
+        <v>1.000</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>326318.48</v>
+        <v>2980.59</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4335,7 +4329,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>2980.59</v>
+        <v>4463.84</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4355,13 +4349,13 @@
         <v>201</v>
       </c>
       <c r="F100" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>4463.84</v>
+        <v>1598.31</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4381,13 +4375,13 @@
         <v>203</v>
       </c>
       <c r="F101" s="2">
-        <v>3.000</v>
+        <v>20.000</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>1598.31</v>
+        <v>24666.05</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4407,13 +4401,13 @@
         <v>205</v>
       </c>
       <c r="F102" s="2">
-        <v>20.000</v>
+        <v>6.000</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>24666.05</v>
+        <v>10134.33</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4433,13 +4427,13 @@
         <v>207</v>
       </c>
       <c r="F103" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="3">
-        <v>10134.33</v>
+        <v>751.71</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4459,13 +4453,13 @@
         <v>209</v>
       </c>
       <c r="F104" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
       </c>
       <c r="H104" s="3">
-        <v>751.71</v>
+        <v>279.59</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4485,13 +4479,13 @@
         <v>211</v>
       </c>
       <c r="F105" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
       </c>
       <c r="H105" s="3">
-        <v>279.59</v>
+        <v>740.97</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4517,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="3">
-        <v>740.97</v>
+        <v>902.80</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4543,7 +4537,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="3">
-        <v>902.80</v>
+        <v>1166.57</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4563,13 +4557,13 @@
         <v>217</v>
       </c>
       <c r="F108" s="2">
-        <v>2.000</v>
+        <v>8.000</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <v>1166.57</v>
+        <v>2825.06</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4589,13 +4583,13 @@
         <v>219</v>
       </c>
       <c r="F109" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
       </c>
       <c r="H109" s="3">
-        <v>2825.06</v>
+        <v>91.20</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4615,13 +4609,13 @@
         <v>221</v>
       </c>
       <c r="F110" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="H110" s="3">
-        <v>91.20</v>
+        <v>719.47</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4641,13 +4635,13 @@
         <v>223</v>
       </c>
       <c r="F111" s="2">
-        <v>2.000</v>
+        <v>514.000</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
       </c>
       <c r="H111" s="3">
-        <v>719.47</v>
+        <v>19074.89</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4667,13 +4661,13 @@
         <v>225</v>
       </c>
       <c r="F112" s="2">
-        <v>514.000</v>
+        <v>352.000</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
       </c>
       <c r="H112" s="3">
-        <v>19074.89</v>
+        <v>23009.79</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4693,13 +4687,13 @@
         <v>227</v>
       </c>
       <c r="F113" s="2">
-        <v>352.000</v>
+        <v>892.000</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="3">
-        <v>23009.79</v>
+        <v>29388.73</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4719,13 +4713,13 @@
         <v>229</v>
       </c>
       <c r="F114" s="2">
-        <v>892.000</v>
+        <v>176.000</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="3">
-        <v>29388.73</v>
+        <v>9043.46</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4745,13 +4739,13 @@
         <v>231</v>
       </c>
       <c r="F115" s="2">
-        <v>176.000</v>
+        <v>67.000</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
       </c>
       <c r="H115" s="3">
-        <v>9043.46</v>
+        <v>6828.47</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4771,13 +4765,13 @@
         <v>233</v>
       </c>
       <c r="F116" s="2">
-        <v>67.000</v>
+        <v>45.000</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="3">
-        <v>6828.47</v>
+        <v>1519.40</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4797,13 +4791,13 @@
         <v>235</v>
       </c>
       <c r="F117" s="2">
-        <v>45.000</v>
+        <v>9.000</v>
       </c>
       <c r="G117" t="s">
         <v>5</v>
       </c>
       <c r="H117" s="3">
-        <v>1519.40</v>
+        <v>1675.75</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4823,13 +4817,13 @@
         <v>237</v>
       </c>
       <c r="F118" s="2">
-        <v>9.000</v>
+        <v>4788.000</v>
       </c>
       <c r="G118" t="s">
         <v>5</v>
       </c>
       <c r="H118" s="3">
-        <v>1675.75</v>
+        <v>18512.01</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4849,13 +4843,13 @@
         <v>239</v>
       </c>
       <c r="F119" s="2">
-        <v>4789.000</v>
+        <v>2.000</v>
       </c>
       <c r="G119" t="s">
         <v>5</v>
       </c>
       <c r="H119" s="3">
-        <v>18515.88</v>
+        <v>2463.85</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4881,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="3">
-        <v>2463.85</v>
+        <v>4533.88</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4901,13 +4895,13 @@
         <v>243</v>
       </c>
       <c r="F121" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G121" t="s">
         <v>5</v>
       </c>
       <c r="H121" s="3">
-        <v>4533.88</v>
+        <v>6385.34</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4927,13 +4921,13 @@
         <v>245</v>
       </c>
       <c r="F122" s="2">
-        <v>4.000</v>
+        <v>6.000</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="3">
-        <v>6385.34</v>
+        <v>12368.67</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4953,13 +4947,13 @@
         <v>247</v>
       </c>
       <c r="F123" s="2">
-        <v>6.000</v>
+        <v>3.000</v>
       </c>
       <c r="G123" t="s">
         <v>5</v>
       </c>
       <c r="H123" s="3">
-        <v>12368.67</v>
+        <v>3260.53</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4979,13 +4973,13 @@
         <v>249</v>
       </c>
       <c r="F124" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="3">
-        <v>3260.53</v>
+        <v>3527.49</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5005,13 +4999,13 @@
         <v>251</v>
       </c>
       <c r="F125" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="3">
-        <v>3527.49</v>
+        <v>6294.26</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5031,13 +5025,13 @@
         <v>253</v>
       </c>
       <c r="F126" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="3">
-        <v>6294.26</v>
+        <v>4585.00</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5063,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="3">
-        <v>4585.00</v>
+        <v>7112.72</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5083,13 +5077,13 @@
         <v>257</v>
       </c>
       <c r="F128" s="2">
-        <v>1.000</v>
+        <v>71.000</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
       </c>
       <c r="H128" s="3">
-        <v>7112.72</v>
+        <v>102407.91</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5109,13 +5103,13 @@
         <v>259</v>
       </c>
       <c r="F129" s="2">
-        <v>71.000</v>
+        <v>562.000</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <v>102407.91</v>
+        <v>3181.36</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5135,13 +5129,13 @@
         <v>261</v>
       </c>
       <c r="F130" s="2">
-        <v>562.000</v>
+        <v>261.000</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130" s="3">
-        <v>3181.36</v>
+        <v>2053.95</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5161,13 +5155,13 @@
         <v>263</v>
       </c>
       <c r="F131" s="2">
-        <v>261.000</v>
+        <v>92.000</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="3">
-        <v>2053.95</v>
+        <v>1442.37</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5187,13 +5181,13 @@
         <v>265</v>
       </c>
       <c r="F132" s="2">
-        <v>92.000</v>
+        <v>113.000</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
       </c>
       <c r="H132" s="3">
-        <v>1442.37</v>
+        <v>1540.59</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5213,13 +5207,13 @@
         <v>267</v>
       </c>
       <c r="F133" s="2">
-        <v>113.000</v>
+        <v>44.000</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
       </c>
       <c r="H133" s="3">
-        <v>1540.59</v>
+        <v>1343.00</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5239,13 +5233,13 @@
         <v>269</v>
       </c>
       <c r="F134" s="2">
-        <v>44.000</v>
+        <v>28.000</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>1343.00</v>
+        <v>3185.96</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5265,13 +5259,13 @@
         <v>271</v>
       </c>
       <c r="F135" s="2">
-        <v>28.000</v>
+        <v>1.000</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>3185.96</v>
+        <v>194.13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5291,13 +5285,13 @@
         <v>273</v>
       </c>
       <c r="F136" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
       </c>
       <c r="H136" s="3">
-        <v>194.13</v>
+        <v>159.15</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5323,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>159.15</v>
+        <v>499.74</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5343,13 +5337,13 @@
         <v>277</v>
       </c>
       <c r="F138" s="2">
-        <v>2.000</v>
+        <v>43.000</v>
       </c>
       <c r="G138" t="s">
         <v>5</v>
       </c>
       <c r="H138" s="3">
-        <v>499.74</v>
+        <v>3120.30</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5369,13 +5363,13 @@
         <v>279</v>
       </c>
       <c r="F139" s="2">
-        <v>43.000</v>
+        <v>15.000</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="3">
-        <v>3120.30</v>
+        <v>2283.44</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5395,13 +5389,13 @@
         <v>281</v>
       </c>
       <c r="F140" s="2">
-        <v>15.000</v>
+        <v>12.000</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
       </c>
       <c r="H140" s="3">
-        <v>2283.44</v>
+        <v>5668.76</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5421,13 +5415,13 @@
         <v>283</v>
       </c>
       <c r="F141" s="2">
-        <v>12.000</v>
+        <v>10.000</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
       </c>
       <c r="H141" s="3">
-        <v>5668.76</v>
+        <v>6951.09</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5447,13 +5441,13 @@
         <v>285</v>
       </c>
       <c r="F142" s="2">
-        <v>10.000</v>
+        <v>4.000</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
       </c>
       <c r="H142" s="3">
-        <v>6951.09</v>
+        <v>3749.58</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5473,13 +5467,13 @@
         <v>287</v>
       </c>
       <c r="F143" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="3">
-        <v>3749.58</v>
+        <v>5800.85</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5499,13 +5493,13 @@
         <v>289</v>
       </c>
       <c r="F144" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
       </c>
       <c r="H144" s="3">
-        <v>5800.85</v>
+        <v>5120.09</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5525,13 +5519,13 @@
         <v>291</v>
       </c>
       <c r="F145" s="2">
-        <v>3.000</v>
+        <v>5.000</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="3">
-        <v>5120.09</v>
+        <v>1690.54</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5551,13 +5545,13 @@
         <v>293</v>
       </c>
       <c r="F146" s="2">
-        <v>5.000</v>
+        <v>6.000</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <v>1690.54</v>
+        <v>1642.41</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5577,13 +5571,13 @@
         <v>295</v>
       </c>
       <c r="F147" s="2">
-        <v>6.000</v>
+        <v>20.000</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="3">
-        <v>1642.41</v>
+        <v>5922.04</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5603,13 +5597,13 @@
         <v>297</v>
       </c>
       <c r="F148" s="2">
-        <v>20.000</v>
+        <v>3.000</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
       </c>
       <c r="H148" s="3">
-        <v>5922.04</v>
+        <v>162.71</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5629,13 +5623,13 @@
         <v>299</v>
       </c>
       <c r="F149" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="3">
-        <v>162.71</v>
+        <v>419.08</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5655,13 +5649,13 @@
         <v>301</v>
       </c>
       <c r="F150" s="2">
-        <v>4.000</v>
+        <v>30.000</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="3">
-        <v>419.08</v>
+        <v>179.61</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5681,13 +5675,13 @@
         <v>303</v>
       </c>
       <c r="F151" s="2">
-        <v>30.000</v>
+        <v>6.000</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>179.61</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5707,13 +5701,13 @@
         <v>305</v>
       </c>
       <c r="F152" s="2">
-        <v>6.000</v>
+        <v>10.000</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="3">
-        <v>98.34</v>
+        <v>374.16</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5733,13 +5727,13 @@
         <v>307</v>
       </c>
       <c r="F153" s="2">
-        <v>10.000</v>
+        <v>575.000</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="3">
-        <v>374.16</v>
+        <v>2545.17</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5759,13 +5753,13 @@
         <v>309</v>
       </c>
       <c r="F154" s="2">
-        <v>575.000</v>
+        <v>16.000</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="3">
-        <v>2545.17</v>
+        <v>1204.47</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5785,13 +5779,13 @@
         <v>311</v>
       </c>
       <c r="F155" s="2">
-        <v>16.000</v>
+        <v>2.000</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="3">
-        <v>1204.47</v>
+        <v>270.71</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5811,13 +5805,13 @@
         <v>313</v>
       </c>
       <c r="F156" s="2">
-        <v>2.000</v>
+        <v>25.000</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
       </c>
       <c r="H156" s="3">
-        <v>270.71</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5837,13 +5831,13 @@
         <v>315</v>
       </c>
       <c r="F157" s="2">
-        <v>25.000</v>
+        <v>10.000</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
       </c>
       <c r="H157" s="3">
-        <v>116.25</v>
+        <v>1194.56</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5863,13 +5857,13 @@
         <v>317</v>
       </c>
       <c r="F158" s="2">
-        <v>10.000</v>
+        <v>30.000</v>
       </c>
       <c r="G158" t="s">
         <v>5</v>
       </c>
       <c r="H158" s="3">
-        <v>1194.56</v>
+        <v>3064.98</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5889,13 +5883,13 @@
         <v>319</v>
       </c>
       <c r="F159" s="2">
-        <v>30.000</v>
+        <v>54.000</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
       </c>
       <c r="H159" s="3">
-        <v>3064.98</v>
+        <v>7209.49</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5915,13 +5909,13 @@
         <v>321</v>
       </c>
       <c r="F160" s="2">
-        <v>54.000</v>
+        <v>1.000</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="3">
-        <v>7209.49</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5938,16 +5932,16 @@
         <v>322</v>
       </c>
       <c r="E161" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F161" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="3">
-        <v>40.71</v>
+        <v>317.81</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5961,19 +5955,19 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
+        <v>323</v>
+      </c>
+      <c r="E162" t="s">
         <v>324</v>
       </c>
-      <c r="E162" t="s">
-        <v>323</v>
-      </c>
       <c r="F162" s="2">
-        <v>4.000</v>
+        <v>6.000</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="3">
-        <v>317.81</v>
+        <v>483.20</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5999,7 +5993,7 @@
         <v>5</v>
       </c>
       <c r="H163" s="3">
-        <v>483.20</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6019,13 +6013,13 @@
         <v>328</v>
       </c>
       <c r="F164" s="2">
-        <v>6.000</v>
+        <v>1.000</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="3">
-        <v>45.92</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6051,7 +6045,7 @@
         <v>5</v>
       </c>
       <c r="H165" s="3">
-        <v>303.12</v>
+        <v>266.42</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6071,13 +6065,13 @@
         <v>332</v>
       </c>
       <c r="F166" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
       </c>
       <c r="H166" s="3">
-        <v>266.42</v>
+        <v>1141.60</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6097,13 +6091,13 @@
         <v>334</v>
       </c>
       <c r="F167" s="2">
-        <v>8.000</v>
+        <v>3.000</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="3">
-        <v>1141.60</v>
+        <v>1028.70</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6123,13 +6117,13 @@
         <v>336</v>
       </c>
       <c r="F168" s="2">
-        <v>3.000</v>
+        <v>9.000</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="3">
-        <v>1028.70</v>
+        <v>543.81</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6149,13 +6143,13 @@
         <v>338</v>
       </c>
       <c r="F169" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="3">
-        <v>543.81</v>
+        <v>412.45</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6175,13 +6169,13 @@
         <v>340</v>
       </c>
       <c r="F170" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>412.45</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6201,13 +6195,13 @@
         <v>342</v>
       </c>
       <c r="F171" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>24.27</v>
+        <v>214.33</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6227,13 +6221,13 @@
         <v>344</v>
       </c>
       <c r="F172" s="2">
-        <v>9.000</v>
+        <v>15.000</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>214.33</v>
+        <v>3032.79</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6253,13 +6247,13 @@
         <v>346</v>
       </c>
       <c r="F173" s="2">
-        <v>15.000</v>
+        <v>1990.000</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>3032.79</v>
+        <v>37262.79</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6279,13 +6273,13 @@
         <v>348</v>
       </c>
       <c r="F174" s="2">
-        <v>1990.000</v>
+        <v>1332.000</v>
       </c>
       <c r="G174" t="s">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="H174" s="3">
-        <v>37262.79</v>
+        <v>1991.65</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6299,19 +6293,19 @@
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E175" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F175" s="2">
-        <v>1332.000</v>
+        <v>103.000</v>
       </c>
       <c r="G175" t="s">
-        <v>351</v>
+        <v>5</v>
       </c>
       <c r="H175" s="3">
-        <v>1991.65</v>
+        <v>3671.30</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6331,13 +6325,13 @@
         <v>353</v>
       </c>
       <c r="F176" s="2">
-        <v>103.000</v>
+        <v>13.000</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
       </c>
       <c r="H176" s="3">
-        <v>3671.30</v>
+        <v>2487.40</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6357,13 +6351,13 @@
         <v>355</v>
       </c>
       <c r="F177" s="2">
-        <v>13.000</v>
+        <v>658.000</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
       </c>
       <c r="H177" s="3">
-        <v>2487.40</v>
+        <v>114898.06</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6383,13 +6377,13 @@
         <v>357</v>
       </c>
       <c r="F178" s="2">
-        <v>658.000</v>
+        <v>7.000</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
       </c>
       <c r="H178" s="3">
-        <v>114898.06</v>
+        <v>1219.43</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6409,13 +6403,13 @@
         <v>359</v>
       </c>
       <c r="F179" s="2">
-        <v>7.000</v>
+        <v>11.000</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
       </c>
       <c r="H179" s="3">
-        <v>1219.43</v>
+        <v>145.79</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6435,13 +6429,13 @@
         <v>361</v>
       </c>
       <c r="F180" s="2">
-        <v>11.000</v>
+        <v>22.000</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
       </c>
       <c r="H180" s="3">
-        <v>145.79</v>
+        <v>10363.87</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6461,13 +6455,13 @@
         <v>363</v>
       </c>
       <c r="F181" s="2">
-        <v>22.000</v>
+        <v>97.000</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
       </c>
       <c r="H181" s="3">
-        <v>10363.87</v>
+        <v>44984.17</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6487,13 +6481,13 @@
         <v>365</v>
       </c>
       <c r="F182" s="2">
-        <v>97.000</v>
+        <v>26.000</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
       </c>
       <c r="H182" s="3">
-        <v>44984.17</v>
+        <v>1587.82</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6513,13 +6507,13 @@
         <v>367</v>
       </c>
       <c r="F183" s="2">
-        <v>26.000</v>
+        <v>88.000</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
       </c>
       <c r="H183" s="3">
-        <v>1587.82</v>
+        <v>12845.15</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6539,13 +6533,13 @@
         <v>369</v>
       </c>
       <c r="F184" s="2">
-        <v>88.000</v>
+        <v>1.000</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
       </c>
       <c r="H184" s="3">
-        <v>12845.15</v>
+        <v>1218.18</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6571,7 +6565,7 @@
         <v>5</v>
       </c>
       <c r="H185" s="3">
-        <v>1218.18</v>
+        <v>1720.00</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6591,13 +6585,13 @@
         <v>373</v>
       </c>
       <c r="F186" s="2">
-        <v>1.000</v>
+        <v>184.000</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
       </c>
       <c r="H186" s="3">
-        <v>1720.00</v>
+        <v>6147.25</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6617,13 +6611,13 @@
         <v>375</v>
       </c>
       <c r="F187" s="2">
-        <v>184.000</v>
+        <v>28.000</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="3">
-        <v>6147.25</v>
+        <v>1119.31</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6643,13 +6637,13 @@
         <v>377</v>
       </c>
       <c r="F188" s="2">
-        <v>28.000</v>
+        <v>459.000</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
       </c>
       <c r="H188" s="3">
-        <v>1119.31</v>
+        <v>7175.19</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6669,13 +6663,13 @@
         <v>379</v>
       </c>
       <c r="F189" s="2">
-        <v>459.000</v>
+        <v>59.000</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
       </c>
       <c r="H189" s="3">
-        <v>7175.19</v>
+        <v>1003.06</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6695,13 +6689,13 @@
         <v>381</v>
       </c>
       <c r="F190" s="2">
-        <v>59.000</v>
+        <v>502.000</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
       </c>
       <c r="H190" s="3">
-        <v>1003.06</v>
+        <v>10170.52</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6721,13 +6715,13 @@
         <v>383</v>
       </c>
       <c r="F191" s="2">
-        <v>502.000</v>
+        <v>44.000</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
       </c>
       <c r="H191" s="3">
-        <v>10170.52</v>
+        <v>1021.95</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6747,13 +6741,13 @@
         <v>385</v>
       </c>
       <c r="F192" s="2">
-        <v>44.000</v>
+        <v>96.000</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
       </c>
       <c r="H192" s="3">
-        <v>1021.95</v>
+        <v>6840.48</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6773,13 +6767,13 @@
         <v>387</v>
       </c>
       <c r="F193" s="2">
-        <v>96.000</v>
+        <v>22.000</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
       </c>
       <c r="H193" s="3">
-        <v>6840.48</v>
+        <v>2460.83</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6799,13 +6793,13 @@
         <v>389</v>
       </c>
       <c r="F194" s="2">
-        <v>22.000</v>
+        <v>1.000</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
       </c>
       <c r="H194" s="3">
-        <v>2460.83</v>
+        <v>189.22</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6825,13 +6819,13 @@
         <v>391</v>
       </c>
       <c r="F195" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
       </c>
       <c r="H195" s="3">
-        <v>189.22</v>
+        <v>1201.67</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6851,13 +6845,13 @@
         <v>393</v>
       </c>
       <c r="F196" s="2">
-        <v>19.000</v>
+        <v>299.000</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
       </c>
       <c r="H196" s="3">
-        <v>1201.67</v>
+        <v>20704.25</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6877,13 +6871,13 @@
         <v>395</v>
       </c>
       <c r="F197" s="2">
-        <v>299.000</v>
+        <v>2.000</v>
       </c>
       <c r="G197" t="s">
         <v>5</v>
       </c>
       <c r="H197" s="3">
-        <v>20704.25</v>
+        <v>651.09</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6903,13 +6897,13 @@
         <v>397</v>
       </c>
       <c r="F198" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G198" t="s">
         <v>5</v>
       </c>
       <c r="H198" s="3">
-        <v>651.09</v>
+        <v>562.67</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6935,7 +6929,7 @@
         <v>5</v>
       </c>
       <c r="H199" s="3">
-        <v>562.67</v>
+        <v>1125.55</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6955,13 +6949,13 @@
         <v>401</v>
       </c>
       <c r="F200" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
       </c>
       <c r="H200" s="3">
-        <v>1125.55</v>
+        <v>718.30</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6981,13 +6975,13 @@
         <v>403</v>
       </c>
       <c r="F201" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="3">
-        <v>718.30</v>
+        <v>266.26</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7013,7 +7007,7 @@
         <v>5</v>
       </c>
       <c r="H202" s="3">
-        <v>266.26</v>
+        <v>257.36</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7033,13 +7027,13 @@
         <v>407</v>
       </c>
       <c r="F203" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
       </c>
       <c r="H203" s="3">
-        <v>257.36</v>
+        <v>961.64</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7059,13 +7053,13 @@
         <v>409</v>
       </c>
       <c r="F204" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
       </c>
       <c r="H204" s="3">
-        <v>961.64</v>
+        <v>726.22</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7085,13 +7079,13 @@
         <v>411</v>
       </c>
       <c r="F205" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="G205" t="s">
         <v>5</v>
       </c>
       <c r="H205" s="3">
-        <v>726.22</v>
+        <v>662.53</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7111,13 +7105,13 @@
         <v>413</v>
       </c>
       <c r="F206" s="2">
-        <v>5.000</v>
+        <v>2.000</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
       </c>
       <c r="H206" s="3">
-        <v>662.53</v>
+        <v>493.11</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7137,13 +7131,13 @@
         <v>415</v>
       </c>
       <c r="F207" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
       </c>
       <c r="H207" s="3">
-        <v>493.11</v>
+        <v>885.89</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7163,13 +7157,13 @@
         <v>417</v>
       </c>
       <c r="F208" s="2">
-        <v>7.000</v>
+        <v>41.000</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
       </c>
       <c r="H208" s="3">
-        <v>885.89</v>
+        <v>5647.65</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7189,13 +7183,13 @@
         <v>419</v>
       </c>
       <c r="F209" s="2">
-        <v>41.000</v>
+        <v>1.000</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
       </c>
       <c r="H209" s="3">
-        <v>5647.65</v>
+        <v>4700.00</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7221,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="H210" s="3">
-        <v>4700.00</v>
+        <v>8560.17</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7241,13 +7235,13 @@
         <v>423</v>
       </c>
       <c r="F211" s="2">
-        <v>1.000</v>
+        <v>40.000</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
       </c>
       <c r="H211" s="3">
-        <v>8560.17</v>
+        <v>506.58</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7267,13 +7261,13 @@
         <v>425</v>
       </c>
       <c r="F212" s="2">
-        <v>40.000</v>
+        <v>1.000</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
       </c>
       <c r="H212" s="3">
-        <v>506.58</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7293,13 +7287,13 @@
         <v>427</v>
       </c>
       <c r="F213" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
       </c>
       <c r="H213" s="3">
-        <v>23.34</v>
+        <v>418.00</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7319,13 +7313,13 @@
         <v>429</v>
       </c>
       <c r="F214" s="2">
-        <v>11.000</v>
+        <v>24.000</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
       </c>
       <c r="H214" s="3">
-        <v>418.00</v>
+        <v>1584.75</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7345,13 +7339,13 @@
         <v>431</v>
       </c>
       <c r="F215" s="2">
-        <v>24.000</v>
+        <v>1.000</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
       </c>
       <c r="H215" s="3">
-        <v>1584.75</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7377,7 +7371,7 @@
         <v>5</v>
       </c>
       <c r="H216" s="3">
-        <v>29.64</v>
+        <v>685.11</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7397,13 +7391,13 @@
         <v>435</v>
       </c>
       <c r="F217" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
       </c>
       <c r="H217" s="3">
-        <v>685.11</v>
+        <v>8149.76</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7423,13 +7417,13 @@
         <v>437</v>
       </c>
       <c r="F218" s="2">
-        <v>2.000</v>
+        <v>4.800</v>
       </c>
       <c r="G218" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
       <c r="H218" s="3">
-        <v>8149.76</v>
+        <v>1822.34</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7443,19 +7437,19 @@
         <v>2</v>
       </c>
       <c r="D219" t="s">
+        <v>439</v>
+      </c>
+      <c r="E219" t="s">
+        <v>440</v>
+      </c>
+      <c r="F219" s="2">
+        <v>16.000</v>
+      </c>
+      <c r="G219" t="s">
         <v>438</v>
       </c>
-      <c r="E219" t="s">
-        <v>439</v>
-      </c>
-      <c r="F219" s="2">
-        <v>4.800</v>
-      </c>
-      <c r="G219" t="s">
-        <v>440</v>
-      </c>
       <c r="H219" s="3">
-        <v>1822.34</v>
+        <v>7011.29</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7475,13 +7469,13 @@
         <v>442</v>
       </c>
       <c r="F220" s="2">
-        <v>16.000</v>
+        <v>17.000</v>
       </c>
       <c r="G220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H220" s="3">
-        <v>7011.29</v>
+        <v>2938.94</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7501,13 +7495,13 @@
         <v>444</v>
       </c>
       <c r="F221" s="2">
-        <v>17.000</v>
+        <v>184.000</v>
       </c>
       <c r="G221" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H221" s="3">
-        <v>2938.94</v>
+        <v>39969.93</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7527,13 +7521,13 @@
         <v>446</v>
       </c>
       <c r="F222" s="2">
-        <v>184.000</v>
+        <v>1.090</v>
       </c>
       <c r="G222" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H222" s="3">
-        <v>39969.93</v>
+        <v>250.66</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7553,13 +7547,13 @@
         <v>448</v>
       </c>
       <c r="F223" s="2">
-        <v>1.090</v>
+        <v>20.300</v>
       </c>
       <c r="G223" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H223" s="3">
-        <v>250.66</v>
+        <v>6816.84</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7579,13 +7573,13 @@
         <v>450</v>
       </c>
       <c r="F224" s="2">
-        <v>20.300</v>
+        <v>13.000</v>
       </c>
       <c r="G224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H224" s="3">
-        <v>6816.84</v>
+        <v>3437.72</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7605,13 +7599,13 @@
         <v>452</v>
       </c>
       <c r="F225" s="2">
-        <v>13.000</v>
+        <v>22.000</v>
       </c>
       <c r="G225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H225" s="3">
-        <v>3437.72</v>
+        <v>2084.93</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7631,13 +7625,13 @@
         <v>454</v>
       </c>
       <c r="F226" s="2">
-        <v>22.000</v>
+        <v>345.400</v>
       </c>
       <c r="G226" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H226" s="3">
-        <v>2084.93</v>
+        <v>3460.95</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7657,13 +7651,13 @@
         <v>456</v>
       </c>
       <c r="F227" s="2">
-        <v>345.400</v>
+        <v>99.000</v>
       </c>
       <c r="G227" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H227" s="3">
-        <v>3460.95</v>
+        <v>2142.16</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7683,13 +7677,13 @@
         <v>458</v>
       </c>
       <c r="F228" s="2">
-        <v>99.000</v>
+        <v>11.000</v>
       </c>
       <c r="G228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H228" s="3">
-        <v>2142.16</v>
+        <v>974.64</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7709,13 +7703,13 @@
         <v>460</v>
       </c>
       <c r="F229" s="2">
-        <v>11.000</v>
+        <v>84.000</v>
       </c>
       <c r="G229" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H229" s="3">
-        <v>974.64</v>
+        <v>13440.76</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7735,13 +7729,13 @@
         <v>462</v>
       </c>
       <c r="F230" s="2">
-        <v>84.000</v>
+        <v>168.620</v>
       </c>
       <c r="G230" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H230" s="3">
-        <v>13440.76</v>
+        <v>8798.84</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7761,13 +7755,13 @@
         <v>464</v>
       </c>
       <c r="F231" s="2">
-        <v>168.620</v>
+        <v>47.250</v>
       </c>
       <c r="G231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H231" s="3">
-        <v>8798.84</v>
+        <v>5148.59</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7787,13 +7781,13 @@
         <v>466</v>
       </c>
       <c r="F232" s="2">
-        <v>47.250</v>
+        <v>22433.300</v>
       </c>
       <c r="G232" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H232" s="3">
-        <v>5148.59</v>
+        <v>50916.71</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7813,13 +7807,13 @@
         <v>468</v>
       </c>
       <c r="F233" s="2">
-        <v>22433.300</v>
+        <v>2883.960</v>
       </c>
       <c r="G233" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H233" s="3">
-        <v>50916.71</v>
+        <v>12311.83</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7839,13 +7833,13 @@
         <v>470</v>
       </c>
       <c r="F234" s="2">
-        <v>2883.960</v>
+        <v>29.390</v>
       </c>
       <c r="G234" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H234" s="3">
-        <v>12311.83</v>
+        <v>15217.18</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7865,13 +7859,13 @@
         <v>472</v>
       </c>
       <c r="F235" s="2">
-        <v>29.390</v>
+        <v>1198.180</v>
       </c>
       <c r="G235" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H235" s="3">
-        <v>15217.18</v>
+        <v>45050.39</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7891,13 +7885,13 @@
         <v>474</v>
       </c>
       <c r="F236" s="2">
-        <v>1198.180</v>
+        <v>32.610</v>
       </c>
       <c r="G236" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H236" s="3">
-        <v>45050.39</v>
+        <v>333.10</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7917,13 +7911,13 @@
         <v>476</v>
       </c>
       <c r="F237" s="2">
-        <v>32.610</v>
+        <v>35.000</v>
       </c>
       <c r="G237" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H237" s="3">
-        <v>333.10</v>
+        <v>783.60</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7943,13 +7937,13 @@
         <v>478</v>
       </c>
       <c r="F238" s="2">
-        <v>35.000</v>
+        <v>1488.860</v>
       </c>
       <c r="G238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H238" s="3">
-        <v>783.60</v>
+        <v>46774.71</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7969,13 +7963,13 @@
         <v>480</v>
       </c>
       <c r="F239" s="2">
-        <v>1488.860</v>
+        <v>290.430</v>
       </c>
       <c r="G239" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H239" s="3">
-        <v>46774.71</v>
+        <v>26647.45</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7995,13 +7989,13 @@
         <v>482</v>
       </c>
       <c r="F240" s="2">
-        <v>290.430</v>
+        <v>59.100</v>
       </c>
       <c r="G240" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H240" s="3">
-        <v>26647.45</v>
+        <v>9271.17</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8021,13 +8015,13 @@
         <v>484</v>
       </c>
       <c r="F241" s="2">
-        <v>59.100</v>
+        <v>241.900</v>
       </c>
       <c r="G241" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H241" s="3">
-        <v>9271.17</v>
+        <v>7817.79</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8047,13 +8041,13 @@
         <v>486</v>
       </c>
       <c r="F242" s="2">
-        <v>241.900</v>
+        <v>154.000</v>
       </c>
       <c r="G242" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H242" s="3">
-        <v>7817.79</v>
+        <v>2851.98</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8073,13 +8067,13 @@
         <v>488</v>
       </c>
       <c r="F243" s="2">
-        <v>154.000</v>
+        <v>0.690</v>
       </c>
       <c r="G243" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H243" s="3">
-        <v>2851.98</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8099,13 +8093,13 @@
         <v>490</v>
       </c>
       <c r="F244" s="2">
-        <v>0.690</v>
+        <v>52.790</v>
       </c>
       <c r="G244" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H244" s="3">
-        <v>20.12</v>
+        <v>1134.03</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8125,13 +8119,13 @@
         <v>492</v>
       </c>
       <c r="F245" s="2">
-        <v>52.790</v>
+        <v>78.310</v>
       </c>
       <c r="G245" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H245" s="3">
-        <v>1134.03</v>
+        <v>7083.14</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8151,13 +8145,13 @@
         <v>494</v>
       </c>
       <c r="F246" s="2">
-        <v>78.310</v>
+        <v>228.000</v>
       </c>
       <c r="G246" t="s">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="H246" s="3">
-        <v>7083.14</v>
+        <v>1334.95</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8177,13 +8171,13 @@
         <v>496</v>
       </c>
       <c r="F247" s="2">
-        <v>228.000</v>
+        <v>75.000</v>
       </c>
       <c r="G247" t="s">
         <v>5</v>
       </c>
       <c r="H247" s="3">
-        <v>1334.95</v>
+        <v>413.17</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8203,13 +8197,13 @@
         <v>498</v>
       </c>
       <c r="F248" s="2">
-        <v>75.000</v>
+        <v>4355.000</v>
       </c>
       <c r="G248" t="s">
         <v>5</v>
       </c>
       <c r="H248" s="3">
-        <v>413.17</v>
+        <v>10932.56</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8229,13 +8223,13 @@
         <v>500</v>
       </c>
       <c r="F249" s="2">
-        <v>4355.000</v>
+        <v>9.000</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
       </c>
       <c r="H249" s="3">
-        <v>10932.56</v>
+        <v>3203.83</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8255,13 +8249,13 @@
         <v>502</v>
       </c>
       <c r="F250" s="2">
-        <v>9.000</v>
+        <v>1.000</v>
       </c>
       <c r="G250" t="s">
         <v>5</v>
       </c>
       <c r="H250" s="3">
-        <v>3203.83</v>
+        <v>556.74</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8281,13 +8275,13 @@
         <v>504</v>
       </c>
       <c r="F251" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="G251" t="s">
         <v>5</v>
       </c>
       <c r="H251" s="3">
-        <v>556.74</v>
+        <v>4741.17</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8307,13 +8301,13 @@
         <v>506</v>
       </c>
       <c r="F252" s="2">
-        <v>11.000</v>
+        <v>6.000</v>
       </c>
       <c r="G252" t="s">
         <v>5</v>
       </c>
       <c r="H252" s="3">
-        <v>4741.17</v>
+        <v>2371.80</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8333,13 +8327,13 @@
         <v>508</v>
       </c>
       <c r="F253" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="G253" t="s">
         <v>5</v>
       </c>
       <c r="H253" s="3">
-        <v>2371.80</v>
+        <v>2323.99</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8359,13 +8353,13 @@
         <v>510</v>
       </c>
       <c r="F254" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G254" t="s">
         <v>5</v>
       </c>
       <c r="H254" s="3">
-        <v>2323.99</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8385,13 +8379,13 @@
         <v>512</v>
       </c>
       <c r="F255" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G255" t="s">
         <v>5</v>
       </c>
       <c r="H255" s="3">
-        <v>6585.02</v>
+        <v>1694.29</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8411,13 +8405,13 @@
         <v>514</v>
       </c>
       <c r="F256" s="2">
-        <v>6.000</v>
+        <v>38.000</v>
       </c>
       <c r="G256" t="s">
         <v>5</v>
       </c>
       <c r="H256" s="3">
-        <v>1694.29</v>
+        <v>17563.39</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8437,13 +8431,13 @@
         <v>516</v>
       </c>
       <c r="F257" s="2">
-        <v>38.000</v>
+        <v>14.000</v>
       </c>
       <c r="G257" t="s">
         <v>5</v>
       </c>
       <c r="H257" s="3">
-        <v>17563.39</v>
+        <v>7926.12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8463,13 +8457,13 @@
         <v>518</v>
       </c>
       <c r="F258" s="2">
-        <v>14.000</v>
+        <v>2.000</v>
       </c>
       <c r="G258" t="s">
         <v>5</v>
       </c>
       <c r="H258" s="3">
-        <v>7926.12</v>
+        <v>3443.46</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8489,13 +8483,13 @@
         <v>520</v>
       </c>
       <c r="F259" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G259" t="s">
         <v>5</v>
       </c>
       <c r="H259" s="3">
-        <v>3443.46</v>
+        <v>6821.40</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8515,13 +8509,13 @@
         <v>522</v>
       </c>
       <c r="F260" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G260" t="s">
         <v>5</v>
       </c>
       <c r="H260" s="3">
-        <v>6821.40</v>
+        <v>7220.40</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8541,13 +8535,13 @@
         <v>524</v>
       </c>
       <c r="F261" s="2">
-        <v>2.000</v>
+        <v>7.000</v>
       </c>
       <c r="G261" t="s">
         <v>5</v>
       </c>
       <c r="H261" s="3">
-        <v>7220.40</v>
+        <v>2566.22</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8567,13 +8561,13 @@
         <v>526</v>
       </c>
       <c r="F262" s="2">
-        <v>7.000</v>
+        <v>18.000</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
       </c>
       <c r="H262" s="3">
-        <v>2566.22</v>
+        <v>8283.69</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8593,13 +8587,13 @@
         <v>528</v>
       </c>
       <c r="F263" s="2">
-        <v>18.000</v>
+        <v>7.000</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
       </c>
       <c r="H263" s="3">
-        <v>8283.69</v>
+        <v>3943.24</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8619,13 +8613,13 @@
         <v>530</v>
       </c>
       <c r="F264" s="2">
-        <v>7.000</v>
+        <v>5.000</v>
       </c>
       <c r="G264" t="s">
         <v>5</v>
       </c>
       <c r="H264" s="3">
-        <v>3943.24</v>
+        <v>2725.89</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8645,38 +8639,12 @@
         <v>532</v>
       </c>
       <c r="F265" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="G265" t="s">
         <v>5</v>
       </c>
       <c r="H265" s="3">
-        <v>2725.89</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>0</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" t="s">
-        <v>533</v>
-      </c>
-      <c r="E266" t="s">
-        <v>534</v>
-      </c>
-      <c r="F266" s="2">
-        <v>3.000</v>
-      </c>
-      <c r="G266" t="s">
-        <v>5</v>
-      </c>
-      <c r="H266" s="3">
         <v>3602.06</v>
       </c>
     </row>
